--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="642" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="642" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="217">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -521,18 +521,6 @@
     <t>Revisado Analista responsable</t>
   </si>
   <si>
-    <t>Jefe de Fábrica:</t>
-  </si>
-  <si>
-    <t>Nombre del Jefe de Fábrica</t>
-  </si>
-  <si>
-    <t>Gestor de Calidad</t>
-  </si>
-  <si>
-    <t>Nombre del Gestor de Calidad</t>
-  </si>
-  <si>
     <t>Tipo Proyecto</t>
   </si>
   <si>
@@ -581,12 +569,6 @@
     <t>Proceso</t>
   </si>
   <si>
-    <t>Manuel Saenz</t>
-  </si>
-  <si>
-    <t>FPPQA.R06 Herramienta de Gestión QA-Producto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HGPRD_0.1_2014 REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
   </si>
   <si>
@@ -611,9 +593,6 @@
     <t>PGC_Proceso de Gestion de Configuracion</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 13/10/2015</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -708,9 +687,6 @@
   </si>
   <si>
     <t>INPRUIN_Informe de Pruebas Internas</t>
-  </si>
-  <si>
-    <t>INPRUEXT_Informe de Pruebas Externas</t>
   </si>
   <si>
     <t>IAUDICM_Informe de Auditoria de CM</t>
@@ -780,12 +756,6 @@
     <t>Especificar mayor número de aspectos a auditar por documento</t>
   </si>
   <si>
-    <t>Ajustar documento a formatería de documentos del proyecto</t>
-  </si>
-  <si>
-    <t>Ajustar Gráficas a formaterías de los documentos del proyecto</t>
-  </si>
-  <si>
     <t>Especificar el Acceso de Solo Lectura al Cliente (MST E.I.R.L)</t>
   </si>
   <si>
@@ -795,15 +765,9 @@
     <t>Libro Items</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambiar nomenclatura y formato de archivo del documento </t>
-  </si>
-  <si>
     <t>Modificar título del Documento y tipo (de .pdf a .docx)</t>
   </si>
   <si>
-    <t>Cambiar documento a fomatería de documentos del proyecto y su nomenclatura</t>
-  </si>
-  <si>
     <t>PROY</t>
   </si>
   <si>
@@ -835,6 +799,39 @@
   </si>
   <si>
     <t>FMNCONQAP_Ficha de Metricas de N Conformidades QA de Producto</t>
+  </si>
+  <si>
+    <t>INPRUEX_Informe de Pruebas Externas</t>
+  </si>
+  <si>
+    <t>Ajustar documento a formato de documentos del proyecto</t>
+  </si>
+  <si>
+    <t>Ajustar Gráficas a formato de los documentos del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir indice y numeración de subtemas en el documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar nomenclatura del documento </t>
+  </si>
+  <si>
+    <t>Cambiar documento a fomato de documentos del proyecto</t>
+  </si>
+  <si>
+    <t>HGQA_V1.0_2015 Herramienta de Gestión QA-Producto</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 20/10/2015</t>
+  </si>
+  <si>
+    <t>Nombre del Jefe de Proyecto</t>
+  </si>
+  <si>
+    <t>Nombre del Analista de Calidad</t>
+  </si>
+  <si>
+    <t>MST E.I.R.L</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1896,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2030,9 +2027,6 @@
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
@@ -2394,6 +2388,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="65" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2617,71 +2677,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="65" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -4010,11 +4010,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352251600"/>
-        <c:axId val="352249248"/>
+        <c:axId val="299965560"/>
+        <c:axId val="299965952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352251600"/>
+        <c:axId val="299965560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352249248"/>
+        <c:crossAx val="299965952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4064,7 +4064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352249248"/>
+        <c:axId val="299965952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,7 +4112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352251600"/>
+        <c:crossAx val="299965560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,12 +4533,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="352249640"/>
-        <c:axId val="352254736"/>
+        <c:axId val="298592672"/>
+        <c:axId val="298593064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="352249640"/>
+        <c:axId val="298592672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,7 +4628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352254736"/>
+        <c:crossAx val="298593064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352254736"/>
+        <c:axId val="298593064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352249640"/>
+        <c:crossAx val="298592672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7431,159 +7431,159 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="64" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9" style="64" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="64" customWidth="1"/>
-    <col min="8" max="8" width="15" style="64" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="64"/>
+    <col min="1" max="1" width="9" style="63" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="9" style="63" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="15" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="63"/>
-      <c r="B2" s="163" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="63"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="24">
-      <c r="A5" s="63"/>
-      <c r="B5" s="68">
+      <c r="A5" s="62"/>
+      <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="70">
-        <v>42290</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="72" t="s">
+      <c r="C5" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="69">
+        <v>42297</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="63"/>
+      <c r="H5" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="63"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="63"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="63"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="63"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="63"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="63"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7601,8 +7601,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7615,494 +7615,494 @@
     <col min="6" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="58" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="58" customFormat="1" ht="48.75" customHeight="1">
+    <row r="1" spans="1:8" s="57" customFormat="1" ht="12" customHeight="1"/>
+    <row r="2" spans="1:8" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="35"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="176" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
-    </row>
-    <row r="3" spans="1:8" s="58" customFormat="1">
+      <c r="B2" s="58"/>
+      <c r="C2" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
+    </row>
+    <row r="3" spans="1:8" s="57" customFormat="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="186"/>
-    </row>
-    <row r="4" spans="1:8" s="58" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C3" s="202" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
+    </row>
+    <row r="4" spans="1:8" s="57" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="35"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="35"/>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="35"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="35"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="35"/>
       <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="182" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="183"/>
+      <c r="E8" s="201"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="35"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="35"/>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="190" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="190"/>
+      <c r="E10" s="208"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="35"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="35"/>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="190" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="190"/>
+      <c r="E12" s="208"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="35"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="190" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="190"/>
+      <c r="E14" s="208"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="190" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="190"/>
+      <c r="E16" s="208"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8" s="49" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:8" s="48" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33"/>
     </row>
-    <row r="19" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="170" t="s">
+    <row r="19" spans="1:8" s="53" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B19" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-    </row>
-    <row r="20" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="190"/>
+    </row>
+    <row r="20" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="175"/>
-    </row>
-    <row r="21" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21" s="55" t="s">
+      <c r="D20" s="192"/>
+      <c r="E20" s="193"/>
+    </row>
+    <row r="21" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B21" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="189"/>
-    </row>
-    <row r="22" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B22" s="55" t="s">
+      <c r="D21" s="206"/>
+      <c r="E21" s="207"/>
+    </row>
+    <row r="22" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="189"/>
-    </row>
-    <row r="23" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="55" t="s">
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
+    </row>
+    <row r="23" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="189"/>
-    </row>
-    <row r="24" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B24" s="55" t="s">
+      <c r="D23" s="206"/>
+      <c r="E23" s="207"/>
+    </row>
+    <row r="24" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="189"/>
-    </row>
-    <row r="25" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
+    </row>
+    <row r="25" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="33"/>
-      <c r="B26" s="47"/>
-    </row>
-    <row r="27" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="170" t="s">
+      <c r="B26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" s="53" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-    </row>
-    <row r="28" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190"/>
+    </row>
+    <row r="28" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="173" t="s">
+      <c r="C28" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="193"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="33"/>
-      <c r="B29" s="191" t="s">
+      <c r="B29" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="33"/>
-      <c r="B30" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="164" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="165"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="B30" s="245" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="182" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="33"/>
-      <c r="B31" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="B31" s="246" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="183"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="33"/>
       <c r="B32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="164" t="s">
+      <c r="C32" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
       <c r="A34" s="33"/>
       <c r="B34" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="164" t="s">
+      <c r="C34" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="165"/>
-      <c r="E34" s="166"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="164" t="s">
+      <c r="C35" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="165"/>
-      <c r="E35" s="166"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="184"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="33"/>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="193"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="211"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="164" t="s">
+      <c r="C37" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="165"/>
-      <c r="E37" s="166"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="184"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="165"/>
-      <c r="E38" s="166"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="184"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="164" t="s">
+      <c r="C39" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="165"/>
-      <c r="E39" s="166"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="184"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="33"/>
       <c r="B40" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="164" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="165"/>
-      <c r="E40" s="166"/>
+        <v>115</v>
+      </c>
+      <c r="C40" s="182" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="183"/>
+      <c r="E40" s="184"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="33"/>
       <c r="B41" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="164" t="s">
+      <c r="C41" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="165"/>
-      <c r="E41" s="166"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="184"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="33"/>
       <c r="B42" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="164" t="s">
+      <c r="C42" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="165"/>
-      <c r="E42" s="166"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="184"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="33"/>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="164" t="s">
+      <c r="C43" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="165"/>
-      <c r="E43" s="166"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="184"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="33"/>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="164" t="s">
+      <c r="C44" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="165"/>
-      <c r="E44" s="166"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="184"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="33"/>
       <c r="B45" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="164" t="s">
+      <c r="C45" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="165"/>
-      <c r="E45" s="166"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="184"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="33"/>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="164" t="s">
+      <c r="C46" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="165"/>
-      <c r="E46" s="166"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="33"/>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="164" t="s">
+      <c r="C47" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="165"/>
-      <c r="E47" s="166"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="184"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="33"/>
       <c r="B48" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="164" t="s">
+      <c r="C48" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="165"/>
-      <c r="E48" s="166"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="184"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="33"/>
       <c r="B49" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="164" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="165"/>
-      <c r="E49" s="166"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="184"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-    </row>
-    <row r="51" spans="1:13" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A50" s="53"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+    </row>
+    <row r="51" spans="1:13" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A51" s="33"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
@@ -8115,377 +8115,377 @@
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
     </row>
-    <row r="52" spans="1:13" s="54" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="170" t="s">
+    <row r="52" spans="1:13" s="53" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B52" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="172"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="190"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A53" s="54"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="173" t="s">
+      <c r="C53" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="174"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
+      <c r="D53" s="192"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="33"/>
       <c r="B54" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="165"/>
-      <c r="E54" s="166"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="33"/>
       <c r="B55" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="164" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="165"/>
-      <c r="E55" s="166"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="184"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="33"/>
       <c r="B56" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="164" t="s">
+      <c r="C56" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="165"/>
-      <c r="E56" s="166"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="184"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="33"/>
       <c r="B57" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="164" t="s">
+      <c r="C57" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="168"/>
-      <c r="E57" s="169"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="164" t="s">
+      <c r="C58" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="168"/>
-      <c r="E58" s="169"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="187"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="164" t="s">
+      <c r="C59" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="168"/>
-      <c r="E59" s="169"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="187"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="168"/>
-      <c r="E60" s="169"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="187"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="167" t="s">
+      <c r="C61" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="168"/>
-      <c r="E61" s="169"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="187"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="33"/>
       <c r="B62" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="164" t="s">
+      <c r="C62" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="168"/>
-      <c r="E62" s="169"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="187"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="33"/>
       <c r="B63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="167" t="s">
+      <c r="C63" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="168"/>
-      <c r="E63" s="169"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="187"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="33"/>
       <c r="B64" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="167" t="s">
+      <c r="C64" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="168"/>
-      <c r="E64" s="169"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="33"/>
       <c r="B65" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="164" t="s">
+      <c r="C65" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="165"/>
-      <c r="E65" s="166"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="184"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="33"/>
       <c r="B66" s="43"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="33"/>
-      <c r="B67" s="195"/>
-      <c r="C67" s="195"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
+      <c r="B67" s="213"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="213"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="33"/>
-      <c r="B68" s="194"/>
-      <c r="C68" s="194"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="212"/>
+      <c r="D68" s="212"/>
+      <c r="E68" s="212"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="33"/>
-      <c r="B69" s="194"/>
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
+      <c r="B69" s="212"/>
+      <c r="C69" s="212"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="212"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="33"/>
-      <c r="B70" s="194"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="194"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
+      <c r="B70" s="212"/>
+      <c r="C70" s="212"/>
+      <c r="D70" s="212"/>
+      <c r="E70" s="212"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="33"/>
-      <c r="B71" s="194"/>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
+      <c r="B71" s="212"/>
+      <c r="C71" s="212"/>
+      <c r="D71" s="212"/>
+      <c r="E71" s="212"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="33"/>
-      <c r="B72" s="194"/>
-      <c r="C72" s="194"/>
-      <c r="D72" s="194"/>
-      <c r="E72" s="194"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="212"/>
+      <c r="D72" s="212"/>
+      <c r="E72" s="212"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="194"/>
-      <c r="C73" s="194"/>
-      <c r="D73" s="194"/>
-      <c r="E73" s="194"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
+      <c r="B73" s="212"/>
+      <c r="C73" s="212"/>
+      <c r="D73" s="212"/>
+      <c r="E73" s="212"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="33"/>
-      <c r="B74" s="194"/>
-      <c r="C74" s="194"/>
-      <c r="D74" s="194"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="212"/>
+      <c r="D74" s="212"/>
+      <c r="E74" s="212"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="33"/>
-      <c r="B75" s="194"/>
-      <c r="C75" s="194"/>
-      <c r="D75" s="194"/>
-      <c r="E75" s="194"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
+      <c r="B75" s="212"/>
+      <c r="C75" s="212"/>
+      <c r="D75" s="212"/>
+      <c r="E75" s="212"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="33"/>
-      <c r="B76" s="194"/>
-      <c r="C76" s="194"/>
-      <c r="D76" s="194"/>
-      <c r="E76" s="194"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
+      <c r="B76" s="212"/>
+      <c r="C76" s="212"/>
+      <c r="D76" s="212"/>
+      <c r="E76" s="212"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="33"/>
-      <c r="B77" s="194"/>
-      <c r="C77" s="194"/>
-      <c r="D77" s="194"/>
-      <c r="E77" s="194"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
+      <c r="B77" s="212"/>
+      <c r="C77" s="212"/>
+      <c r="D77" s="212"/>
+      <c r="E77" s="212"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="33"/>
-      <c r="B78" s="194"/>
-      <c r="C78" s="194"/>
-      <c r="D78" s="194"/>
-      <c r="E78" s="194"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
+      <c r="B78" s="212"/>
+      <c r="C78" s="212"/>
+      <c r="D78" s="212"/>
+      <c r="E78" s="212"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="38"/>
-      <c r="B79" s="194"/>
-      <c r="C79" s="194"/>
-      <c r="D79" s="194"/>
-      <c r="E79" s="194"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
+      <c r="B79" s="212"/>
+      <c r="C79" s="212"/>
+      <c r="D79" s="212"/>
+      <c r="E79" s="212"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="38"/>
-      <c r="B80" s="194"/>
-      <c r="C80" s="194"/>
-      <c r="D80" s="194"/>
-      <c r="E80" s="194"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
+      <c r="B80" s="212"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="212"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="38"/>
-      <c r="B81" s="194"/>
-      <c r="C81" s="194"/>
-      <c r="D81" s="194"/>
-      <c r="E81" s="194"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
+      <c r="B81" s="212"/>
+      <c r="C81" s="212"/>
+      <c r="D81" s="212"/>
+      <c r="E81" s="212"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="38"/>
-      <c r="B82" s="194"/>
-      <c r="C82" s="194"/>
-      <c r="D82" s="194"/>
-      <c r="E82" s="194"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
+      <c r="B82" s="212"/>
+      <c r="C82" s="212"/>
+      <c r="D82" s="212"/>
+      <c r="E82" s="212"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="38"/>
-      <c r="B83" s="194"/>
-      <c r="C83" s="194"/>
-      <c r="D83" s="194"/>
-      <c r="E83" s="194"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
+      <c r="B83" s="212"/>
+      <c r="C83" s="212"/>
+      <c r="D83" s="212"/>
+      <c r="E83" s="212"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="38"/>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
+      <c r="B84" s="212"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="212"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="38"/>
-      <c r="B85" s="194"/>
-      <c r="C85" s="194"/>
-      <c r="D85" s="194"/>
-      <c r="E85" s="194"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
+      <c r="B85" s="212"/>
+      <c r="C85" s="212"/>
+      <c r="D85" s="212"/>
+      <c r="E85" s="212"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="38"/>
-      <c r="B86" s="194"/>
-      <c r="C86" s="194"/>
-      <c r="D86" s="194"/>
-      <c r="E86" s="194"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
+      <c r="B86" s="212"/>
+      <c r="C86" s="212"/>
+      <c r="D86" s="212"/>
+      <c r="E86" s="212"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
       <c r="A87" s="38"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="71">
@@ -8575,8 +8575,8 @@
   </sheetPr>
   <dimension ref="A3:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8597,115 +8597,115 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="205" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
+      <c r="B3" s="223" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="197" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="200"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="N6" s="154"/>
+      <c r="B6" s="215" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="216"/>
+      <c r="D6" s="217" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="218"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="N6" s="153"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="197" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="199" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="201"/>
-      <c r="I7" s="196" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="245">
+      <c r="B7" s="215" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="217" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="I7" s="214" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="180">
         <f>SUM(J13:J51)</f>
         <v>90</v>
       </c>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="I8" s="196" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="245">
+      <c r="C8" s="216"/>
+      <c r="D8" s="217" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="I8" s="214" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="180">
         <f>SUM(M13:M51)</f>
         <v>45.25</v>
       </c>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="198"/>
-      <c r="D9" s="136">
+      <c r="C9" s="216"/>
+      <c r="D9" s="135">
         <v>42290</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="132">
-        <v>42304</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="N9" s="154"/>
+      <c r="F9" s="131">
+        <v>42304</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="N9" s="153"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="202" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="203"/>
-      <c r="F10" s="204"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="220" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8715,1646 +8715,1646 @@
       <c r="E11" s="19"/>
       <c r="Y11" s="20"/>
     </row>
-    <row r="12" spans="2:25" s="131" customFormat="1" ht="38.25">
-      <c r="B12" s="128" t="s">
+    <row r="12" spans="2:25" s="130" customFormat="1" ht="38.25">
+      <c r="B12" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="129" t="s">
+      <c r="C12" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B13" s="86">
+        <v>1</v>
+      </c>
+      <c r="C13" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="130" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="130" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B13" s="87">
-        <v>1</v>
-      </c>
-      <c r="C13" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="239" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="153">
+      <c r="E13" s="174" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="152">
         <v>42290</v>
       </c>
-      <c r="I13" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J13" s="134">
+      <c r="I13" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J13" s="133">
         <v>3</v>
       </c>
-      <c r="K13" s="153">
+      <c r="K13" s="152">
         <v>42290</v>
       </c>
-      <c r="L13" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M13" s="134">
+      <c r="L13" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M13" s="133">
         <v>1.5</v>
       </c>
-      <c r="N13" s="135"/>
-    </row>
-    <row r="14" spans="2:25" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B14" s="87">
+      <c r="N13" s="134"/>
+    </row>
+    <row r="14" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B14" s="86">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="239" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="153">
+      <c r="C14" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="152">
         <v>42290</v>
       </c>
-      <c r="I14" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J14" s="134">
+      <c r="I14" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J14" s="133">
         <v>3</v>
       </c>
-      <c r="K14" s="153">
+      <c r="K14" s="152">
         <v>42290</v>
       </c>
-      <c r="L14" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M14" s="134">
+      <c r="L14" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M14" s="133">
         <v>1.5</v>
       </c>
-      <c r="N14" s="135"/>
-    </row>
-    <row r="15" spans="2:25" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B15" s="87">
+      <c r="N14" s="134"/>
+    </row>
+    <row r="15" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B15" s="86">
         <f t="shared" ref="B15:B51" si="0">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="240" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="153">
+      <c r="C15" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="175" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="152">
         <v>42290</v>
       </c>
-      <c r="I15" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J15" s="134">
+      <c r="I15" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J15" s="133">
         <v>3</v>
       </c>
-      <c r="K15" s="153">
+      <c r="K15" s="152">
         <v>42290</v>
       </c>
-      <c r="L15" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M15" s="134">
+      <c r="L15" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M15" s="133">
         <v>1.5</v>
       </c>
-      <c r="N15" s="135"/>
-    </row>
-    <row r="16" spans="2:25" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B16" s="87">
+      <c r="N15" s="134"/>
+    </row>
+    <row r="16" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B16" s="86">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="239" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="244" t="s">
+      <c r="C16" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="153">
+      <c r="F16" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="152">
         <v>42290</v>
       </c>
-      <c r="I16" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J16" s="134">
+      <c r="I16" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J16" s="133">
         <v>3</v>
       </c>
-      <c r="K16" s="153">
+      <c r="K16" s="152">
         <v>42290</v>
       </c>
-      <c r="L16" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M16" s="134">
+      <c r="L16" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M16" s="133">
         <v>1.5</v>
       </c>
-      <c r="N16" s="135"/>
-    </row>
-    <row r="17" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B17" s="87">
+      <c r="N16" s="134"/>
+    </row>
+    <row r="17" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B17" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="239" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="153">
+      <c r="C17" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="152">
         <v>42290</v>
       </c>
-      <c r="I17" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J17" s="134">
+      <c r="I17" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J17" s="133">
         <f>1.5+1</f>
         <v>2.5</v>
       </c>
-      <c r="K17" s="153">
+      <c r="K17" s="152">
         <v>42290</v>
       </c>
-      <c r="L17" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M17" s="134">
+      <c r="L17" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M17" s="133">
         <v>1.25</v>
       </c>
-      <c r="N17" s="135"/>
-    </row>
-    <row r="18" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B18" s="87">
+      <c r="N17" s="134"/>
+    </row>
+    <row r="18" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B18" s="86">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="239" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="153">
+      <c r="C18" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="152">
         <v>42290</v>
       </c>
-      <c r="I18" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J18" s="134">
+      <c r="I18" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J18" s="133">
         <v>3</v>
       </c>
-      <c r="K18" s="153">
+      <c r="K18" s="152">
         <v>42290</v>
       </c>
-      <c r="L18" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M18" s="134">
+      <c r="L18" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M18" s="133">
         <v>1.5</v>
       </c>
-      <c r="N18" s="135"/>
-    </row>
-    <row r="19" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B19" s="87">
+      <c r="N18" s="134"/>
+    </row>
+    <row r="19" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B19" s="86">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="238" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="239" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="153">
+      <c r="C19" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="174" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="152">
         <v>42290</v>
       </c>
-      <c r="I19" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J19" s="134">
+      <c r="I19" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J19" s="133">
         <v>1.5</v>
       </c>
-      <c r="K19" s="153">
+      <c r="K19" s="152">
         <v>42290</v>
       </c>
-      <c r="L19" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M19" s="134">
+      <c r="L19" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M19" s="133">
         <v>0.75</v>
       </c>
-      <c r="N19" s="135"/>
-    </row>
-    <row r="20" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B20" s="87">
+      <c r="N19" s="134"/>
+    </row>
+    <row r="20" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B20" s="86">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="239" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="153">
+      <c r="C20" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="174" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="152">
         <v>42290</v>
       </c>
-      <c r="I20" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J20" s="134">
+      <c r="I20" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J20" s="133">
         <v>2</v>
       </c>
-      <c r="K20" s="153">
+      <c r="K20" s="152">
         <v>42290</v>
       </c>
-      <c r="L20" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M20" s="134">
+      <c r="L20" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M20" s="133">
         <v>1</v>
       </c>
-      <c r="N20" s="135"/>
-    </row>
-    <row r="21" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B21" s="87">
+      <c r="N20" s="134"/>
+    </row>
+    <row r="21" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B21" s="86">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="239" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="244" t="s">
+      <c r="C21" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="174" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="153">
+      <c r="F21" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="152">
         <v>42290</v>
       </c>
-      <c r="I21" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J21" s="134">
+      <c r="I21" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J21" s="133">
         <v>1.5</v>
       </c>
-      <c r="K21" s="153">
+      <c r="K21" s="152">
         <v>42290</v>
       </c>
-      <c r="L21" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M21" s="134">
+      <c r="L21" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M21" s="133">
         <v>0.75</v>
       </c>
-      <c r="N21" s="135"/>
-    </row>
-    <row r="22" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B22" s="87">
+      <c r="N21" s="134"/>
+    </row>
+    <row r="22" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B22" s="86">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="240" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="153">
+      <c r="C22" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="175" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="152">
         <v>42290</v>
       </c>
-      <c r="I22" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J22" s="134">
+      <c r="I22" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J22" s="133">
         <v>2.5</v>
       </c>
-      <c r="K22" s="153">
+      <c r="K22" s="152">
         <v>42290</v>
       </c>
-      <c r="L22" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M22" s="134">
+      <c r="L22" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M22" s="133">
         <v>1.25</v>
       </c>
-      <c r="N22" s="135"/>
-    </row>
-    <row r="23" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B23" s="87">
+      <c r="N22" s="134"/>
+    </row>
+    <row r="23" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B23" s="86">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="240" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="153">
+      <c r="C23" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="152">
         <v>42290</v>
       </c>
-      <c r="I23" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J23" s="134">
+      <c r="I23" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J23" s="133">
         <v>3</v>
       </c>
-      <c r="K23" s="153">
+      <c r="K23" s="152">
         <v>42290</v>
       </c>
-      <c r="L23" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M23" s="134">
+      <c r="L23" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M23" s="133">
         <v>1.5</v>
       </c>
-      <c r="N23" s="135"/>
-    </row>
-    <row r="24" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B24" s="87">
+      <c r="N23" s="134"/>
+    </row>
+    <row r="24" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B24" s="86">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C24" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="153">
+      <c r="C24" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="175" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="152">
         <v>42290</v>
       </c>
-      <c r="I24" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J24" s="134">
+      <c r="I24" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J24" s="133">
         <v>3</v>
       </c>
-      <c r="K24" s="153">
+      <c r="K24" s="152">
         <v>42290</v>
       </c>
-      <c r="L24" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M24" s="134">
+      <c r="L24" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M24" s="133">
         <v>1.5</v>
       </c>
-      <c r="N24" s="135"/>
-    </row>
-    <row r="25" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B25" s="87">
+      <c r="N24" s="134"/>
+    </row>
+    <row r="25" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B25" s="86">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C25" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="240" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="153">
+      <c r="C25" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="175" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="152">
         <v>42290</v>
       </c>
-      <c r="I25" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J25" s="134">
+      <c r="I25" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J25" s="133">
         <v>3</v>
       </c>
-      <c r="K25" s="153">
+      <c r="K25" s="152">
         <v>42290</v>
       </c>
-      <c r="L25" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M25" s="134">
+      <c r="L25" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M25" s="133">
         <v>1.5</v>
       </c>
-      <c r="N25" s="135"/>
-    </row>
-    <row r="26" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B26" s="87">
+      <c r="N25" s="134"/>
+    </row>
+    <row r="26" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B26" s="86">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C26" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="240" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="153">
+      <c r="C26" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="152">
         <v>42290</v>
       </c>
-      <c r="I26" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J26" s="134">
+      <c r="I26" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J26" s="133">
         <v>3</v>
       </c>
-      <c r="K26" s="153">
+      <c r="K26" s="152">
         <v>42290</v>
       </c>
-      <c r="L26" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M26" s="134">
+      <c r="L26" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M26" s="133">
         <v>1.5</v>
       </c>
-      <c r="N26" s="135"/>
-    </row>
-    <row r="27" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B27" s="87">
+      <c r="N26" s="134"/>
+    </row>
+    <row r="27" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B27" s="86">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C27" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="240" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="153">
+      <c r="C27" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="175" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="152">
         <v>42290</v>
       </c>
-      <c r="I27" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J27" s="134">
+      <c r="I27" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J27" s="133">
         <v>2</v>
       </c>
-      <c r="K27" s="153">
+      <c r="K27" s="152">
         <v>42290</v>
       </c>
-      <c r="L27" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M27" s="134">
+      <c r="L27" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M27" s="133">
         <v>1</v>
       </c>
-      <c r="N27" s="135"/>
-    </row>
-    <row r="28" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B28" s="87">
+      <c r="N27" s="134"/>
+    </row>
+    <row r="28" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B28" s="86">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C28" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="240" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="153">
+      <c r="C28" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="152">
         <v>42290</v>
       </c>
-      <c r="I28" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J28" s="134">
+      <c r="I28" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J28" s="133">
         <v>2.5</v>
       </c>
-      <c r="K28" s="153">
+      <c r="K28" s="152">
         <v>42290</v>
       </c>
-      <c r="L28" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M28" s="134">
+      <c r="L28" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M28" s="133">
         <v>1.25</v>
       </c>
-      <c r="N28" s="135"/>
-    </row>
-    <row r="29" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A29" s="133"/>
-      <c r="B29" s="87">
+      <c r="N28" s="134"/>
+    </row>
+    <row r="29" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A29" s="132"/>
+      <c r="B29" s="86">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C29" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="242" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="153">
+      <c r="C29" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="177" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="152">
         <v>42290</v>
       </c>
-      <c r="I29" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J29" s="134">
+      <c r="I29" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J29" s="133">
         <v>2</v>
       </c>
-      <c r="K29" s="153">
+      <c r="K29" s="152">
         <v>42290</v>
       </c>
-      <c r="L29" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M29" s="134">
+      <c r="L29" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M29" s="133">
         <v>1</v>
       </c>
-      <c r="N29" s="135"/>
-    </row>
-    <row r="30" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A30" s="133"/>
-      <c r="B30" s="87">
+      <c r="N29" s="134"/>
+    </row>
+    <row r="30" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A30" s="132"/>
+      <c r="B30" s="86">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C30" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="153">
+      <c r="C30" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="175" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="152">
         <v>42290</v>
       </c>
-      <c r="I30" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J30" s="134">
+      <c r="I30" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J30" s="133">
         <v>1.5</v>
       </c>
-      <c r="K30" s="153">
+      <c r="K30" s="152">
         <v>42290</v>
       </c>
-      <c r="L30" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M30" s="134">
+      <c r="L30" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M30" s="133">
         <v>0.75</v>
       </c>
-      <c r="N30" s="135"/>
-    </row>
-    <row r="31" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A31" s="133"/>
-      <c r="B31" s="87">
+      <c r="N30" s="134"/>
+    </row>
+    <row r="31" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A31" s="132"/>
+      <c r="B31" s="86">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C31" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="238" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="240" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="153">
+      <c r="C31" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="175" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="152">
         <v>42290</v>
       </c>
-      <c r="I31" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J31" s="134">
+      <c r="I31" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J31" s="133">
         <v>3</v>
       </c>
-      <c r="K31" s="153">
+      <c r="K31" s="152">
         <v>42290</v>
       </c>
-      <c r="L31" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M31" s="134">
+      <c r="L31" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M31" s="133">
         <v>1.5</v>
       </c>
-      <c r="N31" s="135"/>
-    </row>
-    <row r="32" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A32" s="133"/>
-      <c r="B32" s="87">
+      <c r="N31" s="134"/>
+    </row>
+    <row r="32" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A32" s="132"/>
+      <c r="B32" s="86">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C32" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="240" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="153">
+      <c r="C32" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="175" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="152">
         <v>42290</v>
       </c>
-      <c r="I32" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J32" s="134">
+      <c r="I32" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J32" s="133">
         <v>3</v>
       </c>
-      <c r="K32" s="153">
+      <c r="K32" s="152">
         <v>42290</v>
       </c>
-      <c r="L32" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M32" s="134">
+      <c r="L32" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M32" s="133">
         <v>1.5</v>
       </c>
-      <c r="N32" s="135"/>
-    </row>
-    <row r="33" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A33" s="133"/>
-      <c r="B33" s="87">
+      <c r="N32" s="134"/>
+    </row>
+    <row r="33" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A33" s="132"/>
+      <c r="B33" s="86">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C33" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="153">
+      <c r="C33" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="175" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="152">
         <v>42290</v>
       </c>
-      <c r="I33" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J33" s="134">
+      <c r="I33" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J33" s="133">
         <v>3</v>
       </c>
-      <c r="K33" s="153">
+      <c r="K33" s="152">
         <v>42290</v>
       </c>
-      <c r="L33" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M33" s="134">
+      <c r="L33" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M33" s="133">
         <v>1.5</v>
       </c>
-      <c r="N33" s="135"/>
-    </row>
-    <row r="34" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A34" s="133"/>
-      <c r="B34" s="87">
+      <c r="N33" s="134"/>
+    </row>
+    <row r="34" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A34" s="132"/>
+      <c r="B34" s="86">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C34" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="240" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="153">
+      <c r="C34" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="175" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="152">
         <v>42290</v>
       </c>
-      <c r="I34" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J34" s="134">
+      <c r="I34" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J34" s="133">
         <v>2</v>
       </c>
-      <c r="K34" s="153">
+      <c r="K34" s="152">
         <v>42290</v>
       </c>
-      <c r="L34" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M34" s="134">
+      <c r="L34" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M34" s="133">
         <v>1</v>
       </c>
-      <c r="N34" s="135"/>
-    </row>
-    <row r="35" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A35" s="133"/>
-      <c r="B35" s="87">
+      <c r="N34" s="134"/>
+    </row>
+    <row r="35" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A35" s="132"/>
+      <c r="B35" s="86">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C35" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="240" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="153">
+      <c r="C35" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="175" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="152">
         <v>42290</v>
       </c>
-      <c r="I35" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J35" s="134">
+      <c r="I35" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J35" s="133">
         <v>1.5</v>
       </c>
-      <c r="K35" s="153">
+      <c r="K35" s="152">
         <v>42290</v>
       </c>
-      <c r="L35" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M35" s="134">
+      <c r="L35" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M35" s="133">
         <v>0.75</v>
       </c>
-      <c r="N35" s="135"/>
-    </row>
-    <row r="36" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A36" s="133"/>
-      <c r="B36" s="87">
+      <c r="N35" s="134"/>
+    </row>
+    <row r="36" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A36" s="132"/>
+      <c r="B36" s="86">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C36" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" s="153">
+      <c r="C36" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="152">
         <v>42290</v>
       </c>
-      <c r="I36" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J36" s="134">
+      <c r="I36" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J36" s="133">
         <v>2.5</v>
       </c>
-      <c r="K36" s="153">
+      <c r="K36" s="152">
         <v>42290</v>
       </c>
-      <c r="L36" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M36" s="134">
+      <c r="L36" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M36" s="133">
         <v>1.25</v>
       </c>
-      <c r="N36" s="135"/>
-    </row>
-    <row r="37" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A37" s="133"/>
-      <c r="B37" s="87">
+      <c r="N36" s="134"/>
+    </row>
+    <row r="37" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A37" s="132"/>
+      <c r="B37" s="86">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C37" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="238" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="240" t="s">
+      <c r="C37" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="153">
+      <c r="H37" s="152">
         <v>42290</v>
       </c>
-      <c r="I37" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J37" s="134">
+      <c r="I37" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J37" s="133">
         <v>2.5</v>
       </c>
-      <c r="K37" s="153">
+      <c r="K37" s="152">
         <v>42290</v>
       </c>
-      <c r="L37" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M37" s="134">
+      <c r="L37" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M37" s="133">
         <v>1.25</v>
       </c>
-      <c r="N37" s="135"/>
-    </row>
-    <row r="38" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A38" s="133"/>
-      <c r="B38" s="87">
+      <c r="N37" s="134"/>
+    </row>
+    <row r="38" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A38" s="132"/>
+      <c r="B38" s="86">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C38" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="238" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="240" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="244" t="s">
+      <c r="C38" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="153">
+      <c r="F38" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="152">
         <v>42290</v>
       </c>
-      <c r="I38" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J38" s="134">
+      <c r="I38" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J38" s="133">
         <v>2</v>
       </c>
-      <c r="K38" s="153">
+      <c r="K38" s="152">
         <v>42290</v>
       </c>
-      <c r="L38" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M38" s="134">
+      <c r="L38" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M38" s="133">
         <v>1</v>
       </c>
-      <c r="N38" s="135"/>
-    </row>
-    <row r="39" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A39" s="133"/>
-      <c r="B39" s="87">
+      <c r="N38" s="134"/>
+    </row>
+    <row r="39" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A39" s="132"/>
+      <c r="B39" s="86">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C39" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="238" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="240" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="153">
+      <c r="C39" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="175" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="152">
         <v>42290</v>
       </c>
-      <c r="I39" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J39" s="134">
+      <c r="I39" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J39" s="133">
         <v>3</v>
       </c>
-      <c r="K39" s="153">
+      <c r="K39" s="152">
         <v>42290</v>
       </c>
-      <c r="L39" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M39" s="134">
+      <c r="L39" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M39" s="133">
         <v>1.5</v>
       </c>
-      <c r="N39" s="135"/>
-    </row>
-    <row r="40" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A40" s="133"/>
-      <c r="B40" s="87">
+      <c r="N39" s="134"/>
+    </row>
+    <row r="40" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A40" s="132"/>
+      <c r="B40" s="86">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C40" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="238" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="240" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="153">
+      <c r="C40" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="175" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="152">
         <v>42290</v>
       </c>
-      <c r="I40" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J40" s="134">
+      <c r="I40" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J40" s="133">
         <v>3</v>
       </c>
-      <c r="K40" s="153">
+      <c r="K40" s="152">
         <v>42290</v>
       </c>
-      <c r="L40" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M40" s="134">
+      <c r="L40" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M40" s="133">
         <v>1.5</v>
       </c>
-      <c r="N40" s="135"/>
-    </row>
-    <row r="41" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A41" s="133"/>
-      <c r="B41" s="87">
+      <c r="N40" s="134"/>
+    </row>
+    <row r="41" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A41" s="132"/>
+      <c r="B41" s="86">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C41" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="238" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="240" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="153">
+      <c r="C41" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="175" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="152">
         <v>42290</v>
       </c>
-      <c r="I41" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J41" s="134">
+      <c r="I41" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J41" s="133">
         <v>2</v>
       </c>
-      <c r="K41" s="153">
+      <c r="K41" s="152">
         <v>42290</v>
       </c>
-      <c r="L41" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M41" s="134">
+      <c r="L41" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M41" s="133">
         <v>1</v>
       </c>
-      <c r="N41" s="135"/>
-    </row>
-    <row r="42" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A42" s="133"/>
-      <c r="B42" s="87">
+      <c r="N41" s="134"/>
+    </row>
+    <row r="42" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A42" s="132"/>
+      <c r="B42" s="86">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C42" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="240" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="153">
+      <c r="C42" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="175" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="152">
         <v>42290</v>
       </c>
-      <c r="I42" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J42" s="134">
+      <c r="I42" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J42" s="133">
         <v>2</v>
       </c>
-      <c r="K42" s="153">
+      <c r="K42" s="152">
         <v>42290</v>
       </c>
-      <c r="L42" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M42" s="134">
+      <c r="L42" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M42" s="133">
         <v>1</v>
       </c>
-      <c r="N42" s="135"/>
-    </row>
-    <row r="43" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A43" s="133"/>
-      <c r="B43" s="87">
+      <c r="N42" s="134"/>
+    </row>
+    <row r="43" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A43" s="132"/>
+      <c r="B43" s="86">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C43" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="240" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="153">
+      <c r="C43" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="175" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="152">
         <v>42290</v>
       </c>
-      <c r="I43" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J43" s="134">
+      <c r="I43" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J43" s="133">
         <v>1.5</v>
       </c>
-      <c r="K43" s="153">
+      <c r="K43" s="152">
         <v>42290</v>
       </c>
-      <c r="L43" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M43" s="134">
+      <c r="L43" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M43" s="133">
         <v>0.75</v>
       </c>
-      <c r="N43" s="135"/>
-    </row>
-    <row r="44" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A44" s="133"/>
-      <c r="B44" s="87">
+      <c r="N43" s="134"/>
+    </row>
+    <row r="44" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A44" s="132"/>
+      <c r="B44" s="86">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C44" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="240" t="s">
-        <v>217</v>
-      </c>
-      <c r="F44" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="153">
+      <c r="C44" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="175" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="152">
         <v>42290</v>
       </c>
-      <c r="I44" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J44" s="134">
+      <c r="I44" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J44" s="133">
         <v>3</v>
       </c>
-      <c r="K44" s="153">
+      <c r="K44" s="152">
         <v>42290</v>
       </c>
-      <c r="L44" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M44" s="134">
+      <c r="L44" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M44" s="133">
         <v>1.5</v>
       </c>
-      <c r="N44" s="135"/>
-    </row>
-    <row r="45" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="87">
+      <c r="N44" s="134"/>
+    </row>
+    <row r="45" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A45" s="132"/>
+      <c r="B45" s="86">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C45" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="240" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="153">
+      <c r="C45" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="152">
         <v>42290</v>
       </c>
-      <c r="I45" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J45" s="134">
+      <c r="I45" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J45" s="133">
         <v>2</v>
       </c>
-      <c r="K45" s="153">
+      <c r="K45" s="152">
         <v>42290</v>
       </c>
-      <c r="L45" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M45" s="134">
+      <c r="L45" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M45" s="133">
         <v>1</v>
       </c>
-      <c r="N45" s="135"/>
-    </row>
-    <row r="46" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A46" s="133"/>
-      <c r="B46" s="87">
+      <c r="N45" s="134"/>
+    </row>
+    <row r="46" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A46" s="132"/>
+      <c r="B46" s="86">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C46" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="240" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="153">
+      <c r="C46" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="175" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="152">
         <v>42290</v>
       </c>
-      <c r="I46" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J46" s="134">
+      <c r="I46" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J46" s="133">
         <v>1.5</v>
       </c>
-      <c r="K46" s="153">
+      <c r="K46" s="152">
         <v>42290</v>
       </c>
-      <c r="L46" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M46" s="134">
+      <c r="L46" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M46" s="133">
         <v>0.75</v>
       </c>
-      <c r="N46" s="135"/>
-    </row>
-    <row r="47" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A47" s="133"/>
-      <c r="B47" s="87">
+      <c r="N46" s="134"/>
+    </row>
+    <row r="47" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A47" s="132"/>
+      <c r="B47" s="86">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C47" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="239" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" s="153">
+      <c r="C47" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="152">
         <v>42290</v>
       </c>
-      <c r="I47" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J47" s="134">
+      <c r="I47" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J47" s="133">
         <v>2</v>
       </c>
-      <c r="K47" s="153">
+      <c r="K47" s="152">
         <v>42290</v>
       </c>
-      <c r="L47" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M47" s="134">
+      <c r="L47" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M47" s="133">
         <v>1</v>
       </c>
-      <c r="N47" s="135"/>
-    </row>
-    <row r="48" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A48" s="133"/>
-      <c r="B48" s="87">
+      <c r="N47" s="134"/>
+    </row>
+    <row r="48" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A48" s="132"/>
+      <c r="B48" s="86">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C48" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="238" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="239" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="153">
+      <c r="C48" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="174" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="152">
         <v>42290</v>
       </c>
-      <c r="I48" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J48" s="134">
+      <c r="I48" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J48" s="133">
         <v>1</v>
       </c>
-      <c r="K48" s="153">
+      <c r="K48" s="152">
         <v>42290</v>
       </c>
-      <c r="L48" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M48" s="134">
+      <c r="L48" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M48" s="133">
         <v>0.5</v>
       </c>
-      <c r="N48" s="135"/>
-    </row>
-    <row r="49" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A49" s="133"/>
-      <c r="B49" s="87">
+      <c r="N48" s="134"/>
+    </row>
+    <row r="49" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A49" s="132"/>
+      <c r="B49" s="86">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C49" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="238" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="239" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H49" s="153">
+      <c r="C49" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="174" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="152">
         <v>42290</v>
       </c>
-      <c r="I49" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J49" s="134">
+      <c r="I49" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J49" s="133">
         <v>1</v>
       </c>
-      <c r="K49" s="153">
+      <c r="K49" s="152">
         <v>42290</v>
       </c>
-      <c r="L49" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M49" s="134">
+      <c r="L49" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M49" s="133">
         <v>0.5</v>
       </c>
-      <c r="N49" s="135"/>
-    </row>
-    <row r="50" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A50" s="133"/>
-      <c r="B50" s="87">
+      <c r="N49" s="134"/>
+    </row>
+    <row r="50" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A50" s="132"/>
+      <c r="B50" s="86">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C50" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="238" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="153">
+      <c r="C50" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="152">
         <v>42290</v>
       </c>
-      <c r="I50" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J50" s="134">
+      <c r="I50" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J50" s="133">
         <v>2</v>
       </c>
-      <c r="K50" s="153">
+      <c r="K50" s="152">
         <v>42290</v>
       </c>
-      <c r="L50" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M50" s="134">
+      <c r="L50" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M50" s="133">
         <v>1</v>
       </c>
-      <c r="N50" s="135"/>
-    </row>
-    <row r="51" spans="1:14" s="131" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A51" s="133"/>
-      <c r="B51" s="87">
+      <c r="N50" s="134"/>
+    </row>
+    <row r="51" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A51" s="132"/>
+      <c r="B51" s="86">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C51" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="238" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" s="239" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="244" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="153">
+      <c r="C51" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="174" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="152">
         <v>42290</v>
       </c>
-      <c r="I51" s="153">
-        <v>42304</v>
-      </c>
-      <c r="J51" s="134">
+      <c r="I51" s="152">
+        <v>42304</v>
+      </c>
+      <c r="J51" s="133">
         <v>1.5</v>
       </c>
-      <c r="K51" s="153">
+      <c r="K51" s="152">
         <v>42290</v>
       </c>
-      <c r="L51" s="153">
-        <v>42304</v>
-      </c>
-      <c r="M51" s="134">
+      <c r="L51" s="152">
+        <v>42304</v>
+      </c>
+      <c r="M51" s="133">
         <v>1</v>
       </c>
-      <c r="N51" s="135"/>
+      <c r="N51" s="134"/>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1">
       <c r="B52" s="6"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="137"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="136"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8"/>
       <c r="B53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8"/>
@@ -10428,10 +10428,10 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10452,22 +10452,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="26" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="227"/>
     </row>
     <row r="2" spans="1:15" s="26" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="27"/>
@@ -10497,11 +10497,11 @@
       <c r="B4" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>130</v>
+      <c r="C4" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>126</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>111</v>
@@ -10512,14 +10512,14 @@
       <c r="G4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="86" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>34</v>
@@ -10538,1926 +10538,1926 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1">
-      <c r="A5" s="98">
+      <c r="A5" s="97">
         <v>1</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="98">
         <v>1</v>
       </c>
-      <c r="C5" s="100" t="str">
+      <c r="C5" s="99" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="231" t="str">
+      <c r="D5" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:G$51,3,FALSE))</f>
         <v>PGPROY / PP_PMC</v>
       </c>
-      <c r="E5" s="100" t="str">
+      <c r="E5" s="99" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F5" s="100" t="str">
+      <c r="F5" s="99" t="str">
         <f>VLOOKUP(A5,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G5" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="232" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="232" t="s">
+      <c r="G5" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="232" t="str">
+      <c r="J5" s="167" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K5" s="234"/>
-      <c r="L5" s="235">
+      <c r="K5" s="169"/>
+      <c r="L5" s="170">
         <f>VLOOKUP(A5,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M5" s="235">
+      <c r="M5" s="170">
         <f>VLOOKUP(A5,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N5" s="102"/>
-      <c r="O5" s="156" t="s">
-        <v>188</v>
+      <c r="N5" s="101"/>
+      <c r="O5" s="155" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="42" customHeight="1">
-      <c r="A6" s="98">
+      <c r="A6" s="97">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="98">
         <v>1</v>
       </c>
-      <c r="C6" s="100" t="str">
+      <c r="C6" s="99" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="231" t="str">
+      <c r="D6" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:G$51,3,FALSE))</f>
         <v>PPROY / PP_PMC</v>
       </c>
-      <c r="E6" s="100" t="str">
+      <c r="E6" s="99" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="99" t="str">
         <f>VLOOKUP(A6,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G6" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="232" t="s">
+      <c r="G6" s="156" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="232" t="str">
+      <c r="J6" s="167" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K6" s="234"/>
-      <c r="L6" s="235">
+      <c r="K6" s="169"/>
+      <c r="L6" s="170">
         <f>VLOOKUP(A6,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M6" s="235">
+      <c r="M6" s="170">
         <f>VLOOKUP(A6,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N6" s="102"/>
-      <c r="O6" s="155" t="s">
-        <v>190</v>
+      <c r="N6" s="101"/>
+      <c r="O6" s="154" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="98">
+      <c r="A7" s="97">
         <f t="shared" ref="A7:A40" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="98">
         <v>1</v>
       </c>
-      <c r="C7" s="100" t="str">
+      <c r="C7" s="99" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="231" t="str">
+      <c r="D7" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ACREVPRO / PP_PMC</v>
       </c>
-      <c r="E7" s="100" t="str">
+      <c r="E7" s="99" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F7" s="100" t="str">
+      <c r="F7" s="99" t="str">
         <f>VLOOKUP(A7,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G7" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="232" t="s">
+      <c r="G7" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="232" t="str">
+      <c r="J7" s="167" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K7" s="234"/>
-      <c r="L7" s="235">
+      <c r="K7" s="169"/>
+      <c r="L7" s="170">
         <f>VLOOKUP(A7,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M7" s="235">
+      <c r="M7" s="170">
         <f>VLOOKUP(A7,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="112"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15" ht="42" customHeight="1">
-      <c r="A8" s="98">
+      <c r="A8" s="97">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="98">
         <v>1</v>
       </c>
-      <c r="C8" s="119" t="str">
+      <c r="C8" s="118" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="231" t="str">
+      <c r="D8" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:G$51,3,FALSE))</f>
         <v>CPROY / PP_PMC</v>
       </c>
-      <c r="E8" s="100" t="str">
+      <c r="E8" s="99" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F8" s="100" t="str">
+      <c r="F8" s="99" t="str">
         <f>VLOOKUP(A8,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G8" s="101" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="233" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="233" t="s">
+      <c r="G8" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="232" t="str">
+      <c r="J8" s="167" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K8" s="236"/>
-      <c r="L8" s="235">
+      <c r="K8" s="171"/>
+      <c r="L8" s="170">
         <f>VLOOKUP(A8,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M8" s="235">
+      <c r="M8" s="170">
         <f>VLOOKUP(A8,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="122"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="98">
+      <c r="A9" s="97">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="98">
         <v>1</v>
       </c>
-      <c r="C9" s="119" t="str">
+      <c r="C9" s="118" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="231" t="str">
+      <c r="D9" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:G$51,3,FALSE))</f>
         <v>REGRI / PP_PMC</v>
       </c>
-      <c r="E9" s="100" t="str">
+      <c r="E9" s="99" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F9" s="100" t="str">
+      <c r="F9" s="99" t="str">
         <f>VLOOKUP(A9,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G9" s="120" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="233" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="233" t="s">
+      <c r="G9" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="232" t="str">
+      <c r="J9" s="167" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K9" s="236"/>
-      <c r="L9" s="235">
+      <c r="K9" s="171"/>
+      <c r="L9" s="170">
         <f>VLOOKUP(A9,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M9" s="235">
+      <c r="M9" s="170">
         <f>VLOOKUP(A9,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N9" s="121"/>
-      <c r="O9" s="122"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="98">
+      <c r="A10" s="97">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="98">
         <v>1</v>
       </c>
-      <c r="C10" s="100" t="str">
+      <c r="C10" s="99" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="231" t="str">
+      <c r="D10" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ACCPRO / PP_PMC</v>
       </c>
-      <c r="E10" s="100" t="str">
+      <c r="E10" s="99" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F10" s="100" t="str">
+      <c r="F10" s="99" t="str">
         <f>VLOOKUP(A10,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G10" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="232" t="s">
+      <c r="G10" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="232" t="str">
+      <c r="J10" s="167" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235">
+      <c r="K10" s="169"/>
+      <c r="L10" s="170">
         <f>VLOOKUP(A10,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M10" s="235">
+      <c r="M10" s="170">
         <f>VLOOKUP(A10,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N10" s="102"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="98">
+      <c r="A11" s="97">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="98">
         <v>1</v>
       </c>
-      <c r="C11" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="231" t="str">
+      <c r="C11" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ACREPRO / PP_PMC</v>
       </c>
-      <c r="E11" s="100" t="str">
+      <c r="E11" s="99" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F11" s="100" t="str">
+      <c r="F11" s="99" t="str">
         <f>VLOOKUP(A11,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G11" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="232" t="s">
+      <c r="G11" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="232" t="str">
+      <c r="J11" s="167" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235">
+      <c r="K11" s="169"/>
+      <c r="L11" s="170">
         <f>VLOOKUP(A11,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M11" s="235">
+      <c r="M11" s="170">
         <f>VLOOKUP(A11,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N11" s="102"/>
-      <c r="O11" s="112"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="98">
+      <c r="A12" s="97">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="98">
         <v>1</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="231" t="str">
+      <c r="C12" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:G$51,3,FALSE))</f>
         <v>PGREQM / REQM</v>
       </c>
-      <c r="E12" s="100" t="str">
+      <c r="E12" s="99" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F12" s="100" t="str">
+      <c r="F12" s="99" t="str">
         <f>VLOOKUP(A12,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G12" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="H12" s="232" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="232" t="s">
+      <c r="G12" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="232" t="str">
+      <c r="J12" s="167" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235">
+      <c r="K12" s="169"/>
+      <c r="L12" s="170">
         <f>VLOOKUP(A12,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M12" s="235">
+      <c r="M12" s="170">
         <f>VLOOKUP(A12,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N12" s="102"/>
-      <c r="O12" s="155" t="s">
-        <v>193</v>
+      <c r="N12" s="101"/>
+      <c r="O12" s="154" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="98">
+      <c r="A13" s="97">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="98">
         <v>1</v>
       </c>
-      <c r="C13" s="100" t="str">
+      <c r="C13" s="99" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="231" t="str">
+      <c r="D13" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:G$51,3,FALSE))</f>
         <v>LMREQM / REQM</v>
       </c>
-      <c r="E13" s="100" t="str">
+      <c r="E13" s="99" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F13" s="100" t="str">
+      <c r="F13" s="99" t="str">
         <f>VLOOKUP(A13,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G13" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="232" t="s">
+      <c r="G13" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="232" t="str">
+      <c r="J13" s="167" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K13" s="234"/>
-      <c r="L13" s="235">
+      <c r="K13" s="169"/>
+      <c r="L13" s="170">
         <f>VLOOKUP(A13,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M13" s="235">
+      <c r="M13" s="170">
         <f>VLOOKUP(A13,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N13" s="102"/>
-      <c r="O13" s="155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="123" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="98">
+      <c r="N13" s="101"/>
+      <c r="O13" s="154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="122" customFormat="1" ht="42" customHeight="1">
+      <c r="A14" s="97">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="98">
         <v>1</v>
       </c>
-      <c r="C14" s="119" t="str">
+      <c r="C14" s="118" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="231" t="str">
+      <c r="D14" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:G$51,3,FALSE))</f>
         <v>MTREQM / REQM</v>
       </c>
-      <c r="E14" s="100" t="str">
+      <c r="E14" s="99" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F14" s="100" t="str">
+      <c r="F14" s="99" t="str">
         <f>VLOOKUP(A14,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G14" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="233" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="233" t="s">
+      <c r="G14" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="232" t="str">
+      <c r="J14" s="167" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K14" s="236"/>
-      <c r="L14" s="235">
+      <c r="K14" s="171"/>
+      <c r="L14" s="170">
         <f>VLOOKUP(A14,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M14" s="235">
+      <c r="M14" s="170">
         <f>VLOOKUP(A14,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="158" t="s">
-        <v>196</v>
+      <c r="N14" s="120"/>
+      <c r="O14" s="157" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1">
-      <c r="A15" s="98">
+      <c r="A15" s="97">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="98">
         <v>1</v>
       </c>
-      <c r="C15" s="100" t="str">
+      <c r="C15" s="99" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="231" t="str">
+      <c r="D15" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:G$51,3,FALSE))</f>
         <v>SOLCREQ / REQM</v>
       </c>
-      <c r="E15" s="100" t="str">
+      <c r="E15" s="99" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F15" s="100" t="str">
+      <c r="F15" s="99" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G15" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="232" t="s">
+      <c r="G15" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="167" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K15" s="234"/>
-      <c r="L15" s="235">
+      <c r="K15" s="169"/>
+      <c r="L15" s="170">
         <f>VLOOKUP(A15,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M15" s="235">
+      <c r="M15" s="170">
         <f>VLOOKUP(A15,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N15" s="102"/>
-      <c r="O15" s="112"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15" ht="42" customHeight="1">
-      <c r="A16" s="98">
+      <c r="A16" s="97">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="98">
         <v>1</v>
       </c>
-      <c r="C16" s="100" t="str">
+      <c r="C16" s="99" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="231" t="str">
+      <c r="D16" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A16,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A16,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A16,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ASCR / REQM</v>
       </c>
-      <c r="E16" s="100" t="str">
+      <c r="E16" s="99" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F16" s="100" t="str">
+      <c r="F16" s="99" t="str">
         <f>VLOOKUP(A16,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G16" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="232" t="s">
+      <c r="G16" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="232" t="str">
+      <c r="J16" s="167" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K16" s="234"/>
-      <c r="L16" s="235">
+      <c r="K16" s="169"/>
+      <c r="L16" s="170">
         <f>VLOOKUP(A16,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M16" s="235">
+      <c r="M16" s="170">
         <f>VLOOKUP(A16,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N16" s="102"/>
-      <c r="O16" s="112"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:15" ht="42" customHeight="1">
-      <c r="A17" s="98">
+      <c r="A17" s="97">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="99">
+      <c r="B17" s="98">
         <v>1</v>
       </c>
-      <c r="C17" s="100" t="str">
+      <c r="C17" s="99" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="231" t="str">
+      <c r="D17" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A17,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A17,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A17,Planificación!B$13:G$51,3,FALSE))</f>
         <v>RCREQM / REQM</v>
       </c>
-      <c r="E17" s="100" t="str">
+      <c r="E17" s="99" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F17" s="100" t="str">
+      <c r="F17" s="99" t="str">
         <f>VLOOKUP(A17,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G17" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="232" t="s">
+      <c r="G17" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="232" t="str">
+      <c r="J17" s="167" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K17" s="234"/>
-      <c r="L17" s="235">
+      <c r="K17" s="169"/>
+      <c r="L17" s="170">
         <f>VLOOKUP(A17,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M17" s="235">
+      <c r="M17" s="170">
         <f>VLOOKUP(A17,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="112"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="111"/>
     </row>
     <row r="18" spans="1:15" ht="42" customHeight="1">
-      <c r="A18" s="98">
+      <c r="A18" s="97">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="99">
+      <c r="B18" s="98">
         <v>1</v>
       </c>
-      <c r="C18" s="100" t="str">
+      <c r="C18" s="99" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="231" t="str">
+      <c r="D18" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A18,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A18,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A18,Planificación!B$13:G$51,3,FALSE))</f>
         <v>DANA / REQM</v>
       </c>
-      <c r="E18" s="100" t="str">
+      <c r="E18" s="99" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="F18" s="100" t="str">
+      <c r="F18" s="99" t="str">
         <f>VLOOKUP(A18,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G18" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="232" t="s">
+      <c r="G18" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="232" t="str">
+      <c r="J18" s="167" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K18" s="234"/>
-      <c r="L18" s="235">
+      <c r="K18" s="169"/>
+      <c r="L18" s="170">
         <f>VLOOKUP(A18,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M18" s="235">
+      <c r="M18" s="170">
         <f>VLOOKUP(A18,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N18" s="102"/>
-      <c r="O18" s="112"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="111"/>
     </row>
     <row r="19" spans="1:15" ht="42" customHeight="1">
-      <c r="A19" s="98">
+      <c r="A19" s="97">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="98">
         <v>1</v>
       </c>
-      <c r="C19" s="100" t="str">
+      <c r="C19" s="99" t="str">
         <f>VLOOKUP(B19,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D19" s="231" t="str">
+      <c r="D19" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A19,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A19,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A19,Planificación!B$13:G$51,3,FALSE))</f>
         <v>DDIS / REQM</v>
       </c>
-      <c r="E19" s="100" t="str">
+      <c r="E19" s="99" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F19" s="100" t="str">
+      <c r="F19" s="99" t="str">
         <f>VLOOKUP(A19,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G19" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="232" t="s">
+      <c r="G19" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="232" t="str">
+      <c r="J19" s="167" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K19" s="234"/>
-      <c r="L19" s="235">
+      <c r="K19" s="169"/>
+      <c r="L19" s="170">
         <f>VLOOKUP(A19,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M19" s="235">
+      <c r="M19" s="170">
         <f>VLOOKUP(A19,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N19" s="102"/>
-      <c r="O19" s="112"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:15" ht="42" customHeight="1">
-      <c r="A20" s="98">
+      <c r="A20" s="97">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="99">
+      <c r="B20" s="98">
         <v>1</v>
       </c>
-      <c r="C20" s="100" t="str">
+      <c r="C20" s="99" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="231" t="str">
+      <c r="D20" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A20,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A20,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A20,Planificación!B$13:G$51,3,FALSE))</f>
         <v>MANUSER / REQM</v>
       </c>
-      <c r="E20" s="100" t="str">
+      <c r="E20" s="99" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F20" s="100" t="str">
+      <c r="F20" s="99" t="str">
         <f>VLOOKUP(A20,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G20" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="232" t="s">
+      <c r="G20" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="232" t="str">
+      <c r="J20" s="167" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K20" s="234"/>
-      <c r="L20" s="235">
+      <c r="K20" s="169"/>
+      <c r="L20" s="170">
         <f>VLOOKUP(A20,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M20" s="235">
+      <c r="M20" s="170">
         <f>VLOOKUP(A20,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N20" s="102"/>
-      <c r="O20" s="112"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="111"/>
     </row>
     <row r="21" spans="1:15" ht="42" customHeight="1">
-      <c r="A21" s="98">
+      <c r="A21" s="97">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="99">
+      <c r="B21" s="98">
         <v>1</v>
       </c>
-      <c r="C21" s="100" t="str">
+      <c r="C21" s="99" t="str">
         <f>VLOOKUP(B21,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="231" t="str">
+      <c r="D21" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A21,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A21,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A21,Planificación!B$13:G$51,3,FALSE))</f>
         <v>INPRUIN / REQM</v>
       </c>
-      <c r="E21" s="100" t="str">
+      <c r="E21" s="99" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F21" s="100" t="str">
+      <c r="F21" s="99" t="str">
         <f>VLOOKUP(A21,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G21" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="232" t="s">
+      <c r="G21" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="232" t="str">
+      <c r="J21" s="167" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K21" s="234"/>
-      <c r="L21" s="235">
+      <c r="K21" s="169"/>
+      <c r="L21" s="170">
         <f>VLOOKUP(A21,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M21" s="235">
+      <c r="M21" s="170">
         <f>VLOOKUP(A21,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N21" s="102"/>
-      <c r="O21" s="112"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="111"/>
     </row>
     <row r="22" spans="1:15" ht="42" customHeight="1">
-      <c r="A22" s="98">
+      <c r="A22" s="97">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="98">
         <v>1</v>
       </c>
-      <c r="C22" s="100" t="str">
+      <c r="C22" s="99" t="str">
         <f>VLOOKUP(B22,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="231" t="str">
+      <c r="D22" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A22,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A22,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A22,Planificación!B$13:G$51,3,FALSE))</f>
-        <v>INPRUEXT / REQM</v>
-      </c>
-      <c r="E22" s="100" t="str">
+        <v>INPRUEX / REQM</v>
+      </c>
+      <c r="E22" s="99" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F22" s="100" t="str">
+      <c r="F22" s="99" t="str">
         <f>VLOOKUP(A22,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G22" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="232" t="s">
+      <c r="G22" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="232" t="str">
+      <c r="J22" s="167" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K22" s="234"/>
-      <c r="L22" s="235">
+      <c r="K22" s="169"/>
+      <c r="L22" s="170">
         <f>VLOOKUP(A22,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M22" s="235">
+      <c r="M22" s="170">
         <f>VLOOKUP(A22,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N22" s="102"/>
-      <c r="O22" s="112"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="111"/>
     </row>
     <row r="23" spans="1:15" ht="42" customHeight="1">
-      <c r="A23" s="98">
+      <c r="A23" s="97">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="98">
         <v>1</v>
       </c>
-      <c r="C23" s="100" t="str">
+      <c r="C23" s="99" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="231" t="str">
+      <c r="D23" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A23,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A23,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A23,Planificación!B$13:G$51,3,FALSE))</f>
         <v>GUINSTALL / REQM</v>
       </c>
-      <c r="E23" s="100" t="str">
+      <c r="E23" s="99" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F23" s="100" t="str">
+      <c r="F23" s="99" t="str">
         <f>VLOOKUP(A23,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G23" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="232" t="s">
+      <c r="G23" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="232" t="str">
+      <c r="J23" s="167" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K23" s="234"/>
-      <c r="L23" s="235">
+      <c r="K23" s="169"/>
+      <c r="L23" s="170">
         <f>VLOOKUP(A23,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M23" s="235">
+      <c r="M23" s="170">
         <f>VLOOKUP(A23,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N23" s="102"/>
-      <c r="O23" s="112"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="111"/>
     </row>
     <row r="24" spans="1:15" ht="42" customHeight="1">
-      <c r="A24" s="98">
+      <c r="A24" s="97">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="99">
+      <c r="B24" s="98">
         <v>1</v>
       </c>
-      <c r="C24" s="100" t="str">
+      <c r="C24" s="99" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D24" s="231" t="str">
+      <c r="D24" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A24,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A24,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A24,Planificación!B$13:G$51,3,FALSE))</f>
         <v>CHKQA / PPQA</v>
       </c>
-      <c r="E24" s="100" t="str">
+      <c r="E24" s="99" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="F24" s="100" t="str">
+      <c r="F24" s="99" t="str">
         <f>VLOOKUP(A24,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G24" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="232" t="s">
+      <c r="G24" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="232" t="str">
+      <c r="J24" s="167" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K24" s="234"/>
-      <c r="L24" s="235">
+      <c r="K24" s="169"/>
+      <c r="L24" s="170">
         <f>VLOOKUP(A24,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M24" s="235">
+      <c r="M24" s="170">
         <f>VLOOKUP(A24,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N24" s="102"/>
-      <c r="O24" s="112"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="111"/>
     </row>
     <row r="25" spans="1:15" ht="42" customHeight="1">
-      <c r="A25" s="98">
+      <c r="A25" s="97">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="99">
+      <c r="B25" s="98">
         <v>1</v>
       </c>
-      <c r="C25" s="100" t="str">
+      <c r="C25" s="99" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D25" s="231" t="str">
+      <c r="D25" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A25,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A25,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A25,Planificación!B$13:G$51,3,FALSE))</f>
         <v>HGQA / PPQA</v>
       </c>
-      <c r="E25" s="100" t="str">
+      <c r="E25" s="99" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="F25" s="100" t="str">
+      <c r="F25" s="99" t="str">
         <f>VLOOKUP(A25,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G25" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="232" t="s">
+      <c r="G25" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="232" t="str">
+      <c r="J25" s="167" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K25" s="234"/>
-      <c r="L25" s="235">
+      <c r="K25" s="169"/>
+      <c r="L25" s="170">
         <f>VLOOKUP(A25,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M25" s="235">
+      <c r="M25" s="170">
         <f>VLOOKUP(A25,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N25" s="102"/>
-      <c r="O25" s="112"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="111"/>
     </row>
     <row r="26" spans="1:15" ht="42" customHeight="1">
-      <c r="A26" s="98">
+      <c r="A26" s="97">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="99">
+      <c r="B26" s="98">
         <v>1</v>
       </c>
-      <c r="C26" s="100" t="str">
+      <c r="C26" s="99" t="str">
         <f>VLOOKUP(B26,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D26" s="231" t="str">
+      <c r="D26" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A26,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A26,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A26,Planificación!B$13:G$51,3,FALSE))</f>
         <v>PQA / PPQA</v>
       </c>
-      <c r="E26" s="100" t="str">
+      <c r="E26" s="99" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="F26" s="100" t="str">
+      <c r="F26" s="99" t="str">
         <f>VLOOKUP(A26,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G26" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="232" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="232" t="s">
+      <c r="G26" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="232" t="str">
+      <c r="J26" s="167" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K26" s="234"/>
-      <c r="L26" s="235">
+      <c r="K26" s="169"/>
+      <c r="L26" s="170">
         <f>VLOOKUP(A26,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M26" s="235">
+      <c r="M26" s="170">
         <f>VLOOKUP(A26,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N26" s="102"/>
-      <c r="O26" s="112"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="111"/>
     </row>
     <row r="27" spans="1:15" ht="42" customHeight="1">
-      <c r="A27" s="98">
+      <c r="A27" s="97">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="99">
+      <c r="B27" s="98">
         <v>1</v>
       </c>
-      <c r="C27" s="100" t="str">
+      <c r="C27" s="99" t="str">
         <f>VLOOKUP(B27,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D27" s="231" t="str">
+      <c r="D27" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A27,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A27,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A27,Planificación!B$13:G$51,3,FALSE))</f>
         <v>SOLQA / PPQA</v>
       </c>
-      <c r="E27" s="100" t="str">
+      <c r="E27" s="99" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="F27" s="100" t="str">
+      <c r="F27" s="99" t="str">
         <f>VLOOKUP(A27,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G27" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H27" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="232" t="s">
+      <c r="G27" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="232" t="str">
+      <c r="J27" s="167" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K27" s="234"/>
-      <c r="L27" s="235">
+      <c r="K27" s="169"/>
+      <c r="L27" s="170">
         <f>VLOOKUP(A27,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M27" s="235">
+      <c r="M27" s="170">
         <f>VLOOKUP(A27,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N27" s="102"/>
-      <c r="O27" s="112"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="111"/>
     </row>
     <row r="28" spans="1:15" ht="42" customHeight="1">
-      <c r="A28" s="98">
+      <c r="A28" s="97">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="99">
+      <c r="B28" s="98">
         <v>1</v>
       </c>
-      <c r="C28" s="100" t="str">
+      <c r="C28" s="99" t="str">
         <f>VLOOKUP(B28,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D28" s="231" t="str">
+      <c r="D28" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A28,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A28,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A28,Planificación!B$13:G$51,3,FALSE))</f>
         <v>INREQA / PPQA</v>
       </c>
-      <c r="E28" s="100" t="str">
+      <c r="E28" s="99" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="F28" s="100" t="str">
+      <c r="F28" s="99" t="str">
         <f>VLOOKUP(A28,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G28" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="232" t="s">
+      <c r="G28" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="232" t="str">
+      <c r="J28" s="167" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K28" s="234"/>
-      <c r="L28" s="235">
+      <c r="K28" s="169"/>
+      <c r="L28" s="170">
         <f>VLOOKUP(A28,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M28" s="235">
+      <c r="M28" s="170">
         <f>VLOOKUP(A28,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N28" s="102"/>
-      <c r="O28" s="112"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="111"/>
     </row>
     <row r="29" spans="1:15" ht="42" customHeight="1">
-      <c r="A29" s="98">
+      <c r="A29" s="97">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="99">
+      <c r="B29" s="98">
         <v>1</v>
       </c>
-      <c r="C29" s="100" t="str">
+      <c r="C29" s="99" t="str">
         <f>VLOOKUP(B29,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D29" s="231" t="str">
+      <c r="D29" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A29,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A29,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A29,Planificación!B$13:G$51,3,FALSE))</f>
         <v>PGC / CM</v>
       </c>
-      <c r="E29" s="100" t="str">
+      <c r="E29" s="99" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F29" s="100" t="str">
+      <c r="F29" s="99" t="str">
         <f>VLOOKUP(A29,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G29" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="232" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="232" t="s">
+      <c r="G29" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="232" t="str">
+      <c r="J29" s="167" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K29" s="234"/>
-      <c r="L29" s="235">
+      <c r="K29" s="169"/>
+      <c r="L29" s="170">
         <f>VLOOKUP(A29,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M29" s="235">
+      <c r="M29" s="170">
         <f>VLOOKUP(A29,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="112"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="111"/>
     </row>
     <row r="30" spans="1:15" ht="42" customHeight="1">
-      <c r="A30" s="98">
+      <c r="A30" s="97">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="99">
+      <c r="B30" s="98">
         <v>1</v>
       </c>
-      <c r="C30" s="100" t="str">
+      <c r="C30" s="99" t="str">
         <f>VLOOKUP(B30,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D30" s="231" t="str">
+      <c r="D30" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A30,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A30,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A30,Planificación!B$13:G$51,3,FALSE))</f>
         <v>SOLACC / CM</v>
       </c>
-      <c r="E30" s="100" t="str">
+      <c r="E30" s="99" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F30" s="100" t="str">
+      <c r="F30" s="99" t="str">
         <f>VLOOKUP(A30,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G30" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="H30" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="232" t="s">
+      <c r="G30" s="100" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="232" t="str">
+      <c r="J30" s="167" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K30" s="234"/>
-      <c r="L30" s="235">
+      <c r="K30" s="169"/>
+      <c r="L30" s="170">
         <f>VLOOKUP(A30,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M30" s="235">
+      <c r="M30" s="170">
         <f>VLOOKUP(A30,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N30" s="102"/>
-      <c r="O30" s="112"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="111"/>
     </row>
     <row r="31" spans="1:15" ht="42" customHeight="1">
-      <c r="A31" s="98">
+      <c r="A31" s="97">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="99">
+      <c r="B31" s="98">
         <v>1</v>
       </c>
-      <c r="C31" s="100" t="str">
+      <c r="C31" s="99" t="str">
         <f>VLOOKUP(B31,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D31" s="231" t="str">
+      <c r="D31" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A31,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A31,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A31,Planificación!B$13:G$51,3,FALSE))</f>
         <v>REGITCON / CM</v>
       </c>
-      <c r="E31" s="100" t="str">
+      <c r="E31" s="99" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F31" s="100" t="str">
+      <c r="F31" s="99" t="str">
         <f>VLOOKUP(A31,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G31" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="H31" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="232" t="s">
+      <c r="G31" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="232" t="str">
+      <c r="J31" s="167" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K31" s="234"/>
-      <c r="L31" s="235">
+      <c r="K31" s="169"/>
+      <c r="L31" s="170">
         <f>VLOOKUP(A31,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M31" s="235">
+      <c r="M31" s="170">
         <f>VLOOKUP(A31,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N31" s="102"/>
-      <c r="O31" s="155" t="s">
-        <v>203</v>
+      <c r="N31" s="101"/>
+      <c r="O31" s="154" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="42" customHeight="1">
-      <c r="A32" s="98">
+      <c r="A32" s="97">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="99">
+      <c r="B32" s="98">
         <v>1</v>
       </c>
-      <c r="C32" s="100" t="str">
+      <c r="C32" s="99" t="str">
         <f>VLOOKUP(B32,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D32" s="231" t="str">
+      <c r="D32" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A32,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A32,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A32,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ICIC / CM</v>
       </c>
-      <c r="E32" s="100" t="str">
+      <c r="E32" s="99" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F32" s="100" t="str">
+      <c r="F32" s="99" t="str">
         <f>VLOOKUP(A32,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G32" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="232" t="s">
+      <c r="G32" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="232" t="str">
+      <c r="J32" s="167" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K32" s="234"/>
-      <c r="L32" s="235">
+      <c r="K32" s="169"/>
+      <c r="L32" s="170">
         <f>VLOOKUP(A32,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M32" s="235">
+      <c r="M32" s="170">
         <f>VLOOKUP(A32,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N32" s="102"/>
-      <c r="O32" s="155" t="s">
-        <v>205</v>
+      <c r="N32" s="101"/>
+      <c r="O32" s="154" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="42" customHeight="1">
-      <c r="A33" s="98">
+      <c r="A33" s="97">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="99">
+      <c r="B33" s="98">
         <v>1</v>
       </c>
-      <c r="C33" s="100" t="str">
+      <c r="C33" s="99" t="str">
         <f>VLOOKUP(B33,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D33" s="231" t="str">
+      <c r="D33" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A33,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A33,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A33,Planificación!B$13:G$51,3,FALSE))</f>
         <v>IAUDICM / CM</v>
       </c>
-      <c r="E33" s="100" t="str">
+      <c r="E33" s="99" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Gaspar</v>
       </c>
-      <c r="F33" s="100" t="str">
+      <c r="F33" s="99" t="str">
         <f>VLOOKUP(A33,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G33" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="232" t="s">
+      <c r="G33" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="232" t="str">
+      <c r="J33" s="167" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K33" s="234"/>
-      <c r="L33" s="235">
+      <c r="K33" s="169"/>
+      <c r="L33" s="170">
         <f>VLOOKUP(A33,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M33" s="235">
+      <c r="M33" s="170">
         <f>VLOOKUP(A33,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N33" s="102"/>
-      <c r="O33" s="112"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="111"/>
     </row>
     <row r="34" spans="1:15" ht="42" customHeight="1">
-      <c r="A34" s="98">
+      <c r="A34" s="97">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="99">
+      <c r="B34" s="98">
         <v>1</v>
       </c>
-      <c r="C34" s="100" t="str">
+      <c r="C34" s="99" t="str">
         <f>VLOOKUP(B34,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D34" s="231" t="str">
+      <c r="D34" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A34,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A34,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A34,Planificación!B$13:G$51,3,FALSE))</f>
         <v>PROMM / MA</v>
       </c>
-      <c r="E34" s="100" t="str">
+      <c r="E34" s="99" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F34" s="100" t="str">
+      <c r="F34" s="99" t="str">
         <f>VLOOKUP(A34,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G34" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="H34" s="232" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="232" t="s">
+      <c r="G34" s="100" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="232" t="str">
+      <c r="J34" s="167" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K34" s="234"/>
-      <c r="L34" s="235">
+      <c r="K34" s="169"/>
+      <c r="L34" s="170">
         <f>VLOOKUP(A34,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M34" s="235">
+      <c r="M34" s="170">
         <f>VLOOKUP(A34,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N34" s="102"/>
-      <c r="O34" s="112"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="111"/>
     </row>
     <row r="35" spans="1:15" ht="42" customHeight="1">
-      <c r="A35" s="98">
+      <c r="A35" s="97">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="99">
+      <c r="B35" s="98">
         <v>1</v>
       </c>
-      <c r="C35" s="100" t="str">
+      <c r="C35" s="99" t="str">
         <f>VLOOKUP(B35,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D35" s="231" t="str">
+      <c r="D35" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A35,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A35,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A35,Planificación!B$13:G$51,3,FALSE))</f>
         <v>TABM / MA</v>
       </c>
-      <c r="E35" s="100" t="str">
+      <c r="E35" s="99" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F35" s="100" t="str">
+      <c r="F35" s="99" t="str">
         <f>VLOOKUP(A35,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G35" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="232" t="s">
+      <c r="G35" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J35" s="232" t="str">
+      <c r="J35" s="167" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K35" s="234"/>
-      <c r="L35" s="235">
+      <c r="K35" s="169"/>
+      <c r="L35" s="170">
         <f>VLOOKUP(A35,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M35" s="235">
+      <c r="M35" s="170">
         <f>VLOOKUP(A35,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N35" s="102"/>
-      <c r="O35" s="112"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="111"/>
     </row>
     <row r="36" spans="1:15" ht="42" customHeight="1">
-      <c r="A36" s="98">
+      <c r="A36" s="97">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="99">
+      <c r="B36" s="98">
         <v>1</v>
       </c>
-      <c r="C36" s="100" t="str">
+      <c r="C36" s="99" t="str">
         <f>VLOOKUP(B36,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D36" s="231" t="str">
+      <c r="D36" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A36,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A36,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A36,Planificación!B$13:G$51,3,FALSE))</f>
         <v>FMNCONQAP / MA</v>
       </c>
-      <c r="E36" s="100" t="str">
+      <c r="E36" s="99" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F36" s="100" t="str">
+      <c r="F36" s="99" t="str">
         <f>VLOOKUP(A36,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G36" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="232" t="s">
+      <c r="G36" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="232" t="str">
+      <c r="J36" s="167" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K36" s="234"/>
-      <c r="L36" s="235">
+      <c r="K36" s="169"/>
+      <c r="L36" s="170">
         <f>VLOOKUP(A36,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M36" s="235">
+      <c r="M36" s="170">
         <f>VLOOKUP(A36,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N36" s="102"/>
-      <c r="O36" s="112"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="111"/>
     </row>
     <row r="37" spans="1:15" ht="42" customHeight="1">
-      <c r="A37" s="98">
+      <c r="A37" s="97">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="99">
+      <c r="B37" s="98">
         <v>1</v>
       </c>
-      <c r="C37" s="100" t="str">
+      <c r="C37" s="99" t="str">
         <f>VLOOKUP(B37,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D37" s="231" t="str">
+      <c r="D37" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A37,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A37,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A37,Planificación!B$13:G$51,3,FALSE))</f>
         <v>FMVREQM / MA</v>
       </c>
-      <c r="E37" s="100" t="str">
+      <c r="E37" s="99" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F37" s="100" t="str">
+      <c r="F37" s="99" t="str">
         <f>VLOOKUP(A37,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G37" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H37" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="232" t="s">
+      <c r="G37" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="232" t="str">
+      <c r="J37" s="167" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K37" s="234"/>
-      <c r="L37" s="235">
+      <c r="K37" s="169"/>
+      <c r="L37" s="170">
         <f>VLOOKUP(A37,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M37" s="235">
+      <c r="M37" s="170">
         <f>VLOOKUP(A37,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N37" s="102"/>
-      <c r="O37" s="112"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="111"/>
     </row>
     <row r="38" spans="1:15" ht="42" customHeight="1">
-      <c r="A38" s="98">
+      <c r="A38" s="97">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="99">
+      <c r="B38" s="98">
         <v>1</v>
       </c>
-      <c r="C38" s="100" t="str">
+      <c r="C38" s="99" t="str">
         <f>VLOOKUP(B38,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D38" s="231" t="str">
+      <c r="D38" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A38,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A38,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A38,Planificación!B$13:G$51,3,FALSE))</f>
         <v>FMICIC / MA</v>
       </c>
-      <c r="E38" s="100" t="str">
+      <c r="E38" s="99" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F38" s="100" t="str">
+      <c r="F38" s="99" t="str">
         <f>VLOOKUP(A38,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G38" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="232" t="s">
+      <c r="G38" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="232" t="str">
+      <c r="J38" s="167" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K38" s="234"/>
-      <c r="L38" s="235">
+      <c r="K38" s="169"/>
+      <c r="L38" s="170">
         <f>VLOOKUP(A38,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M38" s="235">
+      <c r="M38" s="170">
         <f>VLOOKUP(A38,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N38" s="102"/>
-      <c r="O38" s="112"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="111"/>
     </row>
     <row r="39" spans="1:15" ht="42" customHeight="1">
-      <c r="A39" s="98">
+      <c r="A39" s="97">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="99">
+      <c r="B39" s="98">
         <v>1</v>
       </c>
-      <c r="C39" s="100" t="str">
+      <c r="C39" s="99" t="str">
         <f>VLOOKUP(B39,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D39" s="231" t="str">
+      <c r="D39" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A39,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A39,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A39,Planificación!B$13:G$51,3,FALSE))</f>
         <v>FMEXRI / MA</v>
       </c>
-      <c r="E39" s="100" t="str">
+      <c r="E39" s="99" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F39" s="100" t="str">
+      <c r="F39" s="99" t="str">
         <f>VLOOKUP(A39,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G39" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H39" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="232" t="s">
+      <c r="G39" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J39" s="232" t="str">
+      <c r="J39" s="167" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K39" s="234"/>
-      <c r="L39" s="235">
+      <c r="K39" s="169"/>
+      <c r="L39" s="170">
         <f>VLOOKUP(A39,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M39" s="235">
+      <c r="M39" s="170">
         <f>VLOOKUP(A39,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N39" s="102"/>
-      <c r="O39" s="112"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="111"/>
     </row>
     <row r="40" spans="1:15" ht="42" customHeight="1">
-      <c r="A40" s="98">
+      <c r="A40" s="97">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="99">
+      <c r="B40" s="98">
         <v>1</v>
       </c>
-      <c r="C40" s="100" t="str">
+      <c r="C40" s="99" t="str">
         <f>VLOOKUP(B40,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D40" s="231" t="str">
+      <c r="D40" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A40,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A40,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A40,Planificación!B$13:G$51,3,FALSE))</f>
         <v>AREXT / PROY</v>
       </c>
-      <c r="E40" s="100" t="str">
+      <c r="E40" s="99" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F40" s="100" t="str">
+      <c r="F40" s="99" t="str">
         <f>VLOOKUP(A40,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G40" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="232" t="s">
+      <c r="G40" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="232" t="str">
+      <c r="J40" s="167" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K40" s="234"/>
-      <c r="L40" s="235">
+      <c r="K40" s="169"/>
+      <c r="L40" s="170">
         <f>VLOOKUP(A40,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M40" s="235">
+      <c r="M40" s="170">
         <f>VLOOKUP(A40,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N40" s="102"/>
-      <c r="O40" s="112"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="111"/>
     </row>
     <row r="41" spans="1:15" ht="42" customHeight="1">
-      <c r="A41" s="98">
+      <c r="A41" s="97">
         <f t="shared" ref="A41:A43" si="1">A40+1</f>
         <v>37</v>
       </c>
-      <c r="B41" s="99">
+      <c r="B41" s="98">
         <v>1</v>
       </c>
-      <c r="C41" s="100" t="str">
+      <c r="C41" s="99" t="str">
         <f>VLOOKUP(B41,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D41" s="231" t="str">
+      <c r="D41" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A41,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A41,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A41,Planificación!B$13:G$51,3,FALSE))</f>
         <v>IAQUIN / PROY</v>
       </c>
-      <c r="E41" s="100" t="str">
+      <c r="E41" s="99" t="str">
         <f>VLOOKUP(A41,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F41" s="100" t="str">
+      <c r="F41" s="99" t="str">
         <f>VLOOKUP(A41,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G41" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="232" t="s">
+      <c r="G41" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="232" t="str">
+      <c r="J41" s="167" t="str">
         <f>VLOOKUP(A41,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K41" s="234"/>
-      <c r="L41" s="235">
+      <c r="K41" s="169"/>
+      <c r="L41" s="170">
         <f>VLOOKUP(A41,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M41" s="235">
+      <c r="M41" s="170">
         <f>VLOOKUP(A41,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N41" s="102"/>
-      <c r="O41" s="112"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="111"/>
     </row>
     <row r="42" spans="1:15" ht="42" customHeight="1">
-      <c r="A42" s="98">
+      <c r="A42" s="97">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B42" s="99">
+      <c r="B42" s="98">
         <v>1</v>
       </c>
-      <c r="C42" s="100" t="str">
+      <c r="C42" s="99" t="str">
         <f>VLOOKUP(B42,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D42" s="231" t="str">
+      <c r="D42" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A42,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A42,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A42,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ARINT / PROY</v>
       </c>
-      <c r="E42" s="100" t="str">
+      <c r="E42" s="99" t="str">
         <f>VLOOKUP(A42,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F42" s="100" t="str">
+      <c r="F42" s="99" t="str">
         <f>VLOOKUP(A42,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G42" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="232" t="s">
+      <c r="G42" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="232" t="str">
+      <c r="J42" s="167" t="str">
         <f>VLOOKUP(A42,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K42" s="234"/>
-      <c r="L42" s="235">
+      <c r="K42" s="169"/>
+      <c r="L42" s="170">
         <f>VLOOKUP(A42,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M42" s="235">
+      <c r="M42" s="170">
         <f>VLOOKUP(A42,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N42" s="102"/>
-      <c r="O42" s="112"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="111"/>
     </row>
     <row r="43" spans="1:15" ht="42" customHeight="1">
-      <c r="A43" s="98">
+      <c r="A43" s="97">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B43" s="99">
+      <c r="B43" s="98">
         <v>1</v>
       </c>
-      <c r="C43" s="100" t="str">
+      <c r="C43" s="99" t="str">
         <f>VLOOKUP(B43,Planificación!$B$13:$E$98,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D43" s="231" t="str">
+      <c r="D43" s="166" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A43,Planificación!B$13:G$51,4,FALSE),FIND("_",VLOOKUP(A43,Planificación!B$13:G$51,4,FALSE),1)-1)," / ",VLOOKUP(A43,Planificación!B$13:G$51,3,FALSE))</f>
         <v>ACENTRE / PROY</v>
       </c>
-      <c r="E43" s="100" t="str">
+      <c r="E43" s="99" t="str">
         <f>VLOOKUP(A43,Planificación!B$13:G$51,5,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F43" s="100" t="str">
+      <c r="F43" s="99" t="str">
         <f>VLOOKUP(A43,Planificación!$B$13:$G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G43" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="232" t="s">
+      <c r="G43" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J43" s="232" t="str">
+      <c r="J43" s="167" t="str">
         <f>VLOOKUP(A43,Planificación!B$13:G$51,6,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K43" s="234"/>
-      <c r="L43" s="235">
+      <c r="K43" s="169"/>
+      <c r="L43" s="170">
         <f>VLOOKUP(A43,Planificación!B$13:M$51,8,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="M43" s="235">
+      <c r="M43" s="170">
         <f>VLOOKUP(A43,Planificación!B$13:M$51,11,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N43" s="102"/>
-      <c r="O43" s="112"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12488,8 +12488,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:I4"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12505,108 +12505,108 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="226" t="s">
+      <c r="C2" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="223" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="213" t="str">
+      <c r="C4" s="241" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="241"/>
+      <c r="E4" s="231" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="215"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="224" t="str">
+      <c r="C5" s="242" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="225"/>
-      <c r="E5" s="213" t="str">
+      <c r="D5" s="243"/>
+      <c r="E5" s="231" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="215"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="233"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="212"/>
-      <c r="E6" s="213" t="str">
+      <c r="D6" s="230"/>
+      <c r="E6" s="231" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="215"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="217" t="s">
+      <c r="C7" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="217"/>
-      <c r="E7" s="218">
+      <c r="D7" s="235"/>
+      <c r="E7" s="236">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42290</v>
       </c>
-      <c r="F7" s="219"/>
-      <c r="G7" s="220" t="s">
+      <c r="F7" s="237"/>
+      <c r="G7" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="221"/>
-      <c r="I7" s="103">
+      <c r="H7" s="239"/>
+      <c r="I7" s="102">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42304</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="222"/>
-      <c r="E8" s="213" t="str">
+      <c r="D8" s="240"/>
+      <c r="E8" s="231" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="215"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="233"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="216"/>
+      <c r="D13" s="234"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12615,43 +12615,43 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="229">
+      <c r="D14" s="164">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="227">
+      <c r="D15" s="162">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="228">
+      <c r="D16" s="163">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="103">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <f>1-D17</f>
         <v>0.33333333333333337</v>
       </c>
@@ -12662,36 +12662,36 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="114"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="114"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="114"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="N22" s="159"/>
+      <c r="N22" s="158"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="23"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="114"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="23"/>
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="210" t="s">
+      <c r="C26" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="210"/>
+      <c r="D26" s="228"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="31" t="s">
@@ -12702,107 +12702,107 @@
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="230">
+      <c r="C28" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="165">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C28)</f>
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="230">
+      <c r="C29" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="165">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="230">
+      <c r="C30" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="165">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="230">
+      <c r="D31" s="165">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="230">
+      <c r="D32" s="165">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:16">
-      <c r="C33" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="230">
+      <c r="C33" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="165">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C33)</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:16">
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="116">
         <f>SUM(D28:D33)</f>
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="210" t="s">
+      <c r="C40" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="210"/>
-      <c r="P40" s="159"/>
+      <c r="D40" s="228"/>
+      <c r="P40" s="158"/>
     </row>
     <row r="41" spans="3:16">
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="116">
+      <c r="D41" s="115">
         <f>Planificación!N7</f>
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="3:16">
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="116">
+      <c r="D42" s="115">
         <f>Planificación!N8</f>
         <v>45.25</v>
       </c>
     </row>
     <row r="43" spans="3:16">
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="116">
+      <c r="D43" s="115">
         <f>D42</f>
         <v>45.25</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="210" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="210"/>
+      <c r="C57" s="228" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="228"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="31" t="s">
@@ -12813,37 +12813,37 @@
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="108" t="s">
+      <c r="C59" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="160">
+      <c r="D59" s="159">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C59)</f>
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="116">
+      <c r="D60" s="115">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="108" t="s">
+      <c r="C61" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="116">
+      <c r="D61" s="115">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="116">
         <f>SUM(D59:D61)</f>
         <v>17</v>
       </c>
@@ -12885,8 +12885,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12906,448 +12906,448 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="126" t="s">
+      <c r="A2" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="112"/>
+      <c r="K2" s="125" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A3" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="150"/>
+      <c r="C3" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="112"/>
+      <c r="I3" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="112"/>
+      <c r="K3" s="123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="112"/>
+      <c r="I4" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="112"/>
+      <c r="K4" s="123" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="139" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="112"/>
+      <c r="I5" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="112"/>
+      <c r="K5" s="123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="112"/>
+      <c r="I6" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="112"/>
+      <c r="K6" s="140"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="145"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="112"/>
+      <c r="I7" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="145"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="112"/>
+      <c r="I8" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="126" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="141" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="149" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="127" t="s">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A18" s="145"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="141" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="141" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" s="145"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="141" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" s="145"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" s="145"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="141" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A28" s="145"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A29" s="145"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A30" s="145"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A31" s="145"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A32" s="145"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="141" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A33" s="145"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="143" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A34" s="145"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="141" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="127" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A36" s="145"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A37" s="145"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A38" s="145"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="108" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="113"/>
-      <c r="K4" s="124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="140" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="141"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="162" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="127" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="127" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A39" s="145"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="144" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="146"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="142" t="s">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A40" s="145"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="144" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="142" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="143" t="s">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A41" s="145"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="144" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="146"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="142" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="146"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="142" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="146"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="142" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="146"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="142" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="142" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="146"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="142" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="142" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="142" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="144" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="146"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="142" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="145" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="146"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="145" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="145" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="147"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="146"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UTP-GPS-ALARM-master\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="198">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -719,24 +719,6 @@
     <t>No se encontraron No Conformidades</t>
   </si>
   <si>
-    <t>Corrección de Errores Ortográficos en Inciso 5.2</t>
-  </si>
-  <si>
-    <t>Reestructurar Tareas y cambiar definiciones en el Proceso de Gestión e Ingeniería</t>
-  </si>
-  <si>
-    <t>Definir nuevos riesgos que aún no estan contemplados y son de importancia en el Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir indice y numeración de subtemas desarrollados en el documento </t>
-  </si>
-  <si>
-    <t>Especificar mayor número de aspectos a auditar por documento</t>
-  </si>
-  <si>
-    <t>Especificar el Acceso de Solo Lectura al Cliente (MST E.I.R.L)</t>
-  </si>
-  <si>
     <t>PROY</t>
   </si>
   <si>
@@ -773,15 +755,6 @@
     <t>INPRUEX_Informe de Pruebas Externas</t>
   </si>
   <si>
-    <t>Ajustar documento a formato de documentos del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir indice y numeración de subtemas en el documento </t>
-  </si>
-  <si>
-    <t>Cambiar documento a fomato de documentos del proyecto</t>
-  </si>
-  <si>
     <t>HGQA_V1.0_2015 Herramienta de Gestión QA-Producto</t>
   </si>
   <si>
@@ -795,30 +768,6 @@
   </si>
   <si>
     <t>MST E.I.R.L</t>
-  </si>
-  <si>
-    <t>Solucionado 24/10/2015</t>
-  </si>
-  <si>
-    <t>Actualizar Datos Modificados en Fases de Desarrollo (Entregables), los WBS de Gestión e Ingeniería (Entregables) y la Nomenclatura (Documentación) -Todo el Inciso 7 (Actualización de Entregables), Inciso 9.41(Actualización de Documentación y Nomenclatura)</t>
-  </si>
-  <si>
-    <t>Ajustar Gráficas a formato de los documentos del proyecto (Inciso 5.1 Página 14 : Gráfica del Subproceso de Gestión de Cambios a Requerimientos)</t>
-  </si>
-  <si>
-    <t>Actualizar datos acordes a la solicitud de cambio de requerimientos del proyecto (Libro Requerimientos de Usuario)</t>
-  </si>
-  <si>
-    <t>Actualizar datos acordes a la solicitud de cambio de requerimientos del proyecto (Libro Trazabilidad REQ a Doc. GC)</t>
-  </si>
-  <si>
-    <t>Actualizar datos de Item de Configuración (Ruta de Activos de Procesos, Ruta de los Registros y Código - Libro Items)</t>
-  </si>
-  <si>
-    <t>Cambiar nomenclatura del documento (Modificar título del Documento y tipo (de .pdf a .docx))</t>
-  </si>
-  <si>
-    <t>Mayor tiempo del Planificado</t>
   </si>
   <si>
     <t>Planificación y Ejecución Conforme</t>
@@ -1233,7 +1182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1389,12 +1338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,7 +1918,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2536,9 +2479,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2573,10 +2513,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2587,137 +2523,142 @@
     <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2730,14 +2671,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2750,6 +2683,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2761,18 +2722,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2799,22 +2748,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2928,7 +2861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3139,9 +3071,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3199,7 +3129,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3305,7 +3234,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3668,9 +3596,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3691,9 +3617,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3714,9 +3638,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3737,9 +3659,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3775,9 +3695,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3813,7 +3731,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3828,7 +3746,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,7 +4012,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4123,7 +4040,7 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,11 +4061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="250937608"/>
-        <c:axId val="250587848"/>
+        <c:axId val="277321160"/>
+        <c:axId val="277321944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250937608"/>
+        <c:axId val="277321160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4105,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250587848"/>
+        <c:crossAx val="277321944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4198,7 +4115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250587848"/>
+        <c:axId val="277321944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,7 +4163,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250937608"/>
+        <c:crossAx val="277321160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4260,7 +4177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4507,7 +4423,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,12 +4582,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="251037088"/>
-        <c:axId val="251037472"/>
+        <c:axId val="277323120"/>
+        <c:axId val="277323904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="251037088"/>
+        <c:axId val="277323120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +4676,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251037472"/>
+        <c:crossAx val="277323904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4770,7 +4686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251037472"/>
+        <c:axId val="277323904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,7 +4791,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251037088"/>
+        <c:crossAx val="277323120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7591,15 +7507,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="61"/>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7659,7 +7575,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -7750,22 +7666,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="210" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="212"/>
+      <c r="C2" s="215" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="216"/>
+      <c r="E2" s="217"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="218" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="219"/>
-      <c r="E3" s="220"/>
+      <c r="C3" s="223" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7777,12 +7693,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="220"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7805,10 +7721,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="216" t="s">
+      <c r="D8" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="217"/>
+      <c r="E8" s="222"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7823,10 +7739,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="226"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7841,10 +7757,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="224"/>
+      <c r="E12" s="226"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7859,10 +7775,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="224"/>
+      <c r="E14" s="226"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7877,10 +7793,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="224" t="s">
+      <c r="D16" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="224"/>
+      <c r="E16" s="226"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7894,62 +7810,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="206"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="208"/>
-      <c r="E20" s="209"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="221" t="s">
+      <c r="C21" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="222"/>
-      <c r="E21" s="223"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="202"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="221" t="s">
+      <c r="C22" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="222"/>
-      <c r="E22" s="223"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="221" t="s">
+      <c r="C23" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="222"/>
-      <c r="E23" s="223"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="202"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="221" t="s">
+      <c r="C24" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="222"/>
-      <c r="E24" s="223"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="202"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7962,31 +7878,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="211"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="207" t="s">
+      <c r="C28" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="208"/>
-      <c r="E28" s="209"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="227"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7995,11 +7911,11 @@
       <c r="B30" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="198" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
+      <c r="C30" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -8008,11 +7924,11 @@
       <c r="B31" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="198" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="199"/>
-      <c r="E31" s="200"/>
+      <c r="C31" s="196" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -8021,11 +7937,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="199"/>
-      <c r="E32" s="200"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -8034,11 +7950,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="200"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8047,174 +7963,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="198"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="227"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="198" t="s">
+      <c r="C37" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="198"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="198" t="s">
+      <c r="C38" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="200"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="198"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="198" t="s">
+      <c r="C39" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="200"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="198"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="198"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="198" t="s">
+      <c r="C41" s="196" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="199"/>
-      <c r="E41" s="200"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="198"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="198" t="s">
+      <c r="C43" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="198"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="198" t="s">
+      <c r="C44" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="200"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="198"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="198" t="s">
+      <c r="C45" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="200"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="198"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="198" t="s">
+      <c r="C46" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="199"/>
-      <c r="E46" s="200"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="198"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="198" t="s">
+      <c r="C47" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="199"/>
-      <c r="E47" s="200"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="198"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="198" t="s">
+      <c r="C48" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="199"/>
-      <c r="E48" s="200"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="198"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="198" t="s">
+      <c r="C49" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="199"/>
-      <c r="E49" s="200"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="198"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8247,23 +8163,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="204" t="s">
+      <c r="B52" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="206"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="210"/>
+      <c r="E52" s="211"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="207" t="s">
+      <c r="C53" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
+      <c r="D53" s="213"/>
+      <c r="E53" s="214"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8278,132 +8194,132 @@
       <c r="B54" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="198" t="s">
+      <c r="C54" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="198"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="198"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="198" t="s">
+      <c r="C56" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="198"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="198" t="s">
+      <c r="C57" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="202"/>
-      <c r="E57" s="203"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="204"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="198" t="s">
+      <c r="C58" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="202"/>
-      <c r="E58" s="203"/>
+      <c r="D58" s="203"/>
+      <c r="E58" s="204"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="198" t="s">
+      <c r="C59" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="202"/>
-      <c r="E59" s="203"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="204"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="198" t="s">
+      <c r="C60" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="202"/>
-      <c r="E60" s="203"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="204"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="201" t="s">
+      <c r="C61" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="202"/>
-      <c r="E61" s="203"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="204"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="198" t="s">
+      <c r="C62" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="202"/>
-      <c r="E62" s="203"/>
+      <c r="D62" s="203"/>
+      <c r="E62" s="204"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="201" t="s">
+      <c r="C63" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="202"/>
-      <c r="E63" s="203"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="204"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="201" t="s">
+      <c r="C64" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="202"/>
-      <c r="E64" s="203"/>
+      <c r="D64" s="203"/>
+      <c r="E64" s="204"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="198" t="s">
+      <c r="C65" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="198"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8414,200 +8330,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="229"/>
-      <c r="C67" s="229"/>
-      <c r="D67" s="229"/>
-      <c r="E67" s="229"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="199"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="228"/>
-      <c r="C68" s="228"/>
-      <c r="D68" s="228"/>
-      <c r="E68" s="228"/>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="228"/>
-      <c r="C69" s="228"/>
-      <c r="D69" s="228"/>
-      <c r="E69" s="228"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="228"/>
-      <c r="C70" s="228"/>
-      <c r="D70" s="228"/>
-      <c r="E70" s="228"/>
+      <c r="B70" s="195"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="228"/>
-      <c r="C71" s="228"/>
-      <c r="D71" s="228"/>
-      <c r="E71" s="228"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="228"/>
-      <c r="C72" s="228"/>
-      <c r="D72" s="228"/>
-      <c r="E72" s="228"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="228"/>
-      <c r="C74" s="228"/>
-      <c r="D74" s="228"/>
-      <c r="E74" s="228"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="228"/>
-      <c r="C75" s="228"/>
-      <c r="D75" s="228"/>
-      <c r="E75" s="228"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="195"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="228"/>
-      <c r="C76" s="228"/>
-      <c r="D76" s="228"/>
-      <c r="E76" s="228"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="228"/>
-      <c r="C77" s="228"/>
-      <c r="D77" s="228"/>
-      <c r="E77" s="228"/>
+      <c r="B77" s="195"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="195"/>
+      <c r="E77" s="195"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="228"/>
-      <c r="C78" s="228"/>
-      <c r="D78" s="228"/>
-      <c r="E78" s="228"/>
+      <c r="B78" s="195"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="195"/>
+      <c r="E78" s="195"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="228"/>
-      <c r="C79" s="228"/>
-      <c r="D79" s="228"/>
-      <c r="E79" s="228"/>
+      <c r="B79" s="195"/>
+      <c r="C79" s="195"/>
+      <c r="D79" s="195"/>
+      <c r="E79" s="195"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="228"/>
-      <c r="C80" s="228"/>
-      <c r="D80" s="228"/>
-      <c r="E80" s="228"/>
+      <c r="B80" s="195"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="195"/>
+      <c r="E80" s="195"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="228"/>
-      <c r="C81" s="228"/>
-      <c r="D81" s="228"/>
-      <c r="E81" s="228"/>
+      <c r="B81" s="195"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="195"/>
+      <c r="E81" s="195"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="228"/>
-      <c r="C82" s="228"/>
-      <c r="D82" s="228"/>
-      <c r="E82" s="228"/>
+      <c r="B82" s="195"/>
+      <c r="C82" s="195"/>
+      <c r="D82" s="195"/>
+      <c r="E82" s="195"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="228"/>
-      <c r="C83" s="228"/>
-      <c r="D83" s="228"/>
-      <c r="E83" s="228"/>
+      <c r="B83" s="195"/>
+      <c r="C83" s="195"/>
+      <c r="D83" s="195"/>
+      <c r="E83" s="195"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="228"/>
-      <c r="C84" s="228"/>
-      <c r="D84" s="228"/>
-      <c r="E84" s="228"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="228"/>
-      <c r="C85" s="228"/>
-      <c r="D85" s="228"/>
-      <c r="E85" s="228"/>
+      <c r="B85" s="195"/>
+      <c r="C85" s="195"/>
+      <c r="D85" s="195"/>
+      <c r="E85" s="195"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="228"/>
-      <c r="C86" s="228"/>
-      <c r="D86" s="228"/>
-      <c r="E86" s="228"/>
+      <c r="B86" s="195"/>
+      <c r="C86" s="195"/>
+      <c r="D86" s="195"/>
+      <c r="E86" s="195"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8620,27 +8536,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8657,40 +8586,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8706,8 +8622,8 @@
   </sheetPr>
   <dimension ref="A3:Z56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8729,22 +8645,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8752,39 +8668,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="229" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="234" t="s">
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="232" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
       <c r="O6" s="144"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="234" t="s">
+      <c r="C7" s="230"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="232" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="235"/>
-      <c r="G7" s="236"/>
-      <c r="J7" s="230" t="s">
+      <c r="F7" s="233"/>
+      <c r="G7" s="234"/>
+      <c r="J7" s="235" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
       <c r="O7" s="165">
         <f>SUM(K13:K51)</f>
         <v>90</v>
@@ -8792,35 +8708,35 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234" t="s">
+      <c r="C8" s="230"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="232" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
-      <c r="J8" s="230" t="s">
+      <c r="F8" s="233"/>
+      <c r="G8" s="234"/>
+      <c r="J8" s="235" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
       <c r="O8" s="165">
         <f>SUM(N13:N51)</f>
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="231"/>
       <c r="E9" s="127">
         <v>42290</v>
       </c>
@@ -8835,16 +8751,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="237" t="s">
+      <c r="C10" s="230"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="238"/>
-      <c r="G10" s="239"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8857,7 +8773,7 @@
     </row>
     <row r="12" spans="2:26" s="122" customFormat="1" ht="38.25">
       <c r="B12" s="119" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C12" s="119" t="s">
         <v>32</v>
@@ -8903,7 +8819,7 @@
       <c r="B13" s="85">
         <v>1</v>
       </c>
-      <c r="C13" s="194">
+      <c r="C13" s="192">
         <v>2</v>
       </c>
       <c r="D13" s="157" t="s">
@@ -8922,25 +8838,25 @@
         <v>142</v>
       </c>
       <c r="I13" s="168">
-        <v>42290</v>
+        <v>42310</v>
       </c>
       <c r="J13" s="168">
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="K13" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="168">
-        <v>42290</v>
+        <v>42310</v>
       </c>
       <c r="M13" s="168">
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="N13" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -8948,7 +8864,7 @@
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="194">
+      <c r="C14" s="192">
         <v>2</v>
       </c>
       <c r="D14" s="157" t="s">
@@ -8967,25 +8883,25 @@
         <v>142</v>
       </c>
       <c r="I14" s="168">
-        <v>42290</v>
+        <v>42310</v>
       </c>
       <c r="J14" s="168">
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="K14" s="125">
         <v>3</v>
       </c>
       <c r="L14" s="168">
-        <v>42290</v>
+        <v>42310</v>
       </c>
       <c r="M14" s="168">
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="N14" s="125">
         <v>3</v>
       </c>
       <c r="O14" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -8993,7 +8909,7 @@
         <f t="shared" ref="B15:B51" si="0">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="194">
+      <c r="C15" s="192">
         <v>2</v>
       </c>
       <c r="D15" s="157" t="s">
@@ -9012,25 +8928,25 @@
         <v>142</v>
       </c>
       <c r="I15" s="168">
-        <v>42290</v>
+        <v>42310</v>
       </c>
       <c r="J15" s="168">
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="K15" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="168">
-        <v>42290</v>
+        <v>42310</v>
       </c>
       <c r="M15" s="168">
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="N15" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9038,7 +8954,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="194">
+      <c r="C16" s="192">
         <v>2</v>
       </c>
       <c r="D16" s="157" t="s">
@@ -9057,25 +8973,25 @@
         <v>142</v>
       </c>
       <c r="I16" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="J16" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="K16" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="M16" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="N16" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9083,7 +8999,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="194">
+      <c r="C17" s="192">
         <v>2</v>
       </c>
       <c r="D17" s="157" t="s">
@@ -9102,27 +9018,25 @@
         <v>142</v>
       </c>
       <c r="I17" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="J17" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="K17" s="125">
-        <f>1.5+1</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L17" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="M17" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="N17" s="125">
-        <f>1.5+1</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O17" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9130,7 +9044,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="194">
+      <c r="C18" s="192">
         <v>2</v>
       </c>
       <c r="D18" s="157" t="s">
@@ -9149,25 +9063,25 @@
         <v>142</v>
       </c>
       <c r="I18" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="J18" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="K18" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="M18" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="N18" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9175,7 +9089,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="194">
+      <c r="C19" s="192">
         <v>2</v>
       </c>
       <c r="D19" s="157" t="s">
@@ -9194,25 +9108,25 @@
         <v>142</v>
       </c>
       <c r="I19" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="J19" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="K19" s="125">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="168">
-        <v>42290</v>
+        <v>42311</v>
       </c>
       <c r="M19" s="168">
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="N19" s="125">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O19" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9220,7 +9134,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="194">
+      <c r="C20" s="192">
         <v>1</v>
       </c>
       <c r="D20" s="157" t="s">
@@ -9239,25 +9153,25 @@
         <v>142</v>
       </c>
       <c r="I20" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="J20" s="168">
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="K20" s="125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="M20" s="168">
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="N20" s="125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9265,7 +9179,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="194">
+      <c r="C21" s="192">
         <v>1</v>
       </c>
       <c r="D21" s="161" t="s">
@@ -9284,25 +9198,25 @@
         <v>142</v>
       </c>
       <c r="I21" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="J21" s="168">
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="K21" s="125">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L21" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="M21" s="168">
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="N21" s="125">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O21" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9310,7 +9224,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="194">
+      <c r="C22" s="192">
         <v>1</v>
       </c>
       <c r="D22" s="161" t="s">
@@ -9329,25 +9243,25 @@
         <v>142</v>
       </c>
       <c r="I22" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="J22" s="168">
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="K22" s="125">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L22" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="M22" s="168">
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="N22" s="125">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O22" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9355,7 +9269,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="194">
+      <c r="C23" s="192">
         <v>1</v>
       </c>
       <c r="D23" s="161" t="s">
@@ -9374,25 +9288,25 @@
         <v>142</v>
       </c>
       <c r="I23" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="J23" s="168">
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="K23" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" s="168">
-        <v>42290</v>
+        <v>42312</v>
       </c>
       <c r="M23" s="168">
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="N23" s="125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9400,7 +9314,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C24" s="194">
+      <c r="C24" s="192">
         <v>1</v>
       </c>
       <c r="D24" s="161" t="s">
@@ -9419,10 +9333,10 @@
         <v>142</v>
       </c>
       <c r="I24" s="168">
-        <v>42290</v>
+        <v>42313</v>
       </c>
       <c r="J24" s="168">
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="K24" s="125">
         <v>3</v>
@@ -9437,7 +9351,7 @@
         <v>3</v>
       </c>
       <c r="O24" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9445,7 +9359,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C25" s="194">
+      <c r="C25" s="192">
         <v>1</v>
       </c>
       <c r="D25" s="161" t="s">
@@ -9464,10 +9378,10 @@
         <v>142</v>
       </c>
       <c r="I25" s="168">
-        <v>42290</v>
+        <v>42313</v>
       </c>
       <c r="J25" s="168">
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="K25" s="125">
         <v>3</v>
@@ -9482,7 +9396,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9490,7 +9404,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C26" s="194">
+      <c r="C26" s="192">
         <v>1</v>
       </c>
       <c r="D26" s="157" t="s">
@@ -9509,10 +9423,10 @@
         <v>144</v>
       </c>
       <c r="I26" s="168">
-        <v>42290</v>
+        <v>42313</v>
       </c>
       <c r="J26" s="168">
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="K26" s="125">
         <v>3</v>
@@ -9527,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="126" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
@@ -9535,7 +9449,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C27" s="194">
+      <c r="C27" s="192">
         <v>1</v>
       </c>
       <c r="D27" s="157" t="s">
@@ -9544,8 +9458,8 @@
       <c r="E27" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="193" t="s">
-        <v>186</v>
+      <c r="F27" s="191" t="s">
+        <v>180</v>
       </c>
       <c r="G27" s="164" t="s">
         <v>144</v>
@@ -9554,33 +9468,25 @@
         <v>142</v>
       </c>
       <c r="I27" s="168">
-        <v>42290</v>
+        <v>42314</v>
       </c>
       <c r="J27" s="168">
-        <v>42304</v>
+        <v>42314</v>
       </c>
       <c r="K27" s="125">
         <v>2</v>
       </c>
-      <c r="L27" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M27" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N27" s="125">
-        <v>2</v>
-      </c>
-      <c r="O27" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="126"/>
     </row>
     <row r="28" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="B28" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C28" s="194">
+      <c r="C28" s="192">
         <v>1</v>
       </c>
       <c r="D28" s="157" t="s">
@@ -9599,26 +9505,18 @@
         <v>142</v>
       </c>
       <c r="I28" s="168">
-        <v>42290</v>
+        <v>42314</v>
       </c>
       <c r="J28" s="168">
-        <v>42304</v>
+        <v>42314</v>
       </c>
       <c r="K28" s="125">
-        <v>2.5</v>
-      </c>
-      <c r="L28" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M28" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N28" s="125">
-        <v>2.5</v>
-      </c>
-      <c r="O28" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="126"/>
     </row>
     <row r="29" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A29" s="124"/>
@@ -9626,7 +9524,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C29" s="194">
+      <c r="C29" s="192">
         <v>1</v>
       </c>
       <c r="D29" s="157" t="s">
@@ -9645,26 +9543,18 @@
         <v>142</v>
       </c>
       <c r="I29" s="168">
-        <v>42290</v>
+        <v>42314</v>
       </c>
       <c r="J29" s="168">
-        <v>42304</v>
+        <v>42314</v>
       </c>
       <c r="K29" s="125">
         <v>2</v>
       </c>
-      <c r="L29" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M29" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N29" s="125">
-        <v>2</v>
-      </c>
-      <c r="O29" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="126"/>
     </row>
     <row r="30" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A30" s="124"/>
@@ -9672,7 +9562,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C30" s="194">
+      <c r="C30" s="192">
         <v>1</v>
       </c>
       <c r="D30" s="157" t="s">
@@ -9682,7 +9572,7 @@
         <v>132</v>
       </c>
       <c r="F30" s="160" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G30" s="164" t="s">
         <v>144</v>
@@ -9691,26 +9581,18 @@
         <v>142</v>
       </c>
       <c r="I30" s="168">
-        <v>42290</v>
+        <v>42314</v>
       </c>
       <c r="J30" s="168">
-        <v>42304</v>
+        <v>42314</v>
       </c>
       <c r="K30" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M30" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N30" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="O30" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="126"/>
     </row>
     <row r="31" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A31" s="124"/>
@@ -9718,7 +9600,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C31" s="194">
+      <c r="C31" s="192">
         <v>1</v>
       </c>
       <c r="D31" s="161" t="s">
@@ -9737,26 +9619,18 @@
         <v>142</v>
       </c>
       <c r="I31" s="168">
-        <v>42290</v>
+        <v>42315</v>
       </c>
       <c r="J31" s="168">
-        <v>42304</v>
+        <v>42315</v>
       </c>
       <c r="K31" s="125">
         <v>3</v>
       </c>
-      <c r="L31" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M31" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N31" s="125">
-        <v>3</v>
-      </c>
-      <c r="O31" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L31" s="168"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="126"/>
     </row>
     <row r="32" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A32" s="124"/>
@@ -9764,7 +9638,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C32" s="194">
+      <c r="C32" s="192">
         <v>1</v>
       </c>
       <c r="D32" s="161" t="s">
@@ -9774,7 +9648,7 @@
         <v>130</v>
       </c>
       <c r="F32" s="160" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G32" s="164" t="s">
         <v>142</v>
@@ -9783,26 +9657,18 @@
         <v>144</v>
       </c>
       <c r="I32" s="168">
-        <v>42290</v>
+        <v>42315</v>
       </c>
       <c r="J32" s="168">
-        <v>42304</v>
+        <v>42315</v>
       </c>
       <c r="K32" s="125">
         <v>3</v>
       </c>
-      <c r="L32" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M32" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N32" s="125">
-        <v>5</v>
-      </c>
-      <c r="O32" s="192" t="s">
-        <v>212</v>
-      </c>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="126"/>
     </row>
     <row r="33" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A33" s="124"/>
@@ -9810,7 +9676,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C33" s="194">
+      <c r="C33" s="192">
         <v>1</v>
       </c>
       <c r="D33" s="161" t="s">
@@ -9820,7 +9686,7 @@
         <v>130</v>
       </c>
       <c r="F33" s="160" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G33" s="164" t="s">
         <v>142</v>
@@ -9829,26 +9695,18 @@
         <v>144</v>
       </c>
       <c r="I33" s="168">
-        <v>42290</v>
+        <v>42315</v>
       </c>
       <c r="J33" s="168">
-        <v>42304</v>
+        <v>42315</v>
       </c>
       <c r="K33" s="125">
-        <v>3</v>
-      </c>
-      <c r="L33" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M33" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N33" s="125">
-        <v>5</v>
-      </c>
-      <c r="O33" s="192" t="s">
-        <v>212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="126"/>
     </row>
     <row r="34" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A34" s="124"/>
@@ -9856,7 +9714,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C34" s="194">
+      <c r="C34" s="192">
         <v>1</v>
       </c>
       <c r="D34" s="161" t="s">
@@ -9866,7 +9724,7 @@
         <v>130</v>
       </c>
       <c r="F34" s="160" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G34" s="164" t="s">
         <v>142</v>
@@ -9875,26 +9733,18 @@
         <v>144</v>
       </c>
       <c r="I34" s="168">
-        <v>42290</v>
+        <v>42317</v>
       </c>
       <c r="J34" s="168">
-        <v>42304</v>
+        <v>42317</v>
       </c>
       <c r="K34" s="125">
         <v>2</v>
       </c>
-      <c r="L34" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M34" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N34" s="125">
-        <v>2</v>
-      </c>
-      <c r="O34" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L34" s="168"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="126"/>
     </row>
     <row r="35" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A35" s="124"/>
@@ -9902,7 +9752,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C35" s="194">
+      <c r="C35" s="192">
         <v>1</v>
       </c>
       <c r="D35" s="157" t="s">
@@ -9912,7 +9762,7 @@
         <v>130</v>
       </c>
       <c r="F35" s="160" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G35" s="164" t="s">
         <v>142</v>
@@ -9921,26 +9771,18 @@
         <v>144</v>
       </c>
       <c r="I35" s="168">
-        <v>42290</v>
+        <v>42317</v>
       </c>
       <c r="J35" s="168">
-        <v>42304</v>
+        <v>42317</v>
       </c>
       <c r="K35" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M35" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N35" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="O35" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L35" s="168"/>
+      <c r="M35" s="168"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="126"/>
     </row>
     <row r="36" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A36" s="124"/>
@@ -9948,7 +9790,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C36" s="194">
+      <c r="C36" s="192">
         <v>1</v>
       </c>
       <c r="D36" s="161" t="s">
@@ -9958,7 +9800,7 @@
         <v>130</v>
       </c>
       <c r="F36" s="160" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G36" s="164" t="s">
         <v>142</v>
@@ -9967,26 +9809,18 @@
         <v>144</v>
       </c>
       <c r="I36" s="168">
-        <v>42290</v>
+        <v>42317</v>
       </c>
       <c r="J36" s="168">
-        <v>42304</v>
+        <v>42317</v>
       </c>
       <c r="K36" s="125">
-        <v>2.5</v>
-      </c>
-      <c r="L36" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M36" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N36" s="125">
-        <v>2.5</v>
-      </c>
-      <c r="O36" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="126"/>
     </row>
     <row r="37" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A37" s="124"/>
@@ -9994,7 +9828,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C37" s="194">
+      <c r="C37" s="192">
         <v>1</v>
       </c>
       <c r="D37" s="161" t="s">
@@ -10013,26 +9847,18 @@
         <v>142</v>
       </c>
       <c r="I37" s="168">
-        <v>42290</v>
+        <v>42318</v>
       </c>
       <c r="J37" s="168">
-        <v>42304</v>
+        <v>42318</v>
       </c>
       <c r="K37" s="125">
-        <v>2.5</v>
-      </c>
-      <c r="L37" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M37" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N37" s="125">
-        <v>2.5</v>
-      </c>
-      <c r="O37" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L37" s="168"/>
+      <c r="M37" s="168"/>
+      <c r="N37" s="125"/>
+      <c r="O37" s="126"/>
     </row>
     <row r="38" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A38" s="124"/>
@@ -10040,7 +9866,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C38" s="194">
+      <c r="C38" s="192">
         <v>1</v>
       </c>
       <c r="D38" s="161" t="s">
@@ -10059,26 +9885,18 @@
         <v>142</v>
       </c>
       <c r="I38" s="168">
-        <v>42290</v>
+        <v>42318</v>
       </c>
       <c r="J38" s="168">
-        <v>42304</v>
+        <v>42318</v>
       </c>
       <c r="K38" s="125">
         <v>2</v>
       </c>
-      <c r="L38" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M38" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N38" s="125">
-        <v>2</v>
-      </c>
-      <c r="O38" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="126"/>
     </row>
     <row r="39" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A39" s="124"/>
@@ -10086,7 +9904,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C39" s="194">
+      <c r="C39" s="192">
         <v>1</v>
       </c>
       <c r="D39" s="161" t="s">
@@ -10105,26 +9923,18 @@
         <v>142</v>
       </c>
       <c r="I39" s="168">
-        <v>42290</v>
+        <v>42318</v>
       </c>
       <c r="J39" s="168">
-        <v>42304</v>
+        <v>42318</v>
       </c>
       <c r="K39" s="125">
-        <v>3</v>
-      </c>
-      <c r="L39" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M39" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N39" s="125">
-        <v>3</v>
-      </c>
-      <c r="O39" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="126"/>
     </row>
     <row r="40" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A40" s="124"/>
@@ -10132,7 +9942,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C40" s="194">
+      <c r="C40" s="192">
         <v>1</v>
       </c>
       <c r="D40" s="161" t="s">
@@ -10142,7 +9952,7 @@
         <v>133</v>
       </c>
       <c r="F40" s="160" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G40" s="164" t="s">
         <v>143</v>
@@ -10151,26 +9961,18 @@
         <v>142</v>
       </c>
       <c r="I40" s="168">
-        <v>42290</v>
+        <v>42318</v>
       </c>
       <c r="J40" s="168">
-        <v>42304</v>
+        <v>42318</v>
       </c>
       <c r="K40" s="125">
-        <v>3</v>
-      </c>
-      <c r="L40" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M40" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N40" s="125">
-        <v>3</v>
-      </c>
-      <c r="O40" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L40" s="168"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="126"/>
     </row>
     <row r="41" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A41" s="124"/>
@@ -10178,7 +9980,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C41" s="194">
+      <c r="C41" s="192">
         <v>1</v>
       </c>
       <c r="D41" s="161" t="s">
@@ -10197,26 +9999,18 @@
         <v>142</v>
       </c>
       <c r="I41" s="168">
-        <v>42290</v>
+        <v>42319</v>
       </c>
       <c r="J41" s="168">
-        <v>42304</v>
+        <v>42319</v>
       </c>
       <c r="K41" s="125">
-        <v>2</v>
-      </c>
-      <c r="L41" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M41" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N41" s="125">
-        <v>2</v>
-      </c>
-      <c r="O41" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="126"/>
     </row>
     <row r="42" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A42" s="124"/>
@@ -10224,7 +10018,7 @@
         <f>B41+1</f>
         <v>30</v>
       </c>
-      <c r="C42" s="194">
+      <c r="C42" s="192">
         <v>1</v>
       </c>
       <c r="D42" s="161" t="s">
@@ -10234,7 +10028,7 @@
         <v>134</v>
       </c>
       <c r="F42" s="160" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G42" s="164" t="s">
         <v>144</v>
@@ -10243,26 +10037,18 @@
         <v>142</v>
       </c>
       <c r="I42" s="168">
-        <v>42290</v>
+        <v>42319</v>
       </c>
       <c r="J42" s="168">
-        <v>42304</v>
+        <v>42319</v>
       </c>
       <c r="K42" s="125">
         <v>2</v>
       </c>
-      <c r="L42" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M42" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N42" s="125">
-        <v>2</v>
-      </c>
-      <c r="O42" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="126"/>
     </row>
     <row r="43" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A43" s="124"/>
@@ -10270,7 +10056,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C43" s="194">
+      <c r="C43" s="192">
         <v>1</v>
       </c>
       <c r="D43" s="161" t="s">
@@ -10280,7 +10066,7 @@
         <v>134</v>
       </c>
       <c r="F43" s="160" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G43" s="164" t="s">
         <v>144</v>
@@ -10289,26 +10075,18 @@
         <v>142</v>
       </c>
       <c r="I43" s="168">
-        <v>42290</v>
+        <v>42319</v>
       </c>
       <c r="J43" s="168">
-        <v>42304</v>
+        <v>42319</v>
       </c>
       <c r="K43" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="L43" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M43" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N43" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="O43" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="126"/>
     </row>
     <row r="44" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A44" s="124"/>
@@ -10316,7 +10094,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C44" s="194">
+      <c r="C44" s="192">
         <v>1</v>
       </c>
       <c r="D44" s="161" t="s">
@@ -10326,7 +10104,7 @@
         <v>134</v>
       </c>
       <c r="F44" s="160" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G44" s="164" t="s">
         <v>144</v>
@@ -10335,26 +10113,18 @@
         <v>142</v>
       </c>
       <c r="I44" s="168">
-        <v>42290</v>
+        <v>42320</v>
       </c>
       <c r="J44" s="168">
-        <v>42304</v>
+        <v>42320</v>
       </c>
       <c r="K44" s="125">
-        <v>3</v>
-      </c>
-      <c r="L44" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M44" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N44" s="125">
-        <v>3</v>
-      </c>
-      <c r="O44" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="126"/>
     </row>
     <row r="45" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A45" s="124"/>
@@ -10362,7 +10132,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C45" s="194">
+      <c r="C45" s="192">
         <v>1</v>
       </c>
       <c r="D45" s="161" t="s">
@@ -10381,26 +10151,18 @@
         <v>142</v>
       </c>
       <c r="I45" s="168">
-        <v>42290</v>
+        <v>42320</v>
       </c>
       <c r="J45" s="168">
-        <v>42304</v>
+        <v>42320</v>
       </c>
       <c r="K45" s="125">
-        <v>2</v>
-      </c>
-      <c r="L45" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M45" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N45" s="125">
-        <v>2</v>
-      </c>
-      <c r="O45" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L45" s="168"/>
+      <c r="M45" s="168"/>
+      <c r="N45" s="125"/>
+      <c r="O45" s="126"/>
     </row>
     <row r="46" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A46" s="124"/>
@@ -10408,7 +10170,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C46" s="194">
+      <c r="C46" s="192">
         <v>1</v>
       </c>
       <c r="D46" s="161" t="s">
@@ -10427,26 +10189,18 @@
         <v>142</v>
       </c>
       <c r="I46" s="168">
-        <v>42290</v>
+        <v>42320</v>
       </c>
       <c r="J46" s="168">
-        <v>42304</v>
+        <v>42320</v>
       </c>
       <c r="K46" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="L46" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M46" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N46" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="O46" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L46" s="168"/>
+      <c r="M46" s="168"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="126"/>
     </row>
     <row r="47" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A47" s="124"/>
@@ -10454,7 +10208,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C47" s="194">
+      <c r="C47" s="192">
         <v>1</v>
       </c>
       <c r="D47" s="161" t="s">
@@ -10473,26 +10227,18 @@
         <v>142</v>
       </c>
       <c r="I47" s="168">
-        <v>42290</v>
+        <v>42321</v>
       </c>
       <c r="J47" s="168">
-        <v>42304</v>
+        <v>42321</v>
       </c>
       <c r="K47" s="125">
-        <v>2</v>
-      </c>
-      <c r="L47" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M47" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N47" s="125">
-        <v>2</v>
-      </c>
-      <c r="O47" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L47" s="168"/>
+      <c r="M47" s="168"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="126"/>
     </row>
     <row r="48" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A48" s="124"/>
@@ -10500,14 +10246,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C48" s="194">
+      <c r="C48" s="192">
         <v>1</v>
       </c>
       <c r="D48" s="161" t="s">
         <v>123</v>
       </c>
       <c r="E48" s="158" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F48" s="159" t="s">
         <v>154</v>
@@ -10519,26 +10265,18 @@
         <v>142</v>
       </c>
       <c r="I48" s="168">
-        <v>42290</v>
+        <v>42321</v>
       </c>
       <c r="J48" s="168">
-        <v>42304</v>
+        <v>42321</v>
       </c>
       <c r="K48" s="125">
         <v>1</v>
       </c>
-      <c r="L48" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M48" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N48" s="125">
-        <v>1</v>
-      </c>
-      <c r="O48" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L48" s="168"/>
+      <c r="M48" s="168"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="126"/>
     </row>
     <row r="49" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A49" s="124"/>
@@ -10546,14 +10284,14 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C49" s="194">
+      <c r="C49" s="192">
         <v>1</v>
       </c>
       <c r="D49" s="161" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="158" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F49" s="159" t="s">
         <v>173</v>
@@ -10565,26 +10303,18 @@
         <v>142</v>
       </c>
       <c r="I49" s="168">
-        <v>42290</v>
+        <v>42321</v>
       </c>
       <c r="J49" s="168">
-        <v>42304</v>
+        <v>42321</v>
       </c>
       <c r="K49" s="125">
         <v>1</v>
       </c>
-      <c r="L49" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M49" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N49" s="125">
-        <v>1</v>
-      </c>
-      <c r="O49" s="126" t="s">
-        <v>213</v>
-      </c>
+      <c r="L49" s="168"/>
+      <c r="M49" s="168"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="126"/>
     </row>
     <row r="50" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A50" s="124"/>
@@ -10592,14 +10322,14 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C50" s="194">
+      <c r="C50" s="192">
         <v>1</v>
       </c>
       <c r="D50" s="161" t="s">
         <v>123</v>
       </c>
       <c r="E50" s="158" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F50" s="159" t="s">
         <v>174</v>
@@ -10611,26 +10341,18 @@
         <v>142</v>
       </c>
       <c r="I50" s="168">
-        <v>42290</v>
+        <v>42321</v>
       </c>
       <c r="J50" s="168">
-        <v>42304</v>
+        <v>42321</v>
       </c>
       <c r="K50" s="125">
-        <v>2</v>
-      </c>
-      <c r="L50" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M50" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N50" s="125">
-        <v>2</v>
-      </c>
-      <c r="O50" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L50" s="168"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="126"/>
     </row>
     <row r="51" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
       <c r="A51" s="124"/>
@@ -10638,14 +10360,14 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C51" s="194">
+      <c r="C51" s="192">
         <v>1</v>
       </c>
       <c r="D51" s="161" t="s">
         <v>123</v>
       </c>
       <c r="E51" s="158" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F51" s="159" t="s">
         <v>175</v>
@@ -10657,26 +10379,18 @@
         <v>142</v>
       </c>
       <c r="I51" s="168">
-        <v>42290</v>
+        <v>42321</v>
       </c>
       <c r="J51" s="168">
-        <v>42304</v>
+        <v>42321</v>
       </c>
       <c r="K51" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="L51" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M51" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N51" s="125">
-        <v>1.5</v>
-      </c>
-      <c r="O51" s="126" t="s">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L51" s="168"/>
+      <c r="M51" s="168"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="126"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1">
       <c r="B52" s="6"/>
@@ -10706,6 +10420,12 @@
     <row r="56" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10713,12 +10433,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10726,9 +10440,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="K17" unlockedFormula="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -10768,11 +10479,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10793,22 +10504,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="244"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="241"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10902,8 +10613,8 @@
         <f>VLOOKUP(A5,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G5" s="113" t="s">
-        <v>179</v>
+      <c r="G5" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H5" s="154" t="s">
         <v>128</v>
@@ -10918,18 +10629,16 @@
       <c r="K5" s="156"/>
       <c r="L5" s="171">
         <f>VLOOKUP(A5,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="M5" s="171">
         <f>VLOOKUP(A5,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N5" s="195">
+        <v>42310</v>
+      </c>
+      <c r="N5" s="193">
         <v>1</v>
       </c>
-      <c r="O5" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A6" s="179">
@@ -10956,8 +10665,8 @@
         <f>VLOOKUP(A6,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G6" s="181" t="s">
-        <v>206</v>
+      <c r="G6" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H6" s="154" t="s">
         <v>120</v>
@@ -10972,18 +10681,16 @@
       <c r="K6" s="156"/>
       <c r="L6" s="171">
         <f>VLOOKUP(A6,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="M6" s="171">
         <f>VLOOKUP(A6,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N6" s="195">
+        <v>42310</v>
+      </c>
+      <c r="N6" s="193">
         <v>1</v>
       </c>
-      <c r="O6" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O6" s="180"/>
     </row>
     <row r="7" spans="1:15" ht="60" customHeight="1">
       <c r="A7" s="179">
@@ -11026,16 +10733,16 @@
       <c r="K7" s="155"/>
       <c r="L7" s="171">
         <f>VLOOKUP(A7,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42310</v>
       </c>
       <c r="M7" s="171">
         <f>VLOOKUP(A7,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N7" s="195">
+        <v>42310</v>
+      </c>
+      <c r="N7" s="193">
         <v>1</v>
       </c>
-      <c r="O7" s="182"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A8" s="179">
@@ -11062,8 +10769,8 @@
         <f>VLOOKUP(A8,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G8" s="113" t="s">
-        <v>180</v>
+      <c r="G8" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H8" s="154" t="s">
         <v>120</v>
@@ -11078,18 +10785,16 @@
       <c r="K8" s="156"/>
       <c r="L8" s="171">
         <f>VLOOKUP(A8,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="M8" s="171">
         <f>VLOOKUP(A8,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N8" s="195">
+        <v>42311</v>
+      </c>
+      <c r="N8" s="193">
         <v>1</v>
       </c>
-      <c r="O8" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O8" s="180"/>
     </row>
     <row r="9" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="179">
@@ -11116,8 +10821,8 @@
         <f>VLOOKUP(A9,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G9" s="113" t="s">
-        <v>181</v>
+      <c r="G9" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H9" s="154" t="s">
         <v>120</v>
@@ -11132,18 +10837,16 @@
       <c r="K9" s="156"/>
       <c r="L9" s="171">
         <f>VLOOKUP(A9,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="M9" s="171">
         <f>VLOOKUP(A9,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N9" s="195">
+        <v>42311</v>
+      </c>
+      <c r="N9" s="193">
         <v>1</v>
       </c>
-      <c r="O9" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O9" s="180"/>
     </row>
     <row r="10" spans="1:15" ht="60" customHeight="1">
       <c r="A10" s="179">
@@ -11186,16 +10889,16 @@
       <c r="K10" s="155"/>
       <c r="L10" s="171">
         <f>VLOOKUP(A10,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="M10" s="171">
         <f>VLOOKUP(A10,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N10" s="195">
+        <v>42311</v>
+      </c>
+      <c r="N10" s="193">
         <v>1</v>
       </c>
-      <c r="O10" s="182"/>
+      <c r="O10" s="181"/>
     </row>
     <row r="11" spans="1:15" ht="60" customHeight="1">
       <c r="A11" s="179">
@@ -11238,16 +10941,16 @@
       <c r="K11" s="155"/>
       <c r="L11" s="171">
         <f>VLOOKUP(A11,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42311</v>
       </c>
       <c r="M11" s="171">
         <f>VLOOKUP(A11,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N11" s="195">
+        <v>42311</v>
+      </c>
+      <c r="N11" s="193">
         <v>1</v>
       </c>
-      <c r="O11" s="182"/>
+      <c r="O11" s="181"/>
     </row>
     <row r="12" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="179">
@@ -11274,8 +10977,8 @@
         <f>VLOOKUP(A12,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G12" s="113" t="s">
-        <v>207</v>
+      <c r="G12" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H12" s="154" t="s">
         <v>128</v>
@@ -11290,18 +10993,16 @@
       <c r="K12" s="156"/>
       <c r="L12" s="171">
         <f>VLOOKUP(A12,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="M12" s="171">
         <f>VLOOKUP(A12,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N12" s="195">
+        <v>42312</v>
+      </c>
+      <c r="N12" s="193">
         <v>1</v>
       </c>
-      <c r="O12" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O12" s="180"/>
     </row>
     <row r="13" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="179">
@@ -11328,8 +11029,8 @@
         <f>VLOOKUP(A13,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G13" s="113" t="s">
-        <v>208</v>
+      <c r="G13" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H13" s="154" t="s">
         <v>120</v>
@@ -11344,18 +11045,16 @@
       <c r="K13" s="156"/>
       <c r="L13" s="171">
         <f>VLOOKUP(A13,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="M13" s="171">
         <f>VLOOKUP(A13,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N13" s="195">
+        <v>42312</v>
+      </c>
+      <c r="N13" s="193">
         <v>1</v>
       </c>
-      <c r="O13" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O13" s="180"/>
     </row>
     <row r="14" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A14" s="179">
@@ -11382,8 +11081,8 @@
         <f>VLOOKUP(A14,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G14" s="113" t="s">
-        <v>209</v>
+      <c r="G14" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H14" s="154" t="s">
         <v>120</v>
@@ -11398,18 +11097,16 @@
       <c r="K14" s="156"/>
       <c r="L14" s="171">
         <f>VLOOKUP(A14,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42312</v>
       </c>
       <c r="M14" s="171">
         <f>VLOOKUP(A14,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N14" s="195">
+        <v>42312</v>
+      </c>
+      <c r="N14" s="193">
         <v>1</v>
       </c>
-      <c r="O14" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O14" s="180"/>
     </row>
     <row r="15" spans="1:15" ht="60" customHeight="1">
       <c r="A15" s="179">
@@ -11452,16 +11149,16 @@
       <c r="K15" s="155"/>
       <c r="L15" s="171">
         <f>VLOOKUP(A15,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="M15" s="171">
         <f>VLOOKUP(A15,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N15" s="195">
+        <v>42313</v>
+      </c>
+      <c r="N15" s="193">
         <v>1</v>
       </c>
-      <c r="O15" s="182"/>
+      <c r="O15" s="181"/>
     </row>
     <row r="16" spans="1:15" ht="60" customHeight="1">
       <c r="A16" s="179">
@@ -11504,16 +11201,16 @@
       <c r="K16" s="155"/>
       <c r="L16" s="171">
         <f>VLOOKUP(A16,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="M16" s="171">
         <f>VLOOKUP(A16,Planificación!B$13:N$51,12,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N16" s="195">
+      <c r="N16" s="193">
         <v>1</v>
       </c>
-      <c r="O16" s="182"/>
+      <c r="O16" s="181"/>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1">
       <c r="A17" s="179">
@@ -11556,16 +11253,16 @@
       <c r="K17" s="155"/>
       <c r="L17" s="171">
         <f>VLOOKUP(A17,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="M17" s="171">
         <f>VLOOKUP(A17,Planificación!B$13:N$51,12,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N17" s="195">
+      <c r="N17" s="193">
         <v>1</v>
       </c>
-      <c r="O17" s="182"/>
+      <c r="O17" s="181"/>
     </row>
     <row r="18" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="179">
@@ -11592,8 +11289,8 @@
         <f>VLOOKUP(A18,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G18" s="113" t="s">
-        <v>182</v>
+      <c r="G18" s="96" t="s">
+        <v>178</v>
       </c>
       <c r="H18" s="154" t="s">
         <v>120</v>
@@ -11608,18 +11305,16 @@
       <c r="K18" s="156"/>
       <c r="L18" s="171">
         <f>VLOOKUP(A18,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
+        <v>42313</v>
       </c>
       <c r="M18" s="171">
         <f>VLOOKUP(A18,Planificación!B$13:N$51,12,FALSE)</f>
         <v>42304</v>
       </c>
-      <c r="N18" s="195">
+      <c r="N18" s="193">
         <v>1</v>
       </c>
-      <c r="O18" s="180" t="s">
-        <v>205</v>
-      </c>
+      <c r="O18" s="180"/>
     </row>
     <row r="19" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="179">
@@ -11646,9 +11341,7 @@
         <f>VLOOKUP(A19,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G19" s="113" t="s">
-        <v>182</v>
-      </c>
+      <c r="G19" s="113"/>
       <c r="H19" s="154" t="s">
         <v>120</v>
       </c>
@@ -11662,18 +11355,13 @@
       <c r="K19" s="156"/>
       <c r="L19" s="171">
         <f>VLOOKUP(A19,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M19" s="171">
-        <f>VLOOKUP(A19,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N19" s="195">
-        <v>1</v>
-      </c>
-      <c r="O19" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42314</v>
+      </c>
+      <c r="M19" s="171"/>
+      <c r="N19" s="193">
+        <v>0</v>
+      </c>
+      <c r="O19" s="180"/>
     </row>
     <row r="20" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="179">
@@ -11700,9 +11388,7 @@
         <f>VLOOKUP(A20,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G20" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G20" s="113"/>
       <c r="H20" s="154" t="s">
         <v>120</v>
       </c>
@@ -11716,16 +11402,13 @@
       <c r="K20" s="156"/>
       <c r="L20" s="171">
         <f>VLOOKUP(A20,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M20" s="171">
-        <f>VLOOKUP(A20,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N20" s="195">
-        <v>1</v>
-      </c>
-      <c r="O20" s="183"/>
+        <v>42314</v>
+      </c>
+      <c r="M20" s="171"/>
+      <c r="N20" s="193">
+        <v>0</v>
+      </c>
+      <c r="O20" s="182"/>
     </row>
     <row r="21" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A21" s="179">
@@ -11752,9 +11435,7 @@
         <f>VLOOKUP(A21,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G21" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G21" s="113"/>
       <c r="H21" s="154" t="s">
         <v>120</v>
       </c>
@@ -11768,16 +11449,13 @@
       <c r="K21" s="156"/>
       <c r="L21" s="171">
         <f>VLOOKUP(A21,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M21" s="171">
-        <f>VLOOKUP(A21,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N21" s="195">
-        <v>1</v>
-      </c>
-      <c r="O21" s="183"/>
+        <v>42314</v>
+      </c>
+      <c r="M21" s="171"/>
+      <c r="N21" s="193">
+        <v>0</v>
+      </c>
+      <c r="O21" s="182"/>
     </row>
     <row r="22" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A22" s="179">
@@ -11804,9 +11482,7 @@
         <f>VLOOKUP(A22,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G22" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G22" s="113"/>
       <c r="H22" s="154" t="s">
         <v>120</v>
       </c>
@@ -11820,16 +11496,13 @@
       <c r="K22" s="156"/>
       <c r="L22" s="171">
         <f>VLOOKUP(A22,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M22" s="171">
-        <f>VLOOKUP(A22,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N22" s="195">
-        <v>1</v>
-      </c>
-      <c r="O22" s="183"/>
+        <v>42314</v>
+      </c>
+      <c r="M22" s="171"/>
+      <c r="N22" s="193">
+        <v>0</v>
+      </c>
+      <c r="O22" s="182"/>
     </row>
     <row r="23" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A23" s="179">
@@ -11856,9 +11529,7 @@
         <f>VLOOKUP(A23,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G23" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G23" s="113"/>
       <c r="H23" s="154" t="s">
         <v>120</v>
       </c>
@@ -11872,16 +11543,13 @@
       <c r="K23" s="156"/>
       <c r="L23" s="171">
         <f>VLOOKUP(A23,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M23" s="171">
-        <f>VLOOKUP(A23,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N23" s="195">
-        <v>1</v>
-      </c>
-      <c r="O23" s="183"/>
+        <v>42315</v>
+      </c>
+      <c r="M23" s="171"/>
+      <c r="N23" s="193">
+        <v>0</v>
+      </c>
+      <c r="O23" s="182"/>
     </row>
     <row r="24" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A24" s="179">
@@ -11908,9 +11576,7 @@
         <f>VLOOKUP(A24,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G24" s="113" t="s">
-        <v>183</v>
-      </c>
+      <c r="G24" s="113"/>
       <c r="H24" s="154" t="s">
         <v>120</v>
       </c>
@@ -11924,18 +11590,13 @@
       <c r="K24" s="156"/>
       <c r="L24" s="171">
         <f>VLOOKUP(A24,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M24" s="171">
-        <f>VLOOKUP(A24,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N24" s="195">
-        <v>1</v>
-      </c>
-      <c r="O24" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42315</v>
+      </c>
+      <c r="M24" s="171"/>
+      <c r="N24" s="193">
+        <v>0</v>
+      </c>
+      <c r="O24" s="180"/>
     </row>
     <row r="25" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="179">
@@ -11962,9 +11623,7 @@
         <f>VLOOKUP(A25,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G25" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G25" s="113"/>
       <c r="H25" s="154" t="s">
         <v>120</v>
       </c>
@@ -11978,16 +11637,13 @@
       <c r="K25" s="156"/>
       <c r="L25" s="171">
         <f>VLOOKUP(A25,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M25" s="171">
-        <f>VLOOKUP(A25,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N25" s="195">
-        <v>1</v>
-      </c>
-      <c r="O25" s="183"/>
+        <v>42315</v>
+      </c>
+      <c r="M25" s="171"/>
+      <c r="N25" s="193">
+        <v>0</v>
+      </c>
+      <c r="O25" s="182"/>
     </row>
     <row r="26" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A26" s="179">
@@ -12014,9 +11670,7 @@
         <f>VLOOKUP(A26,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G26" s="113" t="s">
-        <v>197</v>
-      </c>
+      <c r="G26" s="113"/>
       <c r="H26" s="154" t="s">
         <v>128</v>
       </c>
@@ -12030,18 +11684,13 @@
       <c r="K26" s="156"/>
       <c r="L26" s="171">
         <f>VLOOKUP(A26,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M26" s="171">
-        <f>VLOOKUP(A26,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N26" s="195">
-        <v>1</v>
-      </c>
-      <c r="O26" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42317</v>
+      </c>
+      <c r="M26" s="171"/>
+      <c r="N26" s="193">
+        <v>0</v>
+      </c>
+      <c r="O26" s="180"/>
     </row>
     <row r="27" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A27" s="179">
@@ -12068,9 +11717,7 @@
         <f>VLOOKUP(A27,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G27" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G27" s="113"/>
       <c r="H27" s="154" t="s">
         <v>120</v>
       </c>
@@ -12084,16 +11731,13 @@
       <c r="K27" s="156"/>
       <c r="L27" s="171">
         <f>VLOOKUP(A27,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M27" s="171">
-        <f>VLOOKUP(A27,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N27" s="195">
-        <v>1</v>
-      </c>
-      <c r="O27" s="183"/>
+        <v>42317</v>
+      </c>
+      <c r="M27" s="171"/>
+      <c r="N27" s="193">
+        <v>0</v>
+      </c>
+      <c r="O27" s="182"/>
     </row>
     <row r="28" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A28" s="179">
@@ -12120,9 +11764,7 @@
         <f>VLOOKUP(A28,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G28" s="113" t="s">
-        <v>198</v>
-      </c>
+      <c r="G28" s="113"/>
       <c r="H28" s="154" t="s">
         <v>120</v>
       </c>
@@ -12136,18 +11778,13 @@
       <c r="K28" s="156"/>
       <c r="L28" s="171">
         <f>VLOOKUP(A28,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M28" s="171">
-        <f>VLOOKUP(A28,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N28" s="195">
-        <v>1</v>
-      </c>
-      <c r="O28" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42317</v>
+      </c>
+      <c r="M28" s="171"/>
+      <c r="N28" s="193">
+        <v>0</v>
+      </c>
+      <c r="O28" s="180"/>
     </row>
     <row r="29" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A29" s="179">
@@ -12174,9 +11811,7 @@
         <f>VLOOKUP(A29,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G29" s="113" t="s">
-        <v>197</v>
-      </c>
+      <c r="G29" s="113"/>
       <c r="H29" s="154" t="s">
         <v>128</v>
       </c>
@@ -12190,18 +11825,13 @@
       <c r="K29" s="156"/>
       <c r="L29" s="171">
         <f>VLOOKUP(A29,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M29" s="171">
-        <f>VLOOKUP(A29,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N29" s="195">
-        <v>1</v>
-      </c>
-      <c r="O29" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42318</v>
+      </c>
+      <c r="M29" s="171"/>
+      <c r="N29" s="193">
+        <v>0</v>
+      </c>
+      <c r="O29" s="180"/>
     </row>
     <row r="30" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A30" s="179">
@@ -12228,9 +11858,7 @@
         <f>VLOOKUP(A30,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G30" s="113" t="s">
-        <v>184</v>
-      </c>
+      <c r="G30" s="113"/>
       <c r="H30" s="154" t="s">
         <v>120</v>
       </c>
@@ -12244,18 +11872,13 @@
       <c r="K30" s="156"/>
       <c r="L30" s="171">
         <f>VLOOKUP(A30,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M30" s="171">
-        <f>VLOOKUP(A30,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N30" s="195">
-        <v>1</v>
-      </c>
-      <c r="O30" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42318</v>
+      </c>
+      <c r="M30" s="171"/>
+      <c r="N30" s="193">
+        <v>0</v>
+      </c>
+      <c r="O30" s="180"/>
     </row>
     <row r="31" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A31" s="179">
@@ -12282,9 +11905,7 @@
         <f>VLOOKUP(A31,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G31" s="113" t="s">
-        <v>210</v>
-      </c>
+      <c r="G31" s="113"/>
       <c r="H31" s="154" t="s">
         <v>120</v>
       </c>
@@ -12298,18 +11919,13 @@
       <c r="K31" s="156"/>
       <c r="L31" s="171">
         <f>VLOOKUP(A31,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M31" s="171">
-        <f>VLOOKUP(A31,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N31" s="195">
-        <v>1</v>
-      </c>
-      <c r="O31" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42318</v>
+      </c>
+      <c r="M31" s="171"/>
+      <c r="N31" s="193">
+        <v>0</v>
+      </c>
+      <c r="O31" s="180"/>
     </row>
     <row r="32" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A32" s="179">
@@ -12336,9 +11952,7 @@
         <f>VLOOKUP(A32,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G32" s="113" t="s">
-        <v>211</v>
-      </c>
+      <c r="G32" s="113"/>
       <c r="H32" s="154" t="s">
         <v>120</v>
       </c>
@@ -12352,18 +11966,13 @@
       <c r="K32" s="156"/>
       <c r="L32" s="171">
         <f>VLOOKUP(A32,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M32" s="171">
-        <f>VLOOKUP(A32,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N32" s="195">
-        <v>1</v>
-      </c>
-      <c r="O32" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42318</v>
+      </c>
+      <c r="M32" s="171"/>
+      <c r="N32" s="193">
+        <v>0</v>
+      </c>
+      <c r="O32" s="180"/>
     </row>
     <row r="33" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A33" s="179">
@@ -12390,9 +11999,7 @@
         <f>VLOOKUP(A33,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G33" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G33" s="113"/>
       <c r="H33" s="154" t="s">
         <v>120</v>
       </c>
@@ -12406,16 +12013,13 @@
       <c r="K33" s="156"/>
       <c r="L33" s="171">
         <f>VLOOKUP(A33,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M33" s="171">
-        <f>VLOOKUP(A33,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N33" s="195">
-        <v>1</v>
-      </c>
-      <c r="O33" s="183"/>
+        <v>42319</v>
+      </c>
+      <c r="M33" s="171"/>
+      <c r="N33" s="193">
+        <v>0</v>
+      </c>
+      <c r="O33" s="182"/>
     </row>
     <row r="34" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A34" s="179">
@@ -12442,9 +12046,7 @@
         <f>VLOOKUP(A34,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G34" s="113" t="s">
-        <v>199</v>
-      </c>
+      <c r="G34" s="113"/>
       <c r="H34" s="154" t="s">
         <v>128</v>
       </c>
@@ -12458,18 +12060,13 @@
       <c r="K34" s="156"/>
       <c r="L34" s="171">
         <f>VLOOKUP(A34,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M34" s="171">
-        <f>VLOOKUP(A34,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N34" s="195">
-        <v>1</v>
-      </c>
-      <c r="O34" s="180" t="s">
-        <v>205</v>
-      </c>
+        <v>42319</v>
+      </c>
+      <c r="M34" s="171"/>
+      <c r="N34" s="193">
+        <v>0</v>
+      </c>
+      <c r="O34" s="180"/>
     </row>
     <row r="35" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A35" s="179">
@@ -12496,9 +12093,7 @@
         <f>VLOOKUP(A35,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G35" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G35" s="113"/>
       <c r="H35" s="154" t="s">
         <v>120</v>
       </c>
@@ -12512,16 +12107,13 @@
       <c r="K35" s="156"/>
       <c r="L35" s="171">
         <f>VLOOKUP(A35,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M35" s="171">
-        <f>VLOOKUP(A35,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N35" s="195">
-        <v>1</v>
-      </c>
-      <c r="O35" s="183"/>
+        <v>42319</v>
+      </c>
+      <c r="M35" s="171"/>
+      <c r="N35" s="193">
+        <v>0</v>
+      </c>
+      <c r="O35" s="182"/>
     </row>
     <row r="36" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A36" s="179">
@@ -12548,9 +12140,7 @@
         <f>VLOOKUP(A36,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G36" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G36" s="113"/>
       <c r="H36" s="154" t="s">
         <v>120</v>
       </c>
@@ -12564,16 +12154,13 @@
       <c r="K36" s="156"/>
       <c r="L36" s="171">
         <f>VLOOKUP(A36,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M36" s="171">
-        <f>VLOOKUP(A36,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N36" s="195">
-        <v>1</v>
-      </c>
-      <c r="O36" s="183"/>
+        <v>42320</v>
+      </c>
+      <c r="M36" s="171"/>
+      <c r="N36" s="193">
+        <v>0</v>
+      </c>
+      <c r="O36" s="182"/>
     </row>
     <row r="37" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A37" s="179">
@@ -12600,9 +12187,7 @@
         <f>VLOOKUP(A37,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G37" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G37" s="113"/>
       <c r="H37" s="154" t="s">
         <v>120</v>
       </c>
@@ -12616,16 +12201,13 @@
       <c r="K37" s="156"/>
       <c r="L37" s="171">
         <f>VLOOKUP(A37,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M37" s="171">
-        <f>VLOOKUP(A37,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N37" s="195">
-        <v>1</v>
-      </c>
-      <c r="O37" s="183"/>
+        <v>42320</v>
+      </c>
+      <c r="M37" s="171"/>
+      <c r="N37" s="193">
+        <v>0</v>
+      </c>
+      <c r="O37" s="182"/>
     </row>
     <row r="38" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A38" s="179">
@@ -12652,9 +12234,7 @@
         <f>VLOOKUP(A38,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G38" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G38" s="113"/>
       <c r="H38" s="154" t="s">
         <v>120</v>
       </c>
@@ -12668,16 +12248,13 @@
       <c r="K38" s="156"/>
       <c r="L38" s="171">
         <f>VLOOKUP(A38,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M38" s="171">
-        <f>VLOOKUP(A38,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N38" s="195">
-        <v>1</v>
-      </c>
-      <c r="O38" s="183"/>
+        <v>42320</v>
+      </c>
+      <c r="M38" s="171"/>
+      <c r="N38" s="193">
+        <v>0</v>
+      </c>
+      <c r="O38" s="182"/>
     </row>
     <row r="39" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A39" s="179">
@@ -12704,9 +12281,7 @@
         <f>VLOOKUP(A39,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G39" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G39" s="113"/>
       <c r="H39" s="154" t="s">
         <v>120</v>
       </c>
@@ -12720,16 +12295,13 @@
       <c r="K39" s="156"/>
       <c r="L39" s="171">
         <f>VLOOKUP(A39,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M39" s="171">
-        <f>VLOOKUP(A39,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N39" s="195">
-        <v>1</v>
-      </c>
-      <c r="O39" s="183"/>
+        <v>42321</v>
+      </c>
+      <c r="M39" s="171"/>
+      <c r="N39" s="193">
+        <v>0</v>
+      </c>
+      <c r="O39" s="182"/>
     </row>
     <row r="40" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A40" s="179">
@@ -12756,9 +12328,7 @@
         <f>VLOOKUP(A40,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G40" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G40" s="113"/>
       <c r="H40" s="154" t="s">
         <v>120</v>
       </c>
@@ -12772,16 +12342,13 @@
       <c r="K40" s="156"/>
       <c r="L40" s="171">
         <f>VLOOKUP(A40,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M40" s="171">
-        <f>VLOOKUP(A40,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N40" s="195">
-        <v>1</v>
-      </c>
-      <c r="O40" s="183"/>
+        <v>42321</v>
+      </c>
+      <c r="M40" s="171"/>
+      <c r="N40" s="193">
+        <v>0</v>
+      </c>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A41" s="179">
@@ -12808,9 +12375,7 @@
         <f>VLOOKUP(A41,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G41" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G41" s="113"/>
       <c r="H41" s="154" t="s">
         <v>120</v>
       </c>
@@ -12824,16 +12389,13 @@
       <c r="K41" s="156"/>
       <c r="L41" s="171">
         <f>VLOOKUP(A41,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M41" s="171">
-        <f>VLOOKUP(A41,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N41" s="195">
-        <v>1</v>
-      </c>
-      <c r="O41" s="183"/>
+        <v>42321</v>
+      </c>
+      <c r="M41" s="171"/>
+      <c r="N41" s="193">
+        <v>0</v>
+      </c>
+      <c r="O41" s="182"/>
     </row>
     <row r="42" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
       <c r="A42" s="179">
@@ -12860,9 +12422,7 @@
         <f>VLOOKUP(A42,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>178</v>
-      </c>
+      <c r="G42" s="113"/>
       <c r="H42" s="154" t="s">
         <v>120</v>
       </c>
@@ -12876,19 +12436,16 @@
       <c r="K42" s="156"/>
       <c r="L42" s="171">
         <f>VLOOKUP(A42,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M42" s="171">
-        <f>VLOOKUP(A42,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N42" s="195">
-        <v>1</v>
-      </c>
-      <c r="O42" s="183"/>
+        <v>42321</v>
+      </c>
+      <c r="M42" s="171"/>
+      <c r="N42" s="193">
+        <v>0</v>
+      </c>
+      <c r="O42" s="182"/>
     </row>
     <row r="43" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A43" s="184">
+      <c r="A43" s="183">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -12900,44 +12457,39 @@
         <f>VLOOKUP(A43,Planificación!$B$13:$F$98,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D43" s="186" t="str">
+      <c r="D43" s="185" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A43,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A43,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A43,Planificación!B$13:H$51,3,FALSE))</f>
         <v>ACENTRE / Desarrollo de Sistemas</v>
       </c>
-      <c r="E43" s="185" t="str">
+      <c r="E43" s="184" t="str">
         <f>VLOOKUP(A43,Planificación!B$13:H$51,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F43" s="185" t="str">
+      <c r="F43" s="184" t="str">
         <f>VLOOKUP(A43,Planificación!$B$13:$H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G43" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="188" t="s">
+      <c r="G43" s="186"/>
+      <c r="H43" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="188" t="s">
+      <c r="I43" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="J43" s="188" t="str">
+      <c r="J43" s="187" t="str">
         <f>VLOOKUP(A43,Planificación!B$13:H$51,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K43" s="189"/>
-      <c r="L43" s="190">
+      <c r="K43" s="188"/>
+      <c r="L43" s="189">
         <f>VLOOKUP(A43,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="M43" s="190">
-        <f>VLOOKUP(A43,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N43" s="196">
-        <v>1</v>
-      </c>
-      <c r="O43" s="191"/>
+        <v>42321</v>
+      </c>
+      <c r="M43" s="189"/>
+      <c r="N43" s="193">
+        <v>0</v>
+      </c>
+      <c r="O43" s="190"/>
     </row>
     <row r="44" spans="1:15" s="114" customFormat="1">
       <c r="A44" s="172"/>
@@ -13040,15 +12592,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
       <c r="J2" s="147"/>
       <c r="K2" s="147"/>
       <c r="L2" s="147"/>
@@ -13058,65 +12610,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="258" t="s">
+      <c r="C4" s="242" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="258"/>
-      <c r="E4" s="248" t="str">
+      <c r="D4" s="242"/>
+      <c r="E4" s="243" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="250"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="259" t="str">
+      <c r="C5" s="246" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="248" t="str">
+      <c r="D5" s="247"/>
+      <c r="E5" s="243" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="250"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="246" t="s">
+      <c r="C6" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="248" t="str">
+      <c r="D6" s="251"/>
+      <c r="E6" s="243" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="250"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="245"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="253">
+      <c r="D7" s="253"/>
+      <c r="E7" s="254">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42290</v>
       </c>
-      <c r="F7" s="254"/>
-      <c r="G7" s="255" t="s">
+      <c r="F7" s="255"/>
+      <c r="G7" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="256"/>
+      <c r="H7" s="257"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42304</v>
@@ -13124,24 +12676,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="248" t="str">
+      <c r="D8" s="258"/>
+      <c r="E8" s="243" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="250"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="251" t="s">
+      <c r="C13" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="251"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13223,10 +12775,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="245" t="s">
+      <c r="C26" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="245"/>
+      <c r="D26" s="249"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -13242,7 +12794,7 @@
       </c>
       <c r="D28" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C28)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="3:14">
@@ -13287,7 +12839,7 @@
       </c>
       <c r="D33" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C33)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:16">
@@ -13296,14 +12848,14 @@
       </c>
       <c r="D34" s="110">
         <f>SUM(D28:D33)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="245" t="s">
+      <c r="C40" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="245"/>
+      <c r="D40" s="249"/>
       <c r="P40" s="145"/>
     </row>
     <row r="41" spans="3:16">
@@ -13321,7 +12873,7 @@
       </c>
       <c r="D42" s="109">
         <f>Planificación!O8</f>
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="3:16">
@@ -13330,14 +12882,14 @@
       </c>
       <c r="D43" s="109">
         <f>D42</f>
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="245" t="s">
+      <c r="C57" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="245"/>
+      <c r="D57" s="249"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -13353,7 +12905,7 @@
       </c>
       <c r="D59" s="146">
         <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C59)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="3:4">
@@ -13380,16 +12932,11 @@
       </c>
       <c r="D62" s="110">
         <f>SUM(D59:D61)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -13401,6 +12948,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13568,7 +13120,7 @@
       <c r="A8" s="137"/>
       <c r="B8" s="137"/>
       <c r="C8" s="148" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="118" t="s">
@@ -13659,7 +13211,7 @@
       <c r="C17" s="137"/>
       <c r="D17" s="106"/>
       <c r="E17" s="133" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
@@ -13686,7 +13238,7 @@
       <c r="C20" s="137"/>
       <c r="D20" s="106"/>
       <c r="E20" s="133" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -13704,7 +13256,7 @@
       <c r="C22" s="137"/>
       <c r="D22" s="106"/>
       <c r="E22" s="133" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
@@ -13713,7 +13265,7 @@
       <c r="C23" s="137"/>
       <c r="D23" s="106"/>
       <c r="E23" s="133" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -13722,7 +13274,7 @@
       <c r="C24" s="137"/>
       <c r="D24" s="106"/>
       <c r="E24" s="133" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -13731,7 +13283,7 @@
       <c r="C25" s="137"/>
       <c r="D25" s="106"/>
       <c r="E25" s="133" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -13740,7 +13292,7 @@
       <c r="C26" s="137"/>
       <c r="D26" s="106"/>
       <c r="E26" s="133" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -13776,7 +13328,7 @@
       <c r="C30" s="137"/>
       <c r="D30" s="106"/>
       <c r="E30" s="133" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
@@ -13794,7 +13346,7 @@
       <c r="C32" s="137"/>
       <c r="D32" s="106"/>
       <c r="E32" s="133" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -13803,7 +13355,7 @@
       <c r="C33" s="137"/>
       <c r="D33" s="106"/>
       <c r="E33" s="135" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
@@ -13812,7 +13364,7 @@
       <c r="C34" s="137"/>
       <c r="D34" s="106"/>
       <c r="E34" s="133" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Z$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Z$53</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="199">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -605,9 +605,6 @@
     <t>Analista de Calidad</t>
   </si>
   <si>
-    <t>OCTUBRE</t>
-  </si>
-  <si>
     <t>Julio</t>
   </si>
   <si>
@@ -774,12 +771,18 @@
   </si>
   <si>
     <t>Nro.</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>Pendiente de Revisión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1918,7 +1921,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2263,10 +2266,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2494,10 +2493,6 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2510,9 +2505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2522,6 +2514,23 @@
     </xf>
     <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2770,7 +2779,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2825,7 +2834,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2883,7 +2892,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2973,7 +2982,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3018,7 +3027,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3047,7 +3056,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3070,7 +3079,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3095,15 +3104,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3151,7 +3160,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3186,7 +3195,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3198,7 +3207,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3256,7 +3265,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3346,7 +3355,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3391,7 +3400,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3436,7 +3445,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3481,7 +3490,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3526,7 +3535,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3571,132 +3580,14 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2686463519414333E-2"/>
-                  <c:y val="-4.1182164368182374E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.8482633616986218E-3"/>
-                  <c:y val="5.0969611457527347E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.6697150524345895E-2"/>
-                  <c:y val="2.6255215207925457E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2865835716723753E-2"/>
-                  <c:y val="0.10718007069925507"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0%" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3731,7 +3622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3746,12 +3637,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3764,7 +3655,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -3809,7 +3700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3844,7 +3735,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3856,7 +3747,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3922,7 +3813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3971,7 +3862,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -3999,7 +3890,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4010,7 +3901,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4037,15 +3928,15 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4102,7 +3993,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="277321944"/>
@@ -4160,7 +4051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="277321160"/>
@@ -4199,7 +4090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4234,7 +4125,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4246,7 +4137,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4304,7 +4195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4423,12 +4314,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4497,7 +4388,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4566,7 +4457,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4638,7 +4529,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4673,7 +4564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="277323904"/>
@@ -4759,7 +4650,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4788,7 +4679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="277323120"/>
@@ -4827,7 +4718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4862,7 +4753,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7507,15 +7398,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="61"/>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7575,7 +7466,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -7666,22 +7557,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="215" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="216"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="217" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="223" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="224"/>
-      <c r="E3" s="225"/>
+      <c r="C3" s="225" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7693,12 +7584,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7721,10 +7612,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="222"/>
+      <c r="E8" s="224"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7739,10 +7630,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="226" t="s">
+      <c r="D10" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="226"/>
+      <c r="E10" s="228"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7757,10 +7648,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="226" t="s">
+      <c r="D12" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="226"/>
+      <c r="E12" s="228"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7775,10 +7666,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="226" t="s">
+      <c r="D14" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="226"/>
+      <c r="E14" s="228"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7793,10 +7684,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="226" t="s">
+      <c r="D16" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="226"/>
+      <c r="E16" s="228"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7810,62 +7701,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="212" t="s">
+      <c r="C20" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="200" t="s">
+      <c r="C21" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="204"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="200" t="s">
+      <c r="C23" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="201"/>
-      <c r="E23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="200" t="s">
+      <c r="C24" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="201"/>
-      <c r="E24" s="202"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7878,57 +7769,57 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="209" t="s">
+      <c r="B27" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="212" t="s">
+      <c r="C28" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="213"/>
-      <c r="E28" s="214"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="206" t="s">
+      <c r="B29" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
+      <c r="C30" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="199"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="167" t="s">
+      <c r="B31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="196" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
+      <c r="C31" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="199"/>
+      <c r="E31" s="200"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7937,11 +7828,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="196" t="s">
+      <c r="C32" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="200"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7950,11 +7841,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="196" t="s">
+      <c r="C33" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="200"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7963,174 +7854,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="196" t="s">
+      <c r="C34" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="196" t="s">
+      <c r="C35" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="198"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="206" t="s">
+      <c r="B36" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="196" t="s">
+      <c r="C37" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="197"/>
-      <c r="E37" s="198"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="196" t="s">
+      <c r="C38" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="197"/>
-      <c r="E38" s="198"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="200"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="196" t="s">
+      <c r="C39" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="197"/>
-      <c r="E39" s="198"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="196" t="s">
+      <c r="C40" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="198"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="196" t="s">
+      <c r="C41" s="198" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="198"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="200"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="196" t="s">
+      <c r="C42" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="197"/>
-      <c r="E42" s="198"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="196" t="s">
+      <c r="C43" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="198"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="196" t="s">
+      <c r="C44" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="197"/>
-      <c r="E44" s="198"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="196" t="s">
+      <c r="C45" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="197"/>
-      <c r="E45" s="198"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="196" t="s">
+      <c r="C46" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="197"/>
-      <c r="E46" s="198"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="200"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="196" t="s">
+      <c r="C47" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="197"/>
-      <c r="E47" s="198"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="200"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="196" t="s">
+      <c r="C48" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="197"/>
-      <c r="E48" s="198"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="200"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="196" t="s">
+      <c r="C49" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="197"/>
-      <c r="E49" s="198"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="200"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8163,23 +8054,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="209" t="s">
+      <c r="B52" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="210"/>
-      <c r="D52" s="210"/>
-      <c r="E52" s="211"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="213"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="212" t="s">
+      <c r="C53" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="213"/>
-      <c r="E53" s="214"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="216"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8194,132 +8085,132 @@
       <c r="B54" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="196" t="s">
+      <c r="C54" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="197"/>
-      <c r="E54" s="198"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="200"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="196" t="s">
+      <c r="C55" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="197"/>
-      <c r="E55" s="198"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="196" t="s">
+      <c r="C56" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="198"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="196" t="s">
+      <c r="C57" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="203"/>
-      <c r="E57" s="204"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="206"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="196" t="s">
+      <c r="C58" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="203"/>
-      <c r="E58" s="204"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="206"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="196" t="s">
+      <c r="C59" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="203"/>
-      <c r="E59" s="204"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="206"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="196" t="s">
+      <c r="C60" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="203"/>
-      <c r="E60" s="204"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="206"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="205" t="s">
+      <c r="C61" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="203"/>
-      <c r="E61" s="204"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="206"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="196" t="s">
+      <c r="C62" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="203"/>
-      <c r="E62" s="204"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="206"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="205" t="s">
+      <c r="C63" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="203"/>
-      <c r="E63" s="204"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="206"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="205" t="s">
+      <c r="C64" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="203"/>
-      <c r="E64" s="204"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="206"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="196" t="s">
+      <c r="C65" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="197"/>
-      <c r="E65" s="198"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="200"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8330,200 +8221,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="199"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="199"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="201"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="195"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="195"/>
-      <c r="E68" s="195"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="195"/>
-      <c r="C69" s="195"/>
-      <c r="D69" s="195"/>
-      <c r="E69" s="195"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="195"/>
-      <c r="C70" s="195"/>
-      <c r="D70" s="195"/>
-      <c r="E70" s="195"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="195"/>
-      <c r="C71" s="195"/>
-      <c r="D71" s="195"/>
-      <c r="E71" s="195"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="195"/>
-      <c r="C72" s="195"/>
-      <c r="D72" s="195"/>
-      <c r="E72" s="195"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="195"/>
-      <c r="C73" s="195"/>
-      <c r="D73" s="195"/>
-      <c r="E73" s="195"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="195"/>
-      <c r="C74" s="195"/>
-      <c r="D74" s="195"/>
-      <c r="E74" s="195"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="195"/>
-      <c r="C75" s="195"/>
-      <c r="D75" s="195"/>
-      <c r="E75" s="195"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="195"/>
-      <c r="C76" s="195"/>
-      <c r="D76" s="195"/>
-      <c r="E76" s="195"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="195"/>
-      <c r="C77" s="195"/>
-      <c r="D77" s="195"/>
-      <c r="E77" s="195"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="195"/>
-      <c r="C78" s="195"/>
-      <c r="D78" s="195"/>
-      <c r="E78" s="195"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="195"/>
-      <c r="C79" s="195"/>
-      <c r="D79" s="195"/>
-      <c r="E79" s="195"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="195"/>
-      <c r="C80" s="195"/>
-      <c r="D80" s="195"/>
-      <c r="E80" s="195"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="195"/>
-      <c r="C81" s="195"/>
-      <c r="D81" s="195"/>
-      <c r="E81" s="195"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="195"/>
-      <c r="C82" s="195"/>
-      <c r="D82" s="195"/>
-      <c r="E82" s="195"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="195"/>
-      <c r="C83" s="195"/>
-      <c r="D83" s="195"/>
-      <c r="E83" s="195"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="195"/>
-      <c r="C85" s="195"/>
-      <c r="D85" s="195"/>
-      <c r="E85" s="195"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="195"/>
-      <c r="C86" s="195"/>
-      <c r="D86" s="195"/>
-      <c r="E86" s="195"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8620,10 +8511,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Z56"/>
+  <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8645,22 +8536,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8668,99 +8559,99 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="232" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="O6" s="144"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="234" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="230"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="232" t="s">
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="234"/>
-      <c r="J7" s="235" t="s">
+      <c r="F7" s="235"/>
+      <c r="G7" s="236"/>
+      <c r="J7" s="237" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="164">
+        <f>SUM(K13:K49)</f>
+        <v>100</v>
+      </c>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="235"/>
+      <c r="G8" s="236"/>
+      <c r="J8" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="235"/>
-      <c r="N7" s="235"/>
-      <c r="O7" s="165">
-        <f>SUM(K13:K51)</f>
-        <v>90</v>
-      </c>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="229" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="233"/>
-      <c r="G8" s="234"/>
-      <c r="J8" s="235" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="165">
-        <f>SUM(N13:N51)</f>
-        <v>34</v>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
+      <c r="O8" s="164">
+        <f>SUM(N13:N49)</f>
+        <v>60</v>
       </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="127">
-        <v>42290</v>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="126">
+        <v>42310</v>
       </c>
       <c r="F9" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="123">
-        <v>42304</v>
+      <c r="G9" s="122">
+        <v>42324</v>
       </c>
       <c r="I9" s="111"/>
-      <c r="O9" s="144"/>
+      <c r="O9" s="143"/>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="236" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="238"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="238" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8771,1653 +8662,1633 @@
       <c r="F11" s="19"/>
       <c r="Z11" s="20"/>
     </row>
-    <row r="12" spans="2:26" s="122" customFormat="1" ht="38.25">
-      <c r="B12" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="119" t="s">
+    <row r="12" spans="2:26" s="121" customFormat="1" ht="38.25">
+      <c r="B12" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="118" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="119" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="G12" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="120" t="s">
+      <c r="H12" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="121" t="s">
+      <c r="I12" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="121" t="s">
+      <c r="K12" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="121" t="s">
+      <c r="L12" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="121" t="s">
+      <c r="M12" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="121" t="s">
+      <c r="N12" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="121" t="s">
+      <c r="O12" s="120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+    <row r="13" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B13" s="85">
         <v>1</v>
       </c>
-      <c r="C13" s="192">
-        <v>2</v>
-      </c>
-      <c r="D13" s="157" t="s">
+      <c r="C13" s="189">
+        <v>3</v>
+      </c>
+      <c r="D13" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="158" t="s">
+      <c r="E13" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="168">
+      <c r="F13" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="167">
         <v>42310</v>
       </c>
-      <c r="J13" s="168">
+      <c r="J13" s="167">
         <v>42310</v>
       </c>
-      <c r="K13" s="125">
-        <v>2</v>
-      </c>
-      <c r="L13" s="168">
+      <c r="K13" s="124">
+        <v>3</v>
+      </c>
+      <c r="L13" s="167">
         <v>42310</v>
       </c>
-      <c r="M13" s="168">
+      <c r="M13" s="167">
         <v>42310</v>
       </c>
-      <c r="N13" s="125">
-        <v>2</v>
-      </c>
-      <c r="O13" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="N13" s="124">
+        <v>3</v>
+      </c>
+      <c r="O13" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B14" s="85">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="192">
+      <c r="C14" s="189">
+        <v>3</v>
+      </c>
+      <c r="D14" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="167">
+        <v>42310</v>
+      </c>
+      <c r="J14" s="167">
+        <v>42310</v>
+      </c>
+      <c r="K14" s="124">
+        <v>3</v>
+      </c>
+      <c r="L14" s="167">
+        <v>42310</v>
+      </c>
+      <c r="M14" s="167">
+        <v>42310</v>
+      </c>
+      <c r="N14" s="124">
+        <v>3</v>
+      </c>
+      <c r="O14" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B15" s="85">
+        <f t="shared" ref="B15:B49" si="0">B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="189">
+        <v>3</v>
+      </c>
+      <c r="D15" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="159" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="167">
+        <v>42310</v>
+      </c>
+      <c r="J15" s="167">
+        <v>42310</v>
+      </c>
+      <c r="K15" s="124">
         <v>2</v>
       </c>
-      <c r="D14" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="159" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="168">
+      <c r="L15" s="167">
         <v>42310</v>
       </c>
-      <c r="J14" s="168">
+      <c r="M15" s="167">
         <v>42310</v>
       </c>
-      <c r="K14" s="125">
-        <v>3</v>
-      </c>
-      <c r="L14" s="168">
-        <v>42310</v>
-      </c>
-      <c r="M14" s="168">
-        <v>42310</v>
-      </c>
-      <c r="N14" s="125">
-        <v>3</v>
-      </c>
-      <c r="O14" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B15" s="85">
-        <f t="shared" ref="B15:B51" si="0">B14+1</f>
-        <v>3</v>
-      </c>
-      <c r="C15" s="192">
+      <c r="N15" s="124">
         <v>2</v>
       </c>
-      <c r="D15" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="168">
-        <v>42310</v>
-      </c>
-      <c r="J15" s="168">
-        <v>42310</v>
-      </c>
-      <c r="K15" s="125">
-        <v>2</v>
-      </c>
-      <c r="L15" s="168">
-        <v>42310</v>
-      </c>
-      <c r="M15" s="168">
-        <v>42310</v>
-      </c>
-      <c r="N15" s="125">
-        <v>2</v>
-      </c>
-      <c r="O15" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O15" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B16" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="192">
+      <c r="C16" s="189">
+        <v>3</v>
+      </c>
+      <c r="D16" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="158" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="167">
+        <v>42311</v>
+      </c>
+      <c r="J16" s="167">
+        <v>42311</v>
+      </c>
+      <c r="K16" s="124">
         <v>2</v>
       </c>
-      <c r="D16" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="159" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="168">
+      <c r="L16" s="167">
         <v>42311</v>
       </c>
-      <c r="J16" s="168">
+      <c r="M16" s="167">
         <v>42311</v>
       </c>
-      <c r="K16" s="125">
+      <c r="N16" s="124">
         <v>2</v>
       </c>
-      <c r="L16" s="168">
-        <v>42311</v>
-      </c>
-      <c r="M16" s="168">
-        <v>42311</v>
-      </c>
-      <c r="N16" s="125">
-        <v>2</v>
-      </c>
-      <c r="O16" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O16" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B17" s="85">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="189">
+        <v>3</v>
+      </c>
+      <c r="D17" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="167">
+        <v>42311</v>
+      </c>
+      <c r="J17" s="167">
+        <v>42311</v>
+      </c>
+      <c r="K17" s="124">
         <v>2</v>
       </c>
-      <c r="D17" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="159" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="168">
+      <c r="L17" s="167">
         <v>42311</v>
       </c>
-      <c r="J17" s="168">
+      <c r="M17" s="167">
         <v>42311</v>
       </c>
-      <c r="K17" s="125">
+      <c r="N17" s="124">
         <v>2</v>
       </c>
-      <c r="L17" s="168">
-        <v>42311</v>
-      </c>
-      <c r="M17" s="168">
-        <v>42311</v>
-      </c>
-      <c r="N17" s="125">
-        <v>2</v>
-      </c>
-      <c r="O17" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O17" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B18" s="85">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="189">
+        <v>3</v>
+      </c>
+      <c r="D18" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="158" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="167">
+        <v>42311</v>
+      </c>
+      <c r="J18" s="167">
+        <v>42311</v>
+      </c>
+      <c r="K18" s="124">
         <v>2</v>
       </c>
-      <c r="D18" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="168">
+      <c r="L18" s="167">
         <v>42311</v>
       </c>
-      <c r="J18" s="168">
+      <c r="M18" s="167">
         <v>42311</v>
       </c>
-      <c r="K18" s="125">
+      <c r="N18" s="124">
         <v>2</v>
       </c>
-      <c r="L18" s="168">
-        <v>42311</v>
-      </c>
-      <c r="M18" s="168">
-        <v>42311</v>
-      </c>
-      <c r="N18" s="125">
-        <v>2</v>
-      </c>
-      <c r="O18" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O18" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B19" s="85">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="192">
+      <c r="C19" s="189">
+        <v>3</v>
+      </c>
+      <c r="D19" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="167">
+        <v>42311</v>
+      </c>
+      <c r="J19" s="167">
+        <v>42311</v>
+      </c>
+      <c r="K19" s="124">
         <v>2</v>
       </c>
-      <c r="D19" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="159" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="168">
+      <c r="L19" s="167">
         <v>42311</v>
       </c>
-      <c r="J19" s="168">
+      <c r="M19" s="167">
         <v>42311</v>
       </c>
-      <c r="K19" s="125">
+      <c r="N19" s="124">
         <v>2</v>
       </c>
-      <c r="L19" s="168">
-        <v>42311</v>
-      </c>
-      <c r="M19" s="168">
-        <v>42311</v>
-      </c>
-      <c r="N19" s="125">
-        <v>2</v>
-      </c>
-      <c r="O19" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O19" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B20" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="192">
-        <v>1</v>
-      </c>
-      <c r="D20" s="157" t="s">
+      <c r="C20" s="189">
+        <v>2</v>
+      </c>
+      <c r="D20" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="158" t="s">
+      <c r="E20" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="159" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="168">
+      <c r="F20" s="158" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="167">
         <v>42312</v>
       </c>
-      <c r="J20" s="168">
+      <c r="J20" s="167">
         <v>42312</v>
       </c>
-      <c r="K20" s="125">
-        <v>3</v>
-      </c>
-      <c r="L20" s="168">
+      <c r="K20" s="124">
+        <v>4</v>
+      </c>
+      <c r="L20" s="167">
         <v>42312</v>
       </c>
-      <c r="M20" s="168">
+      <c r="M20" s="167">
         <v>42312</v>
       </c>
-      <c r="N20" s="125">
-        <v>3</v>
-      </c>
-      <c r="O20" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="N20" s="124">
+        <v>4</v>
+      </c>
+      <c r="O20" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B21" s="85">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="192">
-        <v>1</v>
-      </c>
-      <c r="D21" s="161" t="s">
+      <c r="C21" s="189">
+        <v>2</v>
+      </c>
+      <c r="D21" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="159" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="168">
+      <c r="F21" s="158" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="167">
         <v>42312</v>
       </c>
-      <c r="J21" s="168">
+      <c r="J21" s="167">
         <v>42312</v>
       </c>
-      <c r="K21" s="125">
+      <c r="K21" s="124">
         <v>3</v>
       </c>
-      <c r="L21" s="168">
+      <c r="L21" s="167">
         <v>42312</v>
       </c>
-      <c r="M21" s="168">
+      <c r="M21" s="167">
         <v>42312</v>
       </c>
-      <c r="N21" s="125">
+      <c r="N21" s="124">
         <v>3</v>
       </c>
-      <c r="O21" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O21" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B22" s="85">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="192">
-        <v>1</v>
-      </c>
-      <c r="D22" s="161" t="s">
+      <c r="C22" s="189">
+        <v>2</v>
+      </c>
+      <c r="D22" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="158" t="s">
+      <c r="E22" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="168">
-        <v>42312</v>
-      </c>
-      <c r="J22" s="168">
-        <v>42312</v>
-      </c>
-      <c r="K22" s="125">
-        <v>2</v>
-      </c>
-      <c r="L22" s="168">
-        <v>42312</v>
-      </c>
-      <c r="M22" s="168">
-        <v>42312</v>
-      </c>
-      <c r="N22" s="125">
-        <v>2</v>
-      </c>
-      <c r="O22" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="F22" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="167">
+        <v>42322</v>
+      </c>
+      <c r="J22" s="167">
+        <v>42322</v>
+      </c>
+      <c r="K22" s="124">
+        <v>3</v>
+      </c>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="125"/>
+    </row>
+    <row r="23" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B23" s="85">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="192">
-        <v>1</v>
-      </c>
-      <c r="D23" s="161" t="s">
+      <c r="C23" s="189">
+        <v>2</v>
+      </c>
+      <c r="D23" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="158" t="s">
+      <c r="E23" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="160" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="168">
+      <c r="F23" s="159" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="167">
         <v>42312</v>
       </c>
-      <c r="J23" s="168">
+      <c r="J23" s="167">
         <v>42313</v>
       </c>
-      <c r="K23" s="125">
+      <c r="K23" s="124">
         <v>2</v>
       </c>
-      <c r="L23" s="168">
+      <c r="L23" s="167">
         <v>42312</v>
       </c>
-      <c r="M23" s="168">
+      <c r="M23" s="167">
         <v>42313</v>
       </c>
-      <c r="N23" s="125">
+      <c r="N23" s="124">
         <v>2</v>
       </c>
-      <c r="O23" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O23" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B24" s="85">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C24" s="192">
-        <v>1</v>
-      </c>
-      <c r="D24" s="161" t="s">
+      <c r="C24" s="189">
+        <v>2</v>
+      </c>
+      <c r="D24" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="158" t="s">
+      <c r="E24" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="160" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="168">
+      <c r="F24" s="159" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="167">
         <v>42313</v>
       </c>
-      <c r="J24" s="168">
+      <c r="J24" s="167">
         <v>42313</v>
       </c>
-      <c r="K24" s="125">
-        <v>3</v>
-      </c>
-      <c r="L24" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M24" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N24" s="125">
-        <v>3</v>
-      </c>
-      <c r="O24" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="K24" s="124">
+        <v>2</v>
+      </c>
+      <c r="L24" s="167">
+        <v>42313</v>
+      </c>
+      <c r="M24" s="167">
+        <v>42313</v>
+      </c>
+      <c r="N24" s="124">
+        <v>2</v>
+      </c>
+      <c r="O24" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B25" s="85">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C25" s="192">
-        <v>1</v>
-      </c>
-      <c r="D25" s="161" t="s">
+      <c r="C25" s="189">
+        <v>2</v>
+      </c>
+      <c r="D25" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="158" t="s">
+      <c r="E25" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="160" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="168">
+      <c r="F25" s="159" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="167">
         <v>42313</v>
       </c>
-      <c r="J25" s="168">
+      <c r="J25" s="167">
         <v>42313</v>
       </c>
-      <c r="K25" s="125">
-        <v>3</v>
-      </c>
-      <c r="L25" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M25" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N25" s="125">
-        <v>3</v>
-      </c>
-      <c r="O25" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="K25" s="124">
+        <v>2</v>
+      </c>
+      <c r="L25" s="167">
+        <v>42313</v>
+      </c>
+      <c r="M25" s="167">
+        <v>42313</v>
+      </c>
+      <c r="N25" s="124">
+        <v>2</v>
+      </c>
+      <c r="O25" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B26" s="85">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C26" s="192">
-        <v>1</v>
-      </c>
-      <c r="D26" s="157" t="s">
+      <c r="C26" s="189">
+        <v>2</v>
+      </c>
+      <c r="D26" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="158" t="s">
+      <c r="E26" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="168">
+      <c r="F26" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="167">
         <v>42313</v>
       </c>
-      <c r="J26" s="168">
+      <c r="J26" s="167">
         <v>42313</v>
       </c>
-      <c r="K26" s="125">
+      <c r="K26" s="124">
         <v>3</v>
       </c>
-      <c r="L26" s="168">
-        <v>42290</v>
-      </c>
-      <c r="M26" s="168">
-        <v>42304</v>
-      </c>
-      <c r="N26" s="125">
+      <c r="L26" s="167">
+        <v>42313</v>
+      </c>
+      <c r="M26" s="167">
+        <v>42313</v>
+      </c>
+      <c r="N26" s="124">
         <v>3</v>
       </c>
-      <c r="O26" s="126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="O26" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B27" s="85">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C27" s="192">
-        <v>1</v>
-      </c>
-      <c r="D27" s="157" t="s">
+      <c r="C27" s="189">
+        <v>2</v>
+      </c>
+      <c r="D27" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="158" t="s">
+      <c r="E27" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="168">
+      <c r="F27" s="188" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="167">
         <v>42314</v>
       </c>
-      <c r="J27" s="168">
+      <c r="J27" s="167">
         <v>42314</v>
       </c>
-      <c r="K27" s="125">
-        <v>2</v>
-      </c>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="126"/>
-    </row>
-    <row r="28" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="K27" s="124">
+        <v>4</v>
+      </c>
+      <c r="L27" s="167">
+        <v>42314</v>
+      </c>
+      <c r="M27" s="167">
+        <v>42314</v>
+      </c>
+      <c r="N27" s="124">
+        <v>4</v>
+      </c>
+      <c r="O27" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B28" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C28" s="192">
-        <v>1</v>
-      </c>
-      <c r="D28" s="157" t="s">
+      <c r="C28" s="189">
+        <v>2</v>
+      </c>
+      <c r="D28" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="158" t="s">
+      <c r="E28" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="164" t="s">
+      <c r="F28" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="168">
-        <v>42314</v>
-      </c>
-      <c r="J28" s="168">
-        <v>42314</v>
-      </c>
-      <c r="K28" s="125">
-        <v>2</v>
-      </c>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="126"/>
-    </row>
-    <row r="29" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A29" s="124"/>
+      <c r="H28" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="167">
+        <v>42324</v>
+      </c>
+      <c r="J28" s="167">
+        <v>42324</v>
+      </c>
+      <c r="K28" s="124">
+        <v>3</v>
+      </c>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="125"/>
+    </row>
+    <row r="29" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A29" s="123"/>
       <c r="B29" s="85">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C29" s="192">
-        <v>1</v>
-      </c>
-      <c r="D29" s="157" t="s">
+      <c r="C29" s="189">
+        <v>2</v>
+      </c>
+      <c r="D29" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="158" t="s">
+      <c r="E29" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="168">
-        <v>42314</v>
-      </c>
-      <c r="J29" s="168">
-        <v>42314</v>
-      </c>
-      <c r="K29" s="125">
-        <v>2</v>
-      </c>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="126"/>
-    </row>
-    <row r="30" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A30" s="124"/>
+      <c r="F29" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="167">
+        <v>42322</v>
+      </c>
+      <c r="J29" s="167">
+        <v>42322</v>
+      </c>
+      <c r="K29" s="124">
+        <v>3</v>
+      </c>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="125"/>
+    </row>
+    <row r="30" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A30" s="123"/>
       <c r="B30" s="85">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C30" s="192">
-        <v>1</v>
-      </c>
-      <c r="D30" s="157" t="s">
+      <c r="C30" s="189">
+        <v>2</v>
+      </c>
+      <c r="D30" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="158" t="s">
+      <c r="E30" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="160" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="168">
-        <v>42314</v>
-      </c>
-      <c r="J30" s="168">
-        <v>42314</v>
-      </c>
-      <c r="K30" s="125">
+      <c r="F30" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="167">
+        <v>42322</v>
+      </c>
+      <c r="J30" s="167">
+        <v>42322</v>
+      </c>
+      <c r="K30" s="124">
         <v>2</v>
       </c>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="126"/>
-    </row>
-    <row r="31" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A31" s="124"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="125"/>
+    </row>
+    <row r="31" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A31" s="123"/>
       <c r="B31" s="85">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C31" s="192">
-        <v>1</v>
-      </c>
-      <c r="D31" s="161" t="s">
+      <c r="C31" s="189">
+        <v>2</v>
+      </c>
+      <c r="D31" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="158" t="s">
+      <c r="E31" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="160" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="164" t="s">
+      <c r="F31" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="168">
-        <v>42315</v>
-      </c>
-      <c r="J31" s="168">
-        <v>42315</v>
-      </c>
-      <c r="K31" s="125">
+      <c r="H31" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="167">
+        <v>42324</v>
+      </c>
+      <c r="J31" s="167">
+        <v>42324</v>
+      </c>
+      <c r="K31" s="124">
         <v>3</v>
       </c>
-      <c r="L31" s="168"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="126"/>
-    </row>
-    <row r="32" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A32" s="124"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="125"/>
+    </row>
+    <row r="32" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A32" s="123"/>
       <c r="B32" s="85">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C32" s="192">
-        <v>1</v>
-      </c>
-      <c r="D32" s="161" t="s">
+      <c r="C32" s="189">
+        <v>2</v>
+      </c>
+      <c r="D32" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="163" t="s">
+      <c r="E32" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="168">
+      <c r="F32" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="167">
         <v>42315</v>
       </c>
-      <c r="J32" s="168">
+      <c r="J32" s="167">
         <v>42315</v>
       </c>
-      <c r="K32" s="125">
-        <v>3</v>
-      </c>
-      <c r="L32" s="168"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="126"/>
-    </row>
-    <row r="33" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A33" s="124"/>
+      <c r="K32" s="124">
+        <v>4</v>
+      </c>
+      <c r="L32" s="167">
+        <v>42315</v>
+      </c>
+      <c r="M32" s="167">
+        <v>42315</v>
+      </c>
+      <c r="N32" s="124">
+        <v>4</v>
+      </c>
+      <c r="O32" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A33" s="123"/>
       <c r="B33" s="85">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C33" s="192">
-        <v>1</v>
-      </c>
-      <c r="D33" s="161" t="s">
+      <c r="C33" s="189">
+        <v>2</v>
+      </c>
+      <c r="D33" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="163" t="s">
+      <c r="E33" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="160" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="168">
+      <c r="F33" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="167">
         <v>42315</v>
       </c>
-      <c r="J33" s="168">
+      <c r="J33" s="167">
         <v>42315</v>
       </c>
-      <c r="K33" s="125">
-        <v>2</v>
-      </c>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="126"/>
-    </row>
-    <row r="34" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A34" s="124"/>
+      <c r="K33" s="124">
+        <v>4</v>
+      </c>
+      <c r="L33" s="167">
+        <v>42315</v>
+      </c>
+      <c r="M33" s="167">
+        <v>42315</v>
+      </c>
+      <c r="N33" s="124">
+        <v>4</v>
+      </c>
+      <c r="O33" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A34" s="123"/>
       <c r="B34" s="85">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C34" s="192">
-        <v>1</v>
-      </c>
-      <c r="D34" s="161" t="s">
+      <c r="C34" s="189">
+        <v>2</v>
+      </c>
+      <c r="D34" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="163" t="s">
+      <c r="E34" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="160" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="168">
+      <c r="F34" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="167">
         <v>42317</v>
       </c>
-      <c r="J34" s="168">
+      <c r="J34" s="167">
         <v>42317</v>
       </c>
-      <c r="K34" s="125">
-        <v>2</v>
-      </c>
-      <c r="L34" s="168"/>
-      <c r="M34" s="168"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="126"/>
-    </row>
-    <row r="35" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A35" s="124"/>
+      <c r="K34" s="124">
+        <v>4</v>
+      </c>
+      <c r="L34" s="167">
+        <v>42317</v>
+      </c>
+      <c r="M34" s="167">
+        <v>42317</v>
+      </c>
+      <c r="N34" s="124">
+        <v>4</v>
+      </c>
+      <c r="O34" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A35" s="123"/>
       <c r="B35" s="85">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C35" s="192">
-        <v>1</v>
-      </c>
-      <c r="D35" s="157" t="s">
+      <c r="C35" s="189">
+        <v>2</v>
+      </c>
+      <c r="D35" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="163" t="s">
+      <c r="E35" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="160" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="164" t="s">
+      <c r="F35" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="168">
+      <c r="H35" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="167">
         <v>42317</v>
       </c>
-      <c r="J35" s="168">
+      <c r="J35" s="167">
         <v>42317</v>
       </c>
-      <c r="K35" s="125">
-        <v>3</v>
-      </c>
-      <c r="L35" s="168"/>
-      <c r="M35" s="168"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="126"/>
-    </row>
-    <row r="36" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A36" s="124"/>
+      <c r="K35" s="124">
+        <v>4</v>
+      </c>
+      <c r="L35" s="167">
+        <v>42317</v>
+      </c>
+      <c r="M35" s="167">
+        <v>42317</v>
+      </c>
+      <c r="N35" s="124">
+        <v>4</v>
+      </c>
+      <c r="O35" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A36" s="123"/>
       <c r="B36" s="85">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C36" s="192">
-        <v>1</v>
-      </c>
-      <c r="D36" s="161" t="s">
+      <c r="C36" s="189">
+        <v>2</v>
+      </c>
+      <c r="D36" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="163" t="s">
+      <c r="E36" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="160" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="168">
-        <v>42317</v>
-      </c>
-      <c r="J36" s="168">
-        <v>42317</v>
-      </c>
-      <c r="K36" s="125">
-        <v>3</v>
-      </c>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="126"/>
-    </row>
-    <row r="37" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A37" s="124"/>
+      <c r="F36" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="167">
+        <v>42324</v>
+      </c>
+      <c r="J36" s="167">
+        <v>42324</v>
+      </c>
+      <c r="K36" s="124">
+        <v>2</v>
+      </c>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="125"/>
+    </row>
+    <row r="37" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A37" s="123"/>
       <c r="B37" s="85">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C37" s="192">
-        <v>1</v>
-      </c>
-      <c r="D37" s="161" t="s">
+      <c r="C37" s="189">
+        <v>2</v>
+      </c>
+      <c r="D37" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="158" t="s">
+      <c r="E37" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="160" t="s">
+      <c r="F37" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="164" t="s">
+      <c r="G37" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="168">
+      <c r="H37" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="167">
         <v>42318</v>
       </c>
-      <c r="J37" s="168">
+      <c r="J37" s="167">
         <v>42318</v>
       </c>
-      <c r="K37" s="125">
+      <c r="K37" s="124">
         <v>2</v>
       </c>
-      <c r="L37" s="168"/>
-      <c r="M37" s="168"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="126"/>
-    </row>
-    <row r="38" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A38" s="124"/>
+      <c r="L37" s="167">
+        <v>42318</v>
+      </c>
+      <c r="M37" s="167">
+        <v>42318</v>
+      </c>
+      <c r="N37" s="124">
+        <v>2</v>
+      </c>
+      <c r="O37" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A38" s="123"/>
       <c r="B38" s="85">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C38" s="192">
-        <v>1</v>
-      </c>
-      <c r="D38" s="161" t="s">
+      <c r="C38" s="189">
+        <v>2</v>
+      </c>
+      <c r="D38" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="158" t="s">
+      <c r="E38" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="160" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="164" t="s">
+      <c r="F38" s="159" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="168">
+      <c r="H38" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="167">
         <v>42318</v>
       </c>
-      <c r="J38" s="168">
+      <c r="J38" s="167">
         <v>42318</v>
       </c>
-      <c r="K38" s="125">
-        <v>2</v>
-      </c>
-      <c r="L38" s="168"/>
-      <c r="M38" s="168"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="126"/>
-    </row>
-    <row r="39" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A39" s="124"/>
+      <c r="K38" s="124">
+        <v>3</v>
+      </c>
+      <c r="L38" s="167">
+        <v>42318</v>
+      </c>
+      <c r="M38" s="167">
+        <v>42318</v>
+      </c>
+      <c r="N38" s="124">
+        <v>3</v>
+      </c>
+      <c r="O38" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A39" s="123"/>
       <c r="B39" s="85">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C39" s="192">
-        <v>1</v>
-      </c>
-      <c r="D39" s="161" t="s">
+      <c r="C39" s="189">
+        <v>2</v>
+      </c>
+      <c r="D39" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="158" t="s">
+      <c r="E39" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="164" t="s">
+      <c r="F39" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="168">
+      <c r="H39" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="167">
         <v>42318</v>
       </c>
-      <c r="J39" s="168">
+      <c r="J39" s="167">
         <v>42318</v>
       </c>
-      <c r="K39" s="125">
-        <v>2</v>
-      </c>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="126"/>
-    </row>
-    <row r="40" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A40" s="124"/>
+      <c r="K39" s="124">
+        <v>3</v>
+      </c>
+      <c r="L39" s="167">
+        <v>42318</v>
+      </c>
+      <c r="M39" s="167">
+        <v>42318</v>
+      </c>
+      <c r="N39" s="124">
+        <v>3</v>
+      </c>
+      <c r="O39" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A40" s="123"/>
       <c r="B40" s="85">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C40" s="192">
-        <v>1</v>
-      </c>
-      <c r="D40" s="161" t="s">
+      <c r="C40" s="189">
+        <v>2</v>
+      </c>
+      <c r="D40" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="158" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="160" t="s">
+      <c r="E40" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="G40" s="164" t="s">
+      <c r="G40" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="168">
-        <v>42318</v>
-      </c>
-      <c r="J40" s="168">
-        <v>42318</v>
-      </c>
-      <c r="K40" s="125">
-        <v>2</v>
-      </c>
-      <c r="L40" s="168"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="126"/>
-    </row>
-    <row r="41" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A41" s="124"/>
+      <c r="H40" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="167">
+        <v>42319</v>
+      </c>
+      <c r="J40" s="167">
+        <v>42319</v>
+      </c>
+      <c r="K40" s="124">
+        <v>4</v>
+      </c>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="125"/>
+    </row>
+    <row r="41" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A41" s="123"/>
       <c r="B41" s="85">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C41" s="192">
-        <v>1</v>
-      </c>
-      <c r="D41" s="161" t="s">
+      <c r="C41" s="189">
+        <v>2</v>
+      </c>
+      <c r="D41" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="158" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="160" t="s">
-        <v>169</v>
-      </c>
-      <c r="G41" s="164" t="s">
+      <c r="E41" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="168">
+      <c r="H41" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="167">
         <v>42319</v>
       </c>
-      <c r="J41" s="168">
+      <c r="J41" s="167">
         <v>42319</v>
       </c>
-      <c r="K41" s="125">
-        <v>3</v>
-      </c>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="126"/>
-    </row>
-    <row r="42" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A42" s="124"/>
+      <c r="K41" s="124">
+        <v>4</v>
+      </c>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="125"/>
+    </row>
+    <row r="42" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A42" s="123"/>
       <c r="B42" s="85">
-        <f>B41+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C42" s="192">
-        <v>1</v>
-      </c>
-      <c r="D42" s="161" t="s">
+      <c r="C42" s="189">
+        <v>2</v>
+      </c>
+      <c r="D42" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="158" t="s">
+      <c r="E42" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="160" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="168">
-        <v>42319</v>
-      </c>
-      <c r="J42" s="168">
-        <v>42319</v>
-      </c>
-      <c r="K42" s="125">
+      <c r="F42" s="159" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="167">
+        <v>42320</v>
+      </c>
+      <c r="J42" s="167">
+        <v>42320</v>
+      </c>
+      <c r="K42" s="124">
         <v>2</v>
       </c>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="126"/>
-    </row>
-    <row r="43" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A43" s="124"/>
+      <c r="L42" s="167"/>
+      <c r="M42" s="167"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="125"/>
+    </row>
+    <row r="43" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A43" s="123"/>
       <c r="B43" s="85">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C43" s="192">
-        <v>1</v>
-      </c>
-      <c r="D43" s="161" t="s">
+      <c r="C43" s="189">
+        <v>2</v>
+      </c>
+      <c r="D43" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="158" t="s">
+      <c r="E43" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="160" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="168">
-        <v>42319</v>
-      </c>
-      <c r="J43" s="168">
-        <v>42319</v>
-      </c>
-      <c r="K43" s="125">
+      <c r="F43" s="159" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="167">
+        <v>42320</v>
+      </c>
+      <c r="J43" s="167">
+        <v>42320</v>
+      </c>
+      <c r="K43" s="124">
         <v>3</v>
       </c>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="126"/>
-    </row>
-    <row r="44" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A44" s="124"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="125"/>
+    </row>
+    <row r="44" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A44" s="123"/>
       <c r="B44" s="85">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C44" s="192">
-        <v>1</v>
-      </c>
-      <c r="D44" s="161" t="s">
+      <c r="C44" s="189">
+        <v>2</v>
+      </c>
+      <c r="D44" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="158" t="s">
+      <c r="E44" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="160" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="168">
+      <c r="F44" s="159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" s="167">
         <v>42320</v>
       </c>
-      <c r="J44" s="168">
+      <c r="J44" s="167">
         <v>42320</v>
       </c>
-      <c r="K44" s="125">
-        <v>2</v>
-      </c>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="126"/>
-    </row>
-    <row r="45" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A45" s="124"/>
+      <c r="K44" s="124">
+        <v>3</v>
+      </c>
+      <c r="L44" s="167"/>
+      <c r="M44" s="167"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="125"/>
+    </row>
+    <row r="45" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A45" s="123"/>
       <c r="B45" s="85">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C45" s="192">
-        <v>1</v>
-      </c>
-      <c r="D45" s="161" t="s">
+      <c r="C45" s="189">
+        <v>2</v>
+      </c>
+      <c r="D45" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="158" t="s">
+      <c r="E45" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="168">
-        <v>42320</v>
-      </c>
-      <c r="J45" s="168">
-        <v>42320</v>
-      </c>
-      <c r="K45" s="125">
-        <v>3</v>
-      </c>
-      <c r="L45" s="168"/>
-      <c r="M45" s="168"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="126"/>
-    </row>
-    <row r="46" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A46" s="124"/>
+      <c r="F45" s="158" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="167">
+        <v>42321</v>
+      </c>
+      <c r="J45" s="167">
+        <v>42321</v>
+      </c>
+      <c r="K45" s="124">
+        <v>4</v>
+      </c>
+      <c r="L45" s="167"/>
+      <c r="M45" s="167"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="125"/>
+    </row>
+    <row r="46" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A46" s="123"/>
       <c r="B46" s="85">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C46" s="192">
+      <c r="C46" s="189">
+        <v>2</v>
+      </c>
+      <c r="D46" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="167">
+        <v>42321</v>
+      </c>
+      <c r="J46" s="167">
+        <v>42321</v>
+      </c>
+      <c r="K46" s="124">
         <v>1</v>
       </c>
-      <c r="D46" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="158" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="160" t="s">
-        <v>171</v>
-      </c>
-      <c r="G46" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46" s="168">
-        <v>42320</v>
-      </c>
-      <c r="J46" s="168">
-        <v>42320</v>
-      </c>
-      <c r="K46" s="125">
-        <v>3</v>
-      </c>
-      <c r="L46" s="168"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="126"/>
-    </row>
-    <row r="47" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A47" s="124"/>
+      <c r="L46" s="167"/>
+      <c r="M46" s="167"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="125"/>
+    </row>
+    <row r="47" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A47" s="123"/>
       <c r="B47" s="85">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C47" s="192">
+      <c r="C47" s="189">
+        <v>2</v>
+      </c>
+      <c r="D47" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="167">
+        <v>42321</v>
+      </c>
+      <c r="J47" s="167">
+        <v>42321</v>
+      </c>
+      <c r="K47" s="124">
         <v>1</v>
       </c>
-      <c r="D47" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="158" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="159" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I47" s="168">
-        <v>42321</v>
-      </c>
-      <c r="J47" s="168">
-        <v>42321</v>
-      </c>
-      <c r="K47" s="125">
-        <v>4</v>
-      </c>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="126"/>
-    </row>
-    <row r="48" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A48" s="124"/>
+      <c r="L47" s="167"/>
+      <c r="M47" s="167"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="125"/>
+    </row>
+    <row r="48" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A48" s="123"/>
       <c r="B48" s="85">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C48" s="192">
+      <c r="C48" s="189">
+        <v>2</v>
+      </c>
+      <c r="D48" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="167">
+        <v>42321</v>
+      </c>
+      <c r="J48" s="167">
+        <v>42321</v>
+      </c>
+      <c r="K48" s="124">
         <v>1</v>
       </c>
-      <c r="D48" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="F48" s="159" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="168">
-        <v>42321</v>
-      </c>
-      <c r="J48" s="168">
-        <v>42321</v>
-      </c>
-      <c r="K48" s="125">
-        <v>1</v>
-      </c>
-      <c r="L48" s="168"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="126"/>
-    </row>
-    <row r="49" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A49" s="124"/>
+      <c r="L48" s="167"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="125"/>
+    </row>
+    <row r="49" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A49" s="123"/>
       <c r="B49" s="85">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C49" s="192">
+      <c r="C49" s="189">
+        <v>2</v>
+      </c>
+      <c r="D49" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" s="167">
+        <v>42321</v>
+      </c>
+      <c r="J49" s="167">
+        <v>42321</v>
+      </c>
+      <c r="K49" s="124">
         <v>1</v>
       </c>
-      <c r="D49" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="159" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I49" s="168">
-        <v>42321</v>
-      </c>
-      <c r="J49" s="168">
-        <v>42321</v>
-      </c>
-      <c r="K49" s="125">
-        <v>1</v>
-      </c>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="126"/>
-    </row>
-    <row r="50" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A50" s="124"/>
-      <c r="B50" s="85">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C50" s="192">
-        <v>1</v>
-      </c>
-      <c r="D50" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="168">
-        <v>42321</v>
-      </c>
-      <c r="J50" s="168">
-        <v>42321</v>
-      </c>
-      <c r="K50" s="125">
-        <v>1</v>
-      </c>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="126"/>
-    </row>
-    <row r="51" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A51" s="124"/>
-      <c r="B51" s="85">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C51" s="192">
-        <v>1</v>
-      </c>
-      <c r="D51" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="159" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51" s="168">
-        <v>42321</v>
-      </c>
-      <c r="J51" s="168">
-        <v>42321</v>
-      </c>
-      <c r="K51" s="125">
-        <v>1</v>
-      </c>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="126"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="128"/>
+      <c r="L49" s="167"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="125"/>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" customHeight="1">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="127"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="8"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="8"/>
-    </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1"/>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="J8:N8"/>
@@ -10448,25 +10319,25 @@
           <x14:formula1>
             <xm:f>Tablas!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D51</xm:sqref>
+          <xm:sqref>D13:D49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$K$3:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G13:H51</xm:sqref>
+          <xm:sqref>G13:H49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E13:E51</xm:sqref>
+          <xm:sqref>E13:E49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$E$3:$E$41</xm:f>
           </x14:formula1>
-          <xm:sqref>F13:F51</xm:sqref>
+          <xm:sqref>F13:F49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10477,13 +10348,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10504,22 +10375,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="241"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10543,2004 +10414,2007 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="176" t="s">
+      <c r="I4" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="176" t="s">
+      <c r="J4" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="176" t="s">
+      <c r="K4" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="176" t="s">
+      <c r="L4" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="176" t="s">
+      <c r="M4" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="176" t="s">
+      <c r="N4" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="178" t="s">
+      <c r="O4" s="177" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A5" s="179">
+    <row r="5" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A5" s="178">
         <v>1</v>
       </c>
-      <c r="B5" s="169">
-        <f>VLOOKUP(A5,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B5" s="168">
+        <f>VLOOKUP(A5,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C5" s="112" t="str">
-        <f>VLOOKUP(A5,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D5" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$49,3,FALSE))</f>
         <v>PGPROY / Desarrollo de Sistemas</v>
       </c>
       <c r="E5" s="112" t="str">
-        <f>VLOOKUP(A5,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F5" s="112" t="str">
-        <f>VLOOKUP(A5,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G5" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="154" t="s">
+      <c r="I5" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="154" t="str">
-        <f>VLOOKUP(A5,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J5" s="153" t="str">
+        <f>VLOOKUP(A5,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="171">
-        <f>VLOOKUP(A5,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K5" s="155"/>
+      <c r="L5" s="170">
+        <f>VLOOKUP(A5,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="M5" s="171">
-        <f>VLOOKUP(A5,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M5" s="170">
+        <f>VLOOKUP(A5,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="N5" s="193">
+      <c r="N5" s="190">
         <v>1</v>
       </c>
-      <c r="O5" s="180"/>
-    </row>
-    <row r="6" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A6" s="179">
+      <c r="O5" s="179"/>
+    </row>
+    <row r="6" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A6" s="178">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="169">
-        <f>VLOOKUP(A6,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B6" s="168">
+        <f>VLOOKUP(A6,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C6" s="112" t="str">
-        <f>VLOOKUP(A6,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D6" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$49,3,FALSE))</f>
         <v>PPROY / Desarrollo de Sistemas</v>
       </c>
       <c r="E6" s="112" t="str">
-        <f>VLOOKUP(A6,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F6" s="112" t="str">
-        <f>VLOOKUP(A6,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G6" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="154" t="str">
-        <f>VLOOKUP(A6,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J6" s="153" t="str">
+        <f>VLOOKUP(A6,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K6" s="156"/>
-      <c r="L6" s="171">
-        <f>VLOOKUP(A6,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K6" s="155"/>
+      <c r="L6" s="170">
+        <f>VLOOKUP(A6,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="M6" s="171">
-        <f>VLOOKUP(A6,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M6" s="170">
+        <f>VLOOKUP(A6,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="N6" s="193">
+      <c r="N6" s="190">
         <v>1</v>
       </c>
-      <c r="O6" s="180"/>
+      <c r="O6" s="179"/>
     </row>
     <row r="7" spans="1:15" ht="60" customHeight="1">
-      <c r="A7" s="179">
-        <f t="shared" ref="A7:A40" si="0">A6+1</f>
+      <c r="A7" s="178">
+        <f t="shared" ref="A7:A41" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="169">
-        <f>VLOOKUP(A7,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B7" s="168">
+        <f>VLOOKUP(A7,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C7" s="112" t="str">
-        <f>VLOOKUP(A7,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D7" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$49,3,FALSE))</f>
         <v>ACREVPRO / Desarrollo de Sistemas</v>
       </c>
       <c r="E7" s="112" t="str">
-        <f>VLOOKUP(A7,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F7" s="112" t="str">
-        <f>VLOOKUP(A7,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="154" t="str">
-        <f>VLOOKUP(A7,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J7" s="153" t="str">
+        <f>VLOOKUP(A7,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K7" s="155"/>
-      <c r="L7" s="171">
-        <f>VLOOKUP(A7,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K7" s="154"/>
+      <c r="L7" s="170">
+        <f>VLOOKUP(A7,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="M7" s="171">
-        <f>VLOOKUP(A7,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M7" s="170">
+        <f>VLOOKUP(A7,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="N7" s="193">
+      <c r="N7" s="190">
         <v>1</v>
       </c>
-      <c r="O7" s="181"/>
-    </row>
-    <row r="8" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A8" s="179">
+      <c r="O7" s="180"/>
+    </row>
+    <row r="8" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A8" s="178">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="169">
-        <f>VLOOKUP(A8,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B8" s="168">
+        <f>VLOOKUP(A8,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C8" s="112" t="str">
-        <f>VLOOKUP(A8,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D8" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$49,3,FALSE))</f>
         <v>CPROY / Desarrollo de Sistemas</v>
       </c>
       <c r="E8" s="112" t="str">
-        <f>VLOOKUP(A8,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F8" s="112" t="str">
-        <f>VLOOKUP(A8,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="154" t="str">
-        <f>VLOOKUP(A8,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J8" s="153" t="str">
+        <f>VLOOKUP(A8,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="171">
-        <f>VLOOKUP(A8,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K8" s="155"/>
+      <c r="L8" s="170">
+        <f>VLOOKUP(A8,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="M8" s="171">
-        <f>VLOOKUP(A8,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M8" s="170">
+        <f>VLOOKUP(A8,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="N8" s="193">
+      <c r="N8" s="190">
         <v>1</v>
       </c>
-      <c r="O8" s="180"/>
-    </row>
-    <row r="9" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="179">
+      <c r="O8" s="179"/>
+    </row>
+    <row r="9" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="178">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="169">
-        <f>VLOOKUP(A9,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B9" s="168">
+        <f>VLOOKUP(A9,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C9" s="112" t="str">
-        <f>VLOOKUP(A9,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D9" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$49,3,FALSE))</f>
         <v>REGRI / Desarrollo de Sistemas</v>
       </c>
       <c r="E9" s="112" t="str">
-        <f>VLOOKUP(A9,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F9" s="112" t="str">
-        <f>VLOOKUP(A9,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G9" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="154" t="str">
-        <f>VLOOKUP(A9,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J9" s="153" t="str">
+        <f>VLOOKUP(A9,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="171">
-        <f>VLOOKUP(A9,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K9" s="155"/>
+      <c r="L9" s="170">
+        <f>VLOOKUP(A9,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="M9" s="171">
-        <f>VLOOKUP(A9,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M9" s="170">
+        <f>VLOOKUP(A9,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="N9" s="193">
+      <c r="N9" s="190">
         <v>1</v>
       </c>
-      <c r="O9" s="180"/>
+      <c r="O9" s="179"/>
     </row>
     <row r="10" spans="1:15" ht="60" customHeight="1">
-      <c r="A10" s="179">
+      <c r="A10" s="178">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="169">
-        <f>VLOOKUP(A10,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B10" s="168">
+        <f>VLOOKUP(A10,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C10" s="112" t="str">
-        <f>VLOOKUP(A10,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D10" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$49,3,FALSE))</f>
         <v>ACCPRO / Desarrollo de Sistemas</v>
       </c>
       <c r="E10" s="112" t="str">
-        <f>VLOOKUP(A10,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F10" s="112" t="str">
-        <f>VLOOKUP(A10,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="153" t="s">
+      <c r="I10" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="154" t="str">
-        <f>VLOOKUP(A10,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J10" s="153" t="str">
+        <f>VLOOKUP(A10,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K10" s="155"/>
-      <c r="L10" s="171">
-        <f>VLOOKUP(A10,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K10" s="154"/>
+      <c r="L10" s="170">
+        <f>VLOOKUP(A10,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="M10" s="171">
-        <f>VLOOKUP(A10,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M10" s="170">
+        <f>VLOOKUP(A10,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="N10" s="193">
+      <c r="N10" s="190">
         <v>1</v>
       </c>
-      <c r="O10" s="181"/>
+      <c r="O10" s="180"/>
     </row>
     <row r="11" spans="1:15" ht="60" customHeight="1">
-      <c r="A11" s="179">
+      <c r="A11" s="178">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="169">
-        <f>VLOOKUP(A11,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>2</v>
+      <c r="B11" s="168">
+        <f>VLOOKUP(A11,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="C11" s="112" t="str">
-        <f>VLOOKUP(A11,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D11" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$49,3,FALSE))</f>
         <v>ACREPRO / Desarrollo de Sistemas</v>
       </c>
       <c r="E11" s="112" t="str">
-        <f>VLOOKUP(A11,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F11" s="112" t="str">
-        <f>VLOOKUP(A11,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="153" t="s">
+      <c r="I11" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="154" t="str">
-        <f>VLOOKUP(A11,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J11" s="153" t="str">
+        <f>VLOOKUP(A11,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K11" s="155"/>
-      <c r="L11" s="171">
-        <f>VLOOKUP(A11,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K11" s="154"/>
+      <c r="L11" s="170">
+        <f>VLOOKUP(A11,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="M11" s="171">
-        <f>VLOOKUP(A11,Planificación!B$13:N$51,12,FALSE)</f>
+      <c r="M11" s="170">
+        <f>VLOOKUP(A11,Planificación!B$13:N$49,12,FALSE)</f>
         <v>42311</v>
       </c>
-      <c r="N11" s="193">
+      <c r="N11" s="190">
         <v>1</v>
       </c>
-      <c r="O11" s="181"/>
-    </row>
-    <row r="12" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A12" s="179">
+      <c r="O11" s="180"/>
+    </row>
+    <row r="12" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="178">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="169">
-        <f>VLOOKUP(A12,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B12" s="168">
+        <f>VLOOKUP(A12,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="112" t="str">
+        <f>VLOOKUP(A12,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D12" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>PGREQM / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E12" s="112" t="str">
+        <f>VLOOKUP(A12,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F12" s="112" t="str">
+        <f>VLOOKUP(A12,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="153" t="str">
+        <f>VLOOKUP(A12,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K12" s="155"/>
+      <c r="L12" s="170">
+        <f>VLOOKUP(A12,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42312</v>
+      </c>
+      <c r="M12" s="170">
+        <f>VLOOKUP(A12,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42312</v>
+      </c>
+      <c r="N12" s="190">
         <v>1</v>
       </c>
-      <c r="C12" s="112" t="str">
-        <f>VLOOKUP(A12,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D12" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>PGREQM / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E12" s="112" t="str">
-        <f>VLOOKUP(A12,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F12" s="112" t="str">
-        <f>VLOOKUP(A12,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G12" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="154" t="str">
-        <f>VLOOKUP(A12,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="171">
-        <f>VLOOKUP(A12,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42312</v>
-      </c>
-      <c r="M12" s="171">
-        <f>VLOOKUP(A12,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42312</v>
-      </c>
-      <c r="N12" s="193">
-        <v>1</v>
-      </c>
-      <c r="O12" s="180"/>
-    </row>
-    <row r="13" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="179">
+      <c r="O12" s="179"/>
+    </row>
+    <row r="13" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="178">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="169">
-        <f>VLOOKUP(A13,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B13" s="168">
+        <f>VLOOKUP(A13,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="112" t="str">
+        <f>VLOOKUP(A13,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D13" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>LMREQM / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E13" s="112" t="str">
+        <f>VLOOKUP(A13,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F13" s="112" t="str">
+        <f>VLOOKUP(A13,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="153" t="str">
+        <f>VLOOKUP(A13,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K13" s="155"/>
+      <c r="L13" s="170">
+        <f>VLOOKUP(A13,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42312</v>
+      </c>
+      <c r="M13" s="170">
+        <f>VLOOKUP(A13,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42312</v>
+      </c>
+      <c r="N13" s="190">
         <v>1</v>
       </c>
-      <c r="C13" s="112" t="str">
-        <f>VLOOKUP(A13,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D13" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>LMREQM / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E13" s="112" t="str">
-        <f>VLOOKUP(A13,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F13" s="112" t="str">
-        <f>VLOOKUP(A13,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G13" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="154" t="str">
-        <f>VLOOKUP(A13,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K13" s="156"/>
-      <c r="L13" s="171">
-        <f>VLOOKUP(A13,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42312</v>
-      </c>
-      <c r="M13" s="171">
-        <f>VLOOKUP(A13,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42312</v>
-      </c>
-      <c r="N13" s="193">
-        <v>1</v>
-      </c>
-      <c r="O13" s="180"/>
-    </row>
-    <row r="14" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A14" s="179">
+      <c r="O13" s="179"/>
+    </row>
+    <row r="14" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A14" s="178">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="169">
-        <f>VLOOKUP(A14,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B14" s="168">
+        <f>VLOOKUP(A14,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C14" s="112" t="str">
-        <f>VLOOKUP(A14,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D14" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$49,3,FALSE))</f>
         <v>MTREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E14" s="112" t="str">
-        <f>VLOOKUP(A14,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F14" s="112" t="str">
-        <f>VLOOKUP(A14,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="154" t="s">
+      <c r="I14" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="154" t="str">
-        <f>VLOOKUP(A14,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J14" s="153" t="str">
+        <f>VLOOKUP(A14,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K14" s="156"/>
-      <c r="L14" s="171">
-        <f>VLOOKUP(A14,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42312</v>
-      </c>
-      <c r="M14" s="171">
-        <f>VLOOKUP(A14,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42312</v>
-      </c>
-      <c r="N14" s="193">
-        <v>1</v>
-      </c>
-      <c r="O14" s="180"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="170">
+        <f>VLOOKUP(A14,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42322</v>
+      </c>
+      <c r="M14" s="170"/>
+      <c r="N14" s="190">
+        <v>0</v>
+      </c>
+      <c r="O14" s="179"/>
     </row>
     <row r="15" spans="1:15" ht="60" customHeight="1">
-      <c r="A15" s="179">
+      <c r="A15" s="178">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="169">
-        <f>VLOOKUP(A15,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B15" s="168">
+        <f>VLOOKUP(A15,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="112" t="str">
+        <f>VLOOKUP(A15,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D15" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>SOLCREQ / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E15" s="112" t="str">
+        <f>VLOOKUP(A15,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F15" s="112" t="str">
+        <f>VLOOKUP(A15,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="153" t="str">
+        <f>VLOOKUP(A15,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K15" s="154"/>
+      <c r="L15" s="170">
+        <f>VLOOKUP(A15,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="M15" s="170">
+        <f>VLOOKUP(A15,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="N15" s="190">
         <v>1</v>
       </c>
-      <c r="C15" s="112" t="str">
-        <f>VLOOKUP(A15,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D15" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>SOLCREQ / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E15" s="112" t="str">
-        <f>VLOOKUP(A15,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F15" s="112" t="str">
-        <f>VLOOKUP(A15,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G15" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="154" t="str">
-        <f>VLOOKUP(A15,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K15" s="155"/>
-      <c r="L15" s="171">
-        <f>VLOOKUP(A15,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42313</v>
-      </c>
-      <c r="M15" s="171">
-        <f>VLOOKUP(A15,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42313</v>
-      </c>
-      <c r="N15" s="193">
-        <v>1</v>
-      </c>
-      <c r="O15" s="181"/>
+      <c r="O15" s="180"/>
     </row>
     <row r="16" spans="1:15" ht="60" customHeight="1">
-      <c r="A16" s="179">
+      <c r="A16" s="178">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="169">
-        <f>VLOOKUP(A16,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B16" s="168">
+        <f>VLOOKUP(A16,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="112" t="str">
+        <f>VLOOKUP(A16,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D16" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A16,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A16,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A16,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>ASCR / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E16" s="112" t="str">
+        <f>VLOOKUP(A16,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F16" s="112" t="str">
+        <f>VLOOKUP(A16,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G16" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="153" t="str">
+        <f>VLOOKUP(A16,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K16" s="154"/>
+      <c r="L16" s="170">
+        <f>VLOOKUP(A16,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="M16" s="170">
+        <f>VLOOKUP(A16,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="N16" s="190">
         <v>1</v>
       </c>
-      <c r="C16" s="112" t="str">
-        <f>VLOOKUP(A16,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D16" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A16,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A16,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A16,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>ASCR / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E16" s="112" t="str">
-        <f>VLOOKUP(A16,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F16" s="112" t="str">
-        <f>VLOOKUP(A16,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="154" t="str">
-        <f>VLOOKUP(A16,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K16" s="155"/>
-      <c r="L16" s="171">
-        <f>VLOOKUP(A16,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42313</v>
-      </c>
-      <c r="M16" s="171">
-        <f>VLOOKUP(A16,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N16" s="193">
-        <v>1</v>
-      </c>
-      <c r="O16" s="181"/>
+      <c r="O16" s="180"/>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1">
-      <c r="A17" s="179">
+      <c r="A17" s="178">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="169">
-        <f>VLOOKUP(A17,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B17" s="168">
+        <f>VLOOKUP(A17,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="112" t="str">
+        <f>VLOOKUP(A17,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D17" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A17,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A17,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A17,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>RCREQM / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E17" s="112" t="str">
+        <f>VLOOKUP(A17,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F17" s="112" t="str">
+        <f>VLOOKUP(A17,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="153" t="str">
+        <f>VLOOKUP(A17,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K17" s="154"/>
+      <c r="L17" s="170">
+        <f>VLOOKUP(A17,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="M17" s="170">
+        <f>VLOOKUP(A17,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="N17" s="190">
         <v>1</v>
       </c>
-      <c r="C17" s="112" t="str">
-        <f>VLOOKUP(A17,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D17" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A17,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A17,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A17,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>RCREQM / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E17" s="112" t="str">
-        <f>VLOOKUP(A17,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F17" s="112" t="str">
-        <f>VLOOKUP(A17,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G17" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="154" t="str">
-        <f>VLOOKUP(A17,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K17" s="155"/>
-      <c r="L17" s="171">
-        <f>VLOOKUP(A17,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42313</v>
-      </c>
-      <c r="M17" s="171">
-        <f>VLOOKUP(A17,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N17" s="193">
-        <v>1</v>
-      </c>
-      <c r="O17" s="181"/>
-    </row>
-    <row r="18" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A18" s="179">
+      <c r="O17" s="180"/>
+    </row>
+    <row r="18" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A18" s="178">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="169">
-        <f>VLOOKUP(A18,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B18" s="168">
+        <f>VLOOKUP(A18,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="112" t="str">
+        <f>VLOOKUP(A18,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D18" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A18,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A18,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A18,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>DANA / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E18" s="112" t="str">
+        <f>VLOOKUP(A18,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="F18" s="112" t="str">
+        <f>VLOOKUP(A18,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="G18" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="153" t="str">
+        <f>VLOOKUP(A18,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="K18" s="155"/>
+      <c r="L18" s="170">
+        <f>VLOOKUP(A18,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="M18" s="170">
+        <f>VLOOKUP(A18,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42313</v>
+      </c>
+      <c r="N18" s="190">
         <v>1</v>
       </c>
-      <c r="C18" s="112" t="str">
-        <f>VLOOKUP(A18,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D18" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A18,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A18,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A18,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>DANA / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E18" s="112" t="str">
-        <f>VLOOKUP(A18,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="F18" s="112" t="str">
-        <f>VLOOKUP(A18,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="G18" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="154" t="str">
-        <f>VLOOKUP(A18,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="K18" s="156"/>
-      <c r="L18" s="171">
-        <f>VLOOKUP(A18,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42313</v>
-      </c>
-      <c r="M18" s="171">
-        <f>VLOOKUP(A18,Planificación!B$13:N$51,12,FALSE)</f>
-        <v>42304</v>
-      </c>
-      <c r="N18" s="193">
-        <v>1</v>
-      </c>
-      <c r="O18" s="180"/>
-    </row>
-    <row r="19" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A19" s="179">
+      <c r="O18" s="179"/>
+    </row>
+    <row r="19" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A19" s="178">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="169">
-        <f>VLOOKUP(A19,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B19" s="168">
+        <f>VLOOKUP(A19,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="112" t="str">
+        <f>VLOOKUP(A19,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D19" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A19,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A19,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A19,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>DDIS / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E19" s="112" t="str">
+        <f>VLOOKUP(A19,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F19" s="112" t="str">
+        <f>VLOOKUP(A19,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="153" t="str">
+        <f>VLOOKUP(A19,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K19" s="155"/>
+      <c r="L19" s="170">
+        <f>VLOOKUP(A19,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42314</v>
+      </c>
+      <c r="M19" s="170">
+        <f>VLOOKUP(A19,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42314</v>
+      </c>
+      <c r="N19" s="190">
         <v>1</v>
       </c>
-      <c r="C19" s="112" t="str">
-        <f>VLOOKUP(A19,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D19" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A19,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A19,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A19,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>DDIS / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E19" s="112" t="str">
-        <f>VLOOKUP(A19,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F19" s="112" t="str">
-        <f>VLOOKUP(A19,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G19" s="113"/>
-      <c r="H19" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="154" t="str">
-        <f>VLOOKUP(A19,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K19" s="156"/>
-      <c r="L19" s="171">
-        <f>VLOOKUP(A19,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42314</v>
-      </c>
-      <c r="M19" s="171"/>
-      <c r="N19" s="193">
-        <v>0</v>
-      </c>
-      <c r="O19" s="180"/>
-    </row>
-    <row r="20" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A20" s="179">
+      <c r="O19" s="179"/>
+    </row>
+    <row r="20" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A20" s="178">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="169">
-        <f>VLOOKUP(A20,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B20" s="168">
+        <f>VLOOKUP(A20,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C20" s="112" t="str">
-        <f>VLOOKUP(A20,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A20,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A20,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A20,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D20" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A20,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A20,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A20,Planificación!B$13:H$49,3,FALSE))</f>
         <v>MANUSER / Desarrollo de Sistemas</v>
       </c>
       <c r="E20" s="112" t="str">
-        <f>VLOOKUP(A20,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Gaspar</v>
       </c>
       <c r="F20" s="112" t="str">
-        <f>VLOOKUP(A20,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="154" t="s">
+      <c r="G20" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="154" t="s">
+      <c r="I20" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="154" t="str">
-        <f>VLOOKUP(A20,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J20" s="153" t="str">
+        <f>VLOOKUP(A20,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K20" s="156"/>
-      <c r="L20" s="171">
-        <f>VLOOKUP(A20,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42314</v>
-      </c>
-      <c r="M20" s="171"/>
-      <c r="N20" s="193">
+      <c r="K20" s="155"/>
+      <c r="L20" s="170">
+        <f>VLOOKUP(A20,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42324</v>
+      </c>
+      <c r="M20" s="170"/>
+      <c r="N20" s="190">
         <v>0</v>
       </c>
-      <c r="O20" s="182"/>
-    </row>
-    <row r="21" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A21" s="179">
+      <c r="O20" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A21" s="178">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="169">
-        <f>VLOOKUP(A21,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B21" s="168">
+        <f>VLOOKUP(A21,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C21" s="112" t="str">
-        <f>VLOOKUP(A21,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A21,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A21,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A21,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D21" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A21,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A21,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A21,Planificación!B$13:H$49,3,FALSE))</f>
         <v>INPRUIN / Desarrollo de Sistemas</v>
       </c>
       <c r="E21" s="112" t="str">
-        <f>VLOOKUP(A21,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F21" s="112" t="str">
-        <f>VLOOKUP(A21,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="154" t="s">
+      <c r="G21" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="154" t="s">
+      <c r="I21" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="154" t="str">
-        <f>VLOOKUP(A21,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J21" s="153" t="str">
+        <f>VLOOKUP(A21,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K21" s="156"/>
-      <c r="L21" s="171">
-        <f>VLOOKUP(A21,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42314</v>
-      </c>
-      <c r="M21" s="171"/>
-      <c r="N21" s="193">
+      <c r="K21" s="155"/>
+      <c r="L21" s="170">
+        <f>VLOOKUP(A21,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42322</v>
+      </c>
+      <c r="M21" s="170"/>
+      <c r="N21" s="190">
         <v>0</v>
       </c>
-      <c r="O21" s="182"/>
-    </row>
-    <row r="22" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A22" s="179">
+      <c r="O21" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A22" s="178">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="169">
-        <f>VLOOKUP(A22,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B22" s="168">
+        <f>VLOOKUP(A22,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C22" s="112" t="str">
-        <f>VLOOKUP(A22,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A22,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A22,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A22,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D22" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A22,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A22,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A22,Planificación!B$13:H$49,3,FALSE))</f>
         <v>INPRUEX / Desarrollo de Sistemas</v>
       </c>
       <c r="E22" s="112" t="str">
-        <f>VLOOKUP(A22,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F22" s="112" t="str">
-        <f>VLOOKUP(A22,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="154" t="s">
+      <c r="G22" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="154" t="s">
+      <c r="I22" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="154" t="str">
-        <f>VLOOKUP(A22,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J22" s="153" t="str">
+        <f>VLOOKUP(A22,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K22" s="156"/>
-      <c r="L22" s="171">
-        <f>VLOOKUP(A22,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42314</v>
-      </c>
-      <c r="M22" s="171"/>
-      <c r="N22" s="193">
+      <c r="K22" s="155"/>
+      <c r="L22" s="170">
+        <f>VLOOKUP(A22,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42322</v>
+      </c>
+      <c r="M22" s="170"/>
+      <c r="N22" s="190">
         <v>0</v>
       </c>
-      <c r="O22" s="182"/>
-    </row>
-    <row r="23" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A23" s="179">
+      <c r="O22" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A23" s="178">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="169">
-        <f>VLOOKUP(A23,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B23" s="168">
+        <f>VLOOKUP(A23,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C23" s="112" t="str">
-        <f>VLOOKUP(A23,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A23,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A23,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A23,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D23" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A23,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A23,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A23,Planificación!B$13:H$49,3,FALSE))</f>
         <v>GUINSTALL / Desarrollo de Sistemas</v>
       </c>
       <c r="E23" s="112" t="str">
-        <f>VLOOKUP(A23,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Gaspar</v>
       </c>
       <c r="F23" s="112" t="str">
-        <f>VLOOKUP(A23,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="154" t="s">
+      <c r="G23" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="154" t="s">
+      <c r="I23" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="154" t="str">
-        <f>VLOOKUP(A23,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J23" s="153" t="str">
+        <f>VLOOKUP(A23,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K23" s="156"/>
-      <c r="L23" s="171">
-        <f>VLOOKUP(A23,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42315</v>
-      </c>
-      <c r="M23" s="171"/>
-      <c r="N23" s="193">
+      <c r="K23" s="155"/>
+      <c r="L23" s="170">
+        <f>VLOOKUP(A23,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42324</v>
+      </c>
+      <c r="M23" s="170"/>
+      <c r="N23" s="190">
         <v>0</v>
       </c>
-      <c r="O23" s="182"/>
-    </row>
-    <row r="24" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A24" s="179">
+      <c r="O23" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A24" s="178">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="169">
-        <f>VLOOKUP(A24,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B24" s="168">
+        <f>VLOOKUP(A24,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C24" s="112" t="str">
+        <f>VLOOKUP(A24,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D24" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A24,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A24,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A24,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>CHKQA / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E24" s="112" t="str">
+        <f>VLOOKUP(A24,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="F24" s="112" t="str">
+        <f>VLOOKUP(A24,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="G24" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="153" t="str">
+        <f>VLOOKUP(A24,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="K24" s="155"/>
+      <c r="L24" s="170">
+        <f>VLOOKUP(A24,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42315</v>
+      </c>
+      <c r="M24" s="170">
+        <f>VLOOKUP(A24,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42315</v>
+      </c>
+      <c r="N24" s="190">
         <v>1</v>
       </c>
-      <c r="C24" s="112" t="str">
-        <f>VLOOKUP(A24,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D24" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A24,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A24,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A24,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>CHKQA / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E24" s="112" t="str">
-        <f>VLOOKUP(A24,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="F24" s="112" t="str">
-        <f>VLOOKUP(A24,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="G24" s="113"/>
-      <c r="H24" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="154" t="str">
-        <f>VLOOKUP(A24,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="K24" s="156"/>
-      <c r="L24" s="171">
-        <f>VLOOKUP(A24,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42315</v>
-      </c>
-      <c r="M24" s="171"/>
-      <c r="N24" s="193">
-        <v>0</v>
-      </c>
-      <c r="O24" s="180"/>
-    </row>
-    <row r="25" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A25" s="179">
+      <c r="O24" s="179"/>
+    </row>
+    <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A25" s="178">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="169">
-        <f>VLOOKUP(A25,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B25" s="168">
+        <f>VLOOKUP(A25,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C25" s="112" t="str">
+        <f>VLOOKUP(A25,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D25" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A25,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A25,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A25,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>HGQA / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E25" s="112" t="str">
+        <f>VLOOKUP(A25,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="F25" s="112" t="str">
+        <f>VLOOKUP(A25,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="G25" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="153" t="str">
+        <f>VLOOKUP(A25,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="K25" s="155"/>
+      <c r="L25" s="170">
+        <f>VLOOKUP(A25,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42315</v>
+      </c>
+      <c r="M25" s="170">
+        <f>VLOOKUP(A25,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42315</v>
+      </c>
+      <c r="N25" s="190">
         <v>1</v>
       </c>
-      <c r="C25" s="112" t="str">
-        <f>VLOOKUP(A25,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D25" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A25,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A25,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A25,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>HGQA / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E25" s="112" t="str">
-        <f>VLOOKUP(A25,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="F25" s="112" t="str">
-        <f>VLOOKUP(A25,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="G25" s="113"/>
-      <c r="H25" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="154" t="str">
-        <f>VLOOKUP(A25,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="K25" s="156"/>
-      <c r="L25" s="171">
-        <f>VLOOKUP(A25,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42315</v>
-      </c>
-      <c r="M25" s="171"/>
-      <c r="N25" s="193">
-        <v>0</v>
-      </c>
-      <c r="O25" s="182"/>
-    </row>
-    <row r="26" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A26" s="179">
+      <c r="O25" s="181"/>
+    </row>
+    <row r="26" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A26" s="178">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="169">
-        <f>VLOOKUP(A26,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B26" s="168">
+        <f>VLOOKUP(A26,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="112" t="str">
+        <f>VLOOKUP(A26,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D26" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A26,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A26,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A26,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>PQA / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E26" s="112" t="str">
+        <f>VLOOKUP(A26,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="F26" s="112" t="str">
+        <f>VLOOKUP(A26,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="G26" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="153" t="str">
+        <f>VLOOKUP(A26,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="K26" s="155"/>
+      <c r="L26" s="170">
+        <f>VLOOKUP(A26,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42317</v>
+      </c>
+      <c r="M26" s="170">
+        <f>VLOOKUP(A26,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42317</v>
+      </c>
+      <c r="N26" s="190">
         <v>1</v>
       </c>
-      <c r="C26" s="112" t="str">
-        <f>VLOOKUP(A26,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D26" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A26,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A26,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A26,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>PQA / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E26" s="112" t="str">
-        <f>VLOOKUP(A26,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="F26" s="112" t="str">
-        <f>VLOOKUP(A26,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="G26" s="113"/>
-      <c r="H26" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="154" t="str">
-        <f>VLOOKUP(A26,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="K26" s="156"/>
-      <c r="L26" s="171">
-        <f>VLOOKUP(A26,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42317</v>
-      </c>
-      <c r="M26" s="171"/>
-      <c r="N26" s="193">
-        <v>0</v>
-      </c>
-      <c r="O26" s="180"/>
-    </row>
-    <row r="27" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A27" s="179">
+      <c r="O26" s="179"/>
+    </row>
+    <row r="27" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A27" s="178">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="169">
-        <f>VLOOKUP(A27,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B27" s="168">
+        <f>VLOOKUP(A27,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="112" t="str">
+        <f>VLOOKUP(A27,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D27" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A27,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A27,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A27,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>SOLQA / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E27" s="112" t="str">
+        <f>VLOOKUP(A27,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Gaspar</v>
+      </c>
+      <c r="F27" s="112" t="str">
+        <f>VLOOKUP(A27,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="G27" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="153" t="str">
+        <f>VLOOKUP(A27,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="K27" s="155"/>
+      <c r="L27" s="170">
+        <f>VLOOKUP(A27,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42317</v>
+      </c>
+      <c r="M27" s="170">
+        <f>VLOOKUP(A27,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42317</v>
+      </c>
+      <c r="N27" s="190">
         <v>1</v>
       </c>
-      <c r="C27" s="112" t="str">
-        <f>VLOOKUP(A27,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D27" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A27,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A27,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A27,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>SOLQA / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E27" s="112" t="str">
-        <f>VLOOKUP(A27,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="F27" s="112" t="str">
-        <f>VLOOKUP(A27,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="G27" s="113"/>
-      <c r="H27" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="154" t="str">
-        <f>VLOOKUP(A27,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="K27" s="156"/>
-      <c r="L27" s="171">
-        <f>VLOOKUP(A27,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42317</v>
-      </c>
-      <c r="M27" s="171"/>
-      <c r="N27" s="193">
-        <v>0</v>
-      </c>
-      <c r="O27" s="182"/>
-    </row>
-    <row r="28" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A28" s="179">
+      <c r="O27" s="181"/>
+    </row>
+    <row r="28" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A28" s="178">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="169">
-        <f>VLOOKUP(A28,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B28" s="168">
+        <f>VLOOKUP(A28,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C28" s="112" t="str">
-        <f>VLOOKUP(A28,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D28" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A28,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A28,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A28,Planificación!B$13:H$51,3,FALSE))</f>
+      <c r="D28" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A28,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A28,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A28,Planificación!B$13:H$49,3,FALSE))</f>
         <v>INREQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E28" s="112" t="str">
-        <f>VLOOKUP(A28,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="F28" s="112" t="str">
-        <f>VLOOKUP(A28,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="154" t="s">
+      <c r="G28" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="154" t="s">
+      <c r="I28" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="154" t="str">
-        <f>VLOOKUP(A28,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J28" s="153" t="str">
+        <f>VLOOKUP(A28,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="K28" s="156"/>
-      <c r="L28" s="171">
-        <f>VLOOKUP(A28,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42317</v>
-      </c>
-      <c r="M28" s="171"/>
-      <c r="N28" s="193">
+      <c r="K28" s="155"/>
+      <c r="L28" s="170">
+        <f>VLOOKUP(A28,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42324</v>
+      </c>
+      <c r="M28" s="170"/>
+      <c r="N28" s="190">
         <v>0</v>
       </c>
-      <c r="O28" s="180"/>
-    </row>
-    <row r="29" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A29" s="179">
+      <c r="O28" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A29" s="178">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="169">
-        <f>VLOOKUP(A29,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B29" s="168">
+        <f>VLOOKUP(A29,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="112" t="str">
+        <f>VLOOKUP(A29,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D29" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A29,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A29,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A29,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>PGC / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E29" s="112" t="str">
+        <f>VLOOKUP(A29,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Gaspar</v>
+      </c>
+      <c r="F29" s="112" t="str">
+        <f>VLOOKUP(A29,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G29" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="153" t="str">
+        <f>VLOOKUP(A29,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K29" s="155"/>
+      <c r="L29" s="170">
+        <f>VLOOKUP(A29,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42318</v>
+      </c>
+      <c r="M29" s="170">
+        <f>VLOOKUP(A29,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42318</v>
+      </c>
+      <c r="N29" s="190">
         <v>1</v>
       </c>
-      <c r="C29" s="112" t="str">
-        <f>VLOOKUP(A29,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D29" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A29,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A29,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A29,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>PGC / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E29" s="112" t="str">
-        <f>VLOOKUP(A29,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Gaspar</v>
-      </c>
-      <c r="F29" s="112" t="str">
-        <f>VLOOKUP(A29,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G29" s="113"/>
-      <c r="H29" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="154" t="str">
-        <f>VLOOKUP(A29,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K29" s="156"/>
-      <c r="L29" s="171">
-        <f>VLOOKUP(A29,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42318</v>
-      </c>
-      <c r="M29" s="171"/>
-      <c r="N29" s="193">
-        <v>0</v>
-      </c>
-      <c r="O29" s="180"/>
-    </row>
-    <row r="30" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A30" s="179">
+      <c r="O29" s="179"/>
+    </row>
+    <row r="30" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A30" s="178">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="169">
-        <f>VLOOKUP(A30,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B30" s="168">
+        <f>VLOOKUP(A30,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="112" t="str">
+        <f>VLOOKUP(A30,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D30" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A30,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A30,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A30,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>SOLACC / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E30" s="112" t="str">
+        <f>VLOOKUP(A30,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Gaspar</v>
+      </c>
+      <c r="F30" s="112" t="str">
+        <f>VLOOKUP(A30,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G30" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="153" t="str">
+        <f>VLOOKUP(A30,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K30" s="155"/>
+      <c r="L30" s="170">
+        <f>VLOOKUP(A30,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42318</v>
+      </c>
+      <c r="M30" s="170">
+        <f>VLOOKUP(A30,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42318</v>
+      </c>
+      <c r="N30" s="190">
         <v>1</v>
       </c>
-      <c r="C30" s="112" t="str">
-        <f>VLOOKUP(A30,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D30" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A30,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A30,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A30,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>SOLACC / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E30" s="112" t="str">
-        <f>VLOOKUP(A30,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Gaspar</v>
-      </c>
-      <c r="F30" s="112" t="str">
-        <f>VLOOKUP(A30,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G30" s="113"/>
-      <c r="H30" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="154" t="str">
-        <f>VLOOKUP(A30,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K30" s="156"/>
-      <c r="L30" s="171">
-        <f>VLOOKUP(A30,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42318</v>
-      </c>
-      <c r="M30" s="171"/>
-      <c r="N30" s="193">
-        <v>0</v>
-      </c>
-      <c r="O30" s="180"/>
-    </row>
-    <row r="31" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A31" s="179">
+      <c r="O30" s="179"/>
+    </row>
+    <row r="31" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A31" s="178">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="169">
-        <f>VLOOKUP(A31,Planificación!$B$13:$F$98,2,FALSE)</f>
+      <c r="B31" s="168">
+        <f>VLOOKUP(A31,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="112" t="str">
+        <f>VLOOKUP(A31,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D31" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A31,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A31,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A31,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>REGITCON / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E31" s="112" t="str">
+        <f>VLOOKUP(A31,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Gaspar</v>
+      </c>
+      <c r="F31" s="112" t="str">
+        <f>VLOOKUP(A31,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G31" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="153" t="str">
+        <f>VLOOKUP(A31,Planificación!B$13:H$49,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K31" s="155"/>
+      <c r="L31" s="170">
+        <f>VLOOKUP(A31,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42318</v>
+      </c>
+      <c r="M31" s="170">
+        <f>VLOOKUP(A31,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42318</v>
+      </c>
+      <c r="N31" s="190">
         <v>1</v>
       </c>
-      <c r="C31" s="112" t="str">
-        <f>VLOOKUP(A31,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D31" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A31,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A31,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A31,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>REGITCON / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E31" s="112" t="str">
-        <f>VLOOKUP(A31,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Gaspar</v>
-      </c>
-      <c r="F31" s="112" t="str">
-        <f>VLOOKUP(A31,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G31" s="113"/>
-      <c r="H31" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="154" t="str">
-        <f>VLOOKUP(A31,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K31" s="156"/>
-      <c r="L31" s="171">
-        <f>VLOOKUP(A31,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42318</v>
-      </c>
-      <c r="M31" s="171"/>
-      <c r="N31" s="193">
-        <v>0</v>
-      </c>
-      <c r="O31" s="180"/>
-    </row>
-    <row r="32" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A32" s="179">
+      <c r="O31" s="179"/>
+    </row>
+    <row r="32" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A32" s="178">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="169">
-        <f>VLOOKUP(A32,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B32" s="168">
+        <f>VLOOKUP(A32,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C32" s="112" t="str">
-        <f>VLOOKUP(A32,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A32,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D32" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A32,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A32,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A32,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>ICIC / Desarrollo de Sistemas</v>
+      <c r="D32" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A32,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A32,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A32,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>PROMM / Desarrollo de Sistemas</v>
       </c>
       <c r="E32" s="112" t="str">
-        <f>VLOOKUP(A32,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Gaspar</v>
+        <f>VLOOKUP(A32,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
       </c>
       <c r="F32" s="112" t="str">
-        <f>VLOOKUP(A32,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A32,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G32" s="113"/>
-      <c r="H32" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="154" t="s">
+      <c r="G32" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="154" t="str">
-        <f>VLOOKUP(A32,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J32" s="153" t="str">
+        <f>VLOOKUP(A32,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K32" s="156"/>
-      <c r="L32" s="171">
-        <f>VLOOKUP(A32,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42318</v>
-      </c>
-      <c r="M32" s="171"/>
-      <c r="N32" s="193">
+      <c r="K32" s="155"/>
+      <c r="L32" s="170">
+        <f>VLOOKUP(A32,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42319</v>
+      </c>
+      <c r="M32" s="170"/>
+      <c r="N32" s="190">
         <v>0</v>
       </c>
-      <c r="O32" s="180"/>
-    </row>
-    <row r="33" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A33" s="179">
+      <c r="O32" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A33" s="178">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="169">
-        <f>VLOOKUP(A33,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B33" s="168">
+        <f>VLOOKUP(A33,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C33" s="112" t="str">
-        <f>VLOOKUP(A33,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D33" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A33,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A33,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A33,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>IAUDICM / Desarrollo de Sistemas</v>
+      <c r="D33" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A33,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A33,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A33,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>TABM / Desarrollo de Sistemas</v>
       </c>
       <c r="E33" s="112" t="str">
-        <f>VLOOKUP(A33,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Gaspar</v>
+        <f>VLOOKUP(A33,Planificación!B$13:H$49,6,FALSE)</f>
+        <v>Roger</v>
       </c>
       <c r="F33" s="112" t="str">
-        <f>VLOOKUP(A33,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G33" s="113"/>
-      <c r="H33" s="154" t="s">
+      <c r="G33" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="154" t="s">
+      <c r="I33" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="154" t="str">
-        <f>VLOOKUP(A33,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J33" s="153" t="str">
+        <f>VLOOKUP(A33,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K33" s="156"/>
-      <c r="L33" s="171">
-        <f>VLOOKUP(A33,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K33" s="155"/>
+      <c r="L33" s="170">
+        <f>VLOOKUP(A33,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42319</v>
       </c>
-      <c r="M33" s="171"/>
-      <c r="N33" s="193">
+      <c r="M33" s="170"/>
+      <c r="N33" s="190">
         <v>0</v>
       </c>
-      <c r="O33" s="182"/>
-    </row>
-    <row r="34" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A34" s="179">
+      <c r="O33" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A34" s="178">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="169">
-        <f>VLOOKUP(A34,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B34" s="168">
+        <f>VLOOKUP(A34,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C34" s="112" t="str">
-        <f>VLOOKUP(A34,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D34" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A34,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A34,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A34,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>PROMM / Desarrollo de Sistemas</v>
+      <c r="D34" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A34,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A34,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A34,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>FMNCONQAP / Desarrollo de Sistemas</v>
       </c>
       <c r="E34" s="112" t="str">
-        <f>VLOOKUP(A34,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F34" s="112" t="str">
-        <f>VLOOKUP(A34,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G34" s="113"/>
-      <c r="H34" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="154" t="s">
+      <c r="G34" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="154" t="str">
-        <f>VLOOKUP(A34,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J34" s="153" t="str">
+        <f>VLOOKUP(A34,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K34" s="156"/>
-      <c r="L34" s="171">
-        <f>VLOOKUP(A34,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42319</v>
-      </c>
-      <c r="M34" s="171"/>
-      <c r="N34" s="193">
+      <c r="K34" s="155"/>
+      <c r="L34" s="170">
+        <f>VLOOKUP(A34,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42320</v>
+      </c>
+      <c r="M34" s="170"/>
+      <c r="N34" s="190">
         <v>0</v>
       </c>
-      <c r="O34" s="180"/>
-    </row>
-    <row r="35" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A35" s="179">
+      <c r="O34" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A35" s="178">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="169">
-        <f>VLOOKUP(A35,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B35" s="168">
+        <f>VLOOKUP(A35,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C35" s="112" t="str">
-        <f>VLOOKUP(A35,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D35" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A35,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A35,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A35,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>TABM / Desarrollo de Sistemas</v>
+      <c r="D35" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A35,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A35,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A35,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>FMVREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E35" s="112" t="str">
-        <f>VLOOKUP(A35,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F35" s="112" t="str">
-        <f>VLOOKUP(A35,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G35" s="113"/>
-      <c r="H35" s="154" t="s">
+      <c r="G35" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="154" t="s">
+      <c r="I35" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J35" s="154" t="str">
-        <f>VLOOKUP(A35,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J35" s="153" t="str">
+        <f>VLOOKUP(A35,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K35" s="156"/>
-      <c r="L35" s="171">
-        <f>VLOOKUP(A35,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42319</v>
-      </c>
-      <c r="M35" s="171"/>
-      <c r="N35" s="193">
+      <c r="K35" s="155"/>
+      <c r="L35" s="170">
+        <f>VLOOKUP(A35,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42320</v>
+      </c>
+      <c r="M35" s="170"/>
+      <c r="N35" s="190">
         <v>0</v>
       </c>
-      <c r="O35" s="182"/>
-    </row>
-    <row r="36" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A36" s="179">
+      <c r="O35" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A36" s="178">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="169">
-        <f>VLOOKUP(A36,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B36" s="168">
+        <f>VLOOKUP(A36,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C36" s="112" t="str">
-        <f>VLOOKUP(A36,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D36" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A36,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A36,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A36,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>FMNCONQAP / Desarrollo de Sistemas</v>
+      <c r="D36" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A36,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A36,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A36,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>FMICIC / Desarrollo de Sistemas</v>
       </c>
       <c r="E36" s="112" t="str">
-        <f>VLOOKUP(A36,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F36" s="112" t="str">
-        <f>VLOOKUP(A36,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G36" s="113"/>
-      <c r="H36" s="154" t="s">
+      <c r="G36" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="154" t="s">
+      <c r="I36" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="154" t="str">
-        <f>VLOOKUP(A36,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J36" s="153" t="str">
+        <f>VLOOKUP(A36,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K36" s="156"/>
-      <c r="L36" s="171">
-        <f>VLOOKUP(A36,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K36" s="155"/>
+      <c r="L36" s="170">
+        <f>VLOOKUP(A36,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42320</v>
       </c>
-      <c r="M36" s="171"/>
-      <c r="N36" s="193">
+      <c r="M36" s="170"/>
+      <c r="N36" s="190">
         <v>0</v>
       </c>
-      <c r="O36" s="182"/>
-    </row>
-    <row r="37" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A37" s="179">
+      <c r="O36" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A37" s="178">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="169">
-        <f>VLOOKUP(A37,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B37" s="168">
+        <f>VLOOKUP(A37,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C37" s="112" t="str">
-        <f>VLOOKUP(A37,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D37" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A37,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A37,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A37,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>FMVREQM / Desarrollo de Sistemas</v>
+      <c r="D37" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A37,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A37,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A37,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>FMEXRI / Desarrollo de Sistemas</v>
       </c>
       <c r="E37" s="112" t="str">
-        <f>VLOOKUP(A37,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F37" s="112" t="str">
-        <f>VLOOKUP(A37,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G37" s="113"/>
-      <c r="H37" s="154" t="s">
+      <c r="G37" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="154" t="s">
+      <c r="I37" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="154" t="str">
-        <f>VLOOKUP(A37,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J37" s="153" t="str">
+        <f>VLOOKUP(A37,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K37" s="156"/>
-      <c r="L37" s="171">
-        <f>VLOOKUP(A37,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42320</v>
-      </c>
-      <c r="M37" s="171"/>
-      <c r="N37" s="193">
+      <c r="K37" s="155"/>
+      <c r="L37" s="170">
+        <f>VLOOKUP(A37,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42321</v>
+      </c>
+      <c r="M37" s="170"/>
+      <c r="N37" s="190">
         <v>0</v>
       </c>
-      <c r="O37" s="182"/>
-    </row>
-    <row r="38" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A38" s="179">
+      <c r="O37" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A38" s="178">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="169">
-        <f>VLOOKUP(A38,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B38" s="168">
+        <f>VLOOKUP(A38,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C38" s="112" t="str">
-        <f>VLOOKUP(A38,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D38" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A38,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A38,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A38,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>FMICIC / Desarrollo de Sistemas</v>
+      <c r="D38" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A38,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A38,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A38,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>AREXT / Desarrollo de Sistemas</v>
       </c>
       <c r="E38" s="112" t="str">
-        <f>VLOOKUP(A38,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F38" s="112" t="str">
-        <f>VLOOKUP(A38,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G38" s="113"/>
-      <c r="H38" s="154" t="s">
+      <c r="G38" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="154" t="s">
+      <c r="I38" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="154" t="str">
-        <f>VLOOKUP(A38,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J38" s="153" t="str">
+        <f>VLOOKUP(A38,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K38" s="156"/>
-      <c r="L38" s="171">
-        <f>VLOOKUP(A38,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42320</v>
-      </c>
-      <c r="M38" s="171"/>
-      <c r="N38" s="193">
+      <c r="K38" s="155"/>
+      <c r="L38" s="170">
+        <f>VLOOKUP(A38,Planificación!B$13:N$49,9,FALSE)</f>
+        <v>42321</v>
+      </c>
+      <c r="M38" s="170"/>
+      <c r="N38" s="190">
         <v>0</v>
       </c>
-      <c r="O38" s="182"/>
-    </row>
-    <row r="39" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A39" s="179">
+      <c r="O38" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A39" s="178">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="169">
-        <f>VLOOKUP(A39,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B39" s="168">
+        <f>VLOOKUP(A39,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C39" s="112" t="str">
-        <f>VLOOKUP(A39,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D39" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A39,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A39,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A39,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>FMEXRI / Desarrollo de Sistemas</v>
+      <c r="D39" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A39,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A39,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A39,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>IAQUIN / Desarrollo de Sistemas</v>
       </c>
       <c r="E39" s="112" t="str">
-        <f>VLOOKUP(A39,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F39" s="112" t="str">
-        <f>VLOOKUP(A39,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G39" s="113"/>
-      <c r="H39" s="154" t="s">
+      <c r="G39" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I39" s="154" t="s">
+      <c r="I39" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J39" s="154" t="str">
-        <f>VLOOKUP(A39,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J39" s="153" t="str">
+        <f>VLOOKUP(A39,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K39" s="156"/>
-      <c r="L39" s="171">
-        <f>VLOOKUP(A39,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K39" s="155"/>
+      <c r="L39" s="170">
+        <f>VLOOKUP(A39,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M39" s="171"/>
-      <c r="N39" s="193">
+      <c r="M39" s="170"/>
+      <c r="N39" s="190">
         <v>0</v>
       </c>
-      <c r="O39" s="182"/>
-    </row>
-    <row r="40" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A40" s="179">
+      <c r="O39" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A40" s="178">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="169">
-        <f>VLOOKUP(A40,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
+      <c r="B40" s="168">
+        <f>VLOOKUP(A40,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="C40" s="112" t="str">
-        <f>VLOOKUP(A40,Planificación!$B$13:$F$98,3,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D40" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A40,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A40,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A40,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>AREXT / Desarrollo de Sistemas</v>
+      <c r="D40" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A40,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A40,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A40,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>ARINT / Desarrollo de Sistemas</v>
       </c>
       <c r="E40" s="112" t="str">
-        <f>VLOOKUP(A40,Planificación!B$13:H$51,6,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F40" s="112" t="str">
-        <f>VLOOKUP(A40,Planificación!$B$13:$H$51,7,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G40" s="113"/>
-      <c r="H40" s="154" t="s">
+      <c r="G40" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="I40" s="154" t="s">
+      <c r="I40" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="154" t="str">
-        <f>VLOOKUP(A40,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J40" s="153" t="str">
+        <f>VLOOKUP(A40,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K40" s="156"/>
-      <c r="L40" s="171">
-        <f>VLOOKUP(A40,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K40" s="155"/>
+      <c r="L40" s="170">
+        <f>VLOOKUP(A40,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M40" s="171"/>
-      <c r="N40" s="193">
+      <c r="M40" s="170"/>
+      <c r="N40" s="190">
         <v>0</v>
       </c>
-      <c r="O40" s="182"/>
-    </row>
-    <row r="41" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A41" s="179">
-        <f t="shared" ref="A41:A43" si="1">A40+1</f>
+      <c r="O40" s="191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1" thickBot="1">
+      <c r="A41" s="182">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="169">
-        <f>VLOOKUP(A41,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="112" t="str">
-        <f>VLOOKUP(A41,Planificación!$B$13:$F$98,3,FALSE)</f>
+      <c r="B41" s="192">
+        <f>VLOOKUP(A41,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C41" s="183" t="str">
+        <f>VLOOKUP(A41,Planificación!$B$13:$F$96,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D41" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A41,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A41,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A41,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>IAQUIN / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E41" s="112" t="str">
-        <f>VLOOKUP(A41,Planificación!B$13:H$51,6,FALSE)</f>
+      <c r="D41" s="184" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A41,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A41,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A41,Planificación!B$13:H$49,3,FALSE))</f>
+        <v>ACENTRE / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E41" s="183" t="str">
+        <f>VLOOKUP(A41,Planificación!B$13:H$49,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F41" s="112" t="str">
-        <f>VLOOKUP(A41,Planificación!$B$13:$H$51,7,FALSE)</f>
+      <c r="F41" s="183" t="str">
+        <f>VLOOKUP(A41,Planificación!$B$13:$H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G41" s="113"/>
-      <c r="H41" s="154" t="s">
+      <c r="G41" s="193" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="154" t="s">
+      <c r="I41" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="154" t="str">
-        <f>VLOOKUP(A41,Planificación!B$13:H$51,7,FALSE)</f>
+      <c r="J41" s="185" t="str">
+        <f>VLOOKUP(A41,Planificación!B$13:H$49,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K41" s="156"/>
-      <c r="L41" s="171">
-        <f>VLOOKUP(A41,Planificación!B$13:N$51,9,FALSE)</f>
+      <c r="K41" s="186"/>
+      <c r="L41" s="187">
+        <f>VLOOKUP(A41,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M41" s="171"/>
-      <c r="N41" s="193">
+      <c r="M41" s="187"/>
+      <c r="N41" s="194">
         <v>0</v>
       </c>
-      <c r="O41" s="182"/>
-    </row>
-    <row r="42" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1">
-      <c r="A42" s="179">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="169">
-        <f>VLOOKUP(A42,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C42" s="112" t="str">
-        <f>VLOOKUP(A42,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D42" s="170" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A42,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A42,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A42,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>ARINT / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E42" s="112" t="str">
-        <f>VLOOKUP(A42,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F42" s="112" t="str">
-        <f>VLOOKUP(A42,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G42" s="113"/>
-      <c r="H42" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="154" t="str">
-        <f>VLOOKUP(A42,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K42" s="156"/>
-      <c r="L42" s="171">
-        <f>VLOOKUP(A42,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42321</v>
-      </c>
-      <c r="M42" s="171"/>
-      <c r="N42" s="193">
-        <v>0</v>
-      </c>
-      <c r="O42" s="182"/>
-    </row>
-    <row r="43" spans="1:15" s="114" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A43" s="183">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="169">
-        <f>VLOOKUP(A43,Planificación!$B$13:$F$98,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C43" s="112" t="str">
-        <f>VLOOKUP(A43,Planificación!$B$13:$F$98,3,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D43" s="185" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A43,Planificación!B$13:H$51,5,FALSE),FIND("_",VLOOKUP(A43,Planificación!B$13:H$51,5,FALSE),1)-1)," / ",VLOOKUP(A43,Planificación!B$13:H$51,3,FALSE))</f>
-        <v>ACENTRE / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E43" s="184" t="str">
-        <f>VLOOKUP(A43,Planificación!B$13:H$51,6,FALSE)</f>
-        <v>Roger</v>
-      </c>
-      <c r="F43" s="184" t="str">
-        <f>VLOOKUP(A43,Planificación!$B$13:$H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="G43" s="186"/>
-      <c r="H43" s="187" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="187" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43" s="187" t="str">
-        <f>VLOOKUP(A43,Planificación!B$13:H$51,7,FALSE)</f>
-        <v>Julio</v>
-      </c>
-      <c r="K43" s="188"/>
-      <c r="L43" s="189">
-        <f>VLOOKUP(A43,Planificación!B$13:N$51,9,FALSE)</f>
-        <v>42321</v>
-      </c>
-      <c r="M43" s="189"/>
-      <c r="N43" s="193">
-        <v>0</v>
-      </c>
-      <c r="O43" s="190"/>
-    </row>
-    <row r="44" spans="1:15" s="114" customFormat="1">
-      <c r="A44" s="172"/>
-      <c r="B44" s="173"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-    </row>
-    <row r="45" spans="1:15" s="114" customFormat="1">
-      <c r="A45" s="172"/>
-      <c r="B45" s="173"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="173"/>
-    </row>
-    <row r="46" spans="1:15" s="114" customFormat="1">
-      <c r="A46" s="172"/>
-      <c r="B46" s="173"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174"/>
-      <c r="L46" s="173"/>
-      <c r="M46" s="173"/>
-      <c r="N46" s="173"/>
-    </row>
-    <row r="47" spans="1:15" s="114" customFormat="1">
-      <c r="A47" s="172"/>
-      <c r="B47" s="173"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="173"/>
-      <c r="N47" s="173"/>
+      <c r="O41" s="195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="113" customFormat="1">
+      <c r="A42" s="171"/>
+      <c r="B42" s="172"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
+    </row>
+    <row r="43" spans="1:15" s="113" customFormat="1">
+      <c r="A43" s="171"/>
+      <c r="B43" s="172"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="L43" s="172"/>
+      <c r="M43" s="172"/>
+      <c r="N43" s="172"/>
+    </row>
+    <row r="44" spans="1:15" s="113" customFormat="1">
+      <c r="A44" s="171"/>
+      <c r="B44" s="172"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172"/>
+    </row>
+    <row r="45" spans="1:15" s="113" customFormat="1">
+      <c r="A45" s="171"/>
+      <c r="B45" s="172"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N43">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="N5:N41">
+    <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
         <cfvo type="percent" val="95"/>
       </iconSet>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="&quot;0-20&quot;"/>
         <cfvo type="percent" val="&quot;20-95&quot;"/>
@@ -12552,10 +12426,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H41">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I41">
       <formula1>Origen</formula1>
     </dataValidation>
   </dataValidations>
@@ -12575,8 +12449,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12592,108 +12466,108 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="248" t="s">
+      <c r="C2" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="244" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="242"/>
-      <c r="E4" s="243" t="str">
+      <c r="D4" s="244"/>
+      <c r="E4" s="245" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="247"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="246" t="str">
+      <c r="C5" s="248" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="243" t="str">
+      <c r="D5" s="249"/>
+      <c r="E5" s="245" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="247"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="243" t="str">
+      <c r="D6" s="253"/>
+      <c r="E6" s="245" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="247"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="253" t="s">
+      <c r="C7" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="254">
+      <c r="D7" s="255"/>
+      <c r="E7" s="256">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
-        <v>42290</v>
-      </c>
-      <c r="F7" s="255"/>
-      <c r="G7" s="256" t="s">
+        <v>42310</v>
+      </c>
+      <c r="F7" s="257"/>
+      <c r="G7" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="257"/>
+      <c r="H7" s="259"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
-        <v>42304</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="253" t="s">
+      <c r="C8" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="258"/>
-      <c r="E8" s="243" t="str">
+      <c r="D8" s="260"/>
+      <c r="E8" s="245" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
-        <v>OCTUBRE</v>
-      </c>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="245"/>
+        <v>NOVIEMBRE</v>
+      </c>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="247"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="252" t="s">
+      <c r="C13" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="252"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12705,7 +12579,7 @@
       <c r="C14" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="151">
+      <c r="D14" s="150">
         <v>3</v>
       </c>
     </row>
@@ -12713,16 +12587,16 @@
       <c r="C15" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="149">
-        <v>1</v>
+      <c r="D15" s="148">
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="150">
-        <v>2</v>
+      <c r="D16" s="149">
+        <v>2.6</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -12731,7 +12605,7 @@
       </c>
       <c r="D17" s="98">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.66666666666666663</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="18" spans="3:14">
@@ -12740,7 +12614,7 @@
       </c>
       <c r="D18" s="98">
         <f>1-D17</f>
-        <v>0.33333333333333337</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -12762,7 +12636,7 @@
       <c r="C22" s="107"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="N22" s="145"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="107"/>
@@ -12775,10 +12649,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="249" t="s">
+      <c r="C26" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="249"/>
+      <c r="D26" s="251"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -12792,17 +12666,17 @@
       <c r="C28" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="152">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C28)</f>
-        <v>22</v>
+      <c r="D28" s="151">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C28)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="152">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C29)</f>
+      <c r="D29" s="151">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C29)</f>
         <v>0</v>
       </c>
     </row>
@@ -12810,8 +12684,8 @@
       <c r="C30" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="152">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C30)</f>
+      <c r="D30" s="151">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C30)</f>
         <v>0</v>
       </c>
     </row>
@@ -12819,8 +12693,8 @@
       <c r="C31" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="152">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C31)</f>
+      <c r="D31" s="151">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C31)</f>
         <v>0</v>
       </c>
     </row>
@@ -12828,8 +12702,8 @@
       <c r="C32" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="152">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C32)</f>
+      <c r="D32" s="151">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C32)</f>
         <v>0</v>
       </c>
     </row>
@@ -12837,9 +12711,9 @@
       <c r="C33" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="152">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H43,C33)</f>
-        <v>3</v>
+      <c r="D33" s="151">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C33)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:16">
@@ -12848,15 +12722,15 @@
       </c>
       <c r="D34" s="110">
         <f>SUM(D28:D33)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="249" t="s">
+      <c r="C40" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="249"/>
-      <c r="P40" s="145"/>
+      <c r="D40" s="251"/>
+      <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
       <c r="C41" s="101" t="s">
@@ -12864,7 +12738,7 @@
       </c>
       <c r="D41" s="109">
         <f>Planificación!O7</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="3:16">
@@ -12873,7 +12747,7 @@
       </c>
       <c r="D42" s="109">
         <f>Planificación!O8</f>
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="3:16">
@@ -12882,14 +12756,14 @@
       </c>
       <c r="D43" s="109">
         <f>D42</f>
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="249" t="s">
+      <c r="C57" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="249"/>
+      <c r="D57" s="251"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -12903,9 +12777,9 @@
       <c r="C59" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="146">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C59)</f>
-        <v>25</v>
+      <c r="D59" s="145">
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C59)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:4">
@@ -12913,7 +12787,7 @@
         <v>97</v>
       </c>
       <c r="D60" s="109">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C60)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C60)</f>
         <v>0</v>
       </c>
     </row>
@@ -12922,7 +12796,7 @@
         <v>98</v>
       </c>
       <c r="D61" s="109">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G43,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I43,C61)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C61)</f>
         <v>0</v>
       </c>
     </row>
@@ -12932,7 +12806,7 @@
       </c>
       <c r="D62" s="110">
         <f>SUM(D59:D61)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12993,38 +12867,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="117" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="116" t="s">
+      <c r="E2" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="115" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="106"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="115" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="106"/>
-      <c r="K2" s="117" t="s">
-        <v>145</v>
+      <c r="K2" s="116" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="118" t="s">
-        <v>163</v>
+      <c r="E3" s="117" t="s">
+        <v>162</v>
       </c>
       <c r="G3" s="102" t="s">
         <v>95</v>
@@ -13034,19 +12908,19 @@
         <v>128</v>
       </c>
       <c r="J3" s="106"/>
-      <c r="K3" s="115" t="s">
-        <v>142</v>
+      <c r="K3" s="114" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="141" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="140" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="106"/>
-      <c r="E4" s="118" t="s">
-        <v>147</v>
+      <c r="E4" s="117" t="s">
+        <v>146</v>
       </c>
       <c r="G4" s="102" t="s">
         <v>97</v>
@@ -13056,19 +12930,19 @@
         <v>120</v>
       </c>
       <c r="J4" s="106"/>
-      <c r="K4" s="115" t="s">
-        <v>143</v>
+      <c r="K4" s="114" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="141" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="140" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="106"/>
-      <c r="E5" s="131" t="s">
-        <v>164</v>
+      <c r="E5" s="130" t="s">
+        <v>163</v>
       </c>
       <c r="G5" s="102" t="s">
         <v>98</v>
@@ -13078,36 +12952,36 @@
         <v>121</v>
       </c>
       <c r="J5" s="106"/>
-      <c r="K5" s="115" t="s">
-        <v>144</v>
+      <c r="K5" s="114" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="141" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="140" t="s">
         <v>133</v>
       </c>
       <c r="D6" s="106"/>
-      <c r="E6" s="118" t="s">
-        <v>151</v>
+      <c r="E6" s="117" t="s">
+        <v>150</v>
       </c>
       <c r="H6" s="106"/>
       <c r="I6" s="102" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="106"/>
-      <c r="K6" s="132"/>
+      <c r="K6" s="131"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="141" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="140" t="s">
         <v>134</v>
       </c>
       <c r="D7" s="106"/>
-      <c r="E7" s="118" t="s">
-        <v>148</v>
+      <c r="E7" s="117" t="s">
+        <v>147</v>
       </c>
       <c r="H7" s="106"/>
       <c r="I7" s="102" t="s">
@@ -13117,14 +12991,14 @@
       <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="148" t="s">
-        <v>179</v>
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="147" t="s">
+        <v>178</v>
       </c>
       <c r="D8" s="106"/>
-      <c r="E8" s="118" t="s">
-        <v>165</v>
+      <c r="E8" s="117" t="s">
+        <v>164</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="102" t="s">
@@ -13134,307 +13008,307 @@
       <c r="K8" s="106"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="106"/>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="132" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="118" t="s">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="118" t="s">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" s="136"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" s="136"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" s="136"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" s="136"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" s="136"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" s="136"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" s="136"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" s="136"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A28" s="136"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="132" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="133" t="s">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A34" s="136"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A35" s="136"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A36" s="136"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A37" s="136"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A38" s="136"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="137"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="137"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="137"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="137"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A18" s="137"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="137"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="137"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="137"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="133" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="137"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="133" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="137"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="137"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="137"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="137"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="133" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="137"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="133" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="137"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="135" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="137"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="137"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="133" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="137"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="133" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="137"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136" t="s">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A39" s="136"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="135" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="137"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="136" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="137"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="136" t="s">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A40" s="136"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="135" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="137"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="136" t="s">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A41" s="136"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="135" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="137"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="136" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="106"/>
       <c r="B42" s="106"/>
       <c r="C42" s="106"/>
-      <c r="D42" s="138"/>
+      <c r="D42" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="199">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -2535,102 +2535,142 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2640,46 +2680,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2692,22 +2692,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2718,45 +2757,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2870,6 +2870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3080,7 +3081,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3104,10 +3107,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,6 +3141,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3243,6 +3247,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3903,6 +3908,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3931,7 +3937,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,6 +4074,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4173,6 +4180,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4507,6 +4515,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4696,6 +4705,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7557,22 +7567,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="209" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="219"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="217" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="226"/>
-      <c r="E3" s="227"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7584,12 +7594,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="222"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7612,10 +7622,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="223" t="s">
+      <c r="D8" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="224"/>
+      <c r="E8" s="216"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7630,10 +7640,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="228" t="s">
+      <c r="D10" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="228"/>
+      <c r="E10" s="223"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7648,10 +7658,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="228" t="s">
+      <c r="D12" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="228"/>
+      <c r="E12" s="223"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7666,10 +7676,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="228" t="s">
+      <c r="D14" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="228"/>
+      <c r="E14" s="223"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7684,10 +7694,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="228" t="s">
+      <c r="D16" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="228"/>
+      <c r="E16" s="223"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7701,62 +7711,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="214" t="s">
+      <c r="C20" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="202" t="s">
+      <c r="C21" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="204"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="202" t="s">
+      <c r="C22" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="204"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="222"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="202" t="s">
+      <c r="C23" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="202" t="s">
+      <c r="C24" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="222"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7769,31 +7779,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="211" t="s">
+      <c r="B27" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="213"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="205"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="214" t="s">
+      <c r="C28" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="216"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="208" t="s">
+      <c r="B29" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="226"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7802,11 +7812,11 @@
       <c r="B30" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="198" t="s">
+      <c r="C30" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="199"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -7815,11 +7825,11 @@
       <c r="B31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="198" t="s">
+      <c r="C31" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="199"/>
-      <c r="E31" s="200"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7828,11 +7838,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="199"/>
-      <c r="E32" s="200"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="199"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7841,11 +7851,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="200"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="199"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7854,174 +7864,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="199"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="199"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="208" t="s">
+      <c r="B36" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="210"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="226"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="198" t="s">
+      <c r="C37" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="199"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="198" t="s">
+      <c r="C38" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="200"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="199"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="198" t="s">
+      <c r="C39" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="200"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="199"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="197" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="199"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="198" t="s">
+      <c r="C41" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="199"/>
-      <c r="E41" s="200"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="198" t="s">
+      <c r="C43" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="199"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="198" t="s">
+      <c r="C44" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="200"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="198" t="s">
+      <c r="C45" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="200"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="199"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="198" t="s">
+      <c r="C46" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="199"/>
-      <c r="E46" s="200"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="199"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="198" t="s">
+      <c r="C47" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="199"/>
-      <c r="E47" s="200"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="199"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="198" t="s">
+      <c r="C48" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="199"/>
-      <c r="E48" s="200"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="199"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="198" t="s">
+      <c r="C49" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="199"/>
-      <c r="E49" s="200"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="199"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8054,23 +8064,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="211" t="s">
+      <c r="B52" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="212"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="213"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="205"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="214" t="s">
+      <c r="C53" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="215"/>
-      <c r="E53" s="216"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="208"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8085,132 +8095,132 @@
       <c r="B54" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="198" t="s">
+      <c r="C54" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="199"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="199"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="198" t="s">
+      <c r="C56" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="199"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="198" t="s">
+      <c r="C57" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="205"/>
-      <c r="E57" s="206"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="202"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="198" t="s">
+      <c r="C58" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="205"/>
-      <c r="E58" s="206"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="202"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="198" t="s">
+      <c r="C59" s="197" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="205"/>
-      <c r="E59" s="206"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="202"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="198" t="s">
+      <c r="C60" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="205"/>
-      <c r="E60" s="206"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="202"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="207" t="s">
+      <c r="C61" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="205"/>
-      <c r="E61" s="206"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="202"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="198" t="s">
+      <c r="C62" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="205"/>
-      <c r="E62" s="206"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="202"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="207" t="s">
+      <c r="C63" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="202"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="207" t="s">
+      <c r="C64" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="205"/>
-      <c r="E64" s="206"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="202"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="198" t="s">
+      <c r="C65" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="199"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8221,200 +8231,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="201"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201"/>
+      <c r="B67" s="228"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="197"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
+      <c r="B68" s="227"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="227"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="197"/>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="227"/>
+      <c r="E69" s="227"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
+      <c r="B70" s="227"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="227"/>
+      <c r="E70" s="227"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="197"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
+      <c r="B71" s="227"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="197"/>
-      <c r="C72" s="197"/>
-      <c r="D72" s="197"/>
-      <c r="E72" s="197"/>
+      <c r="B72" s="227"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="227"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="197"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
+      <c r="B73" s="227"/>
+      <c r="C73" s="227"/>
+      <c r="D73" s="227"/>
+      <c r="E73" s="227"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="197"/>
-      <c r="C74" s="197"/>
-      <c r="D74" s="197"/>
-      <c r="E74" s="197"/>
+      <c r="B74" s="227"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197"/>
-      <c r="D75" s="197"/>
-      <c r="E75" s="197"/>
+      <c r="B75" s="227"/>
+      <c r="C75" s="227"/>
+      <c r="D75" s="227"/>
+      <c r="E75" s="227"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="197"/>
-      <c r="C76" s="197"/>
-      <c r="D76" s="197"/>
-      <c r="E76" s="197"/>
+      <c r="B76" s="227"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="197"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="197"/>
-      <c r="E77" s="197"/>
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="227"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="197"/>
-      <c r="C78" s="197"/>
-      <c r="D78" s="197"/>
-      <c r="E78" s="197"/>
+      <c r="B78" s="227"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="227"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="197"/>
-      <c r="C79" s="197"/>
-      <c r="D79" s="197"/>
-      <c r="E79" s="197"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="197"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="197"/>
-      <c r="E80" s="197"/>
+      <c r="B80" s="227"/>
+      <c r="C80" s="227"/>
+      <c r="D80" s="227"/>
+      <c r="E80" s="227"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="197"/>
-      <c r="C81" s="197"/>
-      <c r="D81" s="197"/>
-      <c r="E81" s="197"/>
+      <c r="B81" s="227"/>
+      <c r="C81" s="227"/>
+      <c r="D81" s="227"/>
+      <c r="E81" s="227"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="197"/>
-      <c r="C82" s="197"/>
-      <c r="D82" s="197"/>
-      <c r="E82" s="197"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="197"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="227"/>
+      <c r="C83" s="227"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="227"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="197"/>
-      <c r="C84" s="197"/>
-      <c r="D84" s="197"/>
-      <c r="E84" s="197"/>
+      <c r="B84" s="227"/>
+      <c r="C84" s="227"/>
+      <c r="D84" s="227"/>
+      <c r="E84" s="227"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="227"/>
+      <c r="C85" s="227"/>
+      <c r="D85" s="227"/>
+      <c r="E85" s="227"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="197"/>
-      <c r="C86" s="197"/>
-      <c r="D86" s="197"/>
-      <c r="E86" s="197"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="227"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8427,40 +8437,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8477,27 +8474,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8513,8 +8523,8 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8536,22 +8546,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8559,39 +8569,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="230" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="234" t="s">
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="234" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="235"/>
-      <c r="G7" s="236"/>
-      <c r="J7" s="237" t="s">
+      <c r="F7" s="234"/>
+      <c r="G7" s="235"/>
+      <c r="J7" s="229" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
       <c r="O7" s="164">
         <f>SUM(K13:K49)</f>
         <v>100</v>
@@ -8599,35 +8609,35 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234" t="s">
+      <c r="C8" s="231"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
-      <c r="J8" s="237" t="s">
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
+      <c r="J8" s="229" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="237"/>
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
       <c r="O8" s="164">
         <f>SUM(N13:N49)</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="126">
         <v>42310</v>
       </c>
@@ -8642,16 +8652,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="238" t="s">
+      <c r="C10" s="231"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="239"/>
-      <c r="G10" s="240"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -9916,10 +9926,18 @@
       <c r="K40" s="124">
         <v>4</v>
       </c>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="125"/>
+      <c r="L40" s="167">
+        <v>42319</v>
+      </c>
+      <c r="M40" s="167">
+        <v>42319</v>
+      </c>
+      <c r="N40" s="124">
+        <v>4</v>
+      </c>
+      <c r="O40" s="125" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="41" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A41" s="123"/>
@@ -9954,10 +9972,18 @@
       <c r="K41" s="124">
         <v>4</v>
       </c>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="125"/>
+      <c r="L41" s="167">
+        <v>42319</v>
+      </c>
+      <c r="M41" s="167">
+        <v>42319</v>
+      </c>
+      <c r="N41" s="124">
+        <v>4</v>
+      </c>
+      <c r="O41" s="125" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="42" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A42" s="123"/>
@@ -9992,10 +10018,18 @@
       <c r="K42" s="124">
         <v>2</v>
       </c>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="125"/>
+      <c r="L42" s="167">
+        <v>42320</v>
+      </c>
+      <c r="M42" s="167">
+        <v>42320</v>
+      </c>
+      <c r="N42" s="124">
+        <v>2</v>
+      </c>
+      <c r="O42" s="125" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="43" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A43" s="123"/>
@@ -10030,10 +10064,18 @@
       <c r="K43" s="124">
         <v>3</v>
       </c>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="125"/>
+      <c r="L43" s="167">
+        <v>42320</v>
+      </c>
+      <c r="M43" s="167">
+        <v>42320</v>
+      </c>
+      <c r="N43" s="124">
+        <v>3</v>
+      </c>
+      <c r="O43" s="125" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="44" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A44" s="123"/>
@@ -10068,10 +10110,18 @@
       <c r="K44" s="124">
         <v>3</v>
       </c>
-      <c r="L44" s="167"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="124"/>
-      <c r="O44" s="125"/>
+      <c r="L44" s="167">
+        <v>42320</v>
+      </c>
+      <c r="M44" s="167">
+        <v>42320</v>
+      </c>
+      <c r="N44" s="124">
+        <v>3</v>
+      </c>
+      <c r="O44" s="125" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="45" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A45" s="123"/>
@@ -10291,12 +10341,6 @@
     <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10304,6 +10348,12 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10350,11 +10400,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -11898,9 +11948,12 @@
         <f>VLOOKUP(A32,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42319</v>
       </c>
-      <c r="M32" s="170"/>
+      <c r="M32" s="170">
+        <f>VLOOKUP(A32,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42319</v>
+      </c>
       <c r="N32" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="191" t="s">
         <v>198</v>
@@ -11949,9 +12002,12 @@
         <f>VLOOKUP(A33,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42319</v>
       </c>
-      <c r="M33" s="170"/>
+      <c r="M33" s="170">
+        <f>VLOOKUP(A33,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42319</v>
+      </c>
       <c r="N33" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="191" t="s">
         <v>198</v>
@@ -12000,9 +12056,12 @@
         <f>VLOOKUP(A34,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42320</v>
       </c>
-      <c r="M34" s="170"/>
+      <c r="M34" s="170">
+        <f>VLOOKUP(A34,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42320</v>
+      </c>
       <c r="N34" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="191" t="s">
         <v>198</v>
@@ -12051,9 +12110,12 @@
         <f>VLOOKUP(A35,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42320</v>
       </c>
-      <c r="M35" s="170"/>
+      <c r="M35" s="170">
+        <f>VLOOKUP(A35,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42320</v>
+      </c>
       <c r="N35" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="191" t="s">
         <v>198</v>
@@ -12102,9 +12164,12 @@
         <f>VLOOKUP(A36,Planificación!B$13:N$49,9,FALSE)</f>
         <v>42320</v>
       </c>
-      <c r="M36" s="170"/>
+      <c r="M36" s="170">
+        <f>VLOOKUP(A36,Planificación!B$13:N$49,12,FALSE)</f>
+        <v>42320</v>
+      </c>
       <c r="N36" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="191" t="s">
         <v>198</v>
@@ -12425,7 +12490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H41">
       <formula1>TiposNC</formula1>
     </dataValidation>
@@ -12449,8 +12514,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12466,15 +12531,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12484,65 +12549,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="245" t="str">
+      <c r="D4" s="257"/>
+      <c r="E4" s="247" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="249"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="248" t="str">
+      <c r="C5" s="258" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="245" t="str">
+      <c r="D5" s="259"/>
+      <c r="E5" s="247" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="247"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="249"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="245" t="str">
+      <c r="D6" s="246"/>
+      <c r="E6" s="247" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="247"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="249"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="255" t="s">
+      <c r="C7" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="256">
+      <c r="D7" s="251"/>
+      <c r="E7" s="252">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42310</v>
       </c>
-      <c r="F7" s="257"/>
-      <c r="G7" s="258" t="s">
+      <c r="F7" s="253"/>
+      <c r="G7" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="259"/>
+      <c r="H7" s="255"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42324</v>
@@ -12550,24 +12615,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="255" t="s">
+      <c r="C8" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="245" t="str">
+      <c r="D8" s="256"/>
+      <c r="E8" s="247" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>NOVIEMBRE</v>
       </c>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="249"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="254" t="s">
+      <c r="C13" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="254"/>
+      <c r="D13" s="250"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12588,7 +12653,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12596,7 +12661,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="149">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -12605,7 +12670,7 @@
       </c>
       <c r="D17" s="98">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="3:14">
@@ -12614,7 +12679,7 @@
       </c>
       <c r="D18" s="98">
         <f>1-D17</f>
-        <v>0.1333333333333333</v>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -12649,10 +12714,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="251"/>
+      <c r="D26" s="244"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -12726,10 +12791,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="251" t="s">
+      <c r="C40" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="251"/>
+      <c r="D40" s="244"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -12747,7 +12812,7 @@
       </c>
       <c r="D42" s="109">
         <f>Planificación!O8</f>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="3:16">
@@ -12756,14 +12821,14 @@
       </c>
       <c r="D43" s="109">
         <f>D42</f>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="251" t="s">
+      <c r="C57" s="244" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="251"/>
+      <c r="D57" s="244"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -12811,6 +12876,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -12822,11 +12892,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -782,13 +782,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1146,13 +1146,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2331,13 +2324,13 @@
     <xf numFmtId="0" fontId="59" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2371,58 +2364,58 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2440,10 +2433,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="64" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2490,22 +2483,22 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="65" fillId="0" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="64" fillId="0" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2535,131 +2528,136 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2672,14 +2670,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2692,6 +2682,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2703,18 +2721,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2743,21 +2749,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2779,7 +2772,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2834,7 +2827,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2870,7 +2863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2893,7 +2885,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2983,7 +2975,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3028,7 +3020,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3057,7 +3049,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3080,10 +3072,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3115,7 +3105,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3141,7 +3131,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3164,7 +3153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3199,7 +3188,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3211,7 +3200,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3247,7 +3236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3270,7 +3258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3360,7 +3348,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3405,7 +3393,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3450,7 +3438,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3495,7 +3483,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3540,7 +3528,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3585,7 +3573,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3647,7 +3635,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3705,7 +3693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3740,7 +3728,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3752,7 +3740,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3818,7 +3806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3867,7 +3855,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -3895,7 +3883,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3906,9 +3894,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3942,7 +3929,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -3958,11 +3945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="277321160"/>
-        <c:axId val="277321944"/>
+        <c:axId val="347543304"/>
+        <c:axId val="347541344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277321160"/>
+        <c:axId val="347543304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,10 +3986,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277321944"/>
+        <c:crossAx val="347541344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +3999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277321944"/>
+        <c:axId val="347541344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,10 +4044,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277321160"/>
+        <c:crossAx val="347543304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4074,7 +4061,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4097,7 +4083,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4132,7 +4118,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4144,7 +4130,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4180,7 +4166,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4203,7 +4188,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4327,7 +4312,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4396,7 +4381,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4465,7 +4450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4481,12 +4466,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="277323120"/>
-        <c:axId val="277323904"/>
+        <c:axId val="347543696"/>
+        <c:axId val="347538992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="277323120"/>
+        <c:axId val="347543696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,7 +4500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4538,7 +4522,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4573,10 +4557,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277323904"/>
+        <c:crossAx val="347538992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4586,7 +4570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277323904"/>
+        <c:axId val="347538992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4643,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4688,10 +4672,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277323120"/>
+        <c:crossAx val="347543696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4705,7 +4689,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4728,7 +4711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4763,7 +4746,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6837,6 +6820,79 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1707573</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1032196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="180975"/>
+          <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6886,7 +6942,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7549,8 +7605,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:E61"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7564,25 +7620,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="56" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
+    <row r="2" spans="1:8" s="56" customFormat="1" ht="81.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="260" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7594,12 +7650,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7622,10 +7678,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="215" t="s">
+      <c r="D8" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="216"/>
+      <c r="E8" s="223"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7640,10 +7696,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="223" t="s">
+      <c r="D10" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="223"/>
+      <c r="E10" s="227"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7658,10 +7714,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="223" t="s">
+      <c r="D12" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="223"/>
+      <c r="E12" s="227"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7676,10 +7732,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="223" t="s">
+      <c r="D14" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="223"/>
+      <c r="E14" s="227"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7694,10 +7750,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="223" t="s">
+      <c r="D16" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="223"/>
+      <c r="E16" s="227"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7711,62 +7767,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="220" t="s">
+      <c r="C21" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="204"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="220" t="s">
+      <c r="C22" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="220" t="s">
+      <c r="C23" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="220" t="s">
+      <c r="C24" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="221"/>
-      <c r="E24" s="222"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7779,31 +7835,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="206" t="s">
+      <c r="C28" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="207"/>
-      <c r="E28" s="208"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="224" t="s">
+      <c r="B29" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="226"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7812,11 +7868,11 @@
       <c r="B30" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="197" t="s">
+      <c r="C30" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -7825,11 +7881,11 @@
       <c r="B31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="197" t="s">
+      <c r="C31" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="200"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7838,11 +7894,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="197" t="s">
+      <c r="C32" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="200"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7851,11 +7907,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="197" t="s">
+      <c r="C33" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="200"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7864,174 +7920,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="C34" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="197" t="s">
+      <c r="C35" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="224" t="s">
+      <c r="B36" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="226"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="197" t="s">
+      <c r="C37" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="197" t="s">
+      <c r="C38" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="200"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="197" t="s">
+      <c r="C39" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="197" t="s">
+      <c r="C41" s="198" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="198"/>
-      <c r="E41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="200"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="197" t="s">
+      <c r="C42" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="197" t="s">
+      <c r="C43" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="197" t="s">
+      <c r="C44" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="198"/>
-      <c r="E44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="197" t="s">
+      <c r="C45" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="198"/>
-      <c r="E45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="197" t="s">
+      <c r="C46" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="200"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="197" t="s">
+      <c r="C47" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="198"/>
-      <c r="E47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="200"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="197" t="s">
+      <c r="C48" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="198"/>
-      <c r="E48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="200"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="197" t="s">
+      <c r="C49" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="198"/>
-      <c r="E49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="200"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8064,23 +8120,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="203" t="s">
+      <c r="B52" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="213"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="206" t="s">
+      <c r="C53" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="207"/>
-      <c r="E53" s="208"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="216"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8095,132 +8151,132 @@
       <c r="B54" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="197" t="s">
+      <c r="C54" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="198"/>
-      <c r="E54" s="199"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="200"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="197" t="s">
+      <c r="C55" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="198"/>
-      <c r="E55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="197" t="s">
+      <c r="C56" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="198"/>
-      <c r="E56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="197" t="s">
+      <c r="C57" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="201"/>
-      <c r="E57" s="202"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="206"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="197" t="s">
+      <c r="C58" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="201"/>
-      <c r="E58" s="202"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="206"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="197" t="s">
+      <c r="C59" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="201"/>
-      <c r="E59" s="202"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="206"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="197" t="s">
+      <c r="C60" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="201"/>
-      <c r="E60" s="202"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="206"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="200" t="s">
+      <c r="C61" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="201"/>
-      <c r="E61" s="202"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="206"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="197" t="s">
+      <c r="C62" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="201"/>
-      <c r="E62" s="202"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="206"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="200" t="s">
+      <c r="C63" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="201"/>
-      <c r="E63" s="202"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="206"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="200" t="s">
+      <c r="C64" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="201"/>
-      <c r="E64" s="202"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="206"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="197" t="s">
+      <c r="C65" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="198"/>
-      <c r="E65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="200"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8231,200 +8287,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="228"/>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="228"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="201"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="227"/>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="227"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="227"/>
-      <c r="C69" s="227"/>
-      <c r="D69" s="227"/>
-      <c r="E69" s="227"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="227"/>
-      <c r="C70" s="227"/>
-      <c r="D70" s="227"/>
-      <c r="E70" s="227"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="227"/>
-      <c r="C71" s="227"/>
-      <c r="D71" s="227"/>
-      <c r="E71" s="227"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="227"/>
-      <c r="C72" s="227"/>
-      <c r="D72" s="227"/>
-      <c r="E72" s="227"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="227"/>
-      <c r="C73" s="227"/>
-      <c r="D73" s="227"/>
-      <c r="E73" s="227"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="227"/>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="227"/>
-      <c r="C75" s="227"/>
-      <c r="D75" s="227"/>
-      <c r="E75" s="227"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="227"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="227"/>
-      <c r="E76" s="227"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="227"/>
-      <c r="C77" s="227"/>
-      <c r="D77" s="227"/>
-      <c r="E77" s="227"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="227"/>
-      <c r="C78" s="227"/>
-      <c r="D78" s="227"/>
-      <c r="E78" s="227"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="227"/>
-      <c r="C79" s="227"/>
-      <c r="D79" s="227"/>
-      <c r="E79" s="227"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="227"/>
-      <c r="C80" s="227"/>
-      <c r="D80" s="227"/>
-      <c r="E80" s="227"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="227"/>
-      <c r="C81" s="227"/>
-      <c r="D81" s="227"/>
-      <c r="E81" s="227"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="227"/>
-      <c r="C82" s="227"/>
-      <c r="D82" s="227"/>
-      <c r="E82" s="227"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="227"/>
-      <c r="C83" s="227"/>
-      <c r="D83" s="227"/>
-      <c r="E83" s="227"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="227"/>
-      <c r="C84" s="227"/>
-      <c r="D84" s="227"/>
-      <c r="E84" s="227"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="227"/>
-      <c r="C85" s="227"/>
-      <c r="D85" s="227"/>
-      <c r="E85" s="227"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="227"/>
-      <c r="C86" s="227"/>
-      <c r="D86" s="227"/>
-      <c r="E86" s="227"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8437,27 +8493,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8474,45 +8543,33 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8523,7 +8580,7 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -8546,22 +8603,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8579,8 +8636,8 @@
       </c>
       <c r="F6" s="234"/>
       <c r="G6" s="235"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
@@ -8595,13 +8652,13 @@
       </c>
       <c r="F7" s="234"/>
       <c r="G7" s="235"/>
-      <c r="J7" s="229" t="s">
+      <c r="J7" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
       <c r="O7" s="164">
         <f>SUM(K13:K49)</f>
         <v>100</v>
@@ -8619,13 +8676,13 @@
       </c>
       <c r="F8" s="234"/>
       <c r="G8" s="235"/>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
       <c r="O8" s="164">
         <f>SUM(N13:N49)</f>
         <v>76</v>
@@ -8657,11 +8714,11 @@
       </c>
       <c r="C10" s="231"/>
       <c r="D10" s="232"/>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="238"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="239"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -10341,6 +10398,12 @@
     <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10348,12 +10411,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10425,22 +10482,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="243"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="242"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -12531,15 +12588,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12549,65 +12606,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="257"/>
-      <c r="E4" s="247" t="str">
+      <c r="D4" s="243"/>
+      <c r="E4" s="244" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="249"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="246"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="258" t="str">
+      <c r="C5" s="247" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="259"/>
-      <c r="E5" s="247" t="str">
+      <c r="D5" s="248"/>
+      <c r="E5" s="244" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="249"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="246"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="246"/>
-      <c r="E6" s="247" t="str">
+      <c r="D6" s="252"/>
+      <c r="E6" s="244" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="248"/>
-      <c r="I6" s="249"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="246"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="252">
+      <c r="D7" s="254"/>
+      <c r="E7" s="255">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42310</v>
       </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="254" t="s">
+      <c r="F7" s="256"/>
+      <c r="G7" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="255"/>
+      <c r="H7" s="258"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42324</v>
@@ -12615,24 +12672,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="251" t="s">
+      <c r="C8" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="247" t="str">
+      <c r="D8" s="259"/>
+      <c r="E8" s="244" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>NOVIEMBRE</v>
       </c>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="249"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="246"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="250" t="s">
+      <c r="C13" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="250"/>
+      <c r="D13" s="253"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12714,10 +12771,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="244" t="s">
+      <c r="C26" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="244"/>
+      <c r="D26" s="250"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -12791,10 +12848,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="244" t="s">
+      <c r="C40" s="250" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="244"/>
+      <c r="D40" s="250"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -12825,10 +12882,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="244" t="s">
+      <c r="C57" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="244"/>
+      <c r="D57" s="250"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -12876,11 +12933,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -12892,6 +12944,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Z$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Z$54</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="203">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -755,18 +755,12 @@
     <t>HGQA_V1.0_2015 Herramienta de Gestión QA-Producto</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 20/10/2015</t>
-  </si>
-  <si>
     <t>Nombre del Jefe de Proyecto</t>
   </si>
   <si>
     <t>Nombre del Analista de Calidad</t>
   </si>
   <si>
-    <t>MST E.I.R.L</t>
-  </si>
-  <si>
     <t>Planificación y Ejecución Conforme</t>
   </si>
   <si>
@@ -776,13 +770,31 @@
     <t>NOVIEMBRE</t>
   </si>
   <si>
-    <t>Pendiente de Revisión</t>
+    <t>Roger Apaéstegui</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 19/11/2015</t>
+  </si>
+  <si>
+    <t>MSPQA_Matriz de Seguimiento de Proyecto</t>
+  </si>
+  <si>
+    <t>Solucionado el 16/11/2015</t>
+  </si>
+  <si>
+    <t>No se encontró Documento elaborado en Área de Proceso PPQA</t>
+  </si>
+  <si>
+    <t>Checklist no esta dividido por criterios de auditoría (en libros separados - para Aseguramiento de Calidad y Gestión de la Configuración)</t>
+  </si>
+  <si>
+    <t>No se encontró Documento elaborado en Área de Proceso REQM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2589,6 +2601,9 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2748,9 +2763,6 @@
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2772,7 +2784,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2827,7 +2839,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2863,6 +2875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2885,7 +2898,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2975,7 +2988,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3020,7 +3033,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3049,7 +3062,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3072,8 +3085,10 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3097,15 +3112,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3131,6 +3146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3153,7 +3169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3188,7 +3204,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3200,7 +3216,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3236,6 +3252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3258,7 +3275,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3348,7 +3365,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3393,7 +3410,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3438,7 +3455,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3483,7 +3500,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3528,7 +3545,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3573,7 +3590,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3615,7 +3632,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3635,7 +3652,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3693,7 +3710,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3728,7 +3745,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3740,7 +3757,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3806,7 +3823,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3855,7 +3872,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -3883,7 +3900,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3894,8 +3911,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3921,15 +3939,15 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -3986,7 +4004,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347541344"/>
@@ -4044,7 +4062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347543304"/>
@@ -4061,6 +4079,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4083,7 +4102,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4118,7 +4137,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4130,7 +4149,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4166,6 +4185,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4188,7 +4208,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4307,12 +4327,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4381,7 +4401,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4450,7 +4470,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4500,6 +4520,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4522,7 +4543,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4557,7 +4578,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347538992"/>
@@ -4643,7 +4664,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4672,7 +4693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347543696"/>
@@ -4689,6 +4710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4711,7 +4733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4746,7 +4768,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7435,7 +7457,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7520,7 +7542,7 @@
         <v>137</v>
       </c>
       <c r="D5" s="68">
-        <v>42297</v>
+        <v>42327</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>138</v>
@@ -7532,7 +7554,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -7605,8 +7627,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7623,22 +7645,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="81.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="217" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="224" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="C3" s="225" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7650,12 +7672,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7678,10 +7700,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="223"/>
+      <c r="E8" s="224"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7696,10 +7718,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="227" t="s">
+      <c r="D10" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="227"/>
+      <c r="E10" s="228"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7714,10 +7736,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="227" t="s">
+      <c r="D12" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="227"/>
+      <c r="E12" s="228"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7732,10 +7754,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="227" t="s">
+      <c r="D14" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="227"/>
+      <c r="E14" s="228"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7750,10 +7772,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="227" t="s">
+      <c r="D16" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="227"/>
+      <c r="E16" s="228"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7869,7 +7891,7 @@
         <v>135</v>
       </c>
       <c r="C30" s="198" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="199"/>
       <c r="E30" s="200"/>
@@ -7882,7 +7904,7 @@
         <v>140</v>
       </c>
       <c r="C31" s="198" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="199"/>
       <c r="E31" s="200"/>
@@ -8578,10 +8600,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Z54"/>
+  <dimension ref="A3:Z55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" topLeftCell="F43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8603,22 +8625,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8626,75 +8648,75 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="233" t="s">
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="233" t="s">
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
-      <c r="J7" s="236" t="s">
+      <c r="F7" s="235"/>
+      <c r="G7" s="236"/>
+      <c r="J7" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
       <c r="O7" s="164">
-        <f>SUM(K13:K49)</f>
-        <v>100</v>
+        <f>SUM(K13:K50)</f>
+        <v>103</v>
       </c>
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="233" t="s">
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="J8" s="236" t="s">
+      <c r="F8" s="235"/>
+      <c r="G8" s="236"/>
+      <c r="J8" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
       <c r="O8" s="164">
-        <f>SUM(N13:N49)</f>
-        <v>76</v>
+        <f>SUM(N13:N50)</f>
+        <v>103</v>
       </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="126">
         <v>42310</v>
       </c>
@@ -8709,16 +8731,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="237" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="238"/>
-      <c r="G10" s="239"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="238" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8731,7 +8753,7 @@
     </row>
     <row r="12" spans="2:26" s="121" customFormat="1" ht="38.25">
       <c r="B12" s="118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="118" t="s">
         <v>32</v>
@@ -8814,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8859,12 +8881,12 @@
         <v>3</v>
       </c>
       <c r="O14" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B15" s="85">
-        <f t="shared" ref="B15:B49" si="0">B14+1</f>
+        <f t="shared" ref="B15:B50" si="0">B14+1</f>
         <v>3</v>
       </c>
       <c r="C15" s="189">
@@ -8904,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8949,7 +8971,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8994,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9039,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9084,7 +9106,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9129,7 +9151,7 @@
         <v>4</v>
       </c>
       <c r="O20" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9174,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9209,10 +9231,18 @@
       <c r="K22" s="124">
         <v>3</v>
       </c>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
+      <c r="L22" s="167">
+        <v>42322</v>
+      </c>
+      <c r="M22" s="167">
+        <v>42322</v>
+      </c>
+      <c r="N22" s="124">
+        <v>3</v>
+      </c>
+      <c r="O22" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="23" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="B23" s="85">
@@ -9256,7 +9286,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9301,7 +9331,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9346,7 +9376,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9391,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9436,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9471,10 +9501,18 @@
       <c r="K28" s="124">
         <v>3</v>
       </c>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="125"/>
+      <c r="L28" s="167">
+        <v>42324</v>
+      </c>
+      <c r="M28" s="167">
+        <v>42324</v>
+      </c>
+      <c r="N28" s="124">
+        <v>3</v>
+      </c>
+      <c r="O28" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="29" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A29" s="123"/>
@@ -9509,10 +9547,18 @@
       <c r="K29" s="124">
         <v>3</v>
       </c>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="125"/>
+      <c r="L29" s="167">
+        <v>42322</v>
+      </c>
+      <c r="M29" s="167">
+        <v>42322</v>
+      </c>
+      <c r="N29" s="124">
+        <v>3</v>
+      </c>
+      <c r="O29" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A30" s="123"/>
@@ -9547,10 +9593,18 @@
       <c r="K30" s="124">
         <v>2</v>
       </c>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="125"/>
+      <c r="L30" s="167">
+        <v>42322</v>
+      </c>
+      <c r="M30" s="167">
+        <v>42322</v>
+      </c>
+      <c r="N30" s="124">
+        <v>2</v>
+      </c>
+      <c r="O30" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="31" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A31" s="123"/>
@@ -9585,10 +9639,18 @@
       <c r="K31" s="124">
         <v>3</v>
       </c>
-      <c r="L31" s="167"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="125"/>
+      <c r="L31" s="167">
+        <v>42324</v>
+      </c>
+      <c r="M31" s="167">
+        <v>42324</v>
+      </c>
+      <c r="N31" s="124">
+        <v>3</v>
+      </c>
+      <c r="O31" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="32" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A32" s="123"/>
@@ -9633,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9652,7 +9714,7 @@
         <v>130</v>
       </c>
       <c r="F33" s="159" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G33" s="163" t="s">
         <v>141</v>
@@ -9661,25 +9723,25 @@
         <v>143</v>
       </c>
       <c r="I33" s="167">
-        <v>42315</v>
+        <v>42324</v>
       </c>
       <c r="J33" s="167">
-        <v>42315</v>
+        <v>42324</v>
       </c>
       <c r="K33" s="124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="167">
-        <v>42315</v>
+        <v>42324</v>
       </c>
       <c r="M33" s="167">
-        <v>42315</v>
+        <v>42324</v>
       </c>
       <c r="N33" s="124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O33" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9698,7 +9760,7 @@
         <v>130</v>
       </c>
       <c r="F34" s="159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G34" s="163" t="s">
         <v>141</v>
@@ -9707,25 +9769,25 @@
         <v>143</v>
       </c>
       <c r="I34" s="167">
-        <v>42317</v>
+        <v>42315</v>
       </c>
       <c r="J34" s="167">
-        <v>42317</v>
+        <v>42315</v>
       </c>
       <c r="K34" s="124">
         <v>4</v>
       </c>
       <c r="L34" s="167">
-        <v>42317</v>
+        <v>42315</v>
       </c>
       <c r="M34" s="167">
-        <v>42317</v>
+        <v>42315</v>
       </c>
       <c r="N34" s="124">
         <v>4</v>
       </c>
       <c r="O34" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9737,17 +9799,17 @@
       <c r="C35" s="189">
         <v>2</v>
       </c>
-      <c r="D35" s="156" t="s">
+      <c r="D35" s="160" t="s">
         <v>123</v>
       </c>
       <c r="E35" s="162" t="s">
         <v>130</v>
       </c>
       <c r="F35" s="159" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G35" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="163" t="s">
         <v>143</v>
@@ -9771,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="O35" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9783,34 +9845,42 @@
       <c r="C36" s="189">
         <v>2</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="156" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="162" t="s">
         <v>130</v>
       </c>
       <c r="F36" s="159" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G36" s="163" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H36" s="163" t="s">
         <v>143</v>
       </c>
       <c r="I36" s="167">
-        <v>42324</v>
+        <v>42317</v>
       </c>
       <c r="J36" s="167">
-        <v>42324</v>
+        <v>42317</v>
       </c>
       <c r="K36" s="124">
-        <v>2</v>
-      </c>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="125"/>
+        <v>4</v>
+      </c>
+      <c r="L36" s="167">
+        <v>42317</v>
+      </c>
+      <c r="M36" s="167">
+        <v>42317</v>
+      </c>
+      <c r="N36" s="124">
+        <v>4</v>
+      </c>
+      <c r="O36" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A37" s="123"/>
@@ -9824,38 +9894,38 @@
       <c r="D37" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="157" t="s">
-        <v>133</v>
+      <c r="E37" s="162" t="s">
+        <v>130</v>
       </c>
       <c r="F37" s="159" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="G37" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="163" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I37" s="167">
-        <v>42318</v>
+        <v>42324</v>
       </c>
       <c r="J37" s="167">
-        <v>42318</v>
+        <v>42324</v>
       </c>
       <c r="K37" s="124">
         <v>2</v>
       </c>
       <c r="L37" s="167">
-        <v>42318</v>
+        <v>42324</v>
       </c>
       <c r="M37" s="167">
-        <v>42318</v>
+        <v>42324</v>
       </c>
       <c r="N37" s="124">
         <v>2</v>
       </c>
       <c r="O37" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9874,7 +9944,7 @@
         <v>133</v>
       </c>
       <c r="F38" s="159" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G38" s="163" t="s">
         <v>142</v>
@@ -9889,7 +9959,7 @@
         <v>42318</v>
       </c>
       <c r="K38" s="124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="167">
         <v>42318</v>
@@ -9898,10 +9968,10 @@
         <v>42318</v>
       </c>
       <c r="N38" s="124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9920,7 +9990,7 @@
         <v>133</v>
       </c>
       <c r="F39" s="159" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G39" s="163" t="s">
         <v>142</v>
@@ -9947,7 +10017,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9963,37 +10033,37 @@
         <v>123</v>
       </c>
       <c r="E40" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="159" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G40" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="163" t="s">
         <v>141</v>
       </c>
       <c r="I40" s="167">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="J40" s="167">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="K40" s="124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" s="167">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="M40" s="167">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="N40" s="124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O40" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10012,7 +10082,7 @@
         <v>134</v>
       </c>
       <c r="F41" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G41" s="163" t="s">
         <v>143</v>
@@ -10039,7 +10109,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10058,7 +10128,7 @@
         <v>134</v>
       </c>
       <c r="F42" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G42" s="163" t="s">
         <v>143</v>
@@ -10067,25 +10137,25 @@
         <v>141</v>
       </c>
       <c r="I42" s="167">
-        <v>42320</v>
+        <v>42319</v>
       </c>
       <c r="J42" s="167">
-        <v>42320</v>
+        <v>42319</v>
       </c>
       <c r="K42" s="124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L42" s="167">
-        <v>42320</v>
+        <v>42319</v>
       </c>
       <c r="M42" s="167">
-        <v>42320</v>
+        <v>42319</v>
       </c>
       <c r="N42" s="124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O42" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10104,7 +10174,7 @@
         <v>134</v>
       </c>
       <c r="F43" s="159" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G43" s="163" t="s">
         <v>143</v>
@@ -10119,7 +10189,7 @@
         <v>42320</v>
       </c>
       <c r="K43" s="124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" s="167">
         <v>42320</v>
@@ -10128,10 +10198,10 @@
         <v>42320</v>
       </c>
       <c r="N43" s="124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10150,7 +10220,7 @@
         <v>134</v>
       </c>
       <c r="F44" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" s="163" t="s">
         <v>143</v>
@@ -10177,7 +10247,7 @@
         <v>3</v>
       </c>
       <c r="O44" s="125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10195,8 +10265,8 @@
       <c r="E45" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="158" t="s">
-        <v>171</v>
+      <c r="F45" s="159" t="s">
+        <v>170</v>
       </c>
       <c r="G45" s="163" t="s">
         <v>143</v>
@@ -10205,18 +10275,26 @@
         <v>141</v>
       </c>
       <c r="I45" s="167">
-        <v>42321</v>
+        <v>42320</v>
       </c>
       <c r="J45" s="167">
-        <v>42321</v>
+        <v>42320</v>
       </c>
       <c r="K45" s="124">
-        <v>4</v>
-      </c>
-      <c r="L45" s="167"/>
-      <c r="M45" s="167"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="125"/>
+        <v>3</v>
+      </c>
+      <c r="L45" s="167">
+        <v>42320</v>
+      </c>
+      <c r="M45" s="167">
+        <v>42320</v>
+      </c>
+      <c r="N45" s="124">
+        <v>3</v>
+      </c>
+      <c r="O45" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="46" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A46" s="123"/>
@@ -10231,10 +10309,10 @@
         <v>123</v>
       </c>
       <c r="E46" s="157" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F46" s="158" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G46" s="163" t="s">
         <v>143</v>
@@ -10249,12 +10327,20 @@
         <v>42321</v>
       </c>
       <c r="K46" s="124">
-        <v>1</v>
-      </c>
-      <c r="L46" s="167"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="125"/>
+        <v>4</v>
+      </c>
+      <c r="L46" s="167">
+        <v>42321</v>
+      </c>
+      <c r="M46" s="167">
+        <v>42321</v>
+      </c>
+      <c r="N46" s="124">
+        <v>4</v>
+      </c>
+      <c r="O46" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="47" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A47" s="123"/>
@@ -10272,7 +10358,7 @@
         <v>178</v>
       </c>
       <c r="F47" s="158" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G47" s="163" t="s">
         <v>143</v>
@@ -10289,10 +10375,18 @@
       <c r="K47" s="124">
         <v>1</v>
       </c>
-      <c r="L47" s="167"/>
-      <c r="M47" s="167"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="125"/>
+      <c r="L47" s="167">
+        <v>42321</v>
+      </c>
+      <c r="M47" s="167">
+        <v>42321</v>
+      </c>
+      <c r="N47" s="124">
+        <v>1</v>
+      </c>
+      <c r="O47" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="48" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A48" s="123"/>
@@ -10310,7 +10404,7 @@
         <v>178</v>
       </c>
       <c r="F48" s="158" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G48" s="163" t="s">
         <v>143</v>
@@ -10327,10 +10421,18 @@
       <c r="K48" s="124">
         <v>1</v>
       </c>
-      <c r="L48" s="167"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="125"/>
+      <c r="L48" s="167">
+        <v>42321</v>
+      </c>
+      <c r="M48" s="167">
+        <v>42321</v>
+      </c>
+      <c r="N48" s="124">
+        <v>1</v>
+      </c>
+      <c r="O48" s="125" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="49" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
       <c r="A49" s="123"/>
@@ -10348,7 +10450,7 @@
         <v>178</v>
       </c>
       <c r="F49" s="158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G49" s="163" t="s">
         <v>143</v>
@@ -10365,37 +10467,91 @@
       <c r="K49" s="124">
         <v>1</v>
       </c>
-      <c r="L49" s="167"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="125"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="127"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="8"/>
+      <c r="L49" s="167">
+        <v>42321</v>
+      </c>
+      <c r="M49" s="167">
+        <v>42321</v>
+      </c>
+      <c r="N49" s="124">
+        <v>1</v>
+      </c>
+      <c r="O49" s="125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A50" s="123"/>
+      <c r="B50" s="85">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="189">
+        <v>2</v>
+      </c>
+      <c r="D50" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="167">
+        <v>42321</v>
+      </c>
+      <c r="J50" s="167">
+        <v>42321</v>
+      </c>
+      <c r="K50" s="124">
+        <v>1</v>
+      </c>
+      <c r="L50" s="167">
+        <v>42321</v>
+      </c>
+      <c r="M50" s="167">
+        <v>42321</v>
+      </c>
+      <c r="N50" s="124">
+        <v>1</v>
+      </c>
+      <c r="O50" s="125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="12.75" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="K51" s="128"/>
+      <c r="K51" s="127"/>
       <c r="L51" s="128"/>
-      <c r="M51" s="128"/>
-      <c r="N51" s="128"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="127"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="8"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
+    <row r="54" spans="1:15">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="55" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="J8:N8"/>
@@ -10426,25 +10582,25 @@
           <x14:formula1>
             <xm:f>Tablas!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D49</xm:sqref>
+          <xm:sqref>D13:D50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$K$3:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G13:H49</xm:sqref>
+          <xm:sqref>G13:H50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E13:E49</xm:sqref>
+          <xm:sqref>E13:E50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Tablas!$E$3:$E$41</xm:f>
+            <xm:f>Tablas!$E$3:$E$42</xm:f>
           </x14:formula1>
-          <xm:sqref>F13:F49</xm:sqref>
+          <xm:sqref>F13:F50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10455,13 +10611,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10482,22 +10638,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10572,23 +10728,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="168">
-        <f>VLOOKUP(A5,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C5" s="112" t="str">
-        <f>VLOOKUP(A5,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D5" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$50,3,FALSE))</f>
         <v>PGPROY / Desarrollo de Sistemas</v>
       </c>
       <c r="E5" s="112" t="str">
-        <f>VLOOKUP(A5,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F5" s="112" t="str">
-        <f>VLOOKUP(A5,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G5" s="96" t="s">
@@ -10601,16 +10757,16 @@
         <v>95</v>
       </c>
       <c r="J5" s="153" t="str">
-        <f>VLOOKUP(A5,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K5" s="155"/>
       <c r="L5" s="170">
-        <f>VLOOKUP(A5,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42310</v>
       </c>
       <c r="M5" s="170">
-        <f>VLOOKUP(A5,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A5,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42310</v>
       </c>
       <c r="N5" s="190">
@@ -10624,23 +10780,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="168">
-        <f>VLOOKUP(A6,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C6" s="112" t="str">
-        <f>VLOOKUP(A6,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D6" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$50,3,FALSE))</f>
         <v>PPROY / Desarrollo de Sistemas</v>
       </c>
       <c r="E6" s="112" t="str">
-        <f>VLOOKUP(A6,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F6" s="112" t="str">
-        <f>VLOOKUP(A6,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G6" s="96" t="s">
@@ -10653,16 +10809,16 @@
         <v>95</v>
       </c>
       <c r="J6" s="153" t="str">
-        <f>VLOOKUP(A6,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K6" s="155"/>
       <c r="L6" s="170">
-        <f>VLOOKUP(A6,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42310</v>
       </c>
       <c r="M6" s="170">
-        <f>VLOOKUP(A6,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A6,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42310</v>
       </c>
       <c r="N6" s="190">
@@ -10672,27 +10828,27 @@
     </row>
     <row r="7" spans="1:15" ht="60" customHeight="1">
       <c r="A7" s="178">
-        <f t="shared" ref="A7:A41" si="0">A6+1</f>
+        <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="168">
-        <f>VLOOKUP(A7,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C7" s="112" t="str">
-        <f>VLOOKUP(A7,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D7" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$50,3,FALSE))</f>
         <v>ACREVPRO / Desarrollo de Sistemas</v>
       </c>
       <c r="E7" s="112" t="str">
-        <f>VLOOKUP(A7,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F7" s="112" t="str">
-        <f>VLOOKUP(A7,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G7" s="96" t="s">
@@ -10705,16 +10861,16 @@
         <v>95</v>
       </c>
       <c r="J7" s="153" t="str">
-        <f>VLOOKUP(A7,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K7" s="154"/>
       <c r="L7" s="170">
-        <f>VLOOKUP(A7,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42310</v>
       </c>
       <c r="M7" s="170">
-        <f>VLOOKUP(A7,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A7,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42310</v>
       </c>
       <c r="N7" s="190">
@@ -10728,23 +10884,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="168">
-        <f>VLOOKUP(A8,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C8" s="112" t="str">
-        <f>VLOOKUP(A8,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D8" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$50,3,FALSE))</f>
         <v>CPROY / Desarrollo de Sistemas</v>
       </c>
       <c r="E8" s="112" t="str">
-        <f>VLOOKUP(A8,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F8" s="112" t="str">
-        <f>VLOOKUP(A8,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G8" s="96" t="s">
@@ -10757,16 +10913,16 @@
         <v>95</v>
       </c>
       <c r="J8" s="153" t="str">
-        <f>VLOOKUP(A8,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K8" s="155"/>
       <c r="L8" s="170">
-        <f>VLOOKUP(A8,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="M8" s="170">
-        <f>VLOOKUP(A8,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A8,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="N8" s="190">
@@ -10780,23 +10936,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="168">
-        <f>VLOOKUP(A9,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C9" s="112" t="str">
-        <f>VLOOKUP(A9,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D9" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$50,3,FALSE))</f>
         <v>REGRI / Desarrollo de Sistemas</v>
       </c>
       <c r="E9" s="112" t="str">
-        <f>VLOOKUP(A9,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F9" s="112" t="str">
-        <f>VLOOKUP(A9,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G9" s="96" t="s">
@@ -10809,16 +10965,16 @@
         <v>95</v>
       </c>
       <c r="J9" s="153" t="str">
-        <f>VLOOKUP(A9,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K9" s="155"/>
       <c r="L9" s="170">
-        <f>VLOOKUP(A9,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="M9" s="170">
-        <f>VLOOKUP(A9,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A9,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="N9" s="190">
@@ -10832,23 +10988,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="168">
-        <f>VLOOKUP(A10,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C10" s="112" t="str">
-        <f>VLOOKUP(A10,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D10" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$50,3,FALSE))</f>
         <v>ACCPRO / Desarrollo de Sistemas</v>
       </c>
       <c r="E10" s="112" t="str">
-        <f>VLOOKUP(A10,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F10" s="112" t="str">
-        <f>VLOOKUP(A10,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G10" s="96" t="s">
@@ -10861,16 +11017,16 @@
         <v>95</v>
       </c>
       <c r="J10" s="153" t="str">
-        <f>VLOOKUP(A10,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K10" s="154"/>
       <c r="L10" s="170">
-        <f>VLOOKUP(A10,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="M10" s="170">
-        <f>VLOOKUP(A10,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A10,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="N10" s="190">
@@ -10884,23 +11040,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="168">
-        <f>VLOOKUP(A11,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="C11" s="112" t="str">
-        <f>VLOOKUP(A11,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D11" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$50,3,FALSE))</f>
         <v>ACREPRO / Desarrollo de Sistemas</v>
       </c>
       <c r="E11" s="112" t="str">
-        <f>VLOOKUP(A11,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F11" s="112" t="str">
-        <f>VLOOKUP(A11,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G11" s="96" t="s">
@@ -10913,16 +11069,16 @@
         <v>95</v>
       </c>
       <c r="J11" s="153" t="str">
-        <f>VLOOKUP(A11,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K11" s="154"/>
       <c r="L11" s="170">
-        <f>VLOOKUP(A11,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="M11" s="170">
-        <f>VLOOKUP(A11,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A11,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42311</v>
       </c>
       <c r="N11" s="190">
@@ -10936,23 +11092,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="168">
-        <f>VLOOKUP(A12,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C12" s="112" t="str">
-        <f>VLOOKUP(A12,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D12" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$50,3,FALSE))</f>
         <v>PGREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E12" s="112" t="str">
-        <f>VLOOKUP(A12,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F12" s="112" t="str">
-        <f>VLOOKUP(A12,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G12" s="96" t="s">
@@ -10965,16 +11121,16 @@
         <v>95</v>
       </c>
       <c r="J12" s="153" t="str">
-        <f>VLOOKUP(A12,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K12" s="155"/>
       <c r="L12" s="170">
-        <f>VLOOKUP(A12,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42312</v>
       </c>
       <c r="M12" s="170">
-        <f>VLOOKUP(A12,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A12,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42312</v>
       </c>
       <c r="N12" s="190">
@@ -10988,23 +11144,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="168">
-        <f>VLOOKUP(A13,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C13" s="112" t="str">
-        <f>VLOOKUP(A13,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D13" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$50,3,FALSE))</f>
         <v>LMREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E13" s="112" t="str">
-        <f>VLOOKUP(A13,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F13" s="112" t="str">
-        <f>VLOOKUP(A13,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G13" s="96" t="s">
@@ -11017,16 +11173,16 @@
         <v>95</v>
       </c>
       <c r="J13" s="153" t="str">
-        <f>VLOOKUP(A13,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K13" s="155"/>
       <c r="L13" s="170">
-        <f>VLOOKUP(A13,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42312</v>
       </c>
       <c r="M13" s="170">
-        <f>VLOOKUP(A13,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A13,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42312</v>
       </c>
       <c r="N13" s="190">
@@ -11040,23 +11196,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="168">
-        <f>VLOOKUP(A14,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C14" s="112" t="str">
-        <f>VLOOKUP(A14,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D14" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$50,3,FALSE))</f>
         <v>MTREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E14" s="112" t="str">
-        <f>VLOOKUP(A14,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F14" s="112" t="str">
-        <f>VLOOKUP(A14,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G14" s="96" t="s">
@@ -11069,17 +11225,20 @@
         <v>95</v>
       </c>
       <c r="J14" s="153" t="str">
-        <f>VLOOKUP(A14,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K14" s="155"/>
       <c r="L14" s="170">
-        <f>VLOOKUP(A14,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A14,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42322</v>
       </c>
-      <c r="M14" s="170"/>
+      <c r="M14" s="170">
+        <f>VLOOKUP(A14,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42322</v>
+      </c>
       <c r="N14" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="179"/>
     </row>
@@ -11089,23 +11248,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="168">
-        <f>VLOOKUP(A15,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C15" s="112" t="str">
-        <f>VLOOKUP(A15,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D15" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$50,3,FALSE))</f>
         <v>SOLCREQ / Desarrollo de Sistemas</v>
       </c>
       <c r="E15" s="112" t="str">
-        <f>VLOOKUP(A15,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F15" s="112" t="str">
-        <f>VLOOKUP(A15,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G15" s="96" t="s">
@@ -11118,16 +11277,16 @@
         <v>95</v>
       </c>
       <c r="J15" s="153" t="str">
-        <f>VLOOKUP(A15,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K15" s="154"/>
       <c r="L15" s="170">
-        <f>VLOOKUP(A15,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="M15" s="170">
-        <f>VLOOKUP(A15,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A15,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="N15" s="190">
@@ -11141,23 +11300,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="168">
-        <f>VLOOKUP(A16,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C16" s="112" t="str">
-        <f>VLOOKUP(A16,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D16" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A16,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A16,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A16,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A16,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A16,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A16,Planificación!B$13:H$50,3,FALSE))</f>
         <v>ASCR / Desarrollo de Sistemas</v>
       </c>
       <c r="E16" s="112" t="str">
-        <f>VLOOKUP(A16,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F16" s="112" t="str">
-        <f>VLOOKUP(A16,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G16" s="96" t="s">
@@ -11170,16 +11329,16 @@
         <v>95</v>
       </c>
       <c r="J16" s="153" t="str">
-        <f>VLOOKUP(A16,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K16" s="154"/>
       <c r="L16" s="170">
-        <f>VLOOKUP(A16,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="M16" s="170">
-        <f>VLOOKUP(A16,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A16,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="N16" s="190">
@@ -11193,23 +11352,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="168">
-        <f>VLOOKUP(A17,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C17" s="112" t="str">
-        <f>VLOOKUP(A17,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D17" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A17,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A17,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A17,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A17,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A17,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A17,Planificación!B$13:H$50,3,FALSE))</f>
         <v>RCREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E17" s="112" t="str">
-        <f>VLOOKUP(A17,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F17" s="112" t="str">
-        <f>VLOOKUP(A17,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G17" s="96" t="s">
@@ -11222,16 +11381,16 @@
         <v>95</v>
       </c>
       <c r="J17" s="153" t="str">
-        <f>VLOOKUP(A17,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K17" s="154"/>
       <c r="L17" s="170">
-        <f>VLOOKUP(A17,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="M17" s="170">
-        <f>VLOOKUP(A17,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A17,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="N17" s="190">
@@ -11245,23 +11404,23 @@
         <v>14</v>
       </c>
       <c r="B18" s="168">
-        <f>VLOOKUP(A18,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C18" s="112" t="str">
-        <f>VLOOKUP(A18,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D18" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A18,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A18,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A18,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A18,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A18,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A18,Planificación!B$13:H$50,3,FALSE))</f>
         <v>DANA / Desarrollo de Sistemas</v>
       </c>
       <c r="E18" s="112" t="str">
-        <f>VLOOKUP(A18,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="F18" s="112" t="str">
-        <f>VLOOKUP(A18,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="G18" s="96" t="s">
@@ -11274,16 +11433,16 @@
         <v>95</v>
       </c>
       <c r="J18" s="153" t="str">
-        <f>VLOOKUP(A18,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="K18" s="155"/>
       <c r="L18" s="170">
-        <f>VLOOKUP(A18,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="M18" s="170">
-        <f>VLOOKUP(A18,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A18,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42313</v>
       </c>
       <c r="N18" s="190">
@@ -11297,23 +11456,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="168">
-        <f>VLOOKUP(A19,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C19" s="112" t="str">
-        <f>VLOOKUP(A19,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D19" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A19,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A19,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A19,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A19,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A19,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A19,Planificación!B$13:H$50,3,FALSE))</f>
         <v>DDIS / Desarrollo de Sistemas</v>
       </c>
       <c r="E19" s="112" t="str">
-        <f>VLOOKUP(A19,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F19" s="112" t="str">
-        <f>VLOOKUP(A19,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G19" s="96" t="s">
@@ -11326,16 +11485,16 @@
         <v>95</v>
       </c>
       <c r="J19" s="153" t="str">
-        <f>VLOOKUP(A19,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K19" s="155"/>
       <c r="L19" s="170">
-        <f>VLOOKUP(A19,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42314</v>
       </c>
       <c r="M19" s="170">
-        <f>VLOOKUP(A19,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A19,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42314</v>
       </c>
       <c r="N19" s="190">
@@ -11349,27 +11508,27 @@
         <v>16</v>
       </c>
       <c r="B20" s="168">
-        <f>VLOOKUP(A20,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C20" s="112" t="str">
-        <f>VLOOKUP(A20,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D20" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A20,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A20,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A20,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A20,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A20,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A20,Planificación!B$13:H$50,3,FALSE))</f>
         <v>MANUSER / Desarrollo de Sistemas</v>
       </c>
       <c r="E20" s="112" t="str">
-        <f>VLOOKUP(A20,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Gaspar</v>
       </c>
       <c r="F20" s="112" t="str">
-        <f>VLOOKUP(A20,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="H20" s="153" t="s">
         <v>120</v>
@@ -11378,20 +11537,23 @@
         <v>95</v>
       </c>
       <c r="J20" s="153" t="str">
-        <f>VLOOKUP(A20,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K20" s="155"/>
       <c r="L20" s="170">
-        <f>VLOOKUP(A20,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A20,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42324</v>
       </c>
-      <c r="M20" s="170"/>
+      <c r="M20" s="170">
+        <f>VLOOKUP(A20,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42324</v>
+      </c>
       <c r="N20" s="190">
-        <v>0</v>
-      </c>
-      <c r="O20" s="191" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="O20" s="179" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11400,27 +11562,27 @@
         <v>17</v>
       </c>
       <c r="B21" s="168">
-        <f>VLOOKUP(A21,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C21" s="112" t="str">
-        <f>VLOOKUP(A21,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D21" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A21,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A21,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A21,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A21,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A21,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A21,Planificación!B$13:H$50,3,FALSE))</f>
         <v>INPRUIN / Desarrollo de Sistemas</v>
       </c>
       <c r="E21" s="112" t="str">
-        <f>VLOOKUP(A21,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F21" s="112" t="str">
-        <f>VLOOKUP(A21,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="H21" s="153" t="s">
         <v>120</v>
@@ -11429,20 +11591,23 @@
         <v>95</v>
       </c>
       <c r="J21" s="153" t="str">
-        <f>VLOOKUP(A21,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K21" s="155"/>
       <c r="L21" s="170">
-        <f>VLOOKUP(A21,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A21,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42322</v>
       </c>
-      <c r="M21" s="170"/>
+      <c r="M21" s="170">
+        <f>VLOOKUP(A21,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42322</v>
+      </c>
       <c r="N21" s="190">
-        <v>0</v>
-      </c>
-      <c r="O21" s="191" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="O21" s="179" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11451,27 +11616,27 @@
         <v>18</v>
       </c>
       <c r="B22" s="168">
-        <f>VLOOKUP(A22,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C22" s="112" t="str">
-        <f>VLOOKUP(A22,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D22" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A22,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A22,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A22,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A22,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A22,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A22,Planificación!B$13:H$50,3,FALSE))</f>
         <v>INPRUEX / Desarrollo de Sistemas</v>
       </c>
       <c r="E22" s="112" t="str">
-        <f>VLOOKUP(A22,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F22" s="112" t="str">
-        <f>VLOOKUP(A22,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G22" s="96" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="H22" s="153" t="s">
         <v>120</v>
@@ -11480,20 +11645,23 @@
         <v>95</v>
       </c>
       <c r="J22" s="153" t="str">
-        <f>VLOOKUP(A22,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K22" s="155"/>
       <c r="L22" s="170">
-        <f>VLOOKUP(A22,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A22,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42322</v>
       </c>
-      <c r="M22" s="170"/>
+      <c r="M22" s="170">
+        <f>VLOOKUP(A22,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42322</v>
+      </c>
       <c r="N22" s="190">
-        <v>0</v>
-      </c>
-      <c r="O22" s="191" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="O22" s="179" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11502,27 +11670,27 @@
         <v>19</v>
       </c>
       <c r="B23" s="168">
-        <f>VLOOKUP(A23,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C23" s="112" t="str">
-        <f>VLOOKUP(A23,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D23" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A23,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A23,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A23,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A23,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A23,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A23,Planificación!B$13:H$50,3,FALSE))</f>
         <v>GUINSTALL / Desarrollo de Sistemas</v>
       </c>
       <c r="E23" s="112" t="str">
-        <f>VLOOKUP(A23,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Gaspar</v>
       </c>
       <c r="F23" s="112" t="str">
-        <f>VLOOKUP(A23,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="H23" s="153" t="s">
         <v>120</v>
@@ -11531,20 +11699,23 @@
         <v>95</v>
       </c>
       <c r="J23" s="153" t="str">
-        <f>VLOOKUP(A23,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K23" s="155"/>
       <c r="L23" s="170">
-        <f>VLOOKUP(A23,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A23,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42324</v>
       </c>
-      <c r="M23" s="170"/>
+      <c r="M23" s="170">
+        <f>VLOOKUP(A23,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42324</v>
+      </c>
       <c r="N23" s="190">
-        <v>0</v>
-      </c>
-      <c r="O23" s="191" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="O23" s="179" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11553,27 +11724,27 @@
         <v>20</v>
       </c>
       <c r="B24" s="168">
-        <f>VLOOKUP(A24,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C24" s="112" t="str">
-        <f>VLOOKUP(A24,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D24" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A24,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A24,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A24,Planificación!B$13:H$49,3,FALSE))</f>
+        <f>CONCATENATE(LEFT(VLOOKUP(A24,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A24,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A24,Planificación!B$13:H$50,3,FALSE))</f>
         <v>CHKQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E24" s="112" t="str">
-        <f>VLOOKUP(A24,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="F24" s="112" t="str">
-        <f>VLOOKUP(A24,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="G24" s="96" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H24" s="153" t="s">
         <v>120</v>
@@ -11582,22 +11753,24 @@
         <v>95</v>
       </c>
       <c r="J24" s="153" t="str">
-        <f>VLOOKUP(A24,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="K24" s="155"/>
       <c r="L24" s="170">
-        <f>VLOOKUP(A24,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42315</v>
       </c>
       <c r="M24" s="170">
-        <f>VLOOKUP(A24,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A24,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42315</v>
       </c>
       <c r="N24" s="190">
         <v>1</v>
       </c>
-      <c r="O24" s="179"/>
+      <c r="O24" s="179" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="178">
@@ -11605,27 +11778,26 @@
         <v>21</v>
       </c>
       <c r="B25" s="168">
-        <f>VLOOKUP(A25,Planificación!$B$13:$F$96,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="112" t="str">
-        <f>VLOOKUP(A25,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A25,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D25" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A25,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A25,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A25,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>HGQA / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A25,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A25,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A25,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>MSPQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E25" s="112" t="str">
-        <f>VLOOKUP(A25,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A25,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="F25" s="112" t="str">
-        <f>VLOOKUP(A25,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A25,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="G25" s="96" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="H25" s="153" t="s">
         <v>120</v>
@@ -11634,22 +11806,24 @@
         <v>95</v>
       </c>
       <c r="J25" s="153" t="str">
-        <f>VLOOKUP(A25,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A25,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="K25" s="155"/>
       <c r="L25" s="170">
-        <f>VLOOKUP(A25,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42315</v>
+        <f>VLOOKUP(A25,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42324</v>
       </c>
       <c r="M25" s="170">
-        <f>VLOOKUP(A25,Planificación!B$13:N$49,12,FALSE)</f>
-        <v>42315</v>
+        <f>VLOOKUP(A25,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42324</v>
       </c>
       <c r="N25" s="190">
         <v>1</v>
       </c>
-      <c r="O25" s="181"/>
+      <c r="O25" s="179" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="26" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A26" s="178">
@@ -11657,51 +11831,51 @@
         <v>22</v>
       </c>
       <c r="B26" s="168">
-        <f>VLOOKUP(A26,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A26,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C26" s="112" t="str">
-        <f>VLOOKUP(A26,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A26,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D26" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A26,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A26,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A26,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>PQA / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A26,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A26,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A26,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>HGQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E26" s="112" t="str">
-        <f>VLOOKUP(A26,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A26,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="F26" s="112" t="str">
-        <f>VLOOKUP(A26,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A26,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="G26" s="96" t="s">
         <v>177</v>
       </c>
       <c r="H26" s="153" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I26" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J26" s="153" t="str">
-        <f>VLOOKUP(A26,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A26,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="K26" s="155"/>
       <c r="L26" s="170">
-        <f>VLOOKUP(A26,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42317</v>
+        <f>VLOOKUP(A26,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42315</v>
       </c>
       <c r="M26" s="170">
-        <f>VLOOKUP(A26,Planificación!B$13:N$49,12,FALSE)</f>
-        <v>42317</v>
+        <f>VLOOKUP(A26,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42315</v>
       </c>
       <c r="N26" s="190">
         <v>1</v>
       </c>
-      <c r="O26" s="179"/>
+      <c r="O26" s="181"/>
     </row>
     <row r="27" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A27" s="178">
@@ -11709,51 +11883,51 @@
         <v>23</v>
       </c>
       <c r="B27" s="168">
-        <f>VLOOKUP(A27,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A27,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C27" s="112" t="str">
-        <f>VLOOKUP(A27,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A27,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D27" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A27,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A27,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A27,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>SOLQA / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A27,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A27,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A27,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>PQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E27" s="112" t="str">
-        <f>VLOOKUP(A27,Planificación!B$13:H$49,6,FALSE)</f>
-        <v>Gaspar</v>
+        <f>VLOOKUP(A27,Planificación!B$13:H$50,6,FALSE)</f>
+        <v>Julio</v>
       </c>
       <c r="F27" s="112" t="str">
-        <f>VLOOKUP(A27,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A27,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="G27" s="96" t="s">
         <v>177</v>
       </c>
       <c r="H27" s="153" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I27" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="153" t="str">
-        <f>VLOOKUP(A27,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A27,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="K27" s="155"/>
       <c r="L27" s="170">
-        <f>VLOOKUP(A27,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A27,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42317</v>
       </c>
       <c r="M27" s="170">
-        <f>VLOOKUP(A27,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A27,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42317</v>
       </c>
       <c r="N27" s="190">
         <v>1</v>
       </c>
-      <c r="O27" s="181"/>
+      <c r="O27" s="179"/>
     </row>
     <row r="28" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A28" s="178">
@@ -11761,23 +11935,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="168">
-        <f>VLOOKUP(A28,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C28" s="112" t="str">
-        <f>VLOOKUP(A28,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D28" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A28,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A28,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A28,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>INREQA / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A28,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A28,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A28,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>SOLQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E28" s="112" t="str">
-        <f>VLOOKUP(A28,Planificación!B$13:H$49,6,FALSE)</f>
-        <v>Julio</v>
+        <f>VLOOKUP(A28,Planificación!B$13:H$50,6,FALSE)</f>
+        <v>Gaspar</v>
       </c>
       <c r="F28" s="112" t="str">
-        <f>VLOOKUP(A28,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="G28" s="96" t="s">
@@ -11790,21 +11964,22 @@
         <v>95</v>
       </c>
       <c r="J28" s="153" t="str">
-        <f>VLOOKUP(A28,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A28,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="K28" s="155"/>
       <c r="L28" s="170">
-        <f>VLOOKUP(A28,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42324</v>
-      </c>
-      <c r="M28" s="170"/>
+        <f>VLOOKUP(A28,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42317</v>
+      </c>
+      <c r="M28" s="170">
+        <f>VLOOKUP(A28,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42317</v>
+      </c>
       <c r="N28" s="190">
-        <v>0</v>
-      </c>
-      <c r="O28" s="191" t="s">
-        <v>198</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O28" s="181"/>
     </row>
     <row r="29" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A29" s="178">
@@ -11812,51 +11987,51 @@
         <v>25</v>
       </c>
       <c r="B29" s="168">
-        <f>VLOOKUP(A29,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A29,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C29" s="112" t="str">
-        <f>VLOOKUP(A29,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A29,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D29" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A29,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A29,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A29,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>PGC / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A29,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A29,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A29,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>INREQA / Desarrollo de Sistemas</v>
       </c>
       <c r="E29" s="112" t="str">
-        <f>VLOOKUP(A29,Planificación!B$13:H$49,6,FALSE)</f>
-        <v>Gaspar</v>
+        <f>VLOOKUP(A29,Planificación!B$13:H$50,6,FALSE)</f>
+        <v>Julio</v>
       </c>
       <c r="F29" s="112" t="str">
-        <f>VLOOKUP(A29,Planificación!$B$13:$H$49,7,FALSE)</f>
-        <v>Julio</v>
+        <f>VLOOKUP(A29,Planificación!$B$13:$H$50,7,FALSE)</f>
+        <v>Roger</v>
       </c>
       <c r="G29" s="96" t="s">
         <v>177</v>
       </c>
       <c r="H29" s="153" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I29" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J29" s="153" t="str">
-        <f>VLOOKUP(A29,Planificación!B$13:H$49,7,FALSE)</f>
-        <v>Julio</v>
+        <f>VLOOKUP(A29,Planificación!B$13:H$50,7,FALSE)</f>
+        <v>Roger</v>
       </c>
       <c r="K29" s="155"/>
       <c r="L29" s="170">
-        <f>VLOOKUP(A29,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42318</v>
+        <f>VLOOKUP(A29,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42324</v>
       </c>
       <c r="M29" s="170">
-        <f>VLOOKUP(A29,Planificación!B$13:N$49,12,FALSE)</f>
-        <v>42318</v>
+        <f>VLOOKUP(A29,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42324</v>
       </c>
       <c r="N29" s="190">
         <v>1</v>
       </c>
-      <c r="O29" s="179"/>
+      <c r="O29" s="191"/>
     </row>
     <row r="30" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A30" s="178">
@@ -11864,45 +12039,45 @@
         <v>26</v>
       </c>
       <c r="B30" s="168">
-        <f>VLOOKUP(A30,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C30" s="112" t="str">
-        <f>VLOOKUP(A30,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D30" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A30,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A30,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A30,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>SOLACC / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A30,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A30,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A30,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>PGC / Desarrollo de Sistemas</v>
       </c>
       <c r="E30" s="112" t="str">
-        <f>VLOOKUP(A30,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Gaspar</v>
       </c>
       <c r="F30" s="112" t="str">
-        <f>VLOOKUP(A30,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G30" s="96" t="s">
         <v>177</v>
       </c>
       <c r="H30" s="153" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I30" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J30" s="153" t="str">
-        <f>VLOOKUP(A30,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K30" s="155"/>
       <c r="L30" s="170">
-        <f>VLOOKUP(A30,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42318</v>
       </c>
       <c r="M30" s="170">
-        <f>VLOOKUP(A30,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A30,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42318</v>
       </c>
       <c r="N30" s="190">
@@ -11916,23 +12091,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="168">
-        <f>VLOOKUP(A31,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C31" s="112" t="str">
-        <f>VLOOKUP(A31,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D31" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A31,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A31,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A31,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>REGITCON / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A31,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A31,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A31,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>SOLACC / Desarrollo de Sistemas</v>
       </c>
       <c r="E31" s="112" t="str">
-        <f>VLOOKUP(A31,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Gaspar</v>
       </c>
       <c r="F31" s="112" t="str">
-        <f>VLOOKUP(A31,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G31" s="96" t="s">
@@ -11945,16 +12120,16 @@
         <v>95</v>
       </c>
       <c r="J31" s="153" t="str">
-        <f>VLOOKUP(A31,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K31" s="155"/>
       <c r="L31" s="170">
-        <f>VLOOKUP(A31,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42318</v>
       </c>
       <c r="M31" s="170">
-        <f>VLOOKUP(A31,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A31,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42318</v>
       </c>
       <c r="N31" s="190">
@@ -11968,53 +12143,51 @@
         <v>28</v>
       </c>
       <c r="B32" s="168">
-        <f>VLOOKUP(A32,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A32,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C32" s="112" t="str">
-        <f>VLOOKUP(A32,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A32,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D32" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A32,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A32,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A32,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>PROMM / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A32,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A32,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A32,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>REGITCON / Desarrollo de Sistemas</v>
       </c>
       <c r="E32" s="112" t="str">
-        <f>VLOOKUP(A32,Planificación!B$13:H$49,6,FALSE)</f>
-        <v>Roger</v>
+        <f>VLOOKUP(A32,Planificación!B$13:H$50,6,FALSE)</f>
+        <v>Gaspar</v>
       </c>
       <c r="F32" s="112" t="str">
-        <f>VLOOKUP(A32,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A32,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G32" s="96" t="s">
         <v>177</v>
       </c>
       <c r="H32" s="153" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I32" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J32" s="153" t="str">
-        <f>VLOOKUP(A32,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A32,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K32" s="155"/>
       <c r="L32" s="170">
-        <f>VLOOKUP(A32,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42319</v>
+        <f>VLOOKUP(A32,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42318</v>
       </c>
       <c r="M32" s="170">
-        <f>VLOOKUP(A32,Planificación!B$13:N$49,12,FALSE)</f>
-        <v>42319</v>
+        <f>VLOOKUP(A32,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42318</v>
       </c>
       <c r="N32" s="190">
         <v>1</v>
       </c>
-      <c r="O32" s="191" t="s">
-        <v>198</v>
-      </c>
+      <c r="O32" s="179"/>
     </row>
     <row r="33" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A33" s="178">
@@ -12022,53 +12195,51 @@
         <v>29</v>
       </c>
       <c r="B33" s="168">
-        <f>VLOOKUP(A33,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C33" s="112" t="str">
-        <f>VLOOKUP(A33,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D33" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A33,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A33,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A33,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>TABM / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A33,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A33,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A33,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>PROMM / Desarrollo de Sistemas</v>
       </c>
       <c r="E33" s="112" t="str">
-        <f>VLOOKUP(A33,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F33" s="112" t="str">
-        <f>VLOOKUP(A33,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G33" s="96" t="s">
         <v>177</v>
       </c>
       <c r="H33" s="153" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I33" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J33" s="153" t="str">
-        <f>VLOOKUP(A33,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K33" s="155"/>
       <c r="L33" s="170">
-        <f>VLOOKUP(A33,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42319</v>
       </c>
       <c r="M33" s="170">
-        <f>VLOOKUP(A33,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A33,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42319</v>
       </c>
       <c r="N33" s="190">
         <v>1</v>
       </c>
-      <c r="O33" s="191" t="s">
-        <v>198</v>
-      </c>
+      <c r="O33" s="191"/>
     </row>
     <row r="34" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A34" s="178">
@@ -12076,23 +12247,23 @@
         <v>30</v>
       </c>
       <c r="B34" s="168">
-        <f>VLOOKUP(A34,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C34" s="112" t="str">
-        <f>VLOOKUP(A34,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D34" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A34,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A34,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A34,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>FMNCONQAP / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A34,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A34,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A34,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>TABM / Desarrollo de Sistemas</v>
       </c>
       <c r="E34" s="112" t="str">
-        <f>VLOOKUP(A34,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F34" s="112" t="str">
-        <f>VLOOKUP(A34,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G34" s="96" t="s">
@@ -12105,24 +12276,22 @@
         <v>95</v>
       </c>
       <c r="J34" s="153" t="str">
-        <f>VLOOKUP(A34,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A34,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K34" s="155"/>
       <c r="L34" s="170">
-        <f>VLOOKUP(A34,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42320</v>
+        <f>VLOOKUP(A34,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42319</v>
       </c>
       <c r="M34" s="170">
-        <f>VLOOKUP(A34,Planificación!B$13:N$49,12,FALSE)</f>
-        <v>42320</v>
+        <f>VLOOKUP(A34,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42319</v>
       </c>
       <c r="N34" s="190">
         <v>1</v>
       </c>
-      <c r="O34" s="191" t="s">
-        <v>198</v>
-      </c>
+      <c r="O34" s="191"/>
     </row>
     <row r="35" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A35" s="178">
@@ -12130,23 +12299,23 @@
         <v>31</v>
       </c>
       <c r="B35" s="168">
-        <f>VLOOKUP(A35,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C35" s="112" t="str">
-        <f>VLOOKUP(A35,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D35" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A35,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A35,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A35,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>FMVREQM / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A35,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A35,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A35,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>FMNCONQAP / Desarrollo de Sistemas</v>
       </c>
       <c r="E35" s="112" t="str">
-        <f>VLOOKUP(A35,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F35" s="112" t="str">
-        <f>VLOOKUP(A35,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G35" s="96" t="s">
@@ -12159,24 +12328,22 @@
         <v>95</v>
       </c>
       <c r="J35" s="153" t="str">
-        <f>VLOOKUP(A35,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K35" s="155"/>
       <c r="L35" s="170">
-        <f>VLOOKUP(A35,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42320</v>
       </c>
       <c r="M35" s="170">
-        <f>VLOOKUP(A35,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A35,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42320</v>
       </c>
       <c r="N35" s="190">
         <v>1</v>
       </c>
-      <c r="O35" s="191" t="s">
-        <v>198</v>
-      </c>
+      <c r="O35" s="191"/>
     </row>
     <row r="36" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A36" s="178">
@@ -12184,23 +12351,23 @@
         <v>32</v>
       </c>
       <c r="B36" s="168">
-        <f>VLOOKUP(A36,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C36" s="112" t="str">
-        <f>VLOOKUP(A36,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D36" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A36,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A36,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A36,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>FMICIC / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A36,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A36,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A36,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>FMVREQM / Desarrollo de Sistemas</v>
       </c>
       <c r="E36" s="112" t="str">
-        <f>VLOOKUP(A36,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F36" s="112" t="str">
-        <f>VLOOKUP(A36,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G36" s="96" t="s">
@@ -12213,24 +12380,22 @@
         <v>95</v>
       </c>
       <c r="J36" s="153" t="str">
-        <f>VLOOKUP(A36,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K36" s="155"/>
       <c r="L36" s="170">
-        <f>VLOOKUP(A36,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42320</v>
       </c>
       <c r="M36" s="170">
-        <f>VLOOKUP(A36,Planificación!B$13:N$49,12,FALSE)</f>
+        <f>VLOOKUP(A36,Planificación!B$13:N$50,12,FALSE)</f>
         <v>42320</v>
       </c>
       <c r="N36" s="190">
         <v>1</v>
       </c>
-      <c r="O36" s="191" t="s">
-        <v>198</v>
-      </c>
+      <c r="O36" s="191"/>
     </row>
     <row r="37" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A37" s="178">
@@ -12238,23 +12403,23 @@
         <v>33</v>
       </c>
       <c r="B37" s="168">
-        <f>VLOOKUP(A37,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C37" s="112" t="str">
-        <f>VLOOKUP(A37,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D37" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A37,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A37,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A37,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>FMEXRI / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A37,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A37,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A37,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>FMICIC / Desarrollo de Sistemas</v>
       </c>
       <c r="E37" s="112" t="str">
-        <f>VLOOKUP(A37,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F37" s="112" t="str">
-        <f>VLOOKUP(A37,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G37" s="96" t="s">
@@ -12267,21 +12432,22 @@
         <v>95</v>
       </c>
       <c r="J37" s="153" t="str">
-        <f>VLOOKUP(A37,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A37,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K37" s="155"/>
       <c r="L37" s="170">
-        <f>VLOOKUP(A37,Planificación!B$13:N$49,9,FALSE)</f>
-        <v>42321</v>
-      </c>
-      <c r="M37" s="170"/>
+        <f>VLOOKUP(A37,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42320</v>
+      </c>
+      <c r="M37" s="170">
+        <f>VLOOKUP(A37,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42320</v>
+      </c>
       <c r="N37" s="190">
-        <v>0</v>
-      </c>
-      <c r="O37" s="191" t="s">
-        <v>198</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O37" s="191"/>
     </row>
     <row r="38" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A38" s="178">
@@ -12289,23 +12455,23 @@
         <v>34</v>
       </c>
       <c r="B38" s="168">
-        <f>VLOOKUP(A38,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C38" s="112" t="str">
-        <f>VLOOKUP(A38,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D38" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A38,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A38,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A38,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>AREXT / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A38,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A38,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A38,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>FMEXRI / Desarrollo de Sistemas</v>
       </c>
       <c r="E38" s="112" t="str">
-        <f>VLOOKUP(A38,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F38" s="112" t="str">
-        <f>VLOOKUP(A38,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G38" s="96" t="s">
@@ -12318,21 +12484,22 @@
         <v>95</v>
       </c>
       <c r="J38" s="153" t="str">
-        <f>VLOOKUP(A38,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K38" s="155"/>
       <c r="L38" s="170">
-        <f>VLOOKUP(A38,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A38,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M38" s="170"/>
+      <c r="M38" s="170">
+        <f>VLOOKUP(A38,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42321</v>
+      </c>
       <c r="N38" s="190">
-        <v>0</v>
-      </c>
-      <c r="O38" s="191" t="s">
-        <v>198</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O38" s="191"/>
     </row>
     <row r="39" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A39" s="178">
@@ -12340,23 +12507,23 @@
         <v>35</v>
       </c>
       <c r="B39" s="168">
-        <f>VLOOKUP(A39,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C39" s="112" t="str">
-        <f>VLOOKUP(A39,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D39" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A39,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A39,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A39,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>IAQUIN / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A39,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A39,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A39,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>AREXT / Desarrollo de Sistemas</v>
       </c>
       <c r="E39" s="112" t="str">
-        <f>VLOOKUP(A39,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F39" s="112" t="str">
-        <f>VLOOKUP(A39,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G39" s="96" t="s">
@@ -12369,21 +12536,22 @@
         <v>95</v>
       </c>
       <c r="J39" s="153" t="str">
-        <f>VLOOKUP(A39,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K39" s="155"/>
       <c r="L39" s="170">
-        <f>VLOOKUP(A39,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A39,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M39" s="170"/>
+      <c r="M39" s="170">
+        <f>VLOOKUP(A39,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42321</v>
+      </c>
       <c r="N39" s="190">
-        <v>0</v>
-      </c>
-      <c r="O39" s="191" t="s">
-        <v>198</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O39" s="191"/>
     </row>
     <row r="40" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A40" s="178">
@@ -12391,23 +12559,23 @@
         <v>36</v>
       </c>
       <c r="B40" s="168">
-        <f>VLOOKUP(A40,Planificación!$B$13:$F$96,2,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C40" s="112" t="str">
-        <f>VLOOKUP(A40,Planificación!$B$13:$F$96,3,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D40" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A40,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A40,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A40,Planificación!B$13:H$49,3,FALSE))</f>
-        <v>ARINT / Desarrollo de Sistemas</v>
+        <f>CONCATENATE(LEFT(VLOOKUP(A40,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A40,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A40,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>IAQUIN / Desarrollo de Sistemas</v>
       </c>
       <c r="E40" s="112" t="str">
-        <f>VLOOKUP(A40,Planificación!B$13:H$49,6,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
       <c r="F40" s="112" t="str">
-        <f>VLOOKUP(A40,Planificación!$B$13:$H$49,7,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G40" s="96" t="s">
@@ -12420,81 +12588,126 @@
         <v>95</v>
       </c>
       <c r="J40" s="153" t="str">
-        <f>VLOOKUP(A40,Planificación!B$13:H$49,7,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="K40" s="155"/>
       <c r="L40" s="170">
-        <f>VLOOKUP(A40,Planificación!B$13:N$49,9,FALSE)</f>
+        <f>VLOOKUP(A40,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M40" s="170"/>
+      <c r="M40" s="170">
+        <f>VLOOKUP(A40,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42321</v>
+      </c>
       <c r="N40" s="190">
-        <v>0</v>
-      </c>
-      <c r="O40" s="191" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A41" s="182">
+        <v>1</v>
+      </c>
+      <c r="O40" s="191"/>
+    </row>
+    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="A41" s="178">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="192">
-        <f>VLOOKUP(A41,Planificación!$B$13:$F$96,2,FALSE)</f>
+      <c r="B41" s="168">
+        <f>VLOOKUP(A41,Planificación!$B$13:$F$97,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="C41" s="183" t="str">
-        <f>VLOOKUP(A41,Planificación!$B$13:$F$96,3,FALSE)</f>
+      <c r="C41" s="112" t="str">
+        <f>VLOOKUP(A41,Planificación!$B$13:$F$97,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D41" s="184" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A41,Planificación!B$13:H$49,5,FALSE),FIND("_",VLOOKUP(A41,Planificación!B$13:H$49,5,FALSE),1)-1)," / ",VLOOKUP(A41,Planificación!B$13:H$49,3,FALSE))</f>
+      <c r="D41" s="169" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A41,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A41,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A41,Planificación!B$13:H$50,3,FALSE))</f>
+        <v>ARINT / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E41" s="112" t="str">
+        <f>VLOOKUP(A41,Planificación!B$13:H$50,6,FALSE)</f>
+        <v>Roger</v>
+      </c>
+      <c r="F41" s="112" t="str">
+        <f>VLOOKUP(A41,Planificación!$B$13:$H$50,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="G41" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f>VLOOKUP(A41,Planificación!B$13:H$50,7,FALSE)</f>
+        <v>Julio</v>
+      </c>
+      <c r="K41" s="155"/>
+      <c r="L41" s="170">
+        <f>VLOOKUP(A41,Planificación!B$13:N$50,9,FALSE)</f>
+        <v>42321</v>
+      </c>
+      <c r="M41" s="170">
+        <f>VLOOKUP(A41,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42321</v>
+      </c>
+      <c r="N41" s="190">
+        <v>1</v>
+      </c>
+      <c r="O41" s="191"/>
+    </row>
+    <row r="42" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1" thickBot="1">
+      <c r="A42" s="182">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="192">
+        <f>VLOOKUP(A42,Planificación!$B$13:$F$97,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="183" t="str">
+        <f>VLOOKUP(A42,Planificación!$B$13:$F$97,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D42" s="184" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A42,Planificación!B$13:H$50,5,FALSE),FIND("_",VLOOKUP(A42,Planificación!B$13:H$50,5,FALSE),1)-1)," / ",VLOOKUP(A42,Planificación!B$13:H$50,3,FALSE))</f>
         <v>ACENTRE / Desarrollo de Sistemas</v>
       </c>
-      <c r="E41" s="183" t="str">
-        <f>VLOOKUP(A41,Planificación!B$13:H$49,6,FALSE)</f>
+      <c r="E42" s="183" t="str">
+        <f>VLOOKUP(A42,Planificación!B$13:H$50,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F41" s="183" t="str">
-        <f>VLOOKUP(A41,Planificación!$B$13:$H$49,7,FALSE)</f>
+      <c r="F42" s="183" t="str">
+        <f>VLOOKUP(A42,Planificación!$B$13:$H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G41" s="193" t="s">
+      <c r="G42" s="193" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="185" t="s">
+      <c r="H42" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="185" t="s">
+      <c r="I42" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="185" t="str">
-        <f>VLOOKUP(A41,Planificación!B$13:H$49,7,FALSE)</f>
+      <c r="J42" s="185" t="str">
+        <f>VLOOKUP(A42,Planificación!B$13:H$50,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K41" s="186"/>
-      <c r="L41" s="187">
-        <f>VLOOKUP(A41,Planificación!B$13:N$49,9,FALSE)</f>
+      <c r="K42" s="186"/>
+      <c r="L42" s="187">
+        <f>VLOOKUP(A42,Planificación!B$13:N$50,9,FALSE)</f>
         <v>42321</v>
       </c>
-      <c r="M41" s="187"/>
-      <c r="N41" s="194">
-        <v>0</v>
-      </c>
-      <c r="O41" s="195" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="113" customFormat="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="172"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
+      <c r="M42" s="187">
+        <f>VLOOKUP(A42,Planificación!B$13:N$50,12,FALSE)</f>
+        <v>42321</v>
+      </c>
+      <c r="N42" s="194">
+        <v>1</v>
+      </c>
+      <c r="O42" s="195"/>
     </row>
     <row r="43" spans="1:15" s="113" customFormat="1">
       <c r="A43" s="171"/>
@@ -12523,12 +12736,21 @@
       <c r="M45" s="172"/>
       <c r="N45" s="172"/>
     </row>
+    <row r="46" spans="1:15" s="113" customFormat="1">
+      <c r="A46" s="171"/>
+      <c r="B46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="173"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="172"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N41">
+  <conditionalFormatting sqref="N5:N42">
     <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -12547,11 +12769,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H41">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H42">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I42">
       <formula1>Origen</formula1>
     </dataValidation>
   </dataValidations>
@@ -12571,8 +12793,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12588,15 +12810,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12606,65 +12828,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244" t="str">
+      <c r="D4" s="244"/>
+      <c r="E4" s="245" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="247"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="247" t="str">
+      <c r="C5" s="248" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="244" t="str">
+      <c r="D5" s="249"/>
+      <c r="E5" s="245" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="247"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="251" t="s">
+      <c r="C6" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="244" t="str">
+      <c r="D6" s="253"/>
+      <c r="E6" s="245" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="247"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="254" t="s">
+      <c r="C7" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="255">
+      <c r="D7" s="255"/>
+      <c r="E7" s="256">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42310</v>
       </c>
-      <c r="F7" s="256"/>
-      <c r="G7" s="257" t="s">
+      <c r="F7" s="257"/>
+      <c r="G7" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="258"/>
+      <c r="H7" s="259"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42324</v>
@@ -12672,24 +12894,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="254" t="s">
+      <c r="C8" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="259"/>
-      <c r="E8" s="244" t="str">
+      <c r="D8" s="260"/>
+      <c r="E8" s="245" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>NOVIEMBRE</v>
       </c>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="247"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="253" t="s">
+      <c r="C13" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="253"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12710,7 +12932,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="148">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12718,7 +12940,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="149">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -12727,7 +12949,7 @@
       </c>
       <c r="D17" s="98">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:14">
@@ -12736,7 +12958,7 @@
       </c>
       <c r="D18" s="98">
         <f>1-D17</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -12771,10 +12993,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="250" t="s">
+      <c r="C26" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="250"/>
+      <c r="D26" s="251"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -12789,8 +13011,8 @@
         <v>120</v>
       </c>
       <c r="D28" s="151">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C28)</f>
-        <v>0</v>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C28)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:14">
@@ -12798,7 +13020,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="151">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C29)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C29)</f>
         <v>0</v>
       </c>
     </row>
@@ -12807,7 +13029,7 @@
         <v>122</v>
       </c>
       <c r="D30" s="151">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C30)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C30)</f>
         <v>0</v>
       </c>
     </row>
@@ -12816,7 +13038,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="151">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C31)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C31)</f>
         <v>0</v>
       </c>
     </row>
@@ -12825,7 +13047,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="151">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C32)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C32)</f>
         <v>0</v>
       </c>
     </row>
@@ -12834,7 +13056,7 @@
         <v>128</v>
       </c>
       <c r="D33" s="151">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C33)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C33)</f>
         <v>0</v>
       </c>
     </row>
@@ -12844,14 +13066,14 @@
       </c>
       <c r="D34" s="110">
         <f>SUM(D28:D33)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="250" t="s">
+      <c r="C40" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="250"/>
+      <c r="D40" s="251"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -12860,7 +13082,7 @@
       </c>
       <c r="D41" s="109">
         <f>Planificación!O7</f>
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="3:16">
@@ -12869,7 +13091,7 @@
       </c>
       <c r="D42" s="109">
         <f>Planificación!O8</f>
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="3:16">
@@ -12878,14 +13100,14 @@
       </c>
       <c r="D43" s="109">
         <f>D42</f>
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="250" t="s">
+      <c r="C57" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="250"/>
+      <c r="D57" s="251"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -12900,8 +13122,8 @@
         <v>95</v>
       </c>
       <c r="D59" s="145">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C59)</f>
-        <v>0</v>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I42,C59)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="3:4">
@@ -12909,7 +13131,7 @@
         <v>97</v>
       </c>
       <c r="D60" s="109">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C60)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I42,C60)</f>
         <v>0</v>
       </c>
     </row>
@@ -12918,7 +13140,7 @@
         <v>98</v>
       </c>
       <c r="D61" s="109">
-        <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C61)</f>
+        <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I42,C61)</f>
         <v>0</v>
       </c>
     </row>
@@ -12928,7 +13150,7 @@
       </c>
       <c r="D62" s="110">
         <f>SUM(D59:D61)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12966,10 +13188,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:K42"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -13252,7 +13474,7 @@
       <c r="C22" s="136"/>
       <c r="D22" s="106"/>
       <c r="E22" s="132" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
@@ -13261,7 +13483,7 @@
       <c r="C23" s="136"/>
       <c r="D23" s="106"/>
       <c r="E23" s="132" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -13270,7 +13492,7 @@
       <c r="C24" s="136"/>
       <c r="D24" s="106"/>
       <c r="E24" s="132" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -13279,7 +13501,7 @@
       <c r="C25" s="136"/>
       <c r="D25" s="106"/>
       <c r="E25" s="132" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -13288,7 +13510,7 @@
       <c r="C26" s="136"/>
       <c r="D26" s="106"/>
       <c r="E26" s="132" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -13297,7 +13519,7 @@
       <c r="C27" s="136"/>
       <c r="D27" s="106"/>
       <c r="E27" s="132" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
@@ -13306,7 +13528,7 @@
       <c r="C28" s="136"/>
       <c r="D28" s="106"/>
       <c r="E28" s="132" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
@@ -13315,7 +13537,7 @@
       <c r="C29" s="136"/>
       <c r="D29" s="106"/>
       <c r="E29" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
@@ -13324,7 +13546,7 @@
       <c r="C30" s="136"/>
       <c r="D30" s="106"/>
       <c r="E30" s="132" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
@@ -13333,7 +13555,7 @@
       <c r="C31" s="136"/>
       <c r="D31" s="106"/>
       <c r="E31" s="132" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -13342,7 +13564,7 @@
       <c r="C32" s="136"/>
       <c r="D32" s="106"/>
       <c r="E32" s="132" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -13350,8 +13572,8 @@
       <c r="B33" s="136"/>
       <c r="C33" s="136"/>
       <c r="D33" s="106"/>
-      <c r="E33" s="134" t="s">
-        <v>187</v>
+      <c r="E33" s="132" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
@@ -13359,8 +13581,8 @@
       <c r="B34" s="136"/>
       <c r="C34" s="136"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="132" t="s">
-        <v>188</v>
+      <c r="E34" s="134" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -13369,16 +13591,16 @@
       <c r="C35" s="136"/>
       <c r="D35" s="106"/>
       <c r="E35" s="132" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="136"/>
       <c r="B36" s="136"/>
       <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -13386,17 +13608,17 @@
       <c r="B37" s="136"/>
       <c r="C37" s="136"/>
       <c r="D37" s="137"/>
-      <c r="E37" s="135" t="s">
-        <v>171</v>
+      <c r="E37" s="132" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" s="136"/>
       <c r="B38" s="136"/>
       <c r="C38" s="136"/>
-      <c r="D38" s="138"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="135" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
@@ -13405,7 +13627,7 @@
       <c r="C39" s="136"/>
       <c r="D39" s="138"/>
       <c r="E39" s="135" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -13414,7 +13636,7 @@
       <c r="C40" s="136"/>
       <c r="D40" s="138"/>
       <c r="E40" s="135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
@@ -13423,19 +13645,28 @@
       <c r="C41" s="136"/>
       <c r="D41" s="138"/>
       <c r="E41" s="135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A42" s="136"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="135" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="137"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="106"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:E33">
       <formula1>IF(#REF!="Fast Track",e_fast,IF(#REF!="Configuraciones Tipo o Nuevas",e_tipo,IF(#REF!="Desarrollos Departamentales",e_depar,IF(#REF!="Desarrollos Adicionales ATIS",e_atis,IF(#REF!="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="201">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -686,9 +686,6 @@
     <t>INPRUIN_Informe de Pruebas Internas</t>
   </si>
   <si>
-    <t>IAUDICM_Informe de Auditoria de CM</t>
-  </si>
-  <si>
     <t>FMVREQM_Ficha de Metricas de Volatilidad de Requerimientos</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
   </si>
   <si>
     <t>CHKQA_CheckList de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>ICIC_Indice Cambios Items de Configuracion</t>
   </si>
   <si>
     <t>PROMM_Proceso de Medicion de Metrica</t>
@@ -794,7 +788,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2540,102 +2534,142 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2645,46 +2679,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2697,22 +2691,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2723,45 +2756,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2784,7 +2778,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2839,7 +2833,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2875,7 +2869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2898,7 +2891,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2988,7 +2981,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3033,7 +3026,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3062,7 +3055,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3085,10 +3078,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3120,7 +3111,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3146,7 +3137,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3169,7 +3159,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3204,7 +3194,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3216,7 +3206,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3252,7 +3242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3275,7 +3264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3365,7 +3354,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3410,7 +3399,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3455,7 +3444,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3500,7 +3489,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3545,7 +3534,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3590,7 +3579,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3652,7 +3641,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3710,7 +3699,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3745,7 +3734,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3757,7 +3746,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3823,7 +3812,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3872,7 +3861,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -3900,7 +3889,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3911,9 +3900,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3947,7 +3935,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -3963,11 +3951,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="347543304"/>
-        <c:axId val="347541344"/>
+        <c:axId val="525669824"/>
+        <c:axId val="525662376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="347543304"/>
+        <c:axId val="525669824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,10 +3992,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347541344"/>
+        <c:crossAx val="525662376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4017,7 +4005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347541344"/>
+        <c:axId val="525662376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4062,10 +4050,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347543304"/>
+        <c:crossAx val="525669824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4079,7 +4067,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4102,7 +4089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4137,7 +4124,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4149,7 +4136,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4185,7 +4172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4208,7 +4194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4332,7 +4318,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4401,7 +4387,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4470,7 +4456,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4486,12 +4472,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="347543696"/>
-        <c:axId val="347538992"/>
+        <c:axId val="525666296"/>
+        <c:axId val="525667080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="347543696"/>
+        <c:axId val="525666296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,7 +4506,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4543,7 +4528,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4578,10 +4563,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347538992"/>
+        <c:crossAx val="525667080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4591,7 +4576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347538992"/>
+        <c:axId val="525667080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4649,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4693,10 +4678,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347543696"/>
+        <c:crossAx val="525666296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4710,7 +4695,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4733,7 +4717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4768,7 +4752,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7554,7 +7538,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -7645,22 +7629,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="81.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="217" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="219"/>
+      <c r="C2" s="209" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="225" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="226"/>
-      <c r="E3" s="227"/>
+      <c r="C3" s="217" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7672,12 +7656,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="222"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7700,10 +7684,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="223" t="s">
+      <c r="D8" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="224"/>
+      <c r="E8" s="216"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7718,10 +7702,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="228" t="s">
+      <c r="D10" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="228"/>
+      <c r="E10" s="223"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7736,10 +7720,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="228" t="s">
+      <c r="D12" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="228"/>
+      <c r="E12" s="223"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7754,10 +7738,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="228" t="s">
+      <c r="D14" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="228"/>
+      <c r="E14" s="223"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7772,10 +7756,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="228" t="s">
+      <c r="D16" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="228"/>
+      <c r="E16" s="223"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7789,62 +7773,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="214" t="s">
+      <c r="C20" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="202" t="s">
+      <c r="C21" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="204"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="202" t="s">
+      <c r="C22" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="204"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="222"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="202" t="s">
+      <c r="C23" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="202" t="s">
+      <c r="C24" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="222"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7857,31 +7841,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="211" t="s">
+      <c r="B27" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="213"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="205"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="214" t="s">
+      <c r="C28" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="216"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="208" t="s">
+      <c r="B29" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="226"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7890,11 +7874,11 @@
       <c r="B30" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="198" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
+      <c r="C30" s="197" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="199"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -7903,11 +7887,11 @@
       <c r="B31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="198" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="199"/>
-      <c r="E31" s="200"/>
+      <c r="C31" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7916,11 +7900,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="199"/>
-      <c r="E32" s="200"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="199"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7929,11 +7913,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="200"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="199"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7942,174 +7926,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="199"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="199"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="208" t="s">
+      <c r="B36" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="210"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="226"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="198" t="s">
+      <c r="C37" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="199"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="198" t="s">
+      <c r="C38" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="200"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="199"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="198" t="s">
+      <c r="C39" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="200"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="199"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="197" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="199"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="198" t="s">
+      <c r="C41" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="199"/>
-      <c r="E41" s="200"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="198" t="s">
+      <c r="C43" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="199"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="198" t="s">
+      <c r="C44" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="200"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="198" t="s">
+      <c r="C45" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="200"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="199"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="198" t="s">
+      <c r="C46" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="199"/>
-      <c r="E46" s="200"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="199"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="198" t="s">
+      <c r="C47" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="199"/>
-      <c r="E47" s="200"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="199"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="198" t="s">
+      <c r="C48" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="199"/>
-      <c r="E48" s="200"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="199"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="198" t="s">
+      <c r="C49" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="199"/>
-      <c r="E49" s="200"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="199"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8142,23 +8126,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="211" t="s">
+      <c r="B52" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="212"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="213"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="205"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="214" t="s">
+      <c r="C53" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="215"/>
-      <c r="E53" s="216"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="208"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8173,132 +8157,132 @@
       <c r="B54" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="198" t="s">
+      <c r="C54" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="199"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="199"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="198" t="s">
+      <c r="C56" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="199"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="198" t="s">
+      <c r="C57" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="205"/>
-      <c r="E57" s="206"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="202"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="198" t="s">
+      <c r="C58" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="205"/>
-      <c r="E58" s="206"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="202"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="198" t="s">
+      <c r="C59" s="197" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="205"/>
-      <c r="E59" s="206"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="202"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="198" t="s">
+      <c r="C60" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="205"/>
-      <c r="E60" s="206"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="202"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="207" t="s">
+      <c r="C61" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="205"/>
-      <c r="E61" s="206"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="202"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="198" t="s">
+      <c r="C62" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="205"/>
-      <c r="E62" s="206"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="202"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="207" t="s">
+      <c r="C63" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="202"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="207" t="s">
+      <c r="C64" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="205"/>
-      <c r="E64" s="206"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="202"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="198" t="s">
+      <c r="C65" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="199"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8309,200 +8293,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="201"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201"/>
+      <c r="B67" s="228"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="197"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
+      <c r="B68" s="227"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="227"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="197"/>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="227"/>
+      <c r="E69" s="227"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
+      <c r="B70" s="227"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="227"/>
+      <c r="E70" s="227"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="197"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
+      <c r="B71" s="227"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="197"/>
-      <c r="C72" s="197"/>
-      <c r="D72" s="197"/>
-      <c r="E72" s="197"/>
+      <c r="B72" s="227"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="227"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="197"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
+      <c r="B73" s="227"/>
+      <c r="C73" s="227"/>
+      <c r="D73" s="227"/>
+      <c r="E73" s="227"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="197"/>
-      <c r="C74" s="197"/>
-      <c r="D74" s="197"/>
-      <c r="E74" s="197"/>
+      <c r="B74" s="227"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197"/>
-      <c r="D75" s="197"/>
-      <c r="E75" s="197"/>
+      <c r="B75" s="227"/>
+      <c r="C75" s="227"/>
+      <c r="D75" s="227"/>
+      <c r="E75" s="227"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="197"/>
-      <c r="C76" s="197"/>
-      <c r="D76" s="197"/>
-      <c r="E76" s="197"/>
+      <c r="B76" s="227"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="197"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="197"/>
-      <c r="E77" s="197"/>
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="227"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="197"/>
-      <c r="C78" s="197"/>
-      <c r="D78" s="197"/>
-      <c r="E78" s="197"/>
+      <c r="B78" s="227"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="227"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="197"/>
-      <c r="C79" s="197"/>
-      <c r="D79" s="197"/>
-      <c r="E79" s="197"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="197"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="197"/>
-      <c r="E80" s="197"/>
+      <c r="B80" s="227"/>
+      <c r="C80" s="227"/>
+      <c r="D80" s="227"/>
+      <c r="E80" s="227"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="197"/>
-      <c r="C81" s="197"/>
-      <c r="D81" s="197"/>
-      <c r="E81" s="197"/>
+      <c r="B81" s="227"/>
+      <c r="C81" s="227"/>
+      <c r="D81" s="227"/>
+      <c r="E81" s="227"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="197"/>
-      <c r="C82" s="197"/>
-      <c r="D82" s="197"/>
-      <c r="E82" s="197"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="197"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="227"/>
+      <c r="C83" s="227"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="227"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="197"/>
-      <c r="C84" s="197"/>
-      <c r="D84" s="197"/>
-      <c r="E84" s="197"/>
+      <c r="B84" s="227"/>
+      <c r="C84" s="227"/>
+      <c r="D84" s="227"/>
+      <c r="E84" s="227"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="227"/>
+      <c r="C85" s="227"/>
+      <c r="D85" s="227"/>
+      <c r="E85" s="227"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="197"/>
-      <c r="C86" s="197"/>
-      <c r="D86" s="197"/>
-      <c r="E86" s="197"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="227"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8515,40 +8499,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8565,27 +8536,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8625,22 +8609,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8648,39 +8632,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="230" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="234" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="234" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="235"/>
-      <c r="G7" s="236"/>
-      <c r="J7" s="237" t="s">
+      <c r="F7" s="234"/>
+      <c r="G7" s="235"/>
+      <c r="J7" s="229" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
       <c r="O7" s="164">
         <f>SUM(K13:K50)</f>
         <v>103</v>
@@ -8688,23 +8672,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
-      <c r="J8" s="237" t="s">
+      <c r="C8" s="231"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
+      <c r="J8" s="229" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="237"/>
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
       <c r="O8" s="164">
         <f>SUM(N13:N50)</f>
         <v>103</v>
@@ -8712,11 +8696,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="126">
         <v>42310</v>
       </c>
@@ -8731,16 +8715,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="238" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="239"/>
-      <c r="G10" s="240"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="236" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8753,7 +8737,7 @@
     </row>
     <row r="12" spans="2:26" s="121" customFormat="1" ht="38.25">
       <c r="B12" s="118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="118" t="s">
         <v>32</v>
@@ -8836,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8881,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8926,7 +8910,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8971,7 +8955,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9016,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9061,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9106,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9151,7 +9135,7 @@
         <v>4</v>
       </c>
       <c r="O20" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9196,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9241,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9286,7 +9270,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9331,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9376,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9421,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9439,7 +9423,7 @@
         <v>132</v>
       </c>
       <c r="F27" s="188" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="163" t="s">
         <v>143</v>
@@ -9466,7 +9450,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9511,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9557,7 +9541,7 @@
         <v>3</v>
       </c>
       <c r="O29" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9576,7 +9560,7 @@
         <v>132</v>
       </c>
       <c r="F30" s="159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G30" s="163" t="s">
         <v>143</v>
@@ -9603,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9649,7 +9633,7 @@
         <v>3</v>
       </c>
       <c r="O31" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9668,7 +9652,7 @@
         <v>130</v>
       </c>
       <c r="F32" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G32" s="163" t="s">
         <v>141</v>
@@ -9695,7 +9679,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9714,7 +9698,7 @@
         <v>130</v>
       </c>
       <c r="F33" s="159" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G33" s="163" t="s">
         <v>141</v>
@@ -9741,7 +9725,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9760,7 +9744,7 @@
         <v>130</v>
       </c>
       <c r="F34" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34" s="163" t="s">
         <v>141</v>
@@ -9787,7 +9771,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9806,7 +9790,7 @@
         <v>130</v>
       </c>
       <c r="F35" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="163" t="s">
         <v>141</v>
@@ -9833,7 +9817,7 @@
         <v>4</v>
       </c>
       <c r="O35" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9852,7 +9836,7 @@
         <v>130</v>
       </c>
       <c r="F36" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" s="163" t="s">
         <v>142</v>
@@ -9879,7 +9863,7 @@
         <v>4</v>
       </c>
       <c r="O36" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9898,7 +9882,7 @@
         <v>130</v>
       </c>
       <c r="F37" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G37" s="163" t="s">
         <v>141</v>
@@ -9925,7 +9909,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9971,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10017,7 +10001,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10063,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10082,7 +10066,7 @@
         <v>134</v>
       </c>
       <c r="F41" s="159" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G41" s="163" t="s">
         <v>143</v>
@@ -10109,7 +10093,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10128,7 +10112,7 @@
         <v>134</v>
       </c>
       <c r="F42" s="159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G42" s="163" t="s">
         <v>143</v>
@@ -10155,7 +10139,7 @@
         <v>4</v>
       </c>
       <c r="O42" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10174,7 +10158,7 @@
         <v>134</v>
       </c>
       <c r="F43" s="159" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G43" s="163" t="s">
         <v>143</v>
@@ -10201,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10220,7 +10204,7 @@
         <v>134</v>
       </c>
       <c r="F44" s="159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="163" t="s">
         <v>143</v>
@@ -10247,7 +10231,7 @@
         <v>3</v>
       </c>
       <c r="O44" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10266,7 +10250,7 @@
         <v>134</v>
       </c>
       <c r="F45" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G45" s="163" t="s">
         <v>143</v>
@@ -10293,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="O45" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10312,7 +10296,7 @@
         <v>134</v>
       </c>
       <c r="F46" s="158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G46" s="163" t="s">
         <v>143</v>
@@ -10339,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="O46" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10355,7 +10339,7 @@
         <v>123</v>
       </c>
       <c r="E47" s="157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="158" t="s">
         <v>153</v>
@@ -10385,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10401,10 +10385,10 @@
         <v>123</v>
       </c>
       <c r="E48" s="157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="163" t="s">
         <v>143</v>
@@ -10431,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10447,10 +10431,10 @@
         <v>123</v>
       </c>
       <c r="E49" s="157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="158" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="163" t="s">
         <v>143</v>
@@ -10477,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10493,10 +10477,10 @@
         <v>123</v>
       </c>
       <c r="E50" s="157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" s="158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G50" s="163" t="s">
         <v>143</v>
@@ -10523,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1">
@@ -10554,12 +10538,6 @@
     <row r="55" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10567,6 +10545,12 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10598,7 +10582,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Tablas!$E$3:$E$42</xm:f>
+            <xm:f>Tablas!$E$3:$E$40</xm:f>
           </x14:formula1>
           <xm:sqref>F13:F50</xm:sqref>
         </x14:dataValidation>
@@ -10613,7 +10597,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -10748,7 +10732,7 @@
         <v>Julio</v>
       </c>
       <c r="G5" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="153" t="s">
         <v>128</v>
@@ -10800,7 +10784,7 @@
         <v>Julio</v>
       </c>
       <c r="G6" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="153" t="s">
         <v>120</v>
@@ -10852,7 +10836,7 @@
         <v>Julio</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="152" t="s">
         <v>120</v>
@@ -10904,7 +10888,7 @@
         <v>Julio</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="153" t="s">
         <v>120</v>
@@ -10956,7 +10940,7 @@
         <v>Julio</v>
       </c>
       <c r="G9" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="153" t="s">
         <v>120</v>
@@ -11008,7 +10992,7 @@
         <v>Julio</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="152" t="s">
         <v>120</v>
@@ -11060,7 +11044,7 @@
         <v>Julio</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="152" t="s">
         <v>120</v>
@@ -11112,7 +11096,7 @@
         <v>Julio</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="153" t="s">
         <v>128</v>
@@ -11164,7 +11148,7 @@
         <v>Julio</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="153" t="s">
         <v>120</v>
@@ -11216,7 +11200,7 @@
         <v>Julio</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H14" s="153" t="s">
         <v>120</v>
@@ -11268,7 +11252,7 @@
         <v>Julio</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="152" t="s">
         <v>120</v>
@@ -11320,7 +11304,7 @@
         <v>Julio</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="152" t="s">
         <v>120</v>
@@ -11372,7 +11356,7 @@
         <v>Julio</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" s="152" t="s">
         <v>120</v>
@@ -11424,7 +11408,7 @@
         <v>Roger</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="153" t="s">
         <v>120</v>
@@ -11476,7 +11460,7 @@
         <v>Julio</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="153" t="s">
         <v>120</v>
@@ -11528,7 +11512,7 @@
         <v>Julio</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H20" s="153" t="s">
         <v>120</v>
@@ -11553,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11582,7 +11566,7 @@
         <v>Julio</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H21" s="153" t="s">
         <v>120</v>
@@ -11607,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11636,7 +11620,7 @@
         <v>Julio</v>
       </c>
       <c r="G22" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H22" s="153" t="s">
         <v>120</v>
@@ -11661,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11690,7 +11674,7 @@
         <v>Julio</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H23" s="153" t="s">
         <v>120</v>
@@ -11715,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11744,7 +11728,7 @@
         <v>Roger</v>
       </c>
       <c r="G24" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H24" s="153" t="s">
         <v>120</v>
@@ -11769,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11797,7 +11781,7 @@
         <v>Roger</v>
       </c>
       <c r="G25" s="96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H25" s="153" t="s">
         <v>120</v>
@@ -11822,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11851,7 +11835,7 @@
         <v>Roger</v>
       </c>
       <c r="G26" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H26" s="153" t="s">
         <v>120</v>
@@ -11903,7 +11887,7 @@
         <v>Roger</v>
       </c>
       <c r="G27" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H27" s="153" t="s">
         <v>128</v>
@@ -11955,7 +11939,7 @@
         <v>Roger</v>
       </c>
       <c r="G28" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="153" t="s">
         <v>120</v>
@@ -12007,7 +11991,7 @@
         <v>Roger</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H29" s="153" t="s">
         <v>120</v>
@@ -12059,7 +12043,7 @@
         <v>Julio</v>
       </c>
       <c r="G30" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H30" s="153" t="s">
         <v>128</v>
@@ -12111,7 +12095,7 @@
         <v>Julio</v>
       </c>
       <c r="G31" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H31" s="153" t="s">
         <v>120</v>
@@ -12163,7 +12147,7 @@
         <v>Julio</v>
       </c>
       <c r="G32" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H32" s="153" t="s">
         <v>120</v>
@@ -12215,7 +12199,7 @@
         <v>Julio</v>
       </c>
       <c r="G33" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H33" s="153" t="s">
         <v>128</v>
@@ -12267,7 +12251,7 @@
         <v>Julio</v>
       </c>
       <c r="G34" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H34" s="153" t="s">
         <v>120</v>
@@ -12319,7 +12303,7 @@
         <v>Julio</v>
       </c>
       <c r="G35" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" s="153" t="s">
         <v>120</v>
@@ -12371,7 +12355,7 @@
         <v>Julio</v>
       </c>
       <c r="G36" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H36" s="153" t="s">
         <v>120</v>
@@ -12423,7 +12407,7 @@
         <v>Julio</v>
       </c>
       <c r="G37" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H37" s="153" t="s">
         <v>120</v>
@@ -12475,7 +12459,7 @@
         <v>Julio</v>
       </c>
       <c r="G38" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H38" s="153" t="s">
         <v>120</v>
@@ -12527,7 +12511,7 @@
         <v>Julio</v>
       </c>
       <c r="G39" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H39" s="153" t="s">
         <v>120</v>
@@ -12579,7 +12563,7 @@
         <v>Julio</v>
       </c>
       <c r="G40" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H40" s="153" t="s">
         <v>120</v>
@@ -12631,7 +12615,7 @@
         <v>Julio</v>
       </c>
       <c r="G41" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H41" s="153" t="s">
         <v>120</v>
@@ -12683,7 +12667,7 @@
         <v>Julio</v>
       </c>
       <c r="G42" s="193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H42" s="185" t="s">
         <v>120</v>
@@ -12810,15 +12794,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12828,65 +12812,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="245" t="str">
+      <c r="D4" s="257"/>
+      <c r="E4" s="247" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="249"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="248" t="str">
+      <c r="C5" s="258" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="245" t="str">
+      <c r="D5" s="259"/>
+      <c r="E5" s="247" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="247"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="249"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="245" t="str">
+      <c r="D6" s="246"/>
+      <c r="E6" s="247" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="247"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="249"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="255" t="s">
+      <c r="C7" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="256">
+      <c r="D7" s="251"/>
+      <c r="E7" s="252">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42310</v>
       </c>
-      <c r="F7" s="257"/>
-      <c r="G7" s="258" t="s">
+      <c r="F7" s="253"/>
+      <c r="G7" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="259"/>
+      <c r="H7" s="255"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42324</v>
@@ -12894,24 +12878,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="255" t="s">
+      <c r="C8" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="245" t="str">
+      <c r="D8" s="256"/>
+      <c r="E8" s="247" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>NOVIEMBRE</v>
       </c>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="249"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="254" t="s">
+      <c r="C13" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="254"/>
+      <c r="D13" s="250"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12993,10 +12977,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="251"/>
+      <c r="D26" s="244"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -13070,10 +13054,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="251" t="s">
+      <c r="C40" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="251"/>
+      <c r="D40" s="244"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -13104,10 +13088,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="251" t="s">
+      <c r="C57" s="244" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="251"/>
+      <c r="D57" s="244"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -13155,6 +13139,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -13166,11 +13155,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13190,8 +13174,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E40" sqref="E3:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -13338,7 +13322,7 @@
       <c r="A8" s="136"/>
       <c r="B8" s="136"/>
       <c r="C8" s="147" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="117" t="s">
@@ -13429,7 +13413,7 @@
       <c r="C17" s="136"/>
       <c r="D17" s="106"/>
       <c r="E17" s="132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
@@ -13456,7 +13440,7 @@
       <c r="C20" s="136"/>
       <c r="D20" s="106"/>
       <c r="E20" s="132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -13474,7 +13458,7 @@
       <c r="C22" s="136"/>
       <c r="D22" s="106"/>
       <c r="E22" s="132" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
@@ -13483,7 +13467,7 @@
       <c r="C23" s="136"/>
       <c r="D23" s="106"/>
       <c r="E23" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -13492,7 +13476,7 @@
       <c r="C24" s="136"/>
       <c r="D24" s="106"/>
       <c r="E24" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -13501,7 +13485,7 @@
       <c r="C25" s="136"/>
       <c r="D25" s="106"/>
       <c r="E25" s="132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -13510,7 +13494,7 @@
       <c r="C26" s="136"/>
       <c r="D26" s="106"/>
       <c r="E26" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -13519,7 +13503,7 @@
       <c r="C27" s="136"/>
       <c r="D27" s="106"/>
       <c r="E27" s="132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
@@ -13555,7 +13539,7 @@
       <c r="C31" s="136"/>
       <c r="D31" s="106"/>
       <c r="E31" s="132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -13563,8 +13547,8 @@
       <c r="B32" s="136"/>
       <c r="C32" s="136"/>
       <c r="D32" s="106"/>
-      <c r="E32" s="132" t="s">
-        <v>168</v>
+      <c r="E32" s="134" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -13581,8 +13565,8 @@
       <c r="B34" s="136"/>
       <c r="C34" s="136"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="134" t="s">
-        <v>187</v>
+      <c r="E34" s="132" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -13591,7 +13575,7 @@
       <c r="C35" s="136"/>
       <c r="D35" s="106"/>
       <c r="E35" s="132" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
@@ -13599,8 +13583,8 @@
       <c r="B36" s="136"/>
       <c r="C36" s="136"/>
       <c r="D36" s="106"/>
-      <c r="E36" s="132" t="s">
-        <v>169</v>
+      <c r="E36" s="135" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -13608,8 +13592,8 @@
       <c r="B37" s="136"/>
       <c r="C37" s="136"/>
       <c r="D37" s="137"/>
-      <c r="E37" s="132" t="s">
-        <v>170</v>
+      <c r="E37" s="135" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
@@ -13627,7 +13611,7 @@
       <c r="C39" s="136"/>
       <c r="D39" s="138"/>
       <c r="E39" s="135" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -13636,7 +13620,7 @@
       <c r="C40" s="136"/>
       <c r="D40" s="138"/>
       <c r="E40" s="135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
@@ -13644,18 +13628,12 @@
       <c r="B41" s="136"/>
       <c r="C41" s="136"/>
       <c r="D41" s="138"/>
-      <c r="E41" s="135" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="136"/>
       <c r="B42" s="136"/>
       <c r="C42" s="136"/>
       <c r="D42" s="138"/>
-      <c r="E42" s="135" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="106"/>
@@ -13666,7 +13644,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:E33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:E31">
       <formula1>IF(#REF!="Fast Track",e_fast,IF(#REF!="Configuraciones Tipo o Nuevas",e_tipo,IF(#REF!="Desarrollos Departamentales",e_depar,IF(#REF!="Desarrollos Adicionales ATIS",e_atis,IF(#REF!="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14250" windowHeight="5730" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -387,9 +387,6 @@
     <t>Responsable de Revisión y/o Aprobación</t>
   </si>
   <si>
-    <t>En Revisión</t>
-  </si>
-  <si>
     <t>Documentar la revisión de Aseguramiento de la Calidad realizada sobre los productos generados a lo largo del ciclo de vida del desarrollo de sistemas.</t>
   </si>
   <si>
@@ -783,12 +780,15 @@
   </si>
   <si>
     <t>No se encontró Documento elaborado en Área de Proceso REQM</t>
+  </si>
+  <si>
+    <t>Revisado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2534,131 +2534,139 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2671,14 +2679,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2691,6 +2691,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,18 +2730,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2740,22 +2756,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2778,7 +2778,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2833,7 +2833,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2869,6 +2869,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2891,7 +2892,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2981,7 +2982,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3026,7 +3027,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3055,7 +3056,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3078,8 +3079,10 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3111,7 +3114,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3137,6 +3140,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3159,7 +3163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3194,7 +3198,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3206,7 +3210,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3242,6 +3246,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3264,7 +3269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3354,7 +3359,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3399,7 +3404,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3444,7 +3449,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3489,7 +3494,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3534,7 +3539,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3579,7 +3584,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3641,7 +3646,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3699,7 +3704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3734,7 +3739,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3746,7 +3751,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3812,7 +3817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3861,7 +3866,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -3889,7 +3894,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3900,8 +3905,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3935,7 +3941,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -3992,7 +3998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525662376"/>
@@ -4050,7 +4056,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525669824"/>
@@ -4067,6 +4073,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4089,7 +4096,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4124,7 +4131,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4136,7 +4143,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4172,6 +4179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4194,7 +4202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4318,7 +4326,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4387,7 +4395,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4456,7 +4464,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4506,6 +4514,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4528,7 +4537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4563,7 +4572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525667080"/>
@@ -4649,7 +4658,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4678,7 +4687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525666296"/>
@@ -4695,6 +4704,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4717,7 +4727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4752,7 +4762,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7440,8 +7450,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7523,22 +7533,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="68">
         <v>42327</v>
       </c>
       <c r="E5" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="69" t="s">
-        <v>139</v>
-      </c>
       <c r="G5" s="70" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -7629,22 +7639,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="81.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="209" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
+      <c r="C2" s="217" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="217" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
+        <v>93</v>
+      </c>
+      <c r="C3" s="225" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7656,12 +7666,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="212" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
+      <c r="B5" s="220" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7684,10 +7694,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="215" t="s">
+      <c r="D8" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="216"/>
+      <c r="E8" s="224"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7699,13 +7709,13 @@
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="223" t="s">
+      <c r="D10" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="223"/>
+      <c r="E10" s="228"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7717,13 +7727,13 @@
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="223" t="s">
+      <c r="D12" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="223"/>
+      <c r="E12" s="228"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7735,13 +7745,13 @@
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="223"/>
+      <c r="D14" s="228" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="228"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7753,13 +7763,13 @@
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="223" t="s">
+      <c r="D16" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="223"/>
+      <c r="E16" s="228"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7773,62 +7783,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="206" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="220" t="s">
+      <c r="C21" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="204"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="220" t="s">
+      <c r="C22" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="220" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
+      <c r="C23" s="202" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="220" t="s">
+      <c r="C24" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="221"/>
-      <c r="E24" s="222"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7841,57 +7851,57 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="206" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="207"/>
-      <c r="E28" s="208"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="224" t="s">
+      <c r="B29" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="226"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="165" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="197" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="199"/>
+        <v>134</v>
+      </c>
+      <c r="C30" s="198" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="199"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="166" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="197" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
+        <v>139</v>
+      </c>
+      <c r="C31" s="198" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="199"/>
+      <c r="E31" s="200"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7900,11 +7910,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="197" t="s">
+      <c r="C32" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="200"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7913,11 +7923,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="197" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="199"/>
+      <c r="C33" s="198" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="199"/>
+      <c r="E33" s="200"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7926,174 +7936,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="197" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="199"/>
+      <c r="C34" s="198" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="197" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="199"/>
+      <c r="C35" s="198" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="224" t="s">
+      <c r="B36" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="226"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="199"/>
+      <c r="C37" s="198" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="199"/>
+      <c r="C38" s="198" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="199"/>
+      <c r="E38" s="200"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="197" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="198"/>
-      <c r="E41" s="199"/>
+      <c r="C41" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="199"/>
+      <c r="E41" s="200"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="197" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
+      <c r="C42" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="197" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="199"/>
+      <c r="C43" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="197" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="198"/>
-      <c r="E44" s="199"/>
+      <c r="C44" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="197" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="198"/>
-      <c r="E45" s="199"/>
+      <c r="C45" s="198" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="197" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="199"/>
+      <c r="C46" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="199"/>
+      <c r="E46" s="200"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="197" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="198"/>
-      <c r="E47" s="199"/>
+      <c r="C47" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="199"/>
+      <c r="E47" s="200"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="197" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="198"/>
-      <c r="E48" s="199"/>
+      <c r="C48" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="199"/>
+      <c r="E48" s="200"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="197" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="198"/>
-      <c r="E49" s="199"/>
+        <v>116</v>
+      </c>
+      <c r="C49" s="198" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="199"/>
+      <c r="E49" s="200"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8126,23 +8136,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="203" t="s">
+      <c r="B52" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="213"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="206" t="s">
+      <c r="C53" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="207"/>
-      <c r="E53" s="208"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="216"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8155,134 +8165,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="32"/>
       <c r="B54" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="198"/>
-      <c r="E54" s="199"/>
+        <v>117</v>
+      </c>
+      <c r="C54" s="198" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="199"/>
+      <c r="E54" s="200"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="198"/>
-      <c r="E55" s="199"/>
+        <v>113</v>
+      </c>
+      <c r="C55" s="198" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="197" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="198"/>
-      <c r="E56" s="199"/>
+        <v>84</v>
+      </c>
+      <c r="C56" s="198" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="201"/>
-      <c r="E57" s="202"/>
+        <v>111</v>
+      </c>
+      <c r="C57" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="205"/>
+      <c r="E57" s="206"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="201"/>
-      <c r="E58" s="202"/>
+      <c r="C58" s="198" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="205"/>
+      <c r="E58" s="206"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="197" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="201"/>
-      <c r="E59" s="202"/>
+        <v>88</v>
+      </c>
+      <c r="C59" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="205"/>
+      <c r="E59" s="206"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="201"/>
-      <c r="E60" s="202"/>
+      <c r="C60" s="198" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="205"/>
+      <c r="E60" s="206"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="200" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="201"/>
-      <c r="E61" s="202"/>
+      <c r="C61" s="207" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="205"/>
+      <c r="E61" s="206"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="197" t="s">
+      <c r="C62" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="201"/>
-      <c r="E62" s="202"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="206"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="200" t="s">
+      <c r="C63" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="201"/>
-      <c r="E63" s="202"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="206"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="200" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="201"/>
-      <c r="E64" s="202"/>
+      <c r="C64" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="205"/>
+      <c r="E64" s="206"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="197" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="198"/>
-      <c r="E65" s="199"/>
+        <v>98</v>
+      </c>
+      <c r="C65" s="198" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="199"/>
+      <c r="E65" s="200"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8293,200 +8303,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="228"/>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="228"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="201"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="227"/>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="227"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="227"/>
-      <c r="C69" s="227"/>
-      <c r="D69" s="227"/>
-      <c r="E69" s="227"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="227"/>
-      <c r="C70" s="227"/>
-      <c r="D70" s="227"/>
-      <c r="E70" s="227"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="227"/>
-      <c r="C71" s="227"/>
-      <c r="D71" s="227"/>
-      <c r="E71" s="227"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="227"/>
-      <c r="C72" s="227"/>
-      <c r="D72" s="227"/>
-      <c r="E72" s="227"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="227"/>
-      <c r="C73" s="227"/>
-      <c r="D73" s="227"/>
-      <c r="E73" s="227"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="227"/>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="227"/>
-      <c r="C75" s="227"/>
-      <c r="D75" s="227"/>
-      <c r="E75" s="227"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="227"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="227"/>
-      <c r="E76" s="227"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="227"/>
-      <c r="C77" s="227"/>
-      <c r="D77" s="227"/>
-      <c r="E77" s="227"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="227"/>
-      <c r="C78" s="227"/>
-      <c r="D78" s="227"/>
-      <c r="E78" s="227"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="227"/>
-      <c r="C79" s="227"/>
-      <c r="D79" s="227"/>
-      <c r="E79" s="227"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="227"/>
-      <c r="C80" s="227"/>
-      <c r="D80" s="227"/>
-      <c r="E80" s="227"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="227"/>
-      <c r="C81" s="227"/>
-      <c r="D81" s="227"/>
-      <c r="E81" s="227"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="227"/>
-      <c r="C82" s="227"/>
-      <c r="D82" s="227"/>
-      <c r="E82" s="227"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="227"/>
-      <c r="C83" s="227"/>
-      <c r="D83" s="227"/>
-      <c r="E83" s="227"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="227"/>
-      <c r="C84" s="227"/>
-      <c r="D84" s="227"/>
-      <c r="E84" s="227"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="227"/>
-      <c r="C85" s="227"/>
-      <c r="D85" s="227"/>
-      <c r="E85" s="227"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="227"/>
-      <c r="C86" s="227"/>
-      <c r="D86" s="227"/>
-      <c r="E86" s="227"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8499,27 +8509,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8536,40 +8559,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8609,22 +8619,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="239" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
+      <c r="B3" s="229" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8632,39 +8642,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="233" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
+      <c r="B6" s="231" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="234" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="230" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="233" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
-      <c r="J7" s="229" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
+      <c r="B7" s="231" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="234" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="235"/>
+      <c r="G7" s="236"/>
+      <c r="J7" s="237" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
       <c r="O7" s="164">
         <f>SUM(K13:K50)</f>
         <v>103</v>
@@ -8672,23 +8682,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="233" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="J8" s="229" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="235"/>
+      <c r="G8" s="236"/>
+      <c r="J8" s="237" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
       <c r="O8" s="164">
         <f>SUM(N13:N50)</f>
         <v>103</v>
@@ -8696,11 +8706,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="126">
         <v>42310</v>
       </c>
@@ -8715,16 +8725,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="236" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="238"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="238" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8737,22 +8747,22 @@
     </row>
     <row r="12" spans="2:26" s="121" customFormat="1" ht="38.25">
       <c r="B12" s="118" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="118" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="119" t="s">
         <v>23</v>
@@ -8776,7 +8786,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8787,19 +8797,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="167">
         <v>42310</v>
@@ -8820,7 +8830,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8832,19 +8842,19 @@
         <v>3</v>
       </c>
       <c r="D14" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="167">
         <v>42310</v>
@@ -8865,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8877,19 +8887,19 @@
         <v>3</v>
       </c>
       <c r="D15" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="167">
         <v>42310</v>
@@ -8910,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8922,19 +8932,19 @@
         <v>3</v>
       </c>
       <c r="D16" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G16" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" s="167">
         <v>42311</v>
@@ -8955,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8967,19 +8977,19 @@
         <v>3</v>
       </c>
       <c r="D17" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I17" s="167">
         <v>42311</v>
@@ -9000,7 +9010,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9012,19 +9022,19 @@
         <v>3</v>
       </c>
       <c r="D18" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I18" s="167">
         <v>42311</v>
@@ -9045,7 +9055,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9057,19 +9067,19 @@
         <v>3</v>
       </c>
       <c r="D19" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" s="167">
         <v>42311</v>
@@ -9090,7 +9100,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9102,19 +9112,19 @@
         <v>2</v>
       </c>
       <c r="D20" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H20" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" s="167">
         <v>42312</v>
@@ -9135,7 +9145,7 @@
         <v>4</v>
       </c>
       <c r="O20" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9147,19 +9157,19 @@
         <v>2</v>
       </c>
       <c r="D21" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21" s="158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I21" s="167">
         <v>42312</v>
@@ -9180,7 +9190,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9192,19 +9202,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G22" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" s="167">
         <v>42322</v>
@@ -9225,7 +9235,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9237,19 +9247,19 @@
         <v>2</v>
       </c>
       <c r="D23" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="167">
         <v>42312</v>
@@ -9270,7 +9280,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9282,19 +9292,19 @@
         <v>2</v>
       </c>
       <c r="D24" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" s="167">
         <v>42313</v>
@@ -9315,7 +9325,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9327,19 +9337,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G25" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I25" s="167">
         <v>42313</v>
@@ -9360,7 +9370,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9372,19 +9382,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I26" s="167">
         <v>42313</v>
@@ -9405,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9417,19 +9427,19 @@
         <v>2</v>
       </c>
       <c r="D27" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" s="188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I27" s="167">
         <v>42314</v>
@@ -9450,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9462,19 +9472,19 @@
         <v>2</v>
       </c>
       <c r="D28" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G28" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I28" s="167">
         <v>42324</v>
@@ -9495,7 +9505,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9508,19 +9518,19 @@
         <v>2</v>
       </c>
       <c r="D29" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G29" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" s="167">
         <v>42322</v>
@@ -9541,7 +9551,7 @@
         <v>3</v>
       </c>
       <c r="O29" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9554,19 +9564,19 @@
         <v>2</v>
       </c>
       <c r="D30" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" s="167">
         <v>42322</v>
@@ -9587,7 +9597,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9600,19 +9610,19 @@
         <v>2</v>
       </c>
       <c r="D31" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G31" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I31" s="167">
         <v>42324</v>
@@ -9633,7 +9643,7 @@
         <v>3</v>
       </c>
       <c r="O31" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9646,19 +9656,19 @@
         <v>2</v>
       </c>
       <c r="D32" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" s="167">
         <v>42315</v>
@@ -9679,7 +9689,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9692,19 +9702,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="159" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I33" s="167">
         <v>42324</v>
@@ -9725,7 +9735,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9738,19 +9748,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G34" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I34" s="167">
         <v>42315</v>
@@ -9771,7 +9781,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9784,19 +9794,19 @@
         <v>2</v>
       </c>
       <c r="D35" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G35" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I35" s="167">
         <v>42317</v>
@@ -9817,7 +9827,7 @@
         <v>4</v>
       </c>
       <c r="O35" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9830,19 +9840,19 @@
         <v>2</v>
       </c>
       <c r="D36" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="163" t="s">
         <v>142</v>
-      </c>
-      <c r="H36" s="163" t="s">
-        <v>143</v>
       </c>
       <c r="I36" s="167">
         <v>42317</v>
@@ -9863,7 +9873,7 @@
         <v>4</v>
       </c>
       <c r="O36" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9876,19 +9886,19 @@
         <v>2</v>
       </c>
       <c r="D37" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I37" s="167">
         <v>42324</v>
@@ -9909,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9922,19 +9932,19 @@
         <v>2</v>
       </c>
       <c r="D38" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H38" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" s="167">
         <v>42318</v>
@@ -9955,7 +9965,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9968,19 +9978,19 @@
         <v>2</v>
       </c>
       <c r="D39" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39" s="167">
         <v>42318</v>
@@ -10001,7 +10011,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10014,19 +10024,19 @@
         <v>2</v>
       </c>
       <c r="D40" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H40" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I40" s="167">
         <v>42318</v>
@@ -10047,7 +10057,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10060,19 +10070,19 @@
         <v>2</v>
       </c>
       <c r="D41" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41" s="167">
         <v>42319</v>
@@ -10093,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10106,19 +10116,19 @@
         <v>2</v>
       </c>
       <c r="D42" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I42" s="167">
         <v>42319</v>
@@ -10139,7 +10149,7 @@
         <v>4</v>
       </c>
       <c r="O42" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10152,19 +10162,19 @@
         <v>2</v>
       </c>
       <c r="D43" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" s="159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I43" s="167">
         <v>42320</v>
@@ -10185,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10198,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I44" s="167">
         <v>42320</v>
@@ -10231,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="O44" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10244,19 +10254,19 @@
         <v>2</v>
       </c>
       <c r="D45" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G45" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="167">
         <v>42320</v>
@@ -10277,7 +10287,7 @@
         <v>3</v>
       </c>
       <c r="O45" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10290,19 +10300,19 @@
         <v>2</v>
       </c>
       <c r="D46" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G46" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="167">
         <v>42321</v>
@@ -10323,7 +10333,7 @@
         <v>4</v>
       </c>
       <c r="O46" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10336,19 +10346,19 @@
         <v>2</v>
       </c>
       <c r="D47" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F47" s="158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="167">
         <v>42321</v>
@@ -10369,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10382,19 +10392,19 @@
         <v>2</v>
       </c>
       <c r="D48" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F48" s="158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G48" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H48" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I48" s="167">
         <v>42321</v>
@@ -10415,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10428,19 +10438,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G49" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H49" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I49" s="167">
         <v>42321</v>
@@ -10461,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10474,19 +10484,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F50" s="158" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G50" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I50" s="167">
         <v>42321</v>
@@ -10507,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1">
@@ -10538,6 +10548,12 @@
     <row r="55" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10545,12 +10561,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10665,16 +10675,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="175" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="175" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="175" t="s">
         <v>23</v>
@@ -10689,7 +10699,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="175" t="s">
         <v>34</v>
@@ -10704,7 +10714,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -10732,13 +10742,13 @@
         <v>Julio</v>
       </c>
       <c r="G5" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I5" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="153" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:H$50,7,FALSE)</f>
@@ -10784,13 +10794,13 @@
         <v>Julio</v>
       </c>
       <c r="G6" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="153" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:H$50,7,FALSE)</f>
@@ -10836,13 +10846,13 @@
         <v>Julio</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="153" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:H$50,7,FALSE)</f>
@@ -10888,13 +10898,13 @@
         <v>Julio</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="153" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:H$50,7,FALSE)</f>
@@ -10940,13 +10950,13 @@
         <v>Julio</v>
       </c>
       <c r="G9" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="153" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:H$50,7,FALSE)</f>
@@ -10992,13 +11002,13 @@
         <v>Julio</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="153" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11044,13 +11054,13 @@
         <v>Julio</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="153" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11096,13 +11106,13 @@
         <v>Julio</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="153" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11148,13 +11158,13 @@
         <v>Julio</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="153" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11200,13 +11210,13 @@
         <v>Julio</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="153" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11252,13 +11262,13 @@
         <v>Julio</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="153" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11304,13 +11314,13 @@
         <v>Julio</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="153" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11356,13 +11366,13 @@
         <v>Julio</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" s="152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="153" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11408,13 +11418,13 @@
         <v>Roger</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="153" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11460,13 +11470,13 @@
         <v>Julio</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="153" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11512,13 +11522,13 @@
         <v>Julio</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H20" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I20" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="153" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11537,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11566,13 +11576,13 @@
         <v>Julio</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H21" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="153" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11591,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11620,13 +11630,13 @@
         <v>Julio</v>
       </c>
       <c r="G22" s="96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H22" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="153" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11645,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11674,13 +11684,13 @@
         <v>Julio</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H23" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I23" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="153" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11699,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11728,13 +11738,13 @@
         <v>Roger</v>
       </c>
       <c r="G24" s="96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I24" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="153" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11753,7 +11763,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11781,13 +11791,13 @@
         <v>Roger</v>
       </c>
       <c r="G25" s="96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H25" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I25" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="153" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11806,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11835,13 +11845,13 @@
         <v>Roger</v>
       </c>
       <c r="G26" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I26" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" s="153" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11887,13 +11897,13 @@
         <v>Roger</v>
       </c>
       <c r="G27" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I27" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="153" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11939,13 +11949,13 @@
         <v>Roger</v>
       </c>
       <c r="G28" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="153" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:H$50,7,FALSE)</f>
@@ -11991,13 +12001,13 @@
         <v>Roger</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J29" s="153" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12043,13 +12053,13 @@
         <v>Julio</v>
       </c>
       <c r="G30" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H30" s="153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J30" s="153" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12095,13 +12105,13 @@
         <v>Julio</v>
       </c>
       <c r="G31" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H31" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I31" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="153" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12147,13 +12157,13 @@
         <v>Julio</v>
       </c>
       <c r="G32" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H32" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I32" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="153" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12199,13 +12209,13 @@
         <v>Julio</v>
       </c>
       <c r="G33" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H33" s="153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="153" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12251,13 +12261,13 @@
         <v>Julio</v>
       </c>
       <c r="G34" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H34" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="153" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12303,13 +12313,13 @@
         <v>Julio</v>
       </c>
       <c r="G35" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H35" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I35" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="153" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12355,13 +12365,13 @@
         <v>Julio</v>
       </c>
       <c r="G36" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I36" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="153" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12407,13 +12417,13 @@
         <v>Julio</v>
       </c>
       <c r="G37" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H37" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I37" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J37" s="153" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12459,13 +12469,13 @@
         <v>Julio</v>
       </c>
       <c r="G38" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H38" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="153" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12511,13 +12521,13 @@
         <v>Julio</v>
       </c>
       <c r="G39" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="153" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12563,13 +12573,13 @@
         <v>Julio</v>
       </c>
       <c r="G40" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H40" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="153" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12615,13 +12625,13 @@
         <v>Julio</v>
       </c>
       <c r="G41" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I41" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="153" t="str">
         <f>VLOOKUP(A41,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12667,13 +12677,13 @@
         <v>Julio</v>
       </c>
       <c r="G42" s="193" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="185" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I42" s="185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J42" s="185" t="str">
         <f>VLOOKUP(A42,Planificación!B$13:H$50,7,FALSE)</f>
@@ -12777,7 +12787,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -12794,15 +12804,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12812,65 +12822,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="257" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="257"/>
-      <c r="E4" s="247" t="str">
+      <c r="C4" s="244" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="244"/>
+      <c r="E4" s="245" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="249"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="247"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="258" t="str">
+      <c r="C5" s="248" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="259"/>
-      <c r="E5" s="247" t="str">
+      <c r="D5" s="249"/>
+      <c r="E5" s="245" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="249"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="247"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="246"/>
-      <c r="E6" s="247" t="str">
+      <c r="D6" s="253"/>
+      <c r="E6" s="245" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="248"/>
-      <c r="I6" s="249"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="247"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="252">
+      <c r="D7" s="255"/>
+      <c r="E7" s="256">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42310</v>
       </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="254" t="s">
+      <c r="F7" s="257"/>
+      <c r="G7" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="255"/>
+      <c r="H7" s="259"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42324</v>
@@ -12878,24 +12888,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="251" t="s">
+      <c r="C8" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="247" t="str">
+      <c r="D8" s="260"/>
+      <c r="E8" s="245" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>NOVIEMBRE</v>
       </c>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="249"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="247"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="250" t="s">
+      <c r="C13" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="250"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12977,10 +12987,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="244" t="s">
+      <c r="C26" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="244"/>
+      <c r="D26" s="251"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -12992,7 +13002,7 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C28)</f>
@@ -13001,7 +13011,7 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C29)</f>
@@ -13010,7 +13020,7 @@
     </row>
     <row r="30" spans="3:14">
       <c r="C30" s="100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C30)</f>
@@ -13037,7 +13047,7 @@
     </row>
     <row r="33" spans="3:16">
       <c r="C33" s="100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H42,C33)</f>
@@ -13054,15 +13064,15 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="244" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="244"/>
+      <c r="C40" s="251" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="251"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
       <c r="C41" s="101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="109">
         <f>Planificación!O7</f>
@@ -13071,7 +13081,7 @@
     </row>
     <row r="42" spans="3:16">
       <c r="C42" s="101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="109">
         <f>Planificación!O8</f>
@@ -13088,10 +13098,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="244" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="244"/>
+      <c r="C57" s="251" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="251"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -13103,7 +13113,7 @@
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" s="145">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I42,C59)</f>
@@ -13112,7 +13122,7 @@
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="109">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I42,C60)</f>
@@ -13121,7 +13131,7 @@
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="109">
         <f>COUNTIFS('Seguimiento de NC'!G5:G42,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I42,C61)</f>
@@ -13139,11 +13149,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -13155,6 +13160,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13174,7 +13184,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="E40" sqref="E3:E40"/>
     </sheetView>
   </sheetViews>
@@ -13196,107 +13206,107 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="142"/>
       <c r="C2" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="115" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="106"/>
       <c r="I2" s="115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="106"/>
       <c r="K2" s="116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="106"/>
       <c r="I3" s="102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="106"/>
       <c r="K3" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="136"/>
       <c r="B4" s="136"/>
       <c r="C4" s="140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="106"/>
       <c r="I4" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="106"/>
       <c r="K4" s="114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="136"/>
       <c r="B5" s="136"/>
       <c r="C5" s="140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="106"/>
       <c r="I5" s="102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="106"/>
       <c r="K5" s="114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="136"/>
       <c r="B6" s="136"/>
       <c r="C6" s="140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="106"/>
       <c r="I6" s="102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="106"/>
       <c r="K6" s="131"/>
@@ -13305,11 +13315,11 @@
       <c r="A7" s="136"/>
       <c r="B7" s="136"/>
       <c r="C7" s="140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="106"/>
       <c r="I7" s="102" t="s">
@@ -13322,11 +13332,11 @@
       <c r="A8" s="136"/>
       <c r="B8" s="136"/>
       <c r="C8" s="147" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="102" t="s">
@@ -13341,7 +13351,7 @@
       <c r="C9" s="136"/>
       <c r="D9" s="106"/>
       <c r="E9" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
@@ -13350,7 +13360,7 @@
       <c r="C10" s="136"/>
       <c r="D10" s="106"/>
       <c r="E10" s="117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -13359,7 +13369,7 @@
       <c r="C11" s="136"/>
       <c r="D11" s="106"/>
       <c r="E11" s="117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -13368,7 +13378,7 @@
       <c r="C12" s="136"/>
       <c r="D12" s="106"/>
       <c r="E12" s="132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -13377,7 +13387,7 @@
       <c r="C13" s="136"/>
       <c r="D13" s="106"/>
       <c r="E13" s="132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -13386,7 +13396,7 @@
       <c r="C14" s="136"/>
       <c r="D14" s="106"/>
       <c r="E14" s="132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
@@ -13395,7 +13405,7 @@
       <c r="C15" s="136"/>
       <c r="D15" s="106"/>
       <c r="E15" s="132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -13404,7 +13414,7 @@
       <c r="C16" s="136"/>
       <c r="D16" s="106"/>
       <c r="E16" s="132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
@@ -13413,7 +13423,7 @@
       <c r="C17" s="136"/>
       <c r="D17" s="106"/>
       <c r="E17" s="132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
@@ -13422,7 +13432,7 @@
       <c r="C18" s="136"/>
       <c r="D18" s="106"/>
       <c r="E18" s="132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
@@ -13431,7 +13441,7 @@
       <c r="C19" s="136"/>
       <c r="D19" s="106"/>
       <c r="E19" s="133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
@@ -13440,7 +13450,7 @@
       <c r="C20" s="136"/>
       <c r="D20" s="106"/>
       <c r="E20" s="132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -13449,7 +13459,7 @@
       <c r="C21" s="136"/>
       <c r="D21" s="106"/>
       <c r="E21" s="132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
@@ -13458,7 +13468,7 @@
       <c r="C22" s="136"/>
       <c r="D22" s="106"/>
       <c r="E22" s="132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
@@ -13467,7 +13477,7 @@
       <c r="C23" s="136"/>
       <c r="D23" s="106"/>
       <c r="E23" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -13476,7 +13486,7 @@
       <c r="C24" s="136"/>
       <c r="D24" s="106"/>
       <c r="E24" s="132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -13485,7 +13495,7 @@
       <c r="C25" s="136"/>
       <c r="D25" s="106"/>
       <c r="E25" s="132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -13494,7 +13504,7 @@
       <c r="C26" s="136"/>
       <c r="D26" s="106"/>
       <c r="E26" s="132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -13503,7 +13513,7 @@
       <c r="C27" s="136"/>
       <c r="D27" s="106"/>
       <c r="E27" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
@@ -13512,7 +13522,7 @@
       <c r="C28" s="136"/>
       <c r="D28" s="106"/>
       <c r="E28" s="132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
@@ -13521,7 +13531,7 @@
       <c r="C29" s="136"/>
       <c r="D29" s="106"/>
       <c r="E29" s="132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
@@ -13530,7 +13540,7 @@
       <c r="C30" s="136"/>
       <c r="D30" s="106"/>
       <c r="E30" s="132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
@@ -13539,7 +13549,7 @@
       <c r="C31" s="136"/>
       <c r="D31" s="106"/>
       <c r="E31" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -13548,7 +13558,7 @@
       <c r="C32" s="136"/>
       <c r="D32" s="106"/>
       <c r="E32" s="134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -13557,7 +13567,7 @@
       <c r="C33" s="136"/>
       <c r="D33" s="106"/>
       <c r="E33" s="132" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
@@ -13566,7 +13576,7 @@
       <c r="C34" s="136"/>
       <c r="D34" s="106"/>
       <c r="E34" s="132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -13575,7 +13585,7 @@
       <c r="C35" s="136"/>
       <c r="D35" s="106"/>
       <c r="E35" s="132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
@@ -13584,7 +13594,7 @@
       <c r="C36" s="136"/>
       <c r="D36" s="106"/>
       <c r="E36" s="135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -13593,7 +13603,7 @@
       <c r="C37" s="136"/>
       <c r="D37" s="137"/>
       <c r="E37" s="135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
@@ -13602,7 +13612,7 @@
       <c r="C38" s="136"/>
       <c r="D38" s="137"/>
       <c r="E38" s="135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
@@ -13611,7 +13621,7 @@
       <c r="C39" s="136"/>
       <c r="D39" s="138"/>
       <c r="E39" s="135" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -13620,7 +13630,7 @@
       <c r="C40" s="136"/>
       <c r="D40" s="138"/>
       <c r="E40" s="135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
